--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0AEA1D-8DAF-4A10-BA30-3795F94E8AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1583A6B5-9EF1-4480-8404-502DB7687538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -447,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -580,16 +580,16 @@
         <v>161</v>
       </c>
       <c r="C3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>1451</v>
       </c>
       <c r="E3">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="F3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -605,15 +605,15 @@
       </c>
       <c r="L3" s="3">
         <f>100*C3/B3</f>
-        <v>39.751552795031053</v>
+        <v>40.372670807453417</v>
       </c>
       <c r="M3" s="3">
         <f>100*E3/D3</f>
-        <v>20.882150241212958</v>
+        <v>25.982081323225362</v>
       </c>
       <c r="N3" s="3">
         <f>100*F3/B3</f>
-        <v>14.285714285714286</v>
+        <v>15.527950310559007</v>
       </c>
       <c r="O3" s="3">
         <f>100*H3/G3</f>
@@ -623,6 +623,13 @@
         <f>100*J3/I3</f>
         <v>39.71291866028708</v>
       </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1583A6B5-9EF1-4480-8404-502DB7687538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933DE247-0353-44F8-B20A-F0DD821CBF4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -148,6 +148,1170 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% module desc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>39.751552795031053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.372670807453417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.720496894409941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35B7-4A69-BAB0-F6230ED95096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% params</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>15.575465196416264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.982081323225362</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.719723183391004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-35B7-4A69-BAB0-F6230ED95096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% param sets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>14.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.527950310559007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.496894409937887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-35B7-4A69-BAB0-F6230ED95096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% image meas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-35B7-4A69-BAB0-F6230ED95096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% object meas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>39.71291866028708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.71291866028708</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.71291866028708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-35B7-4A69-BAB0-F6230ED95096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1381721568"/>
+        <c:axId val="1552787824"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1381721568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1552787824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1552787824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381721568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BC78FD-A061-462E-9537-30CCB76E65DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,193 +1611,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44054</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2"/>
+      <c r="C2" s="4">
         <v>161</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>64</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1451</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>226</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>23</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>20</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>209</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>83</v>
       </c>
-      <c r="L2" s="3">
-        <f>100*C2/B2</f>
+      <c r="M2" s="3">
+        <f>100*D2/C2</f>
         <v>39.751552795031053</v>
       </c>
-      <c r="M2" s="3">
-        <f>100*E2/D2</f>
+      <c r="N2" s="3">
+        <f>100*F2/E2</f>
         <v>15.575465196416264</v>
       </c>
-      <c r="N2" s="3">
-        <f>100*F2/B2</f>
+      <c r="O2" s="3">
+        <f>100*G2/C2</f>
         <v>14.285714285714286</v>
       </c>
-      <c r="O2" s="3">
-        <f>100*H2/G2</f>
+      <c r="P2" s="3">
+        <f>100*I2/H2</f>
         <v>10</v>
       </c>
-      <c r="P2" s="3">
-        <f>100*J2/I2</f>
+      <c r="Q2" s="3">
+        <f>100*K2/J2</f>
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44055</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2"/>
+      <c r="C3">
         <v>161</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>65</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1451</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>377</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>25</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>20</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>209</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>83</v>
       </c>
-      <c r="L3" s="3">
-        <f>100*C3/B3</f>
+      <c r="M3" s="3">
+        <f>100*D3/C3</f>
         <v>40.372670807453417</v>
       </c>
-      <c r="M3" s="3">
-        <f>100*E3/D3</f>
+      <c r="N3" s="3">
+        <f>100*F3/E3</f>
         <v>25.982081323225362</v>
       </c>
-      <c r="N3" s="3">
-        <f>100*F3/B3</f>
+      <c r="O3" s="3">
+        <f>100*G3/C3</f>
         <v>15.527950310559007</v>
       </c>
-      <c r="O3" s="3">
-        <f>100*H3/G3</f>
+      <c r="P3" s="3">
+        <f>100*I3/H3</f>
         <v>10</v>
       </c>
-      <c r="P3" s="3">
-        <f>100*J3/I3</f>
+      <c r="Q3" s="3">
+        <f>100*K3/J3</f>
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4">
+        <v>161</v>
+      </c>
+      <c r="D4">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <v>1445</v>
+      </c>
+      <c r="F4">
+        <v>415</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>209</v>
+      </c>
+      <c r="K4">
+        <v>83</v>
+      </c>
+      <c r="M4" s="3">
+        <f>100*D4/C4</f>
+        <v>44.720496894409941</v>
+      </c>
+      <c r="N4" s="3">
+        <f>100*F4/E4</f>
+        <v>28.719723183391004</v>
+      </c>
+      <c r="O4" s="3">
+        <f>100*G4/C4</f>
+        <v>20.496894409937887</v>
+      </c>
+      <c r="P4" s="3">
+        <f>100*I4/H4</f>
+        <v>10</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>100*K4/J4</f>
+        <v>39.71291866028708</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933DE247-0353-44F8-B20A-F0DD821CBF4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202BB9DC-422E-41C9-8974-DD173AE9109A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -211,6 +211,9 @@
                 <c:pt idx="2">
                   <c:v>44056</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>44057</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -228,6 +231,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>44.720496894409941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.341614906832298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -280,6 +286,9 @@
                 <c:pt idx="2">
                   <c:v>44056</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>44057</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -297,6 +306,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>28.719723183391004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.550173010380622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -349,6 +361,9 @@
                 <c:pt idx="2">
                   <c:v>44056</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>44057</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -366,6 +381,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20.496894409937887</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.118012422360248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -418,6 +436,9 @@
                 <c:pt idx="2">
                   <c:v>44056</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>44057</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -434,6 +455,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -487,6 +511,9 @@
                 <c:pt idx="2">
                   <c:v>44056</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>44057</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -503,6 +530,9 @@
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>39.71291866028708</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
               </c:numCache>
@@ -1611,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B5" sqref="B5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,6 +1874,58 @@
         <v>39.71291866028708</v>
       </c>
     </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44057</v>
+      </c>
+      <c r="C5">
+        <v>161</v>
+      </c>
+      <c r="D5">
+        <v>73</v>
+      </c>
+      <c r="E5">
+        <v>1445</v>
+      </c>
+      <c r="F5">
+        <v>427</v>
+      </c>
+      <c r="G5">
+        <v>34</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>209</v>
+      </c>
+      <c r="K5">
+        <v>83</v>
+      </c>
+      <c r="M5" s="3">
+        <f>100*D5/C5</f>
+        <v>45.341614906832298</v>
+      </c>
+      <c r="N5" s="3">
+        <f>100*F5/E5</f>
+        <v>29.550173010380622</v>
+      </c>
+      <c r="O5" s="3">
+        <f>100*G5/C5</f>
+        <v>21.118012422360248</v>
+      </c>
+      <c r="P5" s="3">
+        <f>100*I5/H5</f>
+        <v>10</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>100*K5/J5</f>
+        <v>39.71291866028708</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202BB9DC-422E-41C9-8974-DD173AE9109A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F2DFB1-0BCD-4753-ADFE-C83516467DF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -214,6 +214,9 @@
                 <c:pt idx="3">
                   <c:v>44057</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>44058</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -233,6 +236,9 @@
                   <c:v>44.720496894409941</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>45.341614906832298</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>45.341614906832298</c:v>
                 </c:pt>
               </c:numCache>
@@ -289,6 +295,9 @@
                 <c:pt idx="3">
                   <c:v>44057</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>44058</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -309,6 +318,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>29.550173010380622</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.380622837370243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -364,6 +376,9 @@
                 <c:pt idx="3">
                   <c:v>44057</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>44058</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -384,6 +399,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>21.118012422360248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.739130434782609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,6 +457,9 @@
                 <c:pt idx="3">
                   <c:v>44057</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>44058</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -458,6 +479,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -514,6 +538,9 @@
                 <c:pt idx="3">
                   <c:v>44057</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>44058</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -533,6 +560,9 @@
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>39.71291866028708</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
               </c:numCache>
@@ -1641,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:K5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,6 +1956,58 @@
         <v>39.71291866028708</v>
       </c>
     </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44058</v>
+      </c>
+      <c r="C6">
+        <v>161</v>
+      </c>
+      <c r="D6">
+        <v>73</v>
+      </c>
+      <c r="E6">
+        <v>1445</v>
+      </c>
+      <c r="F6">
+        <v>439</v>
+      </c>
+      <c r="G6">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>209</v>
+      </c>
+      <c r="K6">
+        <v>83</v>
+      </c>
+      <c r="M6" s="3">
+        <f>100*D6/C6</f>
+        <v>45.341614906832298</v>
+      </c>
+      <c r="N6" s="3">
+        <f>100*F6/E6</f>
+        <v>30.380622837370243</v>
+      </c>
+      <c r="O6" s="3">
+        <f>100*G6/C6</f>
+        <v>21.739130434782609</v>
+      </c>
+      <c r="P6" s="3">
+        <f>100*I6/H6</f>
+        <v>10</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>100*K6/J6</f>
+        <v>39.71291866028708</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F2DFB1-0BCD-4753-ADFE-C83516467DF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE44D9F5-38E4-45A4-BABB-DC042FD00B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -482,7 +482,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,7 +1674,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B6" sqref="B6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,7 +1979,7 @@
         <v>20</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J6">
         <v>209</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="P6" s="3">
         <f>100*I6/H6</f>
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="3">
         <f>100*K6/J6</f>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE44D9F5-38E4-45A4-BABB-DC042FD00B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E13CA4-E404-45DB-BCC4-5627DE6CF454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -239,7 +239,7 @@
                   <c:v>45.341614906832298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.341614906832298</c:v>
+                  <c:v>46.58385093167702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -320,7 +320,7 @@
                   <c:v>29.550173010380622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.380622837370243</c:v>
+                  <c:v>33.494809688581313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -401,7 +401,7 @@
                   <c:v>21.118012422360248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.739130434782609</c:v>
+                  <c:v>22.981366459627328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1964,16 +1964,16 @@
         <v>161</v>
       </c>
       <c r="D6">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>1445</v>
       </c>
       <c r="F6">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="G6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -1989,15 +1989,15 @@
       </c>
       <c r="M6" s="3">
         <f>100*D6/C6</f>
-        <v>45.341614906832298</v>
+        <v>46.58385093167702</v>
       </c>
       <c r="N6" s="3">
         <f>100*F6/E6</f>
-        <v>30.380622837370243</v>
+        <v>33.494809688581313</v>
       </c>
       <c r="O6" s="3">
         <f>100*G6/C6</f>
-        <v>21.739130434782609</v>
+        <v>22.981366459627328</v>
       </c>
       <c r="P6" s="3">
         <f>100*I6/H6</f>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E13CA4-E404-45DB-BCC4-5627DE6CF454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A01984-96C8-4D17-8A29-2714A27F4107}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="384" yWindow="-108" windowWidth="22764" windowHeight="13176" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>Sheet1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -198,31 +198,34 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$B$2:$B$40</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>44054</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44055</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44056</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44057</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44058</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$40</c:f>
+              <c:f>Sheet1!$N$2:$N$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
@@ -240,6 +243,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>46.58385093167702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.204968944099377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,7 +262,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
+              <c:f>Sheet1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -279,31 +285,34 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$B$2:$B$40</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>44054</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44055</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44056</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44057</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44058</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$40</c:f>
+              <c:f>Sheet1!$O$2:$O$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
@@ -321,6 +330,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>33.494809688581313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.840830449826989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -337,7 +349,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$1</c:f>
+              <c:f>Sheet1!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -360,31 +372,34 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$B$2:$B$40</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>44054</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44055</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44056</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44057</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44058</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$40</c:f>
+              <c:f>Sheet1!$P$2:$P$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
@@ -402,6 +417,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>22.981366459627328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.602484472049689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -418,7 +436,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$1</c:f>
+              <c:f>Sheet1!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -441,31 +459,34 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$B$2:$B$40</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>44054</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44055</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44056</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44057</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44058</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$40</c:f>
+              <c:f>Sheet1!$Q$2:$Q$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
@@ -482,6 +503,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -499,7 +523,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$1</c:f>
+              <c:f>Sheet1!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -522,31 +546,34 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$B$2:$B$40</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>44054</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44055</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44056</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44057</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44058</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$40</c:f>
+              <c:f>Sheet1!$R$2:$R$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
@@ -564,6 +591,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>39.71291866028708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.523809523809526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -587,14 +617,14 @@
         <c:axId val="1381721568"/>
         <c:axId val="1552787824"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="1381721568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -634,9 +664,10 @@
         <c:crossAx val="1552787824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1552787824"/>
         <c:scaling>
@@ -1337,13 +1368,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -1671,341 +1702,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:K6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44054</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4">
         <v>161</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>64</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1451</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>226</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>23</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>20</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>209</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>83</v>
       </c>
-      <c r="M2" s="3">
-        <f>100*D2/C2</f>
+      <c r="N2" s="3">
+        <f>100*E2/D2</f>
         <v>39.751552795031053</v>
       </c>
-      <c r="N2" s="3">
-        <f>100*F2/E2</f>
+      <c r="O2" s="3">
+        <f>100*G2/F2</f>
         <v>15.575465196416264</v>
       </c>
-      <c r="O2" s="3">
-        <f>100*G2/C2</f>
+      <c r="P2" s="3">
+        <f>100*H2/D2</f>
         <v>14.285714285714286</v>
       </c>
-      <c r="P2" s="3">
-        <f>100*I2/H2</f>
+      <c r="Q2" s="3">
+        <f>100*J2/I2</f>
         <v>10</v>
       </c>
-      <c r="Q2" s="3">
-        <f>100*K2/J2</f>
+      <c r="R2" s="3">
+        <f>100*L2/K2</f>
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44055</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3">
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3">
         <v>161</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>65</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1451</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>377</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>25</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>20</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>209</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>83</v>
       </c>
-      <c r="M3" s="3">
-        <f>100*D3/C3</f>
+      <c r="N3" s="3">
+        <f>100*E3/D3</f>
         <v>40.372670807453417</v>
       </c>
-      <c r="N3" s="3">
-        <f>100*F3/E3</f>
+      <c r="O3" s="3">
+        <f>100*G3/F3</f>
         <v>25.982081323225362</v>
       </c>
-      <c r="O3" s="3">
-        <f>100*G3/C3</f>
+      <c r="P3" s="3">
+        <f>100*H3/D3</f>
         <v>15.527950310559007</v>
       </c>
-      <c r="P3" s="3">
-        <f>100*I3/H3</f>
+      <c r="Q3" s="3">
+        <f>100*J3/I3</f>
         <v>10</v>
       </c>
-      <c r="Q3" s="3">
-        <f>100*K3/J3</f>
+      <c r="R3" s="3">
+        <f>100*L3/K3</f>
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44056</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4">
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4">
         <v>161</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>72</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1445</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>415</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>33</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>20</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>209</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>83</v>
       </c>
-      <c r="M4" s="3">
-        <f>100*D4/C4</f>
+      <c r="N4" s="3">
+        <f>100*E4/D4</f>
         <v>44.720496894409941</v>
       </c>
-      <c r="N4" s="3">
-        <f>100*F4/E4</f>
+      <c r="O4" s="3">
+        <f>100*G4/F4</f>
         <v>28.719723183391004</v>
       </c>
-      <c r="O4" s="3">
-        <f>100*G4/C4</f>
+      <c r="P4" s="3">
+        <f>100*H4/D4</f>
         <v>20.496894409937887</v>
       </c>
-      <c r="P4" s="3">
-        <f>100*I4/H4</f>
+      <c r="Q4" s="3">
+        <f>100*J4/I4</f>
         <v>10</v>
       </c>
-      <c r="Q4" s="3">
-        <f>100*K4/J4</f>
+      <c r="R4" s="3">
+        <f>100*L4/K4</f>
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44057</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5">
         <v>161</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>73</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1445</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>427</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>34</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>20</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>209</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>83</v>
       </c>
-      <c r="M5" s="3">
-        <f>100*D5/C5</f>
+      <c r="N5" s="3">
+        <f>100*E5/D5</f>
         <v>45.341614906832298</v>
       </c>
-      <c r="N5" s="3">
-        <f>100*F5/E5</f>
+      <c r="O5" s="3">
+        <f>100*G5/F5</f>
         <v>29.550173010380622</v>
       </c>
-      <c r="O5" s="3">
-        <f>100*G5/C5</f>
+      <c r="P5" s="3">
+        <f>100*H5/D5</f>
         <v>21.118012422360248</v>
       </c>
-      <c r="P5" s="3">
-        <f>100*I5/H5</f>
+      <c r="Q5" s="3">
+        <f>100*J5/I5</f>
         <v>10</v>
       </c>
-      <c r="Q5" s="3">
-        <f>100*K5/J5</f>
+      <c r="R5" s="3">
+        <f>100*L5/K5</f>
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44058</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>161</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>75</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1445</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>484</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>37</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>20</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>14</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>209</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>83</v>
       </c>
-      <c r="M6" s="3">
-        <f>100*D6/C6</f>
+      <c r="N6" s="3">
+        <f>100*E6/D6</f>
         <v>46.58385093167702</v>
       </c>
-      <c r="N6" s="3">
-        <f>100*F6/E6</f>
+      <c r="O6" s="3">
+        <f>100*G6/F6</f>
         <v>33.494809688581313</v>
       </c>
-      <c r="O6" s="3">
-        <f>100*G6/C6</f>
+      <c r="P6" s="3">
+        <f>100*H6/D6</f>
         <v>22.981366459627328</v>
       </c>
-      <c r="P6" s="3">
-        <f>100*I6/H6</f>
+      <c r="Q6" s="3">
+        <f>100*J6/I6</f>
         <v>70</v>
       </c>
-      <c r="Q6" s="3">
-        <f>100*K6/J6</f>
+      <c r="R6" s="3">
+        <f>100*L6/K6</f>
         <v>39.71291866028708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>161</v>
+      </c>
+      <c r="E7">
+        <v>76</v>
+      </c>
+      <c r="F7">
+        <v>1445</v>
+      </c>
+      <c r="G7">
+        <v>489</v>
+      </c>
+      <c r="H7">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>14</v>
+      </c>
+      <c r="K7">
+        <v>210</v>
+      </c>
+      <c r="L7">
+        <v>83</v>
+      </c>
+      <c r="N7" s="3">
+        <f>100*E7/D7</f>
+        <v>47.204968944099377</v>
+      </c>
+      <c r="O7" s="3">
+        <f>100*G7/F7</f>
+        <v>33.840830449826989</v>
+      </c>
+      <c r="P7" s="3">
+        <f>100*H7/D7</f>
+        <v>23.602484472049689</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>100*J7/I7</f>
+        <v>70</v>
+      </c>
+      <c r="R7" s="3">
+        <f>100*L7/K7</f>
+        <v>39.523809523809526</v>
       </c>
     </row>
   </sheetData>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A01984-96C8-4D17-8A29-2714A27F4107}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9452ABAD-AE57-4E44-BCA7-25195DADB78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="-108" windowWidth="22764" windowHeight="13176" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,10 +198,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$40</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -219,16 +219,28 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$40</c:f>
+              <c:f>Sheet1!$N$2:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -245,6 +257,9 @@
                   <c:v>46.58385093167702</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>47.204968944099377</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>47.204968944099377</c:v>
                 </c:pt>
               </c:numCache>
@@ -285,10 +300,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$40</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -306,16 +321,28 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$40</c:f>
+              <c:f>Sheet1!$O$2:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>15.575465196416264</c:v>
                 </c:pt>
@@ -333,6 +360,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>33.840830449826989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.294117647058826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -372,10 +402,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$40</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -393,16 +423,28 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$40</c:f>
+              <c:f>Sheet1!$P$2:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -419,6 +461,9 @@
                   <c:v>22.981366459627328</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>23.602484472049689</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>23.602484472049689</c:v>
                 </c:pt>
               </c:numCache>
@@ -459,10 +504,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$40</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -480,16 +525,28 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$40</c:f>
+              <c:f>Sheet1!$Q$2:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -506,6 +563,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -546,10 +606,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$40</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -567,16 +627,28 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$40</c:f>
+              <c:f>Sheet1!$R$2:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -593,6 +665,9 @@
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>39.523809523809526</c:v>
                 </c:pt>
               </c:numCache>
@@ -1368,16 +1443,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1702,34 +1777,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1776,7 +1851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44054</v>
       </c>
@@ -1812,27 +1887,27 @@
         <v>83</v>
       </c>
       <c r="N2" s="3">
-        <f>100*E2/D2</f>
+        <f t="shared" ref="N2:N7" si="0">100*E2/D2</f>
         <v>39.751552795031053</v>
       </c>
       <c r="O2" s="3">
-        <f>100*G2/F2</f>
+        <f t="shared" ref="O2:O7" si="1">100*G2/F2</f>
         <v>15.575465196416264</v>
       </c>
       <c r="P2" s="3">
-        <f>100*H2/D2</f>
+        <f t="shared" ref="P2:P7" si="2">100*H2/D2</f>
         <v>14.285714285714286</v>
       </c>
       <c r="Q2" s="3">
-        <f>100*J2/I2</f>
+        <f t="shared" ref="Q2:Q7" si="3">100*J2/I2</f>
         <v>10</v>
       </c>
       <c r="R2" s="3">
-        <f>100*L2/K2</f>
+        <f t="shared" ref="R2:R7" si="4">100*L2/K2</f>
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44055</v>
       </c>
@@ -1868,27 +1943,27 @@
         <v>83</v>
       </c>
       <c r="N3" s="3">
-        <f>100*E3/D3</f>
+        <f t="shared" si="0"/>
         <v>40.372670807453417</v>
       </c>
       <c r="O3" s="3">
-        <f>100*G3/F3</f>
+        <f t="shared" si="1"/>
         <v>25.982081323225362</v>
       </c>
       <c r="P3" s="3">
-        <f>100*H3/D3</f>
+        <f t="shared" si="2"/>
         <v>15.527950310559007</v>
       </c>
       <c r="Q3" s="3">
-        <f>100*J3/I3</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="R3" s="3">
-        <f>100*L3/K3</f>
+        <f t="shared" si="4"/>
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44056</v>
       </c>
@@ -1924,27 +1999,27 @@
         <v>83</v>
       </c>
       <c r="N4" s="3">
-        <f>100*E4/D4</f>
+        <f t="shared" si="0"/>
         <v>44.720496894409941</v>
       </c>
       <c r="O4" s="3">
-        <f>100*G4/F4</f>
+        <f t="shared" si="1"/>
         <v>28.719723183391004</v>
       </c>
       <c r="P4" s="3">
-        <f>100*H4/D4</f>
+        <f t="shared" si="2"/>
         <v>20.496894409937887</v>
       </c>
       <c r="Q4" s="3">
-        <f>100*J4/I4</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="R4" s="3">
-        <f>100*L4/K4</f>
+        <f t="shared" si="4"/>
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44057</v>
       </c>
@@ -1979,27 +2054,27 @@
         <v>83</v>
       </c>
       <c r="N5" s="3">
-        <f>100*E5/D5</f>
+        <f t="shared" si="0"/>
         <v>45.341614906832298</v>
       </c>
       <c r="O5" s="3">
-        <f>100*G5/F5</f>
+        <f t="shared" si="1"/>
         <v>29.550173010380622</v>
       </c>
       <c r="P5" s="3">
-        <f>100*H5/D5</f>
+        <f t="shared" si="2"/>
         <v>21.118012422360248</v>
       </c>
       <c r="Q5" s="3">
-        <f>100*J5/I5</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="R5" s="3">
-        <f>100*L5/K5</f>
+        <f t="shared" si="4"/>
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44058</v>
       </c>
@@ -2034,27 +2109,27 @@
         <v>83</v>
       </c>
       <c r="N6" s="3">
-        <f>100*E6/D6</f>
+        <f t="shared" si="0"/>
         <v>46.58385093167702</v>
       </c>
       <c r="O6" s="3">
-        <f>100*G6/F6</f>
+        <f t="shared" si="1"/>
         <v>33.494809688581313</v>
       </c>
       <c r="P6" s="3">
-        <f>100*H6/D6</f>
+        <f t="shared" si="2"/>
         <v>22.981366459627328</v>
       </c>
       <c r="Q6" s="3">
-        <f>100*J6/I6</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="R6" s="3">
-        <f>100*L6/K6</f>
+        <f t="shared" si="4"/>
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44064</v>
       </c>
@@ -2089,24 +2164,244 @@
         <v>83</v>
       </c>
       <c r="N7" s="3">
-        <f>100*E7/D7</f>
+        <f t="shared" si="0"/>
         <v>47.204968944099377</v>
       </c>
       <c r="O7" s="3">
-        <f>100*G7/F7</f>
+        <f t="shared" si="1"/>
         <v>33.840830449826989</v>
       </c>
       <c r="P7" s="3">
-        <f>100*H7/D7</f>
+        <f t="shared" si="2"/>
         <v>23.602484472049689</v>
       </c>
       <c r="Q7" s="3">
-        <f>100*J7/I7</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="R7" s="3">
-        <f>100*L7/K7</f>
+        <f t="shared" si="4"/>
         <v>39.523809523809526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>161</v>
+      </c>
+      <c r="E8">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <v>1445</v>
+      </c>
+      <c r="G8">
+        <v>510</v>
+      </c>
+      <c r="H8">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>210</v>
+      </c>
+      <c r="L8">
+        <v>83</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" ref="N8" si="5">100*E8/D8</f>
+        <v>47.204968944099377</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" ref="O8" si="6">100*G8/F8</f>
+        <v>35.294117647058826</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" ref="P8" si="7">100*H8/D8</f>
+        <v>23.602484472049689</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" ref="Q8" si="8">100*J8/I8</f>
+        <v>70</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" ref="R8" si="9">100*L8/K8</f>
+        <v>39.523809523809526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="4">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stephen\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9452ABAD-AE57-4E44-BCA7-25195DADB78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DA0140-4846-4FDB-9323-C3F601BAB7D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -262,6 +262,9 @@
                 <c:pt idx="6">
                   <c:v>47.204968944099377</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.148148148148145</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -364,6 +367,9 @@
                 <c:pt idx="6">
                   <c:v>35.294117647058826</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.082474226804123</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -466,6 +472,9 @@
                 <c:pt idx="6">
                   <c:v>23.602484472049689</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.691358024691358</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -568,6 +577,9 @@
                 <c:pt idx="6">
                   <c:v>70</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -668,6 +680,9 @@
                   <c:v>39.523809523809526</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>39.523809523809526</c:v>
                 </c:pt>
               </c:numCache>
@@ -707,9 +722,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -803,7 +817,11 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1443,16 +1461,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1780,7 +1798,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="C9" sqref="C9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,8 +2258,58 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44070</v>
+      </c>
       <c r="B9" s="4">
         <v>8</v>
+      </c>
+      <c r="D9">
+        <v>162</v>
+      </c>
+      <c r="E9">
+        <v>78</v>
+      </c>
+      <c r="F9">
+        <v>1455</v>
+      </c>
+      <c r="G9">
+        <v>525</v>
+      </c>
+      <c r="H9">
+        <v>40</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>210</v>
+      </c>
+      <c r="L9">
+        <v>83</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" ref="N9" si="10">100*E9/D9</f>
+        <v>48.148148148148145</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" ref="O9" si="11">100*G9/F9</f>
+        <v>36.082474226804123</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" ref="P9" si="12">100*H9/D9</f>
+        <v>24.691358024691358</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" ref="Q9" si="13">100*J9/I9</f>
+        <v>70</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" ref="R9" si="14">100*L9/K9</f>
+        <v>39.523809523809526</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stephen\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DA0140-4846-4FDB-9323-C3F601BAB7D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2263C0A2-C71C-4DC4-8D6E-E20E6EF97919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -229,9 +229,6 @@
                 <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -263,6 +260,9 @@
                   <c:v>47.204968944099377</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>48.148148148148145</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>48.148148148148145</c:v>
                 </c:pt>
               </c:numCache>
@@ -334,9 +334,6 @@
                 <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -369,6 +366,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>36.082474226804123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.731958762886599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,9 +439,6 @@
                 <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -473,6 +470,9 @@
                   <c:v>23.602484472049689</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>24.691358024691358</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>24.691358024691358</c:v>
                 </c:pt>
               </c:numCache>
@@ -544,9 +544,6 @@
                 <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -578,6 +575,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -649,9 +649,6 @@
                 <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -683,6 +680,9 @@
                   <c:v>39.523809523809526</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>39.523809523809526</c:v>
                 </c:pt>
               </c:numCache>
@@ -1798,7 +1798,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:L9"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,164 +2313,152 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44081</v>
+      </c>
       <c r="B10" s="4">
         <v>9</v>
       </c>
+      <c r="D10">
+        <v>162</v>
+      </c>
+      <c r="E10">
+        <v>78</v>
+      </c>
+      <c r="F10">
+        <v>1455</v>
+      </c>
+      <c r="G10">
+        <v>549</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>210</v>
+      </c>
+      <c r="L10">
+        <v>83</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" ref="N10" si="15">100*E10/D10</f>
+        <v>48.148148148148145</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" ref="O10" si="16">100*G10/F10</f>
+        <v>37.731958762886599</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" ref="P10" si="17">100*H10/D10</f>
+        <v>24.691358024691358</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" ref="Q10" si="18">100*J10/I10</f>
+        <v>70</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" ref="R10" si="19">100*L10/K10</f>
+        <v>39.523809523809526</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <v>10</v>
-      </c>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <v>11</v>
-      </c>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <v>12</v>
-      </c>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
-        <v>13</v>
-      </c>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <v>14</v>
-      </c>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
-        <v>15</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <v>16</v>
-      </c>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <v>17</v>
-      </c>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
-        <v>18</v>
-      </c>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
-        <v>19</v>
-      </c>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
-        <v>20</v>
-      </c>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
-        <v>21</v>
-      </c>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
-        <v>22</v>
-      </c>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
-        <v>23</v>
-      </c>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
-        <v>24</v>
-      </c>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
-        <v>25</v>
-      </c>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="4">
-        <v>26</v>
-      </c>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
-        <v>27</v>
-      </c>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
-        <v>28</v>
-      </c>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
-        <v>29</v>
-      </c>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
-        <v>30</v>
-      </c>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
-        <v>31</v>
-      </c>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
-        <v>32</v>
-      </c>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
-        <v>33</v>
-      </c>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="4">
-        <v>34</v>
-      </c>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
-        <v>35</v>
-      </c>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="4">
-        <v>36</v>
-      </c>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
-        <v>37</v>
-      </c>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="4">
-        <v>38</v>
-      </c>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="4">
-        <v>39</v>
-      </c>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="4">
-        <v>40</v>
-      </c>
+      <c r="B41" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2263C0A2-C71C-4DC4-8D6E-E20E6EF97919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCDB213-EDCF-4581-BDB5-8AF965A8DD62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -229,6 +229,9 @@
                 <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -264,6 +267,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>48.148148148148145</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.851851851851855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -334,6 +340,9 @@
                 <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -369,6 +378,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>37.731958762886599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.762886597938142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,6 +451,9 @@
                 <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -474,6 +489,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>24.691358024691358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.395061728395063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -544,6 +562,9 @@
                 <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -578,6 +599,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -649,6 +673,9 @@
                 <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -683,6 +710,9 @@
                   <c:v>39.523809523809526</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>39.523809523809526</c:v>
                 </c:pt>
               </c:numCache>
@@ -1461,15 +1491,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1798,7 +1828,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2368,7 +2398,59 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
+      <c r="A11" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>162</v>
+      </c>
+      <c r="E11">
+        <v>84</v>
+      </c>
+      <c r="F11">
+        <v>1455</v>
+      </c>
+      <c r="G11">
+        <v>564</v>
+      </c>
+      <c r="H11">
+        <v>46</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>210</v>
+      </c>
+      <c r="L11">
+        <v>83</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" ref="N11" si="20">100*E11/D11</f>
+        <v>51.851851851851855</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" ref="O11" si="21">100*G11/F11</f>
+        <v>38.762886597938142</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" ref="P11" si="22">100*H11/D11</f>
+        <v>28.395061728395063</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" ref="Q11" si="23">100*J11/I11</f>
+        <v>70</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" ref="R11" si="24">100*L11/K11</f>
+        <v>39.523809523809526</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCDB213-EDCF-4581-BDB5-8AF965A8DD62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96EC33A-83E0-4237-AFF7-06625D157987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -198,10 +198,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -231,16 +231,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$11</c:f>
+              <c:f>Sheet1!$N$2:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -270,6 +273,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>51.851851851851855</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.41614906832298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -309,10 +315,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -342,16 +348,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$11</c:f>
+              <c:f>Sheet1!$O$2:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>15.575465196416264</c:v>
                 </c:pt>
@@ -381,6 +390,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>38.762886597938142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.243986254295535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,10 +432,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -453,16 +465,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$11</c:f>
+              <c:f>Sheet1!$P$2:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -492,6 +507,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>28.395061728395063</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.571428571428573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -531,10 +549,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -564,16 +582,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$11</c:f>
+              <c:f>Sheet1!$Q$2:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -602,6 +623,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -642,10 +666,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -675,16 +699,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$11</c:f>
+              <c:f>Sheet1!$R$2:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -713,6 +740,9 @@
                   <c:v>39.523809523809526</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>39.523809523809526</c:v>
                 </c:pt>
               </c:numCache>
@@ -1492,15 +1522,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1828,7 +1858,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2453,7 +2483,59 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
+      <c r="A12" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>161</v>
+      </c>
+      <c r="E12">
+        <v>86</v>
+      </c>
+      <c r="F12">
+        <v>1455</v>
+      </c>
+      <c r="G12">
+        <v>571</v>
+      </c>
+      <c r="H12">
+        <v>46</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>210</v>
+      </c>
+      <c r="L12">
+        <v>83</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" ref="N12" si="25">100*E12/D12</f>
+        <v>53.41614906832298</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" ref="O12" si="26">100*G12/F12</f>
+        <v>39.243986254295535</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" ref="P12" si="27">100*H12/D12</f>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" ref="Q12" si="28">100*J12/I12</f>
+        <v>70</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" ref="R12" si="29">100*L12/K12</f>
+        <v>39.523809523809526</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96EC33A-83E0-4237-AFF7-06625D157987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2CE15D-5038-4EB8-B21E-0017D177D111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -198,10 +198,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -234,16 +234,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$12</c:f>
+              <c:f>Sheet1!$N$2:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -276,6 +279,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>53.41614906832298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.037267080745345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -315,10 +321,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -351,16 +357,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$12</c:f>
+              <c:f>Sheet1!$O$2:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>15.575465196416264</c:v>
                 </c:pt>
@@ -393,6 +402,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>39.243986254295535</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.835164835164832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -432,10 +444,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -468,16 +480,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$12</c:f>
+              <c:f>Sheet1!$P$2:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -510,6 +525,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>28.571428571428573</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.19254658385093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -549,10 +567,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -585,16 +603,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$12</c:f>
+              <c:f>Sheet1!$Q$2:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -626,6 +647,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -666,10 +690,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -702,16 +726,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$12</c:f>
+              <c:f>Sheet1!$R$2:$R$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -743,6 +770,9 @@
                   <c:v>39.523809523809526</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>39.523809523809526</c:v>
                 </c:pt>
               </c:numCache>
@@ -1522,15 +1552,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1858,7 +1888,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2538,7 +2568,59 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
+      <c r="A13" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>161</v>
+      </c>
+      <c r="E13">
+        <v>87</v>
+      </c>
+      <c r="F13">
+        <v>1456</v>
+      </c>
+      <c r="G13">
+        <v>580</v>
+      </c>
+      <c r="H13">
+        <v>47</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>14</v>
+      </c>
+      <c r="K13">
+        <v>210</v>
+      </c>
+      <c r="L13">
+        <v>83</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" ref="N13" si="30">100*E13/D13</f>
+        <v>54.037267080745345</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" ref="O13" si="31">100*G13/F13</f>
+        <v>39.835164835164832</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" ref="P13" si="32">100*H13/D13</f>
+        <v>29.19254658385093</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" ref="Q13" si="33">100*J13/I13</f>
+        <v>70</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" ref="R13" si="34">100*L13/K13</f>
+        <v>39.523809523809526</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2CE15D-5038-4EB8-B21E-0017D177D111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD27039-5426-4863-8C2C-BB076D7933B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -1551,16 +1551,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1888,7 +1888,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD27039-5426-4863-8C2C-BB076D7933B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A5ED2A-C3DB-447F-A9CC-C4596161FB20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -198,10 +198,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -237,16 +237,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$13</c:f>
+              <c:f>Sheet1!$N$2:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -281,6 +284,9 @@
                   <c:v>53.41614906832298</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>54.037267080745345</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>54.037267080745345</c:v>
                 </c:pt>
               </c:numCache>
@@ -321,10 +327,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -360,16 +366,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$13</c:f>
+              <c:f>Sheet1!$O$2:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>15.575465196416264</c:v>
                 </c:pt>
@@ -405,6 +414,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>39.835164835164832</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.356897735072067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -444,10 +456,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -483,16 +495,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$13</c:f>
+              <c:f>Sheet1!$P$2:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -528,6 +543,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>29.19254658385093</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.055900621118013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,10 +585,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -606,16 +624,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$13</c:f>
+              <c:f>Sheet1!$Q$2:$Q$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -650,6 +671,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -690,10 +714,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -729,16 +753,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$13</c:f>
+              <c:f>Sheet1!$R$2:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -773,6 +800,9 @@
                   <c:v>39.523809523809526</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>39.523809523809526</c:v>
                 </c:pt>
               </c:numCache>
@@ -1553,14 +1583,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1888,7 +1918,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="C14" sqref="C14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2623,7 +2653,59 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
+      <c r="A14" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>161</v>
+      </c>
+      <c r="E14">
+        <v>87</v>
+      </c>
+      <c r="F14">
+        <v>1457</v>
+      </c>
+      <c r="G14">
+        <v>588</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>210</v>
+      </c>
+      <c r="L14">
+        <v>83</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" ref="N14" si="35">100*E14/D14</f>
+        <v>54.037267080745345</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" ref="O14" si="36">100*G14/F14</f>
+        <v>40.356897735072067</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" ref="P14" si="37">100*H14/D14</f>
+        <v>31.055900621118013</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" ref="Q14" si="38">100*J14/I14</f>
+        <v>70</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" ref="R14" si="39">100*L14/K14</f>
+        <v>39.523809523809526</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A5ED2A-C3DB-447F-A9CC-C4596161FB20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC5191B-1F37-4FA7-9210-D3E2B2B7891F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -198,10 +198,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>Sheet1!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -240,16 +240,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$14</c:f>
+              <c:f>Sheet1!$N$2:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -288,6 +291,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>54.037267080745345</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.279503105590059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -327,10 +333,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>Sheet1!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -369,16 +375,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$14</c:f>
+              <c:f>Sheet1!$O$2:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>15.575465196416264</c:v>
                 </c:pt>
@@ -417,6 +426,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>40.356897735072067</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42.398286937901496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,10 +468,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>Sheet1!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -498,16 +510,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$14</c:f>
+              <c:f>Sheet1!$P$2:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -546,6 +561,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>31.055900621118013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.161490683229815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,10 +603,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>Sheet1!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -627,16 +645,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$14</c:f>
+              <c:f>Sheet1!$Q$2:$Q$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -674,6 +695,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -714,10 +738,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>Sheet1!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -756,16 +780,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$14</c:f>
+              <c:f>Sheet1!$R$2:$R$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -803,6 +830,9 @@
                   <c:v>39.523809523809526</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>39.523809523809526</c:v>
                 </c:pt>
               </c:numCache>
@@ -1918,7 +1948,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:L14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2708,7 +2738,59 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
+      <c r="A15" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>161</v>
+      </c>
+      <c r="E15">
+        <v>89</v>
+      </c>
+      <c r="F15">
+        <v>1401</v>
+      </c>
+      <c r="G15">
+        <v>594</v>
+      </c>
+      <c r="H15">
+        <v>55</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>210</v>
+      </c>
+      <c r="L15">
+        <v>83</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" ref="N15" si="40">100*E15/D15</f>
+        <v>55.279503105590059</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" ref="O15" si="41">100*G15/F15</f>
+        <v>42.398286937901496</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" ref="P15" si="42">100*H15/D15</f>
+        <v>34.161490683229815</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" ref="Q15" si="43">100*J15/I15</f>
+        <v>70</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" ref="R15" si="44">100*L15/K15</f>
+        <v>39.523809523809526</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC5191B-1F37-4FA7-9210-D3E2B2B7891F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3118F51-2911-4892-A29F-5DBCEF89A4FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="480" yWindow="-108" windowWidth="22668" windowHeight="13176" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,10 +198,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$15</c:f>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -243,16 +243,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$15</c:f>
+              <c:f>Sheet1!$N$2:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -294,6 +297,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>55.279503105590059</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57.142857142857146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,10 +339,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$15</c:f>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -378,16 +384,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$15</c:f>
+              <c:f>Sheet1!$O$2:$O$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>15.575465196416264</c:v>
                 </c:pt>
@@ -429,6 +438,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>42.398286937901496</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.324054246966455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -468,10 +480,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$15</c:f>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -513,16 +525,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$15</c:f>
+              <c:f>Sheet1!$P$2:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -564,6 +579,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>34.161490683229815</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.403726708074537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,10 +621,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$15</c:f>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -648,16 +666,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$15</c:f>
+              <c:f>Sheet1!$Q$2:$Q$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -698,6 +719,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -738,10 +762,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$15</c:f>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -783,16 +807,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$15</c:f>
+              <c:f>Sheet1!$R$2:$R$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -833,6 +860,9 @@
                   <c:v>39.523809523809526</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>39.523809523809526</c:v>
                 </c:pt>
               </c:numCache>
@@ -1947,32 +1977,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2019,7 +2049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44054</v>
       </c>
@@ -2075,7 +2105,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44055</v>
       </c>
@@ -2131,7 +2161,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44056</v>
       </c>
@@ -2187,7 +2217,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44057</v>
       </c>
@@ -2242,7 +2272,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44058</v>
       </c>
@@ -2297,7 +2327,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44064</v>
       </c>
@@ -2352,7 +2382,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44069</v>
       </c>
@@ -2407,7 +2437,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44070</v>
       </c>
@@ -2462,7 +2492,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44081</v>
       </c>
@@ -2517,7 +2547,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44082</v>
       </c>
@@ -2572,7 +2602,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44083</v>
       </c>
@@ -2627,7 +2657,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44084</v>
       </c>
@@ -2682,7 +2712,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44085</v>
       </c>
@@ -2737,7 +2767,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44089</v>
       </c>
@@ -2792,88 +2822,141 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>161</v>
+      </c>
+      <c r="E16">
+        <v>92</v>
+      </c>
+      <c r="F16">
+        <v>1401</v>
+      </c>
+      <c r="G16">
+        <v>649</v>
+      </c>
+      <c r="H16">
+        <v>57</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>210</v>
+      </c>
+      <c r="L16">
+        <v>83</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" ref="N16" si="45">100*E16/D16</f>
+        <v>57.142857142857146</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" ref="O16" si="46">100*G16/F16</f>
+        <v>46.324054246966455</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" ref="P16" si="47">100*H16/D16</f>
+        <v>35.403726708074537</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" ref="Q16" si="48">100*J16/I16</f>
+        <v>70</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" ref="R16" si="49">100*L16/K16</f>
+        <v>39.523809523809526</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3118F51-2911-4892-A29F-5DBCEF89A4FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D944CB6C-9D80-43F4-AD23-FDAC4F94A997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="-108" windowWidth="22668" windowHeight="13176" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="173">
   <si>
     <t>Date</t>
   </si>
@@ -78,6 +79,480 @@
   </si>
   <si>
     <t>% object meas</t>
+  </si>
+  <si>
+    <t>Module "Add overlay"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parameters </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> image refs </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> obj refs </t>
+  </si>
+  <si>
+    <t>Module "Binary operations (legacy)"</t>
+  </si>
+  <si>
+    <t>Module "Channel extractor"</t>
+  </si>
+  <si>
+    <t>Module "Filter objects"</t>
+  </si>
+  <si>
+    <t>Module "Merge channels"</t>
+  </si>
+  <si>
+    <t>Module "Relate objects"</t>
+  </si>
+  <si>
+    <t>Module "Resolve co-occurrence"</t>
+  </si>
+  <si>
+    <t>Module "Threshold image"</t>
+  </si>
+  <si>
+    <t>Module "Input control"</t>
+  </si>
+  <si>
+    <t>Module "Output control"</t>
+  </si>
+  <si>
+    <t>Module "Image measurement calculator"</t>
+  </si>
+  <si>
+    <t>Module "Measure image colocalisation"</t>
+  </si>
+  <si>
+    <t>Module "Measure image dimensions"</t>
+  </si>
+  <si>
+    <t>Module "Measure image intensity"</t>
+  </si>
+  <si>
+    <t>Module "Measure image texture"</t>
+  </si>
+  <si>
+    <t>Module "Measure intensity distribution"</t>
+  </si>
+  <si>
+    <t>Module "Apply CLAHE"</t>
+  </si>
+  <si>
+    <t>Module "Binary operations 2D"</t>
+  </si>
+  <si>
+    <t>Module "Dilate and erode"</t>
+  </si>
+  <si>
+    <t>Module "Calculate distance map"</t>
+  </si>
+  <si>
+    <t>Module "Extended minima"</t>
+  </si>
+  <si>
+    <t>Module "Fill holes"</t>
+  </si>
+  <si>
+    <t>Module "Fill holes by volume"</t>
+  </si>
+  <si>
+    <t>Module "Fix skeleton breaks"</t>
+  </si>
+  <si>
+    <t>Module "Skeletonise"</t>
+  </si>
+  <si>
+    <t>Module "Watershed transform"</t>
+  </si>
+  <si>
+    <t>Module "Bleaching correction"</t>
+  </si>
+  <si>
+    <t>Module "Combing correction"</t>
+  </si>
+  <si>
+    <t>Module "Filter image"</t>
+  </si>
+  <si>
+    <t>Module "Image calculator"</t>
+  </si>
+  <si>
+    <t>Module "Image math"</t>
+  </si>
+  <si>
+    <t>Module "Invert image intensity"</t>
+  </si>
+  <si>
+    <t>Module "Manually edit image"</t>
+  </si>
+  <si>
+    <t>Module "Normalise intensity"</t>
+  </si>
+  <si>
+    <t>Module "Plot kymograph"</t>
+  </si>
+  <si>
+    <t>Module "Project image"</t>
+  </si>
+  <si>
+    <t>Module "Global auto-threshold"</t>
+  </si>
+  <si>
+    <t>Module "Local auto-threshold"</t>
+  </si>
+  <si>
+    <t>Module "Manual threshold"</t>
+  </si>
+  <si>
+    <t>Module "Weka probability maps"</t>
+  </si>
+  <si>
+    <t>Module "White balance correction"</t>
+  </si>
+  <si>
+    <t>Module "Apply offset correction"</t>
+  </si>
+  <si>
+    <t>Module "Best focus stack"</t>
+  </si>
+  <si>
+    <t>Module "Concatenate stacks"</t>
+  </si>
+  <si>
+    <t>Module "Convert 3D stack (switch Z and T)"</t>
+  </si>
+  <si>
+    <t>Module "Crop image"</t>
+  </si>
+  <si>
+    <t>Module "Extract substack"</t>
+  </si>
+  <si>
+    <t>Module "Flip stack"</t>
+  </si>
+  <si>
+    <t>Module "Focus stack"</t>
+  </si>
+  <si>
+    <t>Module "Image type converter"</t>
+  </si>
+  <si>
+    <t>Module "Interpolate Z axis"</t>
+  </si>
+  <si>
+    <t>Module "Unwarp images (manual)"</t>
+  </si>
+  <si>
+    <t>Module "Register images"</t>
+  </si>
+  <si>
+    <t>Module "Remove image"</t>
+  </si>
+  <si>
+    <t>Module "Replace image"</t>
+  </si>
+  <si>
+    <t>Module "Unwarp images"</t>
+  </si>
+  <si>
+    <t>Module "Export ACC dataset"</t>
+  </si>
+  <si>
+    <t>Module "Load image"</t>
+  </si>
+  <si>
+    <t>Module "Save image"</t>
+  </si>
+  <si>
+    <t>Module "Extract metadata"</t>
+  </si>
+  <si>
+    <t>Module "Load objects"</t>
+  </si>
+  <si>
+    <t>Module "Add custom metadata item"</t>
+  </si>
+  <si>
+    <t>Module "GUI separator"</t>
+  </si>
+  <si>
+    <t>Module "Global variables"</t>
+  </si>
+  <si>
+    <t>Module "Run macro on image"</t>
+  </si>
+  <si>
+    <t>Module "Run macro on objects"</t>
+  </si>
+  <si>
+    <t>Module "Run single macro command"</t>
+  </si>
+  <si>
+    <t>Module "Measure object colocalisation"</t>
+  </si>
+  <si>
+    <t>Module "Measure object intensity"</t>
+  </si>
+  <si>
+    <t>Module "Measure object texture"</t>
+  </si>
+  <si>
+    <t>Module "Measure radial intensity profile"</t>
+  </si>
+  <si>
+    <t>Module "Measure spot intensity"</t>
+  </si>
+  <si>
+    <t>Module "Bin objects by measurement"</t>
+  </si>
+  <si>
+    <t>Module "Calculate measurement periodogram"</t>
+  </si>
+  <si>
+    <t>Module "Calculate statistics for children"</t>
+  </si>
+  <si>
+    <t>Module "Calculate statistics for partners"</t>
+  </si>
+  <si>
+    <t>Module "Object measurement calculator"</t>
+  </si>
+  <si>
+    <t>Module "Replace measurement value"</t>
+  </si>
+  <si>
+    <t>Module "Calculate nearest neighbour"</t>
+  </si>
+  <si>
+    <t>Module "Convex hull 2D"</t>
+  </si>
+  <si>
+    <t>Module "Fit ellipse"</t>
+  </si>
+  <si>
+    <t>Module "Fit ellipsoid"</t>
+  </si>
+  <si>
+    <t>Module "Fit Gaussian 2D"</t>
+  </si>
+  <si>
+    <t>Module "Fit longest chord"</t>
+  </si>
+  <si>
+    <t>Module "Fit spline"</t>
+  </si>
+  <si>
+    <t>Module "Measure object centroid"</t>
+  </si>
+  <si>
+    <t>Module "Measure object curvature"</t>
+  </si>
+  <si>
+    <t>Module "Measure object limits"</t>
+  </si>
+  <si>
+    <t>Module "Measure object overlap"</t>
+  </si>
+  <si>
+    <t>Module "Measure object shape"</t>
+  </si>
+  <si>
+    <t>Module "Measure relative orientation"</t>
+  </si>
+  <si>
+    <t>Module "Measure skeleton"</t>
+  </si>
+  <si>
+    <t>Module "Measure specific width"</t>
+  </si>
+  <si>
+    <t>Module "Measure track motion"</t>
+  </si>
+  <si>
+    <t>Module "Active contour-based detection"</t>
+  </si>
+  <si>
+    <t>Module "Extract object edges"</t>
+  </si>
+  <si>
+    <t>Module "Get local object region"</t>
+  </si>
+  <si>
+    <t>Module "Get object surface"</t>
+  </si>
+  <si>
+    <t>Module "Hough-based detection"</t>
+  </si>
+  <si>
+    <t>Module "Identify objects"</t>
+  </si>
+  <si>
+    <t>Module "Manually identify objects"</t>
+  </si>
+  <si>
+    <t>Module "Project objects"</t>
+  </si>
+  <si>
+    <t>Module "Ridge detection"</t>
+  </si>
+  <si>
+    <t>Module "Run TrackMate"</t>
+  </si>
+  <si>
+    <t>Module "Convert objects to image"</t>
+  </si>
+  <si>
+    <t>Module "Create distance map"</t>
+  </si>
+  <si>
+    <t>Module "Combine object sets"</t>
+  </si>
+  <si>
+    <t>Module "Duplicate objects across time"</t>
+  </si>
+  <si>
+    <t>Module "Expand and shrink objects"</t>
+  </si>
+  <si>
+    <t>Module "Number of children"</t>
+  </si>
+  <si>
+    <t>Module "Based on measurement"</t>
+  </si>
+  <si>
+    <t>Module "Measurement extremes"</t>
+  </si>
+  <si>
+    <t>Module "Number of partners"</t>
+  </si>
+  <si>
+    <t>Module "Remove on image edge"</t>
+  </si>
+  <si>
+    <t>Module "Objects with specific IDs"</t>
+  </si>
+  <si>
+    <t>Module "With / without measurement"</t>
+  </si>
+  <si>
+    <t>Module "With / without parent"</t>
+  </si>
+  <si>
+    <t>Module "Mask objects"</t>
+  </si>
+  <si>
+    <t>Module "Merge related objects"</t>
+  </si>
+  <si>
+    <t>Module "Merge single class"</t>
+  </si>
+  <si>
+    <t>Module "Merge tracks"</t>
+  </si>
+  <si>
+    <t>Module "Reassign enclosed objects"</t>
+  </si>
+  <si>
+    <t>Module "Remove objects"</t>
+  </si>
+  <si>
+    <t>Module "Relate many-to-many"</t>
+  </si>
+  <si>
+    <t>Module "Relate many-to-one"</t>
+  </si>
+  <si>
+    <t>Module "Relate one-to-one"</t>
+  </si>
+  <si>
+    <t>Module "Single class cluster"</t>
+  </si>
+  <si>
+    <t>Module "Track objects"</t>
+  </si>
+  <si>
+    <t>Module "Create measurement map"</t>
+  </si>
+  <si>
+    <t>Module "Create object density map"</t>
+  </si>
+  <si>
+    <t>Module "Create orthogonal view"</t>
+  </si>
+  <si>
+    <t>Module "Set intensity display range"</t>
+  </si>
+  <si>
+    <t>Module "Set lookup table"</t>
+  </si>
+  <si>
+    <t>Module "Add all object points"</t>
+  </si>
+  <si>
+    <t>Module "Add arrows"</t>
+  </si>
+  <si>
+    <t>Module "Add contour lines"</t>
+  </si>
+  <si>
+    <t>Module "Add from position measurement"</t>
+  </si>
+  <si>
+    <t>Module "Add labels"</t>
+  </si>
+  <si>
+    <t>Module "Add line"</t>
+  </si>
+  <si>
+    <t>Module "Add object centroid"</t>
+  </si>
+  <si>
+    <t>Module "Add object fill"</t>
+  </si>
+  <si>
+    <t>Module "Add object outline"</t>
+  </si>
+  <si>
+    <t>Module "Add relationship connection"</t>
+  </si>
+  <si>
+    <t>Module "Add text"</t>
+  </si>
+  <si>
+    <t>Module "Add tracks"</t>
+  </si>
+  <si>
+    <t>Module "Plot measurements as scatter"</t>
+  </si>
+  <si>
+    <t>Module "Show image"</t>
+  </si>
+  <si>
+    <t>Module "Show image measurements"</t>
+  </si>
+  <si>
+    <t>Module "Show metadata"</t>
+  </si>
+  <si>
+    <t>Module "Show object measurements"</t>
+  </si>
+  <si>
+    <t>Module "Add pause"</t>
+  </si>
+  <si>
+    <t>Module "Fixed text condition"</t>
+  </si>
+  <si>
+    <t>Module "GUI condition"</t>
+  </si>
+  <si>
+    <t>Module "Module is enabled condition"</t>
+  </si>
+  <si>
+    <t>Module "Workflow handling"</t>
   </si>
 </sst>
 </file>
@@ -127,12 +602,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,49 +874,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>15.575465196416264</c:v>
+                  <c:v>15.016611295681063</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.982081323225362</c:v>
+                  <c:v>25.049833887043189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.719723183391004</c:v>
+                  <c:v>27.685123415610406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.550173010380622</c:v>
+                  <c:v>28.485657104736489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.494809688581313</c:v>
+                  <c:v>32.288192128085392</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.840830449826989</c:v>
+                  <c:v>32.621747831887923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.294117647058826</c:v>
+                  <c:v>34.022681787858573</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.082474226804123</c:v>
+                  <c:v>34.791252485089466</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.731958762886599</c:v>
+                  <c:v>36.381709741550694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.762886597938142</c:v>
+                  <c:v>37.375745526838969</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.243986254295535</c:v>
+                  <c:v>37.839628893306823</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.835164835164832</c:v>
+                  <c:v>38.410596026490069</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40.356897735072067</c:v>
+                  <c:v>38.914626075446726</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42.398286937901496</c:v>
+                  <c:v>39.311714096624755</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46.324054246966455</c:v>
+                  <c:v>43.216412971542027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -581,7 +1057,7 @@
                   <c:v>34.161490683229815</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.403726708074537</c:v>
+                  <c:v>32.919254658385093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1641,16 +2117,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1000124</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1978,31 +2454,31 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2049,7 +2525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44054</v>
       </c>
@@ -2064,7 +2540,7 @@
         <v>64</v>
       </c>
       <c r="F2">
-        <v>1451</v>
+        <v>1505</v>
       </c>
       <c r="G2">
         <v>226</v>
@@ -2090,7 +2566,7 @@
       </c>
       <c r="O2" s="3">
         <f t="shared" ref="O2:O7" si="1">100*G2/F2</f>
-        <v>15.575465196416264</v>
+        <v>15.016611295681063</v>
       </c>
       <c r="P2" s="3">
         <f t="shared" ref="P2:P7" si="2">100*H2/D2</f>
@@ -2105,7 +2581,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44055</v>
       </c>
@@ -2120,7 +2596,7 @@
         <v>65</v>
       </c>
       <c r="F3">
-        <v>1451</v>
+        <v>1505</v>
       </c>
       <c r="G3">
         <v>377</v>
@@ -2146,7 +2622,7 @@
       </c>
       <c r="O3" s="3">
         <f t="shared" si="1"/>
-        <v>25.982081323225362</v>
+        <v>25.049833887043189</v>
       </c>
       <c r="P3" s="3">
         <f t="shared" si="2"/>
@@ -2161,7 +2637,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44056</v>
       </c>
@@ -2176,7 +2652,7 @@
         <v>72</v>
       </c>
       <c r="F4">
-        <v>1445</v>
+        <v>1499</v>
       </c>
       <c r="G4">
         <v>415</v>
@@ -2202,7 +2678,7 @@
       </c>
       <c r="O4" s="3">
         <f t="shared" si="1"/>
-        <v>28.719723183391004</v>
+        <v>27.685123415610406</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="2"/>
@@ -2217,7 +2693,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44057</v>
       </c>
@@ -2231,7 +2707,7 @@
         <v>73</v>
       </c>
       <c r="F5">
-        <v>1445</v>
+        <v>1499</v>
       </c>
       <c r="G5">
         <v>427</v>
@@ -2257,7 +2733,7 @@
       </c>
       <c r="O5" s="3">
         <f t="shared" si="1"/>
-        <v>29.550173010380622</v>
+        <v>28.485657104736489</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="2"/>
@@ -2272,7 +2748,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44058</v>
       </c>
@@ -2286,7 +2762,7 @@
         <v>75</v>
       </c>
       <c r="F6">
-        <v>1445</v>
+        <v>1499</v>
       </c>
       <c r="G6">
         <v>484</v>
@@ -2312,7 +2788,7 @@
       </c>
       <c r="O6" s="3">
         <f t="shared" si="1"/>
-        <v>33.494809688581313</v>
+        <v>32.288192128085392</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="2"/>
@@ -2327,7 +2803,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44064</v>
       </c>
@@ -2341,7 +2817,7 @@
         <v>76</v>
       </c>
       <c r="F7">
-        <v>1445</v>
+        <v>1499</v>
       </c>
       <c r="G7">
         <v>489</v>
@@ -2367,7 +2843,7 @@
       </c>
       <c r="O7" s="3">
         <f t="shared" si="1"/>
-        <v>33.840830449826989</v>
+        <v>32.621747831887923</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="2"/>
@@ -2382,7 +2858,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44069</v>
       </c>
@@ -2396,7 +2872,7 @@
         <v>76</v>
       </c>
       <c r="F8">
-        <v>1445</v>
+        <v>1499</v>
       </c>
       <c r="G8">
         <v>510</v>
@@ -2422,7 +2898,7 @@
       </c>
       <c r="O8" s="3">
         <f t="shared" ref="O8" si="6">100*G8/F8</f>
-        <v>35.294117647058826</v>
+        <v>34.022681787858573</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" ref="P8" si="7">100*H8/D8</f>
@@ -2437,7 +2913,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44070</v>
       </c>
@@ -2451,7 +2927,7 @@
         <v>78</v>
       </c>
       <c r="F9">
-        <v>1455</v>
+        <v>1509</v>
       </c>
       <c r="G9">
         <v>525</v>
@@ -2477,7 +2953,7 @@
       </c>
       <c r="O9" s="3">
         <f t="shared" ref="O9" si="11">100*G9/F9</f>
-        <v>36.082474226804123</v>
+        <v>34.791252485089466</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" ref="P9" si="12">100*H9/D9</f>
@@ -2492,7 +2968,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44081</v>
       </c>
@@ -2506,7 +2982,7 @@
         <v>78</v>
       </c>
       <c r="F10">
-        <v>1455</v>
+        <v>1509</v>
       </c>
       <c r="G10">
         <v>549</v>
@@ -2532,7 +3008,7 @@
       </c>
       <c r="O10" s="3">
         <f t="shared" ref="O10" si="16">100*G10/F10</f>
-        <v>37.731958762886599</v>
+        <v>36.381709741550694</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" ref="P10" si="17">100*H10/D10</f>
@@ -2547,7 +3023,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44082</v>
       </c>
@@ -2561,7 +3037,7 @@
         <v>84</v>
       </c>
       <c r="F11">
-        <v>1455</v>
+        <v>1509</v>
       </c>
       <c r="G11">
         <v>564</v>
@@ -2587,7 +3063,7 @@
       </c>
       <c r="O11" s="3">
         <f t="shared" ref="O11" si="21">100*G11/F11</f>
-        <v>38.762886597938142</v>
+        <v>37.375745526838969</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" ref="P11" si="22">100*H11/D11</f>
@@ -2602,7 +3078,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44083</v>
       </c>
@@ -2616,7 +3092,7 @@
         <v>86</v>
       </c>
       <c r="F12">
-        <v>1455</v>
+        <v>1509</v>
       </c>
       <c r="G12">
         <v>571</v>
@@ -2642,7 +3118,7 @@
       </c>
       <c r="O12" s="3">
         <f t="shared" ref="O12" si="26">100*G12/F12</f>
-        <v>39.243986254295535</v>
+        <v>37.839628893306823</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" ref="P12" si="27">100*H12/D12</f>
@@ -2657,7 +3133,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44084</v>
       </c>
@@ -2671,7 +3147,7 @@
         <v>87</v>
       </c>
       <c r="F13">
-        <v>1456</v>
+        <v>1510</v>
       </c>
       <c r="G13">
         <v>580</v>
@@ -2697,7 +3173,7 @@
       </c>
       <c r="O13" s="3">
         <f t="shared" ref="O13" si="31">100*G13/F13</f>
-        <v>39.835164835164832</v>
+        <v>38.410596026490069</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" ref="P13" si="32">100*H13/D13</f>
@@ -2712,7 +3188,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44085</v>
       </c>
@@ -2726,7 +3202,7 @@
         <v>87</v>
       </c>
       <c r="F14">
-        <v>1457</v>
+        <v>1511</v>
       </c>
       <c r="G14">
         <v>588</v>
@@ -2752,7 +3228,7 @@
       </c>
       <c r="O14" s="3">
         <f t="shared" ref="O14" si="36">100*G14/F14</f>
-        <v>40.356897735072067</v>
+        <v>38.914626075446726</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" ref="P14" si="37">100*H14/D14</f>
@@ -2767,7 +3243,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44089</v>
       </c>
@@ -2781,7 +3257,7 @@
         <v>89</v>
       </c>
       <c r="F15">
-        <v>1401</v>
+        <v>1511</v>
       </c>
       <c r="G15">
         <v>594</v>
@@ -2807,7 +3283,7 @@
       </c>
       <c r="O15" s="3">
         <f t="shared" ref="O15" si="41">100*G15/F15</f>
-        <v>42.398286937901496</v>
+        <v>39.311714096624755</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" ref="P15" si="42">100*H15/D15</f>
@@ -2822,7 +3298,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44090</v>
       </c>
@@ -2836,13 +3312,13 @@
         <v>92</v>
       </c>
       <c r="F16">
-        <v>1401</v>
+        <v>1511</v>
       </c>
       <c r="G16">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="H16">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I16">
         <v>20</v>
@@ -2862,11 +3338,11 @@
       </c>
       <c r="O16" s="3">
         <f t="shared" ref="O16" si="46">100*G16/F16</f>
-        <v>46.324054246966455</v>
+        <v>43.216412971542027</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" ref="P16" si="47">100*H16/D16</f>
-        <v>35.403726708074537</v>
+        <v>32.919254658385093</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" ref="Q16" si="48">100*J16/I16</f>
@@ -2877,80 +3353,80 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
     </row>
   </sheetData>
@@ -2959,4 +3435,4052 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626E3B8F-11F4-4CEC-B58F-ACDF97F078AF}">
+  <dimension ref="A1:H155"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5">
+        <v>-5</v>
+      </c>
+      <c r="D1">
+        <v>-12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>-5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5">
+        <v>-4</v>
+      </c>
+      <c r="D3">
+        <v>-5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.125</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="5">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="5">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="5">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="5">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="5">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="5">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="5">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="5">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="5">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="5">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="5">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="5">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="5">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="5">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="5">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="5">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="5">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="5">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="5">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="5">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="5">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="5">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="5">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="5">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="5">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="5">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="5">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="5">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="5">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="5">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="5">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="5">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="5">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="5">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="5">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" s="5">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="5">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="5">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" s="5">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="5">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="5">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="5">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="5">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>6</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="5">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="5">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>84</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="5">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>6</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="5">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="5">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="E102" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" s="5">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="5">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" s="5">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="5">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="D104">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="5">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="5">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="5">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>59</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="5">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>7</v>
+      </c>
+      <c r="E106" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" s="5">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>63</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="5">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" s="5">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>91</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="5">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="5">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>98</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" s="5">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="5">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="5">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>17</v>
+      </c>
+      <c r="F110" s="5">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="5">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" s="5">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="5">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="5">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>92</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="5">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="5">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="5">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" s="5">
+        <v>1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>96</v>
+      </c>
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="5">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" s="5">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="5">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>8</v>
+      </c>
+      <c r="E116" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="5">
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="5">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>9</v>
+      </c>
+      <c r="E117" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>40</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="5">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="D118">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" s="5">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>18</v>
+      </c>
+      <c r="H118">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>66</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="5">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" s="5">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>74</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="5">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>17</v>
+      </c>
+      <c r="F120" s="5">
+        <v>1</v>
+      </c>
+      <c r="G120" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>87</v>
+      </c>
+      <c r="B121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" s="5">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>9</v>
+      </c>
+      <c r="E121" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" s="5">
+        <v>1</v>
+      </c>
+      <c r="G121" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>88</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="5">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>9</v>
+      </c>
+      <c r="E122" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122" s="5">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>101</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="5">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>9</v>
+      </c>
+      <c r="E123" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="5">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>108</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="5">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>9</v>
+      </c>
+      <c r="E124" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" s="5">
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>113</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="5">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>9</v>
+      </c>
+      <c r="E125" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" s="5">
+        <v>1</v>
+      </c>
+      <c r="G125" t="s">
+        <v>18</v>
+      </c>
+      <c r="H125">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>143</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" s="5">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>9</v>
+      </c>
+      <c r="E126" t="s">
+        <v>17</v>
+      </c>
+      <c r="F126" s="5">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>144</v>
+      </c>
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="5">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>9</v>
+      </c>
+      <c r="E127" t="s">
+        <v>17</v>
+      </c>
+      <c r="F127" s="5">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
+        <v>18</v>
+      </c>
+      <c r="H127">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="5">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>9</v>
+      </c>
+      <c r="E128" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" s="5">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>51</v>
+      </c>
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" s="5">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>10</v>
+      </c>
+      <c r="E129" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" s="5">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>109</v>
+      </c>
+      <c r="B130" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="5">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>10</v>
+      </c>
+      <c r="E130" t="s">
+        <v>17</v>
+      </c>
+      <c r="F130" s="5">
+        <v>1</v>
+      </c>
+      <c r="G130" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>149</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="5">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>10</v>
+      </c>
+      <c r="E131" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" s="5">
+        <v>1</v>
+      </c>
+      <c r="G131" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>43</v>
+      </c>
+      <c r="B132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="5">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>11</v>
+      </c>
+      <c r="E132" t="s">
+        <v>17</v>
+      </c>
+      <c r="F132" s="5">
+        <v>1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="5">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>17</v>
+      </c>
+      <c r="F133" s="5">
+        <v>1</v>
+      </c>
+      <c r="G133" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="5">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="D134">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>17</v>
+      </c>
+      <c r="F134" s="5">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>86</v>
+      </c>
+      <c r="B135" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="5">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>17</v>
+      </c>
+      <c r="F135" s="5">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" s="5">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="D136">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>17</v>
+      </c>
+      <c r="F136" s="5">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>89</v>
+      </c>
+      <c r="B137" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="5">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>13</v>
+      </c>
+      <c r="E137" t="s">
+        <v>17</v>
+      </c>
+      <c r="F137" s="5">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>112</v>
+      </c>
+      <c r="B138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="5">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>13</v>
+      </c>
+      <c r="E138" t="s">
+        <v>17</v>
+      </c>
+      <c r="F138" s="5">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>18</v>
+      </c>
+      <c r="H138">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>122</v>
+      </c>
+      <c r="B139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="5">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>13</v>
+      </c>
+      <c r="E139" t="s">
+        <v>17</v>
+      </c>
+      <c r="F139" s="5">
+        <v>1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>125</v>
+      </c>
+      <c r="B140" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="5">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>13</v>
+      </c>
+      <c r="E140" t="s">
+        <v>17</v>
+      </c>
+      <c r="F140" s="5">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>33</v>
+      </c>
+      <c r="B141" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" s="5">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
+        <v>17</v>
+      </c>
+      <c r="F141" s="5">
+        <v>1</v>
+      </c>
+      <c r="G141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H141">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>116</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" s="5">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="D142">
+        <v>14</v>
+      </c>
+      <c r="E142" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" s="5">
+        <v>1</v>
+      </c>
+      <c r="G142" t="s">
+        <v>18</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>120</v>
+      </c>
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" s="5">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>15</v>
+      </c>
+      <c r="E143" t="s">
+        <v>17</v>
+      </c>
+      <c r="F143" s="5">
+        <v>1</v>
+      </c>
+      <c r="G143" t="s">
+        <v>18</v>
+      </c>
+      <c r="H143">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>172</v>
+      </c>
+      <c r="B144" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" s="5">
+        <v>0.1176</v>
+      </c>
+      <c r="D144">
+        <v>15</v>
+      </c>
+      <c r="E144" t="s">
+        <v>17</v>
+      </c>
+      <c r="F144" s="5">
+        <v>1</v>
+      </c>
+      <c r="G144" t="s">
+        <v>18</v>
+      </c>
+      <c r="H144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>69</v>
+      </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" s="5">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>16</v>
+      </c>
+      <c r="E145" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" s="5">
+        <v>1</v>
+      </c>
+      <c r="G145" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>100</v>
+      </c>
+      <c r="B146" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" s="5">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>16</v>
+      </c>
+      <c r="E146" t="s">
+        <v>17</v>
+      </c>
+      <c r="F146" s="5">
+        <v>1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>77</v>
+      </c>
+      <c r="B147" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147" s="5">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>18</v>
+      </c>
+      <c r="E147" t="s">
+        <v>17</v>
+      </c>
+      <c r="F147" s="5">
+        <v>1</v>
+      </c>
+      <c r="G147" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>110</v>
+      </c>
+      <c r="B148" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" s="5">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>18</v>
+      </c>
+      <c r="E148" t="s">
+        <v>17</v>
+      </c>
+      <c r="F148" s="5">
+        <v>1</v>
+      </c>
+      <c r="G148" t="s">
+        <v>18</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>94</v>
+      </c>
+      <c r="B149" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" s="5">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>19</v>
+      </c>
+      <c r="E149" t="s">
+        <v>17</v>
+      </c>
+      <c r="F149" s="5">
+        <v>1</v>
+      </c>
+      <c r="G149" t="s">
+        <v>18</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>104</v>
+      </c>
+      <c r="B150" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" s="5">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>19</v>
+      </c>
+      <c r="E150" t="s">
+        <v>17</v>
+      </c>
+      <c r="F150" s="5">
+        <v>1</v>
+      </c>
+      <c r="G150" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>145</v>
+      </c>
+      <c r="B151" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151" s="5">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>19</v>
+      </c>
+      <c r="E151" t="s">
+        <v>17</v>
+      </c>
+      <c r="F151" s="5">
+        <v>1</v>
+      </c>
+      <c r="G151" t="s">
+        <v>18</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>73</v>
+      </c>
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152" s="5">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>21</v>
+      </c>
+      <c r="E152" t="s">
+        <v>17</v>
+      </c>
+      <c r="F152" s="5">
+        <v>1</v>
+      </c>
+      <c r="G152" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>102</v>
+      </c>
+      <c r="B153" t="s">
+        <v>16</v>
+      </c>
+      <c r="C153" s="5">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>21</v>
+      </c>
+      <c r="E153" t="s">
+        <v>17</v>
+      </c>
+      <c r="F153" s="5">
+        <v>1</v>
+      </c>
+      <c r="G153" t="s">
+        <v>18</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>70</v>
+      </c>
+      <c r="B154" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" s="5">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>23</v>
+      </c>
+      <c r="E154" t="s">
+        <v>17</v>
+      </c>
+      <c r="F154" s="5">
+        <v>1</v>
+      </c>
+      <c r="G154" t="s">
+        <v>18</v>
+      </c>
+      <c r="H154">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>78</v>
+      </c>
+      <c r="B155" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" s="5">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="D155">
+        <v>29</v>
+      </c>
+      <c r="E155" t="s">
+        <v>17</v>
+      </c>
+      <c r="F155" s="5">
+        <v>1</v>
+      </c>
+      <c r="G155" t="s">
+        <v>18</v>
+      </c>
+      <c r="H155">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H155">
+    <sortCondition ref="D1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C108909-C4A6-42D8-9CAB-8C6D36B4979B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D269CC7-BABF-473E-979D-CEB722C796F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="-108" windowWidth="22668" windowHeight="13176" activeTab="1" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -668,10 +668,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Sheet1!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -719,16 +719,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$17</c:f>
+              <c:f>Sheet1!$N$2:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -776,6 +779,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>58.385093167701861</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.31707317073171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -815,10 +821,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Sheet1!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -866,16 +872,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$17</c:f>
+              <c:f>Sheet1!$O$2:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -923,6 +932,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44.32576769025367</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43.865435356200528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,10 +974,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Sheet1!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1013,16 +1025,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$17</c:f>
+              <c:f>Sheet1!$P$2:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1070,6 +1085,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>37.267080745341616</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.585365853658537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,10 +1127,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Sheet1!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1160,16 +1178,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$17</c:f>
+              <c:f>Sheet1!$Q$2:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1216,6 +1237,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1256,10 +1280,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Sheet1!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1307,16 +1331,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$17</c:f>
+              <c:f>Sheet1!$R$2:$R$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1364,6 +1391,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.967136150234744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2477,32 +2507,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2549,7 +2579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44054</v>
       </c>
@@ -2605,7 +2635,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44055</v>
       </c>
@@ -2661,7 +2691,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44056</v>
       </c>
@@ -2717,7 +2747,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44057</v>
       </c>
@@ -2772,7 +2802,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44058</v>
       </c>
@@ -2827,7 +2857,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44064</v>
       </c>
@@ -2882,7 +2912,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44069</v>
       </c>
@@ -2937,7 +2967,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44070</v>
       </c>
@@ -2992,7 +3022,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44081</v>
       </c>
@@ -3047,7 +3077,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44082</v>
       </c>
@@ -3102,7 +3132,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44083</v>
       </c>
@@ -3157,7 +3187,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44084</v>
       </c>
@@ -3212,7 +3242,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44085</v>
       </c>
@@ -3267,7 +3297,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44089</v>
       </c>
@@ -3322,7 +3352,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44090</v>
       </c>
@@ -3377,7 +3407,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44091</v>
       </c>
@@ -3432,77 +3462,128 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>164</v>
+      </c>
+      <c r="E18">
+        <v>94</v>
+      </c>
+      <c r="F18">
+        <v>1516</v>
+      </c>
+      <c r="G18">
+        <v>665</v>
+      </c>
+      <c r="H18">
+        <v>60</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18">
+        <v>213</v>
+      </c>
+      <c r="L18">
+        <v>83</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" ref="N18" si="55">100*E18/D18</f>
+        <v>57.31707317073171</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" ref="O18" si="56">100*G18/F18</f>
+        <v>43.865435356200528</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" ref="P18" si="57">100*H18/D18</f>
+        <v>36.585365853658537</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" ref="Q18" si="58">100*J18/I18</f>
+        <v>70</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" ref="R18" si="59">100*L18/K18</f>
+        <v>38.967136150234744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
     </row>
   </sheetData>
@@ -3517,18 +3598,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626E3B8F-11F4-4CEC-B58F-ACDF97F078AF}">
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="G56" activeCellId="1" sqref="C55 G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3540,7 +3621,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3552,7 +3633,7 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3564,7 +3645,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3576,7 +3657,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -3588,7 +3669,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3600,7 +3681,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -3612,7 +3693,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -3624,7 +3705,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -3636,7 +3717,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -3648,7 +3729,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -3660,7 +3741,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -3672,7 +3753,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -3684,7 +3765,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3696,7 +3777,7 @@
       </c>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -3708,7 +3789,7 @@
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -3720,7 +3801,7 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -3732,7 +3813,7 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -3744,7 +3825,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -3756,7 +3837,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -3768,7 +3849,7 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -3780,7 +3861,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -3792,7 +3873,7 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -3804,7 +3885,7 @@
       </c>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -3816,7 +3897,7 @@
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -3828,7 +3909,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -3840,7 +3921,7 @@
       </c>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -3852,7 +3933,7 @@
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>125</v>
       </c>
@@ -3864,7 +3945,7 @@
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>126</v>
       </c>
@@ -3876,7 +3957,7 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -3888,7 +3969,7 @@
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>128</v>
       </c>
@@ -3900,7 +3981,7 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>129</v>
       </c>
@@ -3912,7 +3993,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -3924,7 +4005,7 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -3936,7 +4017,7 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>132</v>
       </c>
@@ -3948,7 +4029,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>133</v>
       </c>
@@ -3960,7 +4041,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>134</v>
       </c>
@@ -3972,7 +4053,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -3984,7 +4065,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -3996,7 +4077,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -4008,7 +4089,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -4020,7 +4101,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -4032,7 +4113,7 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -4044,7 +4125,7 @@
       </c>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>153</v>
       </c>
@@ -4056,7 +4137,7 @@
       </c>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>154</v>
       </c>
@@ -4068,7 +4149,7 @@
       </c>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -4080,7 +4161,7 @@
       </c>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -4092,7 +4173,7 @@
       </c>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>157</v>
       </c>
@@ -4104,7 +4185,7 @@
       </c>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>158</v>
       </c>
@@ -4116,7 +4197,7 @@
       </c>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>159</v>
       </c>
@@ -4128,7 +4209,7 @@
       </c>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -4140,7 +4221,7 @@
       </c>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>162</v>
       </c>
@@ -4152,7 +4233,7 @@
       </c>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -4164,7 +4245,7 @@
       </c>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -4176,7 +4257,7 @@
       </c>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>165</v>
       </c>
@@ -4188,7 +4269,7 @@
       </c>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>101</v>
       </c>
@@ -4200,7 +4281,7 @@
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -4212,7 +4293,7 @@
       </c>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>53</v>
       </c>
@@ -4224,7 +4305,7 @@
       </c>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -4236,7 +4317,7 @@
       </c>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>169</v>
       </c>
@@ -4248,7 +4329,7 @@
       </c>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -4260,7 +4341,7 @@
       </c>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>137</v>
       </c>
@@ -4272,7 +4353,7 @@
       </c>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -4284,7 +4365,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -4296,7 +4377,7 @@
       </c>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -4308,7 +4389,7 @@
       </c>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -4320,7 +4401,7 @@
       </c>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>166</v>
       </c>
@@ -4332,7 +4413,7 @@
       </c>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -4344,7 +4425,7 @@
       </c>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -4356,7 +4437,7 @@
       </c>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -4368,7 +4449,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -4380,7 +4461,7 @@
       </c>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -4392,7 +4473,7 @@
       </c>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -4404,7 +4485,7 @@
       </c>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -4416,7 +4497,7 @@
       </c>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -4428,7 +4509,7 @@
       </c>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -4440,7 +4521,7 @@
       </c>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>104</v>
       </c>
@@ -4452,7 +4533,7 @@
       </c>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>109</v>
       </c>
@@ -4464,7 +4545,7 @@
       </c>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -4476,7 +4557,7 @@
       </c>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -4488,7 +4569,7 @@
       </c>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -4500,7 +4581,7 @@
       </c>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>60</v>
       </c>
@@ -4512,7 +4593,7 @@
       </c>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -4524,7 +4605,7 @@
       </c>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>93</v>
       </c>
@@ -4536,7 +4617,7 @@
       </c>
       <c r="G84" s="5"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>122</v>
       </c>
@@ -4548,7 +4629,7 @@
       </c>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>136</v>
       </c>
@@ -4560,7 +4641,7 @@
       </c>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>146</v>
       </c>
@@ -4572,7 +4653,7 @@
       </c>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -4584,7 +4665,7 @@
       </c>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -4596,7 +4677,7 @@
       </c>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>145</v>
       </c>
@@ -4608,7 +4689,7 @@
       </c>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -4620,7 +4701,7 @@
       </c>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>35</v>
       </c>
@@ -4632,7 +4713,7 @@
       </c>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>50</v>
       </c>
@@ -4644,7 +4725,7 @@
       </c>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>82</v>
       </c>
@@ -4656,7 +4737,7 @@
       </c>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -4668,7 +4749,7 @@
       </c>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -4680,7 +4761,7 @@
       </c>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>124</v>
       </c>
@@ -4692,7 +4773,7 @@
       </c>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -4704,7 +4785,7 @@
       </c>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>46</v>
       </c>
@@ -4716,7 +4797,7 @@
       </c>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>57</v>
       </c>
@@ -4728,7 +4809,7 @@
       </c>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>61</v>
       </c>
@@ -4740,7 +4821,7 @@
       </c>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>89</v>
       </c>
@@ -4752,7 +4833,7 @@
       </c>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -4764,7 +4845,7 @@
       </c>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -4776,7 +4857,7 @@
       </c>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>161</v>
       </c>
@@ -4788,7 +4869,7 @@
       </c>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>21</v>
       </c>
@@ -4800,7 +4881,7 @@
       </c>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>42</v>
       </c>
@@ -4812,7 +4893,7 @@
       </c>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>90</v>
       </c>
@@ -4824,7 +4905,7 @@
       </c>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>91</v>
       </c>
@@ -4836,7 +4917,7 @@
       </c>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>94</v>
       </c>
@@ -4848,7 +4929,7 @@
       </c>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>121</v>
       </c>
@@ -4860,7 +4941,7 @@
       </c>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>168</v>
       </c>
@@ -4872,7 +4953,7 @@
       </c>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -4884,7 +4965,7 @@
       </c>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>37</v>
       </c>
@@ -4896,7 +4977,7 @@
       </c>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>64</v>
       </c>
@@ -4908,7 +4989,7 @@
       </c>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>72</v>
       </c>
@@ -4920,7 +5001,7 @@
       </c>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>85</v>
       </c>
@@ -4932,7 +5013,7 @@
       </c>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>86</v>
       </c>
@@ -4944,7 +5025,7 @@
       </c>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>99</v>
       </c>
@@ -4956,7 +5037,7 @@
       </c>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>106</v>
       </c>
@@ -4968,7 +5049,7 @@
       </c>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>111</v>
       </c>
@@ -4980,7 +5061,7 @@
       </c>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -4992,7 +5073,7 @@
       </c>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -5004,7 +5085,7 @@
       </c>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>144</v>
       </c>
@@ -5016,7 +5097,7 @@
       </c>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>167</v>
       </c>
@@ -5028,7 +5109,7 @@
       </c>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>49</v>
       </c>
@@ -5040,7 +5121,7 @@
       </c>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>81</v>
       </c>
@@ -5052,7 +5133,7 @@
       </c>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>107</v>
       </c>
@@ -5064,7 +5145,7 @@
       </c>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>147</v>
       </c>
@@ -5076,7 +5157,7 @@
       </c>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>40</v>
       </c>
@@ -5088,7 +5169,7 @@
       </c>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -5100,7 +5181,7 @@
       </c>
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -5112,7 +5193,7 @@
       </c>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -5124,7 +5205,7 @@
       </c>
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>84</v>
       </c>
@@ -5136,7 +5217,7 @@
       </c>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>140</v>
       </c>
@@ -5148,7 +5229,7 @@
       </c>
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>24</v>
       </c>
@@ -5160,7 +5241,7 @@
       </c>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>87</v>
       </c>
@@ -5172,7 +5253,7 @@
       </c>
       <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>110</v>
       </c>
@@ -5184,7 +5265,7 @@
       </c>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>120</v>
       </c>
@@ -5196,7 +5277,7 @@
       </c>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>123</v>
       </c>
@@ -5208,7 +5289,7 @@
       </c>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>30</v>
       </c>
@@ -5220,7 +5301,7 @@
       </c>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>114</v>
       </c>
@@ -5232,7 +5313,7 @@
       </c>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>139</v>
       </c>
@@ -5244,7 +5325,7 @@
       </c>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>118</v>
       </c>
@@ -5256,7 +5337,7 @@
       </c>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>170</v>
       </c>
@@ -5268,7 +5349,7 @@
       </c>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>67</v>
       </c>
@@ -5280,7 +5361,7 @@
       </c>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>98</v>
       </c>
@@ -5292,7 +5373,7 @@
       </c>
       <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>75</v>
       </c>
@@ -5304,7 +5385,7 @@
       </c>
       <c r="G148" s="5"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>108</v>
       </c>
@@ -5316,7 +5397,7 @@
       </c>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>92</v>
       </c>
@@ -5328,7 +5409,7 @@
       </c>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>102</v>
       </c>
@@ -5340,7 +5421,7 @@
       </c>
       <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>143</v>
       </c>
@@ -5352,7 +5433,7 @@
       </c>
       <c r="G152" s="5"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>71</v>
       </c>
@@ -5364,7 +5445,7 @@
       </c>
       <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>100</v>
       </c>
@@ -5376,7 +5457,7 @@
       </c>
       <c r="G154" s="5"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>68</v>
       </c>
@@ -5388,7 +5469,7 @@
       </c>
       <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>76</v>
       </c>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C108909-C4A6-42D8-9CAB-8C6D36B4979B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B895E5FB-079E-4D12-9A35-96C4ACEA33D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="-108" windowWidth="22668" windowHeight="13176" activeTab="1" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="480" yWindow="-108" windowWidth="22668" windowHeight="13176" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="214">
   <si>
     <t>Date</t>
   </si>
@@ -81,472 +81,601 @@
     <t>% object meas</t>
   </si>
   <si>
-    <t>Add overlay</t>
-  </si>
-  <si>
-    <t>Binary operations (legacy)</t>
-  </si>
-  <si>
-    <t>Channel extractor</t>
-  </si>
-  <si>
-    <t>Filter objects</t>
-  </si>
-  <si>
-    <t>Merge channels</t>
-  </si>
-  <si>
-    <t>Relate objects</t>
-  </si>
-  <si>
-    <t>Resolve co-occurrence</t>
-  </si>
-  <si>
-    <t>Threshold image</t>
-  </si>
-  <si>
-    <t>Input control</t>
-  </si>
-  <si>
-    <t>Output control</t>
-  </si>
-  <si>
-    <t>Image measurement calculator</t>
-  </si>
-  <si>
-    <t>Measure image colocalisation</t>
-  </si>
-  <si>
-    <t>Measure image dimensions</t>
-  </si>
-  <si>
-    <t>Measure image intensity</t>
-  </si>
-  <si>
-    <t>Measure image texture</t>
-  </si>
-  <si>
-    <t>Measure intensity distribution</t>
-  </si>
-  <si>
-    <t>Apply CLAHE</t>
-  </si>
-  <si>
-    <t>Binary operations 2D</t>
-  </si>
-  <si>
-    <t>Dilate and erode</t>
-  </si>
-  <si>
-    <t>Calculate distance map</t>
-  </si>
-  <si>
-    <t>Extended minima</t>
-  </si>
-  <si>
-    <t>Fill holes</t>
-  </si>
-  <si>
-    <t>Fill holes by volume</t>
-  </si>
-  <si>
-    <t>Fix skeleton breaks</t>
-  </si>
-  <si>
-    <t>Skeletonise</t>
-  </si>
-  <si>
-    <t>Watershed transform</t>
-  </si>
-  <si>
-    <t>Bleaching correction</t>
-  </si>
-  <si>
-    <t>Colour deconvolution</t>
-  </si>
-  <si>
-    <t>Combing correction</t>
-  </si>
-  <si>
-    <t>Filter image</t>
-  </si>
-  <si>
-    <t>Image calculator</t>
-  </si>
-  <si>
-    <t>Image math</t>
-  </si>
-  <si>
-    <t>Invert image intensity</t>
-  </si>
-  <si>
-    <t>Manually edit image</t>
-  </si>
-  <si>
-    <t>Normalise intensity</t>
-  </si>
-  <si>
-    <t>Plot kymograph</t>
-  </si>
-  <si>
-    <t>Project image</t>
-  </si>
-  <si>
-    <t>Global auto-threshold</t>
-  </si>
-  <si>
-    <t>Local auto-threshold</t>
-  </si>
-  <si>
-    <t>Manual threshold</t>
-  </si>
-  <si>
-    <t>Weka probability maps</t>
-  </si>
-  <si>
-    <t>White balance correction</t>
-  </si>
-  <si>
-    <t>Apply offset correction</t>
-  </si>
-  <si>
-    <t>Best focus stack</t>
-  </si>
-  <si>
-    <t>Concatenate stacks</t>
-  </si>
-  <si>
-    <t>Convert 3D stack (switch Z and T)</t>
-  </si>
-  <si>
-    <t>Crop image</t>
-  </si>
-  <si>
-    <t>Extract substack</t>
-  </si>
-  <si>
-    <t>Flip stack</t>
-  </si>
-  <si>
-    <t>Focus stack</t>
-  </si>
-  <si>
-    <t>Image type converter</t>
-  </si>
-  <si>
-    <t>Interpolate Z axis</t>
-  </si>
-  <si>
-    <t>Unwarp images (manual)</t>
-  </si>
-  <si>
-    <t>Register images</t>
-  </si>
-  <si>
-    <t>Remove image</t>
-  </si>
-  <si>
-    <t>Replace image</t>
-  </si>
-  <si>
-    <t>Unwarp images</t>
-  </si>
-  <si>
-    <t>Export ACC dataset</t>
-  </si>
-  <si>
-    <t>Load image</t>
-  </si>
-  <si>
-    <t>Save image</t>
-  </si>
-  <si>
-    <t>Extract metadata</t>
-  </si>
-  <si>
-    <t>Load objects</t>
-  </si>
-  <si>
-    <t>Add custom metadata item</t>
-  </si>
-  <si>
-    <t>GUI separator</t>
-  </si>
-  <si>
-    <t>Global variables</t>
-  </si>
-  <si>
-    <t>Run macro on image</t>
-  </si>
-  <si>
-    <t>Run macro on objects</t>
-  </si>
-  <si>
-    <t>Run single macro command</t>
-  </si>
-  <si>
-    <t>Measure object colocalisation</t>
-  </si>
-  <si>
-    <t>Measure object intensity</t>
-  </si>
-  <si>
-    <t>Measure object texture</t>
-  </si>
-  <si>
-    <t>Measure radial intensity profile</t>
-  </si>
-  <si>
-    <t>Measure spot intensity</t>
-  </si>
-  <si>
-    <t>Bin objects by measurement</t>
-  </si>
-  <si>
-    <t>Calculate measurement periodogram</t>
-  </si>
-  <si>
-    <t>Calculate statistics for children</t>
-  </si>
-  <si>
-    <t>Calculate statistics for partners</t>
-  </si>
-  <si>
-    <t>Object measurement calculator</t>
-  </si>
-  <si>
-    <t>Replace measurement value</t>
-  </si>
-  <si>
-    <t>Calculate nearest neighbour</t>
-  </si>
-  <si>
-    <t>Convex hull 2D</t>
-  </si>
-  <si>
-    <t>Fit ellipse</t>
-  </si>
-  <si>
-    <t>Fit ellipsoid</t>
-  </si>
-  <si>
-    <t>Fit Gaussian 2D</t>
-  </si>
-  <si>
-    <t>Fit longest chord</t>
-  </si>
-  <si>
-    <t>Fit spline</t>
-  </si>
-  <si>
-    <t>Measure object centroid</t>
-  </si>
-  <si>
-    <t>Measure object curvature</t>
-  </si>
-  <si>
-    <t>Measure object limits</t>
-  </si>
-  <si>
-    <t>Measure object overlap</t>
-  </si>
-  <si>
-    <t>Measure object shape</t>
-  </si>
-  <si>
-    <t>Measure relative orientation</t>
-  </si>
-  <si>
-    <t>Measure skeleton</t>
-  </si>
-  <si>
-    <t>Measure specific width</t>
-  </si>
-  <si>
-    <t>Measure track motion</t>
-  </si>
-  <si>
-    <t>Active contour-based detection</t>
-  </si>
-  <si>
-    <t>Extract object edges</t>
-  </si>
-  <si>
-    <t>Get local object region</t>
-  </si>
-  <si>
-    <t>Get object surface</t>
-  </si>
-  <si>
-    <t>Hough-based detection</t>
-  </si>
-  <si>
-    <t>Identify objects</t>
-  </si>
-  <si>
-    <t>Manually identify objects</t>
-  </si>
-  <si>
-    <t>Project objects</t>
-  </si>
-  <si>
-    <t>Ridge detection</t>
-  </si>
-  <si>
-    <t>Run TrackMate</t>
-  </si>
-  <si>
-    <t>Convert objects to image</t>
-  </si>
-  <si>
-    <t>Create distance map</t>
-  </si>
-  <si>
-    <t>Combine object sets</t>
-  </si>
-  <si>
-    <t>Duplicate objects across time</t>
-  </si>
-  <si>
-    <t>Expand and shrink objects</t>
-  </si>
-  <si>
-    <t>Number of children</t>
-  </si>
-  <si>
-    <t>Based on measurement</t>
-  </si>
-  <si>
-    <t>Measurement extremes</t>
-  </si>
-  <si>
-    <t>Number of partners</t>
-  </si>
-  <si>
-    <t>Remove on image edge</t>
-  </si>
-  <si>
-    <t>Objects with specific IDs</t>
-  </si>
-  <si>
-    <t>With / without measurement</t>
-  </si>
-  <si>
-    <t>With / without parent</t>
-  </si>
-  <si>
-    <t>Mask objects</t>
-  </si>
-  <si>
-    <t>Merge related objects</t>
-  </si>
-  <si>
-    <t>Merge single class</t>
-  </si>
-  <si>
-    <t>Merge tracks</t>
-  </si>
-  <si>
-    <t>Reassign enclosed objects</t>
-  </si>
-  <si>
-    <t>Remove objects</t>
-  </si>
-  <si>
-    <t>Relate many-to-many</t>
-  </si>
-  <si>
-    <t>Relate many-to-one</t>
-  </si>
-  <si>
-    <t>Relate one-to-one</t>
-  </si>
-  <si>
-    <t>Single class cluster</t>
-  </si>
-  <si>
-    <t>Track objects</t>
-  </si>
-  <si>
-    <t>Create measurement map</t>
-  </si>
-  <si>
-    <t>Create object density map</t>
-  </si>
-  <si>
-    <t>Create orthogonal view</t>
-  </si>
-  <si>
-    <t>Set intensity display range</t>
-  </si>
-  <si>
-    <t>Set lookup table</t>
-  </si>
-  <si>
-    <t>Add all object points</t>
-  </si>
-  <si>
-    <t>Add arrows</t>
-  </si>
-  <si>
-    <t>Add contour lines</t>
-  </si>
-  <si>
-    <t>Add from position measurement</t>
-  </si>
-  <si>
-    <t>Add labels</t>
-  </si>
-  <si>
-    <t>Add line</t>
-  </si>
-  <si>
-    <t>Add object centroid</t>
-  </si>
-  <si>
-    <t>Add object fill</t>
-  </si>
-  <si>
-    <t>Add object outline</t>
-  </si>
-  <si>
-    <t>Add relationship connection</t>
-  </si>
-  <si>
-    <t>Add text</t>
-  </si>
-  <si>
-    <t>Add tracks</t>
-  </si>
-  <si>
-    <t>Plot measurements as scatter</t>
-  </si>
-  <si>
-    <t>Show image</t>
-  </si>
-  <si>
-    <t>Show image measurements</t>
-  </si>
-  <si>
-    <t>Show metadata</t>
-  </si>
-  <si>
-    <t>Show object measurements</t>
-  </si>
-  <si>
-    <t>Add pause</t>
-  </si>
-  <si>
-    <t>Fixed text condition</t>
-  </si>
-  <si>
-    <t>GUI condition</t>
-  </si>
-  <si>
-    <t>Module is enabled condition</t>
-  </si>
-  <si>
-    <t>Workflow handling</t>
+    <t>Module "Add overlay"</t>
+  </si>
+  <si>
+    <t>Module "Binary operations (legacy)"</t>
+  </si>
+  <si>
+    <t>Module "Channel extractor"</t>
+  </si>
+  <si>
+    <t>Module "Filter objects"</t>
+  </si>
+  <si>
+    <t>Module "Merge channels"</t>
+  </si>
+  <si>
+    <t>Module "Relate objects"</t>
+  </si>
+  <si>
+    <t>Module "Resolve co-occurrence"</t>
+  </si>
+  <si>
+    <t>Module "Threshold image"</t>
+  </si>
+  <si>
+    <t>Module "Input control"</t>
+  </si>
+  <si>
+    <t>Module "Output control"</t>
+  </si>
+  <si>
+    <t>Module "Image measurement calculator"</t>
+  </si>
+  <si>
+    <t>Module "Measure image colocalisation"</t>
+  </si>
+  <si>
+    <t>Module "Measure image dimensions"</t>
+  </si>
+  <si>
+    <t>Module "Measure image intensity"</t>
+  </si>
+  <si>
+    <t>Module "Measure image texture"</t>
+  </si>
+  <si>
+    <t>Module "Measure intensity distribution"</t>
+  </si>
+  <si>
+    <t>Module "Apply CLAHE"</t>
+  </si>
+  <si>
+    <t>Module "Binary operations 2D"</t>
+  </si>
+  <si>
+    <t>Module "Dilate and erode"</t>
+  </si>
+  <si>
+    <t>Module "Calculate distance map"</t>
+  </si>
+  <si>
+    <t>Module "Extended minima"</t>
+  </si>
+  <si>
+    <t>Module "Fill holes"</t>
+  </si>
+  <si>
+    <t>Module "Fill holes by volume"</t>
+  </si>
+  <si>
+    <t>Module "Fix skeleton breaks"</t>
+  </si>
+  <si>
+    <t>Module "Skeletonise"</t>
+  </si>
+  <si>
+    <t>Module "Watershed transform"</t>
+  </si>
+  <si>
+    <t>Module "Bleaching correction"</t>
+  </si>
+  <si>
+    <t>Module "Colour deconvolution"</t>
+  </si>
+  <si>
+    <t>Module "Combing correction"</t>
+  </si>
+  <si>
+    <t>Module "Filter image"</t>
+  </si>
+  <si>
+    <t>Module "Image calculator"</t>
+  </si>
+  <si>
+    <t>Module "Image math"</t>
+  </si>
+  <si>
+    <t>Module "Invert image intensity"</t>
+  </si>
+  <si>
+    <t>Module "Manually edit image"</t>
+  </si>
+  <si>
+    <t>Module "Normalise intensity"</t>
+  </si>
+  <si>
+    <t>Module "Plot kymograph"</t>
+  </si>
+  <si>
+    <t>Module "Project image"</t>
+  </si>
+  <si>
+    <t>Module "Global auto-threshold"</t>
+  </si>
+  <si>
+    <t>Module "Local auto-threshold"</t>
+  </si>
+  <si>
+    <t>Module "Manual threshold"</t>
+  </si>
+  <si>
+    <t>Module "Weka probability maps"</t>
+  </si>
+  <si>
+    <t>Module "White balance correction"</t>
+  </si>
+  <si>
+    <t>Module "Apply offset correction"</t>
+  </si>
+  <si>
+    <t>Module "Best focus stack"</t>
+  </si>
+  <si>
+    <t>Module "Concatenate stacks"</t>
+  </si>
+  <si>
+    <t>Module "Convert 3D stack (switch Z and T)"</t>
+  </si>
+  <si>
+    <t>Module "Crop image"</t>
+  </si>
+  <si>
+    <t>Module "Extract substack"</t>
+  </si>
+  <si>
+    <t>Module "Flip stack"</t>
+  </si>
+  <si>
+    <t>Module "Focus stack"</t>
+  </si>
+  <si>
+    <t>Module "Image type converter"</t>
+  </si>
+  <si>
+    <t>Module "Interpolate Z axis"</t>
+  </si>
+  <si>
+    <t>Module "Unwarp images (manual)"</t>
+  </si>
+  <si>
+    <t>Module "Register images"</t>
+  </si>
+  <si>
+    <t>Module "Remove image"</t>
+  </si>
+  <si>
+    <t>Module "Replace image"</t>
+  </si>
+  <si>
+    <t>Module "Unwarp images"</t>
+  </si>
+  <si>
+    <t>Module "Export ACC dataset"</t>
+  </si>
+  <si>
+    <t>Module "Load image"</t>
+  </si>
+  <si>
+    <t>Module "Save image"</t>
+  </si>
+  <si>
+    <t>Module "Extract metadata"</t>
+  </si>
+  <si>
+    <t>Module "Load objects"</t>
+  </si>
+  <si>
+    <t>Module "Add custom metadata item"</t>
+  </si>
+  <si>
+    <t>Module "GUI separator"</t>
+  </si>
+  <si>
+    <t>Module "Global variables"</t>
+  </si>
+  <si>
+    <t>Module "Run macro on image"</t>
+  </si>
+  <si>
+    <t>Module "Run macro on objects"</t>
+  </si>
+  <si>
+    <t>Module "Run single macro command"</t>
+  </si>
+  <si>
+    <t>Module "Measure object colocalisation"</t>
+  </si>
+  <si>
+    <t>Module "Measure object intensity"</t>
+  </si>
+  <si>
+    <t>Module "Measure object texture"</t>
+  </si>
+  <si>
+    <t>Module "Measure radial intensity profile"</t>
+  </si>
+  <si>
+    <t>Module "Measure spot intensity"</t>
+  </si>
+  <si>
+    <t>Module "Bin objects by measurement"</t>
+  </si>
+  <si>
+    <t>Module "Calculate measurement periodogram"</t>
+  </si>
+  <si>
+    <t>Module "Calculate statistics for children"</t>
+  </si>
+  <si>
+    <t>Module "Calculate statistics for partners"</t>
+  </si>
+  <si>
+    <t>Module "Child object count"</t>
+  </si>
+  <si>
+    <t>Module "Object measurement calculator"</t>
+  </si>
+  <si>
+    <t>Module "Parent object ID"</t>
+  </si>
+  <si>
+    <t>Module "Partner object count"</t>
+  </si>
+  <si>
+    <t>Module "Replace measurement value"</t>
+  </si>
+  <si>
+    <t>Module "Calculate nearest neighbour"</t>
+  </si>
+  <si>
+    <t>Module "Convex hull 2D"</t>
+  </si>
+  <si>
+    <t>Module "Fit ellipse"</t>
+  </si>
+  <si>
+    <t>Module "Fit ellipsoid"</t>
+  </si>
+  <si>
+    <t>Module "Fit Gaussian 2D"</t>
+  </si>
+  <si>
+    <t>Module "Fit longest chord"</t>
+  </si>
+  <si>
+    <t>Module "Fit spline"</t>
+  </si>
+  <si>
+    <t>Module "Measure object centroid"</t>
+  </si>
+  <si>
+    <t>Module "Measure object curvature"</t>
+  </si>
+  <si>
+    <t>Module "Measure object limits"</t>
+  </si>
+  <si>
+    <t>Module "Measure object overlap"</t>
+  </si>
+  <si>
+    <t>Module "Measure object shape"</t>
+  </si>
+  <si>
+    <t>Module "Measure relative orientation"</t>
+  </si>
+  <si>
+    <t>Module "Measure skeleton"</t>
+  </si>
+  <si>
+    <t>Module "Measure specific width"</t>
+  </si>
+  <si>
+    <t>Module "Measure track motion"</t>
+  </si>
+  <si>
+    <t>Module "Active contour-based detection"</t>
+  </si>
+  <si>
+    <t>Module "Extract object edges"</t>
+  </si>
+  <si>
+    <t>Module "Get local object region"</t>
+  </si>
+  <si>
+    <t>Module "Get object surface"</t>
+  </si>
+  <si>
+    <t>Module "Hough-based detection"</t>
+  </si>
+  <si>
+    <t>Module "Identify objects"</t>
+  </si>
+  <si>
+    <t>Module "Manually identify objects"</t>
+  </si>
+  <si>
+    <t>Module "Project objects"</t>
+  </si>
+  <si>
+    <t>Module "Ridge detection"</t>
+  </si>
+  <si>
+    <t>Module "Run TrackMate"</t>
+  </si>
+  <si>
+    <t>Module "Convert objects to image"</t>
+  </si>
+  <si>
+    <t>Module "Create distance map"</t>
+  </si>
+  <si>
+    <t>Module "Combine object sets"</t>
+  </si>
+  <si>
+    <t>Module "Duplicate objects across time"</t>
+  </si>
+  <si>
+    <t>Module "Expand and shrink objects"</t>
+  </si>
+  <si>
+    <t>Module "Number of children"</t>
+  </si>
+  <si>
+    <t>Module "Based on measurement"</t>
+  </si>
+  <si>
+    <t>Module "Measurement extremes"</t>
+  </si>
+  <si>
+    <t>Module "Number of partners"</t>
+  </si>
+  <si>
+    <t>Module "Remove on image edge"</t>
+  </si>
+  <si>
+    <t>Module "Objects with specific IDs"</t>
+  </si>
+  <si>
+    <t>Module "With / without measurement"</t>
+  </si>
+  <si>
+    <t>Module "With / without parent"</t>
+  </si>
+  <si>
+    <t>Module "Mask objects"</t>
+  </si>
+  <si>
+    <t>Module "Merge related objects"</t>
+  </si>
+  <si>
+    <t>Module "Merge single class"</t>
+  </si>
+  <si>
+    <t>Module "Merge tracks"</t>
+  </si>
+  <si>
+    <t>Module "Reassign enclosed objects"</t>
+  </si>
+  <si>
+    <t>Module "Remove objects"</t>
+  </si>
+  <si>
+    <t>Module "Relate many-to-many"</t>
+  </si>
+  <si>
+    <t>Module "Relate many-to-one"</t>
+  </si>
+  <si>
+    <t>Module "Relate one-to-one"</t>
+  </si>
+  <si>
+    <t>Module "Single class cluster"</t>
+  </si>
+  <si>
+    <t>Module "Track objects"</t>
+  </si>
+  <si>
+    <t>Module "Create measurement map"</t>
+  </si>
+  <si>
+    <t>Module "Create object density map"</t>
+  </si>
+  <si>
+    <t>Module "Create orthogonal view"</t>
+  </si>
+  <si>
+    <t>Module "Set intensity display range"</t>
+  </si>
+  <si>
+    <t>Module "Set lookup table"</t>
+  </si>
+  <si>
+    <t>Module "Add all object points"</t>
+  </si>
+  <si>
+    <t>Module "Add arrows"</t>
+  </si>
+  <si>
+    <t>Module "Add contour lines"</t>
+  </si>
+  <si>
+    <t>Module "Add from position measurement"</t>
+  </si>
+  <si>
+    <t>Module "Add labels"</t>
+  </si>
+  <si>
+    <t>Module "Add line"</t>
+  </si>
+  <si>
+    <t>Module "Add object centroid"</t>
+  </si>
+  <si>
+    <t>Module "Add object fill"</t>
+  </si>
+  <si>
+    <t>Module "Add object outline"</t>
+  </si>
+  <si>
+    <t>Module "Add relationship connection"</t>
+  </si>
+  <si>
+    <t>Module "Add text"</t>
+  </si>
+  <si>
+    <t>Module "Add tracks"</t>
+  </si>
+  <si>
+    <t>Module "Plot measurements as scatter"</t>
+  </si>
+  <si>
+    <t>Module "Show image"</t>
+  </si>
+  <si>
+    <t>Module "Show image measurements"</t>
+  </si>
+  <si>
+    <t>Module "Show metadata"</t>
+  </si>
+  <si>
+    <t>Module "Show object measurements"</t>
+  </si>
+  <si>
+    <t>Module "Add pause"</t>
+  </si>
+  <si>
+    <t>Module "Fixed text condition"</t>
+  </si>
+  <si>
+    <t>Module "GUI condition"</t>
+  </si>
+  <si>
+    <t>Module "Module is enabled condition"</t>
+  </si>
+  <si>
+    <t>Module "Workflow handling"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parameters = 100.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> image refs = 100.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> obj refs = 100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parameters = 0.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parameters = 7.69%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parameters = 50.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> image refs = 0.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parameters = 36.36%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parameters = 18.18%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parameters = 72.73%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parameters = 75.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parameters = 6.45%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parameters = 20.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> obj refs = 0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parameters = 6.67%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> obj refs = 80.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incomplete parameters = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parameters = 11.76%</t>
   </si>
 </sst>
 </file>
@@ -668,10 +797,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -719,16 +848,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$17</c:f>
+              <c:f>Sheet1!$N$2:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -776,6 +911,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>58.385093167701861</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.926829268292686</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.146341463414636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -815,10 +956,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -866,16 +1007,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$17</c:f>
+              <c:f>Sheet1!$O$2:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -923,6 +1070,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44.32576769025367</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43.865435356200528</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45.609436435124508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,10 +1115,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1013,16 +1166,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$17</c:f>
+              <c:f>Sheet1!$P$2:$P$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1070,6 +1229,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>37.267080745341616</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.585365853658537</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.853658536585364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,10 +1274,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1160,16 +1325,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$17</c:f>
+              <c:f>Sheet1!$Q$2:$Q$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1216,6 +1387,12 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1256,10 +1433,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1307,16 +1484,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$17</c:f>
+              <c:f>Sheet1!$R$2:$R$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1364,6 +1547,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.967136150234744</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2477,14 +2666,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
@@ -2494,7 +2684,7 @@
     <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
@@ -3433,11 +3623,114 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="O18" s="3"/>
+      <c r="A18" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>164</v>
+      </c>
+      <c r="E18">
+        <v>95</v>
+      </c>
+      <c r="F18">
+        <v>1516</v>
+      </c>
+      <c r="G18">
+        <v>665</v>
+      </c>
+      <c r="H18">
+        <v>60</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18">
+        <v>213</v>
+      </c>
+      <c r="L18">
+        <v>83</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" ref="N18" si="55">100*E18/D18</f>
+        <v>57.926829268292686</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" ref="O18" si="56">100*G18/F18</f>
+        <v>43.865435356200528</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" ref="P18" si="57">100*H18/D18</f>
+        <v>36.585365853658537</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" ref="Q18" si="58">100*J18/I18</f>
+        <v>70</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" ref="R18" si="59">100*L18/K18</f>
+        <v>38.967136150234744</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
+      <c r="A19" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>164</v>
+      </c>
+      <c r="E19">
+        <v>97</v>
+      </c>
+      <c r="F19">
+        <v>1526</v>
+      </c>
+      <c r="G19">
+        <v>696</v>
+      </c>
+      <c r="H19">
+        <v>67</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>14</v>
+      </c>
+      <c r="K19">
+        <v>213</v>
+      </c>
+      <c r="L19">
+        <v>86</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" ref="N19" si="60">100*E19/D19</f>
+        <v>59.146341463414636</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" ref="O19" si="61">100*G19/F19</f>
+        <v>45.609436435124508</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" ref="P19" si="62">100*H19/D19</f>
+        <v>40.853658536585364</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" ref="Q19" si="63">100*J19/I19</f>
+        <v>70</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" ref="R19" si="64">100*L19/K19</f>
+        <v>40.375586854460096</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
@@ -3515,1894 +3808,2913 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626E3B8F-11F4-4CEC-B58F-ACDF97F078AF}">
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G56" activeCellId="1" sqref="C55 G56"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C70" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B16" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B17" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B18" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B19" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B20" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B21" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B23" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B24" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B25" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B26" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" t="s">
+        <v>176</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" t="s">
+        <v>179</v>
+      </c>
+      <c r="D76" t="s">
+        <v>176</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" t="s">
+        <v>179</v>
+      </c>
+      <c r="D78" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B80" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" t="s">
+        <v>178</v>
+      </c>
+      <c r="C81" t="s">
+        <v>206</v>
+      </c>
+      <c r="D81" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" t="s">
+        <v>176</v>
+      </c>
+      <c r="E82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" t="s">
+        <v>176</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C84" t="s">
+        <v>187</v>
+      </c>
+      <c r="D84" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" t="s">
+        <v>209</v>
+      </c>
+      <c r="C85" t="s">
+        <v>187</v>
+      </c>
+      <c r="D85" t="s">
+        <v>176</v>
+      </c>
+      <c r="E85" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" t="s">
+        <v>210</v>
+      </c>
+      <c r="D86" t="s">
+        <v>176</v>
+      </c>
+      <c r="E86" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" t="s">
+        <v>210</v>
+      </c>
+      <c r="D87" t="s">
+        <v>176</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" t="s">
+        <v>213</v>
+      </c>
+      <c r="C88" t="s">
+        <v>210</v>
+      </c>
+      <c r="D88" t="s">
+        <v>176</v>
+      </c>
+      <c r="E88" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" t="s">
+        <v>198</v>
+      </c>
+      <c r="D89" t="s">
+        <v>176</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>75</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" t="s">
+        <v>201</v>
+      </c>
+      <c r="D91" t="s">
+        <v>176</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" t="s">
+        <v>201</v>
+      </c>
+      <c r="D92" t="s">
+        <v>176</v>
+      </c>
+      <c r="E92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93" t="s">
+        <v>207</v>
+      </c>
+      <c r="D93" t="s">
+        <v>176</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" t="s">
+        <v>207</v>
+      </c>
+      <c r="D94" t="s">
+        <v>176</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>146</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" t="s">
+        <v>207</v>
+      </c>
+      <c r="D95" t="s">
+        <v>176</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" t="s">
+        <v>197</v>
+      </c>
+      <c r="D96" t="s">
+        <v>176</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>77</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" t="s">
+        <v>197</v>
+      </c>
+      <c r="D97" t="s">
+        <v>176</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C98" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98" t="s">
+        <v>176</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C99" t="s">
+        <v>197</v>
+      </c>
+      <c r="D99" t="s">
+        <v>176</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>169</v>
+      </c>
+      <c r="B100" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" t="s">
+        <v>197</v>
+      </c>
+      <c r="D100" t="s">
+        <v>176</v>
+      </c>
+      <c r="E100" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" t="s">
+        <v>208</v>
+      </c>
+      <c r="D101" t="s">
+        <v>176</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C102" t="s">
+        <v>200</v>
+      </c>
+      <c r="D102" t="s">
+        <v>176</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C103" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103" t="s">
+        <v>176</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104" t="s">
+        <v>199</v>
+      </c>
+      <c r="D104" t="s">
+        <v>176</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C105" t="s">
+        <v>203</v>
+      </c>
+      <c r="D105" t="s">
+        <v>176</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106" t="s">
+        <v>191</v>
+      </c>
+      <c r="D106" t="s">
+        <v>176</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>36</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C107" t="s">
+        <v>191</v>
+      </c>
+      <c r="D107" t="s">
+        <v>176</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C108" t="s">
+        <v>191</v>
+      </c>
+      <c r="D108" t="s">
+        <v>176</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C109" t="s">
+        <v>191</v>
+      </c>
+      <c r="D109" t="s">
+        <v>176</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>41</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C110" t="s">
+        <v>191</v>
+      </c>
+      <c r="D110" t="s">
+        <v>176</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C111" t="s">
+        <v>191</v>
+      </c>
+      <c r="D111" t="s">
+        <v>176</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>58</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C112" t="s">
+        <v>191</v>
+      </c>
+      <c r="D112" t="s">
+        <v>176</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C113" t="s">
+        <v>191</v>
+      </c>
+      <c r="D113" t="s">
+        <v>176</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114" t="s">
+        <v>178</v>
+      </c>
+      <c r="C114" t="s">
+        <v>191</v>
+      </c>
+      <c r="D114" t="s">
+        <v>176</v>
+      </c>
+      <c r="E114" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115" t="s">
+        <v>178</v>
+      </c>
+      <c r="C115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D115" t="s">
+        <v>176</v>
+      </c>
+      <c r="E115" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>26</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C116" t="s">
+        <v>186</v>
+      </c>
+      <c r="D116" t="s">
+        <v>185</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>29</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C117" t="s">
+        <v>186</v>
+      </c>
+      <c r="D117" t="s">
+        <v>185</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>60</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C118" t="s">
+        <v>186</v>
+      </c>
+      <c r="D118" t="s">
+        <v>176</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>79</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C119" t="s">
+        <v>186</v>
+      </c>
+      <c r="D119" t="s">
+        <v>176</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>96</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C120" t="s">
+        <v>186</v>
+      </c>
+      <c r="D120" t="s">
+        <v>176</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" t="s">
+        <v>178</v>
+      </c>
+      <c r="C121" t="s">
+        <v>186</v>
+      </c>
+      <c r="D121" t="s">
+        <v>176</v>
+      </c>
+      <c r="E121" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C122" t="s">
+        <v>186</v>
+      </c>
+      <c r="D122" t="s">
+        <v>176</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>149</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C123" t="s">
+        <v>186</v>
+      </c>
+      <c r="D123" t="s">
+        <v>176</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C124" t="s">
+        <v>180</v>
+      </c>
+      <c r="D124" t="s">
+        <v>176</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C125" t="s">
+        <v>180</v>
+      </c>
+      <c r="D125" t="s">
+        <v>176</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>88</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C126" t="s">
+        <v>180</v>
+      </c>
+      <c r="D126" t="s">
+        <v>176</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>148</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C127" t="s">
+        <v>180</v>
+      </c>
+      <c r="D127" t="s">
+        <v>176</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>32</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C128" t="s">
+        <v>190</v>
+      </c>
+      <c r="D128" t="s">
+        <v>176</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>35</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C129" t="s">
+        <v>190</v>
+      </c>
+      <c r="D129" t="s">
+        <v>176</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>50</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C130" t="s">
+        <v>190</v>
+      </c>
+      <c r="D130" t="s">
+        <v>176</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>82</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C131" t="s">
+        <v>190</v>
+      </c>
+      <c r="D131" t="s">
+        <v>176</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>108</v>
+      </c>
+      <c r="B132" t="s">
+        <v>178</v>
+      </c>
+      <c r="C132" t="s">
+        <v>190</v>
+      </c>
+      <c r="D132" t="s">
+        <v>176</v>
+      </c>
+      <c r="E132" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="5">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B133" t="s">
+        <v>178</v>
+      </c>
+      <c r="C133" t="s">
+        <v>190</v>
+      </c>
+      <c r="D133" t="s">
+        <v>176</v>
+      </c>
+      <c r="E133" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>127</v>
       </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="5">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="5">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>149</v>
-      </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>150</v>
-      </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" s="5">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>153</v>
-      </c>
-      <c r="B44" s="5">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>154</v>
-      </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>155</v>
-      </c>
-      <c r="B46" s="5">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>156</v>
-      </c>
-      <c r="B47" s="5">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>157</v>
-      </c>
-      <c r="B48" s="5">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>158</v>
-      </c>
-      <c r="B49" s="5">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>159</v>
-      </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" s="5">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>162</v>
-      </c>
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>163</v>
-      </c>
-      <c r="B53" s="5">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B134" t="s">
+        <v>178</v>
+      </c>
+      <c r="C134" t="s">
+        <v>190</v>
+      </c>
+      <c r="D134" t="s">
+        <v>176</v>
+      </c>
+      <c r="E134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>31</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C135" t="s">
+        <v>189</v>
+      </c>
+      <c r="D135" t="s">
+        <v>176</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>46</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C136" t="s">
+        <v>189</v>
+      </c>
+      <c r="D136" t="s">
+        <v>176</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>57</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C137" t="s">
+        <v>189</v>
+      </c>
+      <c r="D137" t="s">
+        <v>176</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>61</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C138" t="s">
+        <v>189</v>
+      </c>
+      <c r="D138" t="s">
+        <v>176</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>89</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C139" t="s">
+        <v>189</v>
+      </c>
+      <c r="D139" t="s">
+        <v>176</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>99</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C140" t="s">
+        <v>189</v>
+      </c>
+      <c r="D140" t="s">
+        <v>176</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>100</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C141" t="s">
+        <v>189</v>
+      </c>
+      <c r="D141" t="s">
+        <v>176</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>164</v>
       </c>
-      <c r="B54" s="5">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>165</v>
-      </c>
-      <c r="B55" s="5">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="5">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="5">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="5">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="5">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" s="5">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" s="5">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="5">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" s="5">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>95</v>
-      </c>
-      <c r="B65" s="5">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>135</v>
-      </c>
-      <c r="B66" s="5">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>166</v>
-      </c>
-      <c r="B67" s="5">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="5">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="G68" s="5"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69" s="5">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" s="5">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" s="5">
-        <v>0.72729999999999995</v>
-      </c>
-      <c r="C71">
-        <v>3</v>
-      </c>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" s="5">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="5">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="5">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="G75" s="5"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" s="5">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>104</v>
-      </c>
-      <c r="B77" s="5">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-      <c r="G77" s="5"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="B142" t="s">
+        <v>178</v>
+      </c>
+      <c r="C142" t="s">
+        <v>189</v>
+      </c>
+      <c r="D142" t="s">
+        <v>176</v>
+      </c>
+      <c r="E142" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C143" t="s">
+        <v>182</v>
+      </c>
+      <c r="D143" t="s">
+        <v>176</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>42</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C144" t="s">
+        <v>182</v>
+      </c>
+      <c r="D144" t="s">
+        <v>176</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>90</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C145" t="s">
+        <v>182</v>
+      </c>
+      <c r="D145" t="s">
+        <v>176</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>91</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C146" t="s">
+        <v>182</v>
+      </c>
+      <c r="D146" t="s">
+        <v>176</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>124</v>
+      </c>
+      <c r="B147" t="s">
+        <v>178</v>
+      </c>
+      <c r="C147" t="s">
+        <v>182</v>
+      </c>
+      <c r="D147" t="s">
+        <v>176</v>
+      </c>
+      <c r="E147" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>25</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C148" t="s">
+        <v>184</v>
+      </c>
+      <c r="D148" t="s">
+        <v>185</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>37</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C149" t="s">
+        <v>184</v>
+      </c>
+      <c r="D149" t="s">
+        <v>176</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>64</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C150" t="s">
+        <v>184</v>
+      </c>
+      <c r="D150" t="s">
+        <v>176</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>72</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C151" t="s">
+        <v>184</v>
+      </c>
+      <c r="D151" t="s">
+        <v>176</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>85</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C152" t="s">
+        <v>184</v>
+      </c>
+      <c r="D152" t="s">
+        <v>176</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>86</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C153" t="s">
+        <v>184</v>
+      </c>
+      <c r="D153" t="s">
+        <v>176</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>102</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C154" t="s">
+        <v>184</v>
+      </c>
+      <c r="D154" t="s">
+        <v>176</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>109</v>
       </c>
-      <c r="B78" s="5">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="G78" s="5"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" s="5">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>4</v>
-      </c>
-      <c r="G79" s="5"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>26</v>
-      </c>
-      <c r="B80" s="5">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>4</v>
-      </c>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>29</v>
-      </c>
-      <c r="B81" s="5">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>4</v>
-      </c>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" s="5">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>4</v>
-      </c>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>79</v>
-      </c>
-      <c r="B83" s="5">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-      <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>93</v>
-      </c>
-      <c r="B84" s="5">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>4</v>
-      </c>
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>122</v>
-      </c>
-      <c r="B85" s="5">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>4</v>
-      </c>
-      <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>136</v>
-      </c>
-      <c r="B86" s="5">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>4</v>
-      </c>
-      <c r="G86" s="5"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>146</v>
-      </c>
-      <c r="B87" s="5">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>4</v>
-      </c>
-      <c r="G87" s="5"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>33</v>
-      </c>
-      <c r="B88" s="5">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>5</v>
-      </c>
-      <c r="G88" s="5"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="5">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>5</v>
-      </c>
-      <c r="G89" s="5"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B155" t="s">
+        <v>178</v>
+      </c>
+      <c r="C155" t="s">
+        <v>184</v>
+      </c>
+      <c r="D155" t="s">
+        <v>176</v>
+      </c>
+      <c r="E155" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>114</v>
+      </c>
+      <c r="B156" t="s">
+        <v>178</v>
+      </c>
+      <c r="C156" t="s">
+        <v>184</v>
+      </c>
+      <c r="D156" t="s">
+        <v>176</v>
+      </c>
+      <c r="E156" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>144</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C157" t="s">
+        <v>184</v>
+      </c>
+      <c r="D157" t="s">
+        <v>176</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>145</v>
       </c>
-      <c r="B90" s="5">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>5</v>
-      </c>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>32</v>
-      </c>
-      <c r="B91" s="5">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>6</v>
-      </c>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>35</v>
-      </c>
-      <c r="B92" s="5">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>6</v>
-      </c>
-      <c r="G92" s="5"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>50</v>
-      </c>
-      <c r="B93" s="5">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>6</v>
-      </c>
-      <c r="G93" s="5"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>82</v>
-      </c>
-      <c r="B94" s="5">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>6</v>
-      </c>
-      <c r="G94" s="5"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>105</v>
-      </c>
-      <c r="B95" s="5">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>6</v>
-      </c>
-      <c r="G95" s="5"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>112</v>
-      </c>
-      <c r="B96" s="5">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>6</v>
-      </c>
-      <c r="G96" s="5"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>124</v>
-      </c>
-      <c r="B97" s="5">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>6</v>
-      </c>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>31</v>
-      </c>
-      <c r="B98" s="5">
-        <v>0.36359999999999998</v>
-      </c>
-      <c r="C98">
-        <v>7</v>
-      </c>
-      <c r="G98" s="5"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>46</v>
-      </c>
-      <c r="B99" s="5">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>7</v>
-      </c>
-      <c r="G99" s="5"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>57</v>
-      </c>
-      <c r="B100" s="5">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>7</v>
-      </c>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>61</v>
-      </c>
-      <c r="B101" s="5">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>7</v>
-      </c>
-      <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>89</v>
-      </c>
-      <c r="B102" s="5">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>7</v>
-      </c>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>96</v>
-      </c>
-      <c r="B103" s="5">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>7</v>
-      </c>
-      <c r="G103" s="5"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>97</v>
-      </c>
-      <c r="B104" s="5">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>7</v>
-      </c>
-      <c r="G104" s="5"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>161</v>
-      </c>
-      <c r="B105" s="5">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>7</v>
-      </c>
-      <c r="G105" s="5"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>21</v>
-      </c>
-      <c r="B106" s="5">
-        <v>0</v>
-      </c>
-      <c r="C106">
-        <v>8</v>
-      </c>
-      <c r="G106" s="5"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>42</v>
-      </c>
-      <c r="B107" s="5">
-        <v>0</v>
-      </c>
-      <c r="C107">
-        <v>8</v>
-      </c>
-      <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>90</v>
-      </c>
-      <c r="B108" s="5">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>8</v>
-      </c>
-      <c r="G108" s="5"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>91</v>
-      </c>
-      <c r="B109" s="5">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>8</v>
-      </c>
-      <c r="G109" s="5"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>94</v>
-      </c>
-      <c r="B110" s="5">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>8</v>
-      </c>
-      <c r="G110" s="5"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>121</v>
-      </c>
-      <c r="B111" s="5">
-        <v>0</v>
-      </c>
-      <c r="C111">
-        <v>8</v>
-      </c>
-      <c r="G111" s="5"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>168</v>
-      </c>
-      <c r="B112" s="5">
-        <v>0.52939999999999998</v>
-      </c>
-      <c r="C112">
-        <v>8</v>
-      </c>
-      <c r="G112" s="5"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>25</v>
-      </c>
-      <c r="B113" s="5">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>9</v>
-      </c>
-      <c r="G113" s="5"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>37</v>
-      </c>
-      <c r="B114" s="5">
-        <v>0.18179999999999999</v>
-      </c>
-      <c r="C114">
-        <v>9</v>
-      </c>
-      <c r="G114" s="5"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>64</v>
-      </c>
-      <c r="B115" s="5">
-        <v>0</v>
-      </c>
-      <c r="C115">
-        <v>9</v>
-      </c>
-      <c r="G115" s="5"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>72</v>
-      </c>
-      <c r="B116" s="5">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>9</v>
-      </c>
-      <c r="G116" s="5"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>85</v>
-      </c>
-      <c r="B117" s="5">
-        <v>0</v>
-      </c>
-      <c r="C117">
-        <v>9</v>
-      </c>
-      <c r="G117" s="5"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>86</v>
-      </c>
-      <c r="B118" s="5">
-        <v>0</v>
-      </c>
-      <c r="C118">
-        <v>9</v>
-      </c>
-      <c r="G118" s="5"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>99</v>
-      </c>
-      <c r="B119" s="5">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>9</v>
-      </c>
-      <c r="G119" s="5"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>106</v>
-      </c>
-      <c r="B120" s="5">
-        <v>0</v>
-      </c>
-      <c r="C120">
-        <v>9</v>
-      </c>
-      <c r="G120" s="5"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>111</v>
-      </c>
-      <c r="B121" s="5">
-        <v>0</v>
-      </c>
-      <c r="C121">
-        <v>9</v>
-      </c>
-      <c r="G121" s="5"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>141</v>
-      </c>
-      <c r="B122" s="5">
-        <v>0</v>
-      </c>
-      <c r="C122">
-        <v>9</v>
-      </c>
-      <c r="G122" s="5"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>142</v>
-      </c>
-      <c r="B123" s="5">
-        <v>0</v>
-      </c>
-      <c r="C123">
-        <v>9</v>
-      </c>
-      <c r="G123" s="5"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>144</v>
-      </c>
-      <c r="B124" s="5">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>9</v>
-      </c>
-      <c r="G124" s="5"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>167</v>
-      </c>
-      <c r="B125" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C125">
-        <v>9</v>
-      </c>
-      <c r="G125" s="5"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>49</v>
-      </c>
-      <c r="B126" s="5">
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <v>10</v>
-      </c>
-      <c r="G126" s="5"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>81</v>
-      </c>
-      <c r="B127" s="5">
-        <v>0</v>
-      </c>
-      <c r="C127">
-        <v>10</v>
-      </c>
-      <c r="G127" s="5"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>107</v>
-      </c>
-      <c r="B128" s="5">
-        <v>0</v>
-      </c>
-      <c r="C128">
-        <v>10</v>
-      </c>
-      <c r="G128" s="5"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="B158" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C158" t="s">
+        <v>184</v>
+      </c>
+      <c r="D158" t="s">
+        <v>176</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>147</v>
       </c>
-      <c r="B129" s="5">
-        <v>0</v>
-      </c>
-      <c r="C129">
-        <v>10</v>
-      </c>
-      <c r="G129" s="5"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>40</v>
-      </c>
-      <c r="B130" s="5">
-        <v>0</v>
-      </c>
-      <c r="C130">
-        <v>11</v>
-      </c>
-      <c r="G130" s="5"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>16</v>
-      </c>
-      <c r="B131" s="5">
-        <v>0</v>
-      </c>
-      <c r="C131">
-        <v>12</v>
-      </c>
-      <c r="G131" s="5"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>20</v>
-      </c>
-      <c r="B132" s="5">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="C132">
-        <v>12</v>
-      </c>
-      <c r="G132" s="5"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>80</v>
-      </c>
-      <c r="B133" s="5">
-        <v>0</v>
-      </c>
-      <c r="C133">
-        <v>12</v>
-      </c>
-      <c r="G133" s="5"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>84</v>
-      </c>
-      <c r="B134" s="5">
-        <v>0</v>
-      </c>
-      <c r="C134">
-        <v>12</v>
-      </c>
-      <c r="G134" s="5"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>140</v>
-      </c>
-      <c r="B135" s="5">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="C135">
-        <v>12</v>
-      </c>
-      <c r="G135" s="5"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>24</v>
-      </c>
-      <c r="B136" s="5">
-        <v>0.43480000000000002</v>
-      </c>
-      <c r="C136">
-        <v>13</v>
-      </c>
-      <c r="G136" s="5"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>87</v>
-      </c>
-      <c r="B137" s="5">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>13</v>
-      </c>
-      <c r="G137" s="5"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>110</v>
-      </c>
-      <c r="B138" s="5">
-        <v>0</v>
-      </c>
-      <c r="C138">
-        <v>13</v>
-      </c>
-      <c r="G138" s="5"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>120</v>
-      </c>
-      <c r="B139" s="5">
-        <v>0</v>
-      </c>
-      <c r="C139">
-        <v>13</v>
-      </c>
-      <c r="G139" s="5"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>123</v>
-      </c>
-      <c r="B140" s="5">
-        <v>0</v>
-      </c>
-      <c r="C140">
-        <v>13</v>
-      </c>
-      <c r="G140" s="5"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>30</v>
-      </c>
-      <c r="B141" s="5">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>14</v>
-      </c>
-      <c r="G141" s="5"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>114</v>
-      </c>
-      <c r="B142" s="5">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="C142">
-        <v>14</v>
-      </c>
-      <c r="G142" s="5"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>139</v>
-      </c>
-      <c r="B143" s="5">
-        <v>0</v>
-      </c>
-      <c r="C143">
-        <v>14</v>
-      </c>
-      <c r="G143" s="5"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>118</v>
-      </c>
-      <c r="B144" s="5">
-        <v>0</v>
-      </c>
-      <c r="C144">
-        <v>15</v>
-      </c>
-      <c r="G144" s="5"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>170</v>
-      </c>
-      <c r="B145" s="5">
-        <v>0.1176</v>
-      </c>
-      <c r="C145">
-        <v>15</v>
-      </c>
-      <c r="G145" s="5"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>67</v>
-      </c>
-      <c r="B146" s="5">
-        <v>0</v>
-      </c>
-      <c r="C146">
-        <v>16</v>
-      </c>
-      <c r="G146" s="5"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>98</v>
-      </c>
-      <c r="B147" s="5">
-        <v>0</v>
-      </c>
-      <c r="C147">
-        <v>16</v>
-      </c>
-      <c r="G147" s="5"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>75</v>
-      </c>
-      <c r="B148" s="5">
-        <v>0</v>
-      </c>
-      <c r="C148">
-        <v>18</v>
-      </c>
-      <c r="G148" s="5"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>108</v>
-      </c>
-      <c r="B149" s="5">
-        <v>0</v>
-      </c>
-      <c r="C149">
-        <v>18</v>
-      </c>
-      <c r="G149" s="5"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>92</v>
-      </c>
-      <c r="B150" s="5">
-        <v>0</v>
-      </c>
-      <c r="C150">
-        <v>19</v>
-      </c>
-      <c r="G150" s="5"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>102</v>
-      </c>
-      <c r="B151" s="5">
-        <v>0</v>
-      </c>
-      <c r="C151">
-        <v>19</v>
-      </c>
-      <c r="G151" s="5"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>143</v>
-      </c>
-      <c r="B152" s="5">
-        <v>0</v>
-      </c>
-      <c r="C152">
-        <v>19</v>
-      </c>
-      <c r="G152" s="5"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>71</v>
-      </c>
-      <c r="B153" s="5">
-        <v>0</v>
-      </c>
-      <c r="C153">
-        <v>21</v>
-      </c>
-      <c r="G153" s="5"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>100</v>
-      </c>
-      <c r="B154" s="5">
-        <v>0</v>
-      </c>
-      <c r="C154">
-        <v>21</v>
-      </c>
-      <c r="G154" s="5"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>68</v>
-      </c>
-      <c r="B155" s="5">
-        <v>0</v>
-      </c>
-      <c r="C155">
-        <v>23</v>
-      </c>
-      <c r="G155" s="5"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>76</v>
-      </c>
-      <c r="B156" s="5">
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="C156">
-        <v>29</v>
-      </c>
-      <c r="G156" s="5"/>
+      <c r="B159" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C159" t="s">
+        <v>184</v>
+      </c>
+      <c r="D159" t="s">
+        <v>176</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B177" s="5"/>
+      <c r="E177" s="5"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B178" s="5"/>
+      <c r="E178" s="5"/>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B180" s="5"/>
+      <c r="E180" s="5"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B184" s="5"/>
+      <c r="E184" s="5"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B185" s="5"/>
+      <c r="E185" s="5"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B192" s="5"/>
+      <c r="E192" s="5"/>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B193" s="5"/>
+      <c r="E193" s="5"/>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B194" s="5"/>
+      <c r="E194" s="5"/>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B197" s="5"/>
+      <c r="E197" s="5"/>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B198" s="5"/>
+      <c r="E198" s="5"/>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B199" s="5"/>
+      <c r="E199" s="5"/>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B200" s="5"/>
+      <c r="E200" s="5"/>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B202" s="5"/>
+      <c r="E202" s="5"/>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B205" s="5"/>
+      <c r="E205" s="5"/>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B206" s="5"/>
+      <c r="E206" s="5"/>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B209" s="5"/>
+      <c r="E209" s="5"/>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B210" s="5"/>
+      <c r="E210" s="5"/>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B211" s="5"/>
+      <c r="E211" s="5"/>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B212" s="5"/>
+      <c r="E212" s="5"/>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B213" s="5"/>
+      <c r="E213" s="5"/>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B215" s="5"/>
+      <c r="E215" s="5"/>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B216" s="5"/>
+      <c r="E216" s="5"/>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B217" s="5"/>
+      <c r="E217" s="5"/>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B218" s="5"/>
+      <c r="E218" s="5"/>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B220" s="5"/>
+      <c r="E220" s="5"/>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B221" s="5"/>
+      <c r="E221" s="5"/>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B222" s="5"/>
+      <c r="E222" s="5"/>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B223" s="5"/>
+      <c r="E223" s="5"/>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B226" s="5"/>
+      <c r="E226" s="5"/>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B227" s="5"/>
+      <c r="E227" s="5"/>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B228" s="5"/>
+      <c r="E228" s="5"/>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B237" s="5"/>
+      <c r="E237" s="5"/>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B238" s="5"/>
+      <c r="E238" s="5"/>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B239" s="5"/>
+      <c r="E239" s="5"/>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B241" s="5"/>
+      <c r="E241" s="5"/>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B244" s="5"/>
+      <c r="E244" s="5"/>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B245" s="5"/>
+      <c r="E245" s="5"/>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B252" s="5"/>
+      <c r="E252" s="5"/>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B253" s="5"/>
+      <c r="E253" s="5"/>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B254" s="5"/>
+      <c r="E254" s="5"/>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B258" s="5"/>
+      <c r="E258" s="5"/>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B259" s="5"/>
+      <c r="E259" s="5"/>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B260" s="5"/>
+      <c r="E260" s="5"/>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B261" s="5"/>
+      <c r="E261" s="5"/>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B262" s="5"/>
+      <c r="E262" s="5"/>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B263" s="5"/>
+      <c r="E263" s="5"/>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B264" s="5"/>
+      <c r="E264" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C156">
-    <sortCondition ref="C55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E159">
+    <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D269CC7-BABF-473E-979D-CEB722C796F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C93B10B-5C51-452B-BA8C-D3AA7A20F913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -668,10 +668,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$18</c:f>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -722,16 +722,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$18</c:f>
+              <c:f>Sheet1!$N$2:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -782,6 +785,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>57.31707317073171</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.146341463414636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,10 +827,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$18</c:f>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -875,16 +881,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$18</c:f>
+              <c:f>Sheet1!$O$2:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -935,6 +944,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43.865435356200528</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45.609436435124508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,10 +986,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$18</c:f>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1028,16 +1040,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$18</c:f>
+              <c:f>Sheet1!$P$2:$P$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1088,6 +1103,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>36.585365853658537</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.853658536585364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,10 +1145,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$18</c:f>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1181,16 +1199,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$18</c:f>
+              <c:f>Sheet1!$Q$2:$Q$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1240,6 +1261,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1280,10 +1304,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$18</c:f>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1334,16 +1358,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$18</c:f>
+              <c:f>Sheet1!$R$2:$R$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1394,6 +1421,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>38.967136150234744</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2508,7 +2538,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3518,7 +3548,59 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
+      <c r="A19" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>164</v>
+      </c>
+      <c r="E19">
+        <v>97</v>
+      </c>
+      <c r="F19">
+        <v>1526</v>
+      </c>
+      <c r="G19">
+        <v>696</v>
+      </c>
+      <c r="H19">
+        <v>67</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>14</v>
+      </c>
+      <c r="K19">
+        <v>213</v>
+      </c>
+      <c r="L19">
+        <v>86</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" ref="N19" si="60">100*E19/D19</f>
+        <v>59.146341463414636</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" ref="O19" si="61">100*G19/F19</f>
+        <v>45.609436435124508</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" ref="P19" si="62">100*H19/D19</f>
+        <v>40.853658536585364</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" ref="Q19" si="63">100*J19/I19</f>
+        <v>70</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" ref="R19" si="64">100*L19/K19</f>
+        <v>40.375586854460096</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C93B10B-5C51-452B-BA8C-D3AA7A20F913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B284F6-5FA1-4A15-9049-C75A18B1342C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="480" yWindow="-108" windowWidth="22668" windowHeight="13176" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -668,10 +668,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -725,16 +725,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$19</c:f>
+              <c:f>Sheet1!$N$2:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -788,6 +791,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>59.146341463414636</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.756097560975611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,10 +833,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -884,16 +890,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$19</c:f>
+              <c:f>Sheet1!$O$2:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -947,6 +956,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45.609436435124508</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45.62091503267974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -986,10 +998,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1043,16 +1055,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$19</c:f>
+              <c:f>Sheet1!$P$2:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1106,6 +1121,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>40.853658536585364</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.463414634146339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,10 +1163,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1202,16 +1220,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$19</c:f>
+              <c:f>Sheet1!$Q$2:$Q$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1264,6 +1285,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1304,10 +1328,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1361,16 +1385,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$19</c:f>
+              <c:f>Sheet1!$R$2:$R$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1423,6 +1450,9 @@
                   <c:v>38.967136150234744</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2202,15 +2232,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
+      <xdr:colOff>441324</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>175683</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>771524</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>99483</xdr:rowOff>
+      <xdr:colOff>1127124</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>167217</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2537,32 +2567,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2609,7 +2639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44054</v>
       </c>
@@ -2665,7 +2695,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44055</v>
       </c>
@@ -2721,7 +2751,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44056</v>
       </c>
@@ -2777,7 +2807,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44057</v>
       </c>
@@ -2832,7 +2862,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44058</v>
       </c>
@@ -2887,7 +2917,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44064</v>
       </c>
@@ -2942,7 +2972,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44069</v>
       </c>
@@ -2997,7 +3027,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44070</v>
       </c>
@@ -3052,7 +3082,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44081</v>
       </c>
@@ -3107,7 +3137,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44082</v>
       </c>
@@ -3162,7 +3192,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44083</v>
       </c>
@@ -3217,7 +3247,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44084</v>
       </c>
@@ -3272,7 +3302,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44085</v>
       </c>
@@ -3327,7 +3357,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44089</v>
       </c>
@@ -3382,7 +3412,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44090</v>
       </c>
@@ -3437,7 +3467,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44091</v>
       </c>
@@ -3492,7 +3522,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44097</v>
       </c>
@@ -3547,7 +3577,7 @@
         <v>38.967136150234744</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44098</v>
       </c>
@@ -3602,70 +3632,122 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B20" s="4">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>164</v>
+      </c>
+      <c r="E20">
+        <v>98</v>
+      </c>
+      <c r="F20">
+        <v>1530</v>
+      </c>
+      <c r="G20">
+        <v>698</v>
+      </c>
+      <c r="H20">
+        <v>68</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>14</v>
+      </c>
+      <c r="K20">
+        <v>213</v>
+      </c>
+      <c r="L20">
+        <v>86</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" ref="N20" si="65">100*E20/D20</f>
+        <v>59.756097560975611</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" ref="O20" si="66">100*G20/F20</f>
+        <v>45.62091503267974</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" ref="P20" si="67">100*H20/D20</f>
+        <v>41.463414634146339</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" ref="Q20" si="68">100*J20/I20</f>
+        <v>70</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" ref="R20" si="69">100*L20/K20</f>
+        <v>40.375586854460096</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
     </row>
   </sheetData>
@@ -3680,18 +3762,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626E3B8F-11F4-4CEC-B58F-ACDF97F078AF}">
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G56" activeCellId="1" sqref="C55 G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3703,7 +3785,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3715,7 +3797,7 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3727,7 +3809,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3739,7 +3821,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -3751,7 +3833,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3763,7 +3845,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -3775,7 +3857,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -3787,7 +3869,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -3799,7 +3881,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -3811,7 +3893,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -3823,7 +3905,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -3835,7 +3917,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -3847,7 +3929,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3859,7 +3941,7 @@
       </c>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -3871,7 +3953,7 @@
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -3883,7 +3965,7 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -3895,7 +3977,7 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -3907,7 +3989,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -3919,7 +4001,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -3931,7 +4013,7 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -3943,7 +4025,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -3955,7 +4037,7 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -3967,7 +4049,7 @@
       </c>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -3979,7 +4061,7 @@
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -3991,7 +4073,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -4003,7 +4085,7 @@
       </c>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -4015,7 +4097,7 @@
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>125</v>
       </c>
@@ -4027,7 +4109,7 @@
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>126</v>
       </c>
@@ -4039,7 +4121,7 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -4051,7 +4133,7 @@
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>128</v>
       </c>
@@ -4063,7 +4145,7 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>129</v>
       </c>
@@ -4075,7 +4157,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -4087,7 +4169,7 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -4099,7 +4181,7 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>132</v>
       </c>
@@ -4111,7 +4193,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>133</v>
       </c>
@@ -4123,7 +4205,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>134</v>
       </c>
@@ -4135,7 +4217,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -4147,7 +4229,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -4159,7 +4241,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -4171,7 +4253,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -4183,7 +4265,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -4195,7 +4277,7 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -4207,7 +4289,7 @@
       </c>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>153</v>
       </c>
@@ -4219,7 +4301,7 @@
       </c>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>154</v>
       </c>
@@ -4231,7 +4313,7 @@
       </c>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -4243,7 +4325,7 @@
       </c>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -4255,7 +4337,7 @@
       </c>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>157</v>
       </c>
@@ -4267,7 +4349,7 @@
       </c>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>158</v>
       </c>
@@ -4279,7 +4361,7 @@
       </c>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>159</v>
       </c>
@@ -4291,7 +4373,7 @@
       </c>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -4303,7 +4385,7 @@
       </c>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>162</v>
       </c>
@@ -4315,7 +4397,7 @@
       </c>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -4327,7 +4409,7 @@
       </c>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -4339,7 +4421,7 @@
       </c>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>165</v>
       </c>
@@ -4351,7 +4433,7 @@
       </c>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>101</v>
       </c>
@@ -4363,7 +4445,7 @@
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -4375,7 +4457,7 @@
       </c>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>53</v>
       </c>
@@ -4387,7 +4469,7 @@
       </c>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -4399,7 +4481,7 @@
       </c>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>169</v>
       </c>
@@ -4411,7 +4493,7 @@
       </c>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -4423,7 +4505,7 @@
       </c>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>137</v>
       </c>
@@ -4435,7 +4517,7 @@
       </c>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -4447,7 +4529,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -4459,7 +4541,7 @@
       </c>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -4471,7 +4553,7 @@
       </c>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -4483,7 +4565,7 @@
       </c>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>166</v>
       </c>
@@ -4495,7 +4577,7 @@
       </c>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -4507,7 +4589,7 @@
       </c>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -4519,7 +4601,7 @@
       </c>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -4531,7 +4613,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -4543,7 +4625,7 @@
       </c>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -4555,7 +4637,7 @@
       </c>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -4567,7 +4649,7 @@
       </c>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -4579,7 +4661,7 @@
       </c>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -4591,7 +4673,7 @@
       </c>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -4603,7 +4685,7 @@
       </c>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>104</v>
       </c>
@@ -4615,7 +4697,7 @@
       </c>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>109</v>
       </c>
@@ -4627,7 +4709,7 @@
       </c>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -4639,7 +4721,7 @@
       </c>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -4651,7 +4733,7 @@
       </c>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -4663,7 +4745,7 @@
       </c>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>60</v>
       </c>
@@ -4675,7 +4757,7 @@
       </c>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -4687,7 +4769,7 @@
       </c>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>93</v>
       </c>
@@ -4699,7 +4781,7 @@
       </c>
       <c r="G84" s="5"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>122</v>
       </c>
@@ -4711,7 +4793,7 @@
       </c>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>136</v>
       </c>
@@ -4723,7 +4805,7 @@
       </c>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>146</v>
       </c>
@@ -4735,7 +4817,7 @@
       </c>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -4747,7 +4829,7 @@
       </c>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -4759,7 +4841,7 @@
       </c>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>145</v>
       </c>
@@ -4771,7 +4853,7 @@
       </c>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -4783,7 +4865,7 @@
       </c>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>35</v>
       </c>
@@ -4795,7 +4877,7 @@
       </c>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>50</v>
       </c>
@@ -4807,7 +4889,7 @@
       </c>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>82</v>
       </c>
@@ -4819,7 +4901,7 @@
       </c>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -4831,7 +4913,7 @@
       </c>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -4843,7 +4925,7 @@
       </c>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>124</v>
       </c>
@@ -4855,7 +4937,7 @@
       </c>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -4867,7 +4949,7 @@
       </c>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>46</v>
       </c>
@@ -4879,7 +4961,7 @@
       </c>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>57</v>
       </c>
@@ -4891,7 +4973,7 @@
       </c>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>61</v>
       </c>
@@ -4903,7 +4985,7 @@
       </c>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>89</v>
       </c>
@@ -4915,7 +4997,7 @@
       </c>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -4927,7 +5009,7 @@
       </c>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -4939,7 +5021,7 @@
       </c>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>161</v>
       </c>
@@ -4951,7 +5033,7 @@
       </c>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>21</v>
       </c>
@@ -4963,7 +5045,7 @@
       </c>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>42</v>
       </c>
@@ -4975,7 +5057,7 @@
       </c>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>90</v>
       </c>
@@ -4987,7 +5069,7 @@
       </c>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>91</v>
       </c>
@@ -4999,7 +5081,7 @@
       </c>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>94</v>
       </c>
@@ -5011,7 +5093,7 @@
       </c>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>121</v>
       </c>
@@ -5023,7 +5105,7 @@
       </c>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>168</v>
       </c>
@@ -5035,7 +5117,7 @@
       </c>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -5047,7 +5129,7 @@
       </c>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>37</v>
       </c>
@@ -5059,7 +5141,7 @@
       </c>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>64</v>
       </c>
@@ -5071,7 +5153,7 @@
       </c>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>72</v>
       </c>
@@ -5083,7 +5165,7 @@
       </c>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>85</v>
       </c>
@@ -5095,7 +5177,7 @@
       </c>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>86</v>
       </c>
@@ -5107,7 +5189,7 @@
       </c>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>99</v>
       </c>
@@ -5119,7 +5201,7 @@
       </c>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>106</v>
       </c>
@@ -5131,7 +5213,7 @@
       </c>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>111</v>
       </c>
@@ -5143,7 +5225,7 @@
       </c>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -5155,7 +5237,7 @@
       </c>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -5167,7 +5249,7 @@
       </c>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>144</v>
       </c>
@@ -5179,7 +5261,7 @@
       </c>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>167</v>
       </c>
@@ -5191,7 +5273,7 @@
       </c>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>49</v>
       </c>
@@ -5203,7 +5285,7 @@
       </c>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>81</v>
       </c>
@@ -5215,7 +5297,7 @@
       </c>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>107</v>
       </c>
@@ -5227,7 +5309,7 @@
       </c>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>147</v>
       </c>
@@ -5239,7 +5321,7 @@
       </c>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>40</v>
       </c>
@@ -5251,7 +5333,7 @@
       </c>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -5263,7 +5345,7 @@
       </c>
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -5275,7 +5357,7 @@
       </c>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -5287,7 +5369,7 @@
       </c>
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>84</v>
       </c>
@@ -5299,7 +5381,7 @@
       </c>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>140</v>
       </c>
@@ -5311,7 +5393,7 @@
       </c>
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>24</v>
       </c>
@@ -5323,7 +5405,7 @@
       </c>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>87</v>
       </c>
@@ -5335,7 +5417,7 @@
       </c>
       <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>110</v>
       </c>
@@ -5347,7 +5429,7 @@
       </c>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>120</v>
       </c>
@@ -5359,7 +5441,7 @@
       </c>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>123</v>
       </c>
@@ -5371,7 +5453,7 @@
       </c>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>30</v>
       </c>
@@ -5383,7 +5465,7 @@
       </c>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>114</v>
       </c>
@@ -5395,7 +5477,7 @@
       </c>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>139</v>
       </c>
@@ -5407,7 +5489,7 @@
       </c>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>118</v>
       </c>
@@ -5419,7 +5501,7 @@
       </c>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>170</v>
       </c>
@@ -5431,7 +5513,7 @@
       </c>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>67</v>
       </c>
@@ -5443,7 +5525,7 @@
       </c>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>98</v>
       </c>
@@ -5455,7 +5537,7 @@
       </c>
       <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>75</v>
       </c>
@@ -5467,7 +5549,7 @@
       </c>
       <c r="G148" s="5"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>108</v>
       </c>
@@ -5479,7 +5561,7 @@
       </c>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>92</v>
       </c>
@@ -5491,7 +5573,7 @@
       </c>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>102</v>
       </c>
@@ -5503,7 +5585,7 @@
       </c>
       <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>143</v>
       </c>
@@ -5515,7 +5597,7 @@
       </c>
       <c r="G152" s="5"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>71</v>
       </c>
@@ -5527,7 +5609,7 @@
       </c>
       <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>100</v>
       </c>
@@ -5539,7 +5621,7 @@
       </c>
       <c r="G154" s="5"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>68</v>
       </c>
@@ -5551,7 +5633,7 @@
       </c>
       <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>76</v>
       </c>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B284F6-5FA1-4A15-9049-C75A18B1342C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA08921C-BF37-4590-BFDB-84B6AACD7128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="-108" windowWidth="22668" windowHeight="13176" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="480" yWindow="-108" windowWidth="22668" windowHeight="13176" activeTab="1" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>Date</t>
   </si>
@@ -547,6 +547,15 @@
   </si>
   <si>
     <t>Workflow handling</t>
+  </si>
+  <si>
+    <t>Child object count</t>
+  </si>
+  <si>
+    <t>Parent object ID</t>
+  </si>
+  <si>
+    <t>Partner object count</t>
   </si>
 </sst>
 </file>
@@ -668,10 +677,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$20</c:f>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -728,16 +737,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$20</c:f>
+              <c:f>Sheet1!$N$2:$N$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -794,6 +806,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>59.756097560975611</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60.365853658536587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,10 +848,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$20</c:f>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -893,16 +908,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$20</c:f>
+              <c:f>Sheet1!$O$2:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -959,6 +977,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45.62091503267974</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46.932114882506525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -998,10 +1019,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$20</c:f>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1058,16 +1079,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$20</c:f>
+              <c:f>Sheet1!$P$2:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1124,6 +1148,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>41.463414634146339</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.512195121951223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,10 +1190,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$20</c:f>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1223,16 +1250,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$20</c:f>
+              <c:f>Sheet1!$Q$2:$Q$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1288,6 +1318,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1328,10 +1361,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$20</c:f>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1388,16 +1421,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$20</c:f>
+              <c:f>Sheet1!$R$2:$R$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1453,6 +1489,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2567,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:L20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3688,7 +3727,59 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
+      <c r="A21" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B21" s="4">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>164</v>
+      </c>
+      <c r="E21">
+        <v>99</v>
+      </c>
+      <c r="F21">
+        <v>1532</v>
+      </c>
+      <c r="G21">
+        <v>719</v>
+      </c>
+      <c r="H21">
+        <v>73</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>14</v>
+      </c>
+      <c r="K21">
+        <v>213</v>
+      </c>
+      <c r="L21">
+        <v>86</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" ref="N21" si="70">100*E21/D21</f>
+        <v>60.365853658536587</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" ref="O21" si="71">100*G21/F21</f>
+        <v>46.932114882506525</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" ref="P21" si="72">100*H21/D21</f>
+        <v>44.512195121951223</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" ref="Q21" si="73">100*J21/I21</f>
+        <v>70</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" ref="R21" si="74">100*L21/K21</f>
+        <v>40.375586854460096</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
@@ -3760,21 +3851,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626E3B8F-11F4-4CEC-B58F-ACDF97F078AF}">
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G56" activeCellId="1" sqref="C55 G56"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="4.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="5">
@@ -3786,7 +3878,7 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="5">
@@ -3798,7 +3890,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="5">
@@ -3810,7 +3902,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="5">
@@ -3822,872 +3914,872 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="5">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="5">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="5">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B49" s="5">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="5">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B44" s="5">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B46" s="5">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B55" s="5">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B47" s="5">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="5">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B49" s="5">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B51" s="5">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B61" s="5">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B53" s="5">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B54" s="5">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B63" s="5">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B55" s="5">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="5">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="5">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="5">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="5">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" s="5">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" s="5">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="5">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>77</v>
-      </c>
       <c r="B64" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>95</v>
+      <c r="A65" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="B65" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>135</v>
+      <c r="A66" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="B66" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B67" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="B68" s="5">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="A69" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="5">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="5">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B69" s="5">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" s="5">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" s="5">
-        <v>0.72729999999999995</v>
-      </c>
-      <c r="C71">
-        <v>3</v>
-      </c>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" s="5">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="5">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="5">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="G75" s="5"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" s="5">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>104</v>
       </c>
       <c r="B77" s="5">
         <v>0</v>
@@ -4698,8 +4790,8 @@
       <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>109</v>
+      <c r="A78" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B78" s="5">
         <v>0</v>
@@ -4710,104 +4802,104 @@
       <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>19</v>
+      <c r="A79" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B79" s="5">
-        <v>0</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="A80" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B80" s="5">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>4</v>
-      </c>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>29</v>
-      </c>
-      <c r="B81" s="5">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>4</v>
-      </c>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" s="5">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>4</v>
-      </c>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>79</v>
-      </c>
-      <c r="B83" s="5">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-      <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>93</v>
-      </c>
-      <c r="B84" s="5">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>4</v>
-      </c>
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>122</v>
-      </c>
-      <c r="B85" s="5">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>4</v>
-      </c>
-      <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>136</v>
-      </c>
-      <c r="B86" s="5">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>4</v>
-      </c>
-      <c r="G86" s="5"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>146</v>
       </c>
       <c r="B87" s="5">
         <v>0</v>
@@ -4818,104 +4910,104 @@
       <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="A88" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B88" s="5">
-        <v>0</v>
-      </c>
-      <c r="C88">
+      <c r="B93" s="5">
+        <v>0</v>
+      </c>
+      <c r="C93">
         <v>5</v>
       </c>
-      <c r="G88" s="5"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="5">
-        <v>0</v>
-      </c>
-      <c r="C89">
+      <c r="B94" s="5">
+        <v>0</v>
+      </c>
+      <c r="C94">
         <v>5</v>
       </c>
-      <c r="G89" s="5"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B90" s="5">
-        <v>0</v>
-      </c>
-      <c r="C90">
+      <c r="B95" s="5">
+        <v>0</v>
+      </c>
+      <c r="C95">
         <v>5</v>
       </c>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B91" s="5">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>6</v>
-      </c>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>35</v>
-      </c>
-      <c r="B92" s="5">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>6</v>
-      </c>
-      <c r="G92" s="5"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>50</v>
-      </c>
-      <c r="B93" s="5">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>6</v>
-      </c>
-      <c r="G93" s="5"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>82</v>
-      </c>
-      <c r="B94" s="5">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>6</v>
-      </c>
-      <c r="G94" s="5"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>105</v>
-      </c>
-      <c r="B95" s="5">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>6</v>
-      </c>
-      <c r="G95" s="5"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>112</v>
       </c>
       <c r="B96" s="5">
         <v>0</v>
@@ -4926,8 +5018,8 @@
       <c r="G96" s="5"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>124</v>
+      <c r="A97" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B97" s="5">
         <v>0</v>
@@ -4938,83 +5030,83 @@
       <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="A98" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B104" s="5">
         <v>0.36359999999999998</v>
-      </c>
-      <c r="C98">
-        <v>7</v>
-      </c>
-      <c r="G98" s="5"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>46</v>
-      </c>
-      <c r="B99" s="5">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>7</v>
-      </c>
-      <c r="G99" s="5"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>57</v>
-      </c>
-      <c r="B100" s="5">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>7</v>
-      </c>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>61</v>
-      </c>
-      <c r="B101" s="5">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>7</v>
-      </c>
-      <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>89</v>
-      </c>
-      <c r="B102" s="5">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>7</v>
-      </c>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>96</v>
-      </c>
-      <c r="B103" s="5">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>7</v>
-      </c>
-      <c r="G103" s="5"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>97</v>
-      </c>
-      <c r="B104" s="5">
-        <v>0</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -5022,8 +5114,8 @@
       <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>161</v>
+      <c r="A105" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B105" s="5">
         <v>0</v>
@@ -5034,68 +5126,68 @@
       <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="A106" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B106" s="5">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>7</v>
+      </c>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B107" s="5">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
+      </c>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B108" s="5">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>7</v>
+      </c>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>7</v>
+      </c>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>7</v>
+      </c>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B106" s="5">
-        <v>0</v>
-      </c>
-      <c r="C106">
-        <v>8</v>
-      </c>
-      <c r="G106" s="5"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>42</v>
-      </c>
-      <c r="B107" s="5">
-        <v>0</v>
-      </c>
-      <c r="C107">
-        <v>8</v>
-      </c>
-      <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>90</v>
-      </c>
-      <c r="B108" s="5">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>8</v>
-      </c>
-      <c r="G108" s="5"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>91</v>
-      </c>
-      <c r="B109" s="5">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>8</v>
-      </c>
-      <c r="G109" s="5"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>94</v>
-      </c>
-      <c r="B110" s="5">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>8</v>
-      </c>
-      <c r="G110" s="5"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>121</v>
       </c>
       <c r="B111" s="5">
         <v>0</v>
@@ -5106,11 +5198,11 @@
       <c r="G111" s="5"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>168</v>
+      <c r="A112" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B112" s="5">
-        <v>0.52939999999999998</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <v>8</v>
@@ -5118,44 +5210,44 @@
       <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="A113" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>8</v>
+      </c>
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B114" s="5">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>8</v>
+      </c>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" s="5">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>8</v>
+      </c>
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B113" s="5">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>9</v>
-      </c>
-      <c r="G113" s="5"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>37</v>
-      </c>
-      <c r="B114" s="5">
-        <v>0.18179999999999999</v>
-      </c>
-      <c r="C114">
-        <v>9</v>
-      </c>
-      <c r="G114" s="5"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>64</v>
-      </c>
-      <c r="B115" s="5">
-        <v>0</v>
-      </c>
-      <c r="C115">
-        <v>9</v>
-      </c>
-      <c r="G115" s="5"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>72</v>
       </c>
       <c r="B116" s="5">
         <v>0</v>
@@ -5166,11 +5258,11 @@
       <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>85</v>
+      <c r="A117" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B117" s="5">
-        <v>0</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="C117">
         <v>9</v>
@@ -5178,8 +5270,8 @@
       <c r="G117" s="5"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>86</v>
+      <c r="A118" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B118" s="5">
         <v>0</v>
@@ -5190,8 +5282,8 @@
       <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>99</v>
+      <c r="A119" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B119" s="5">
         <v>0</v>
@@ -5202,8 +5294,8 @@
       <c r="G119" s="5"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>106</v>
+      <c r="A120" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="B120" s="5">
         <v>0</v>
@@ -5214,8 +5306,8 @@
       <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>111</v>
+      <c r="A121" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="B121" s="5">
         <v>0</v>
@@ -5226,8 +5318,8 @@
       <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>141</v>
+      <c r="A122" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="B122" s="5">
         <v>0</v>
@@ -5238,8 +5330,8 @@
       <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>142</v>
+      <c r="A123" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="B123" s="5">
         <v>0</v>
@@ -5250,8 +5342,8 @@
       <c r="G123" s="5"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>144</v>
+      <c r="A124" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="B124" s="5">
         <v>0</v>
@@ -5262,11 +5354,11 @@
       <c r="G124" s="5"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>167</v>
+      <c r="A125" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="B125" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C125">
         <v>9</v>
@@ -5274,32 +5366,32 @@
       <c r="G125" s="5"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="A126" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B126" s="5">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>9</v>
+      </c>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B127" s="5">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>9</v>
+      </c>
+      <c r="G127" s="5"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B126" s="5">
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <v>10</v>
-      </c>
-      <c r="G126" s="5"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>81</v>
-      </c>
-      <c r="B127" s="5">
-        <v>0</v>
-      </c>
-      <c r="C127">
-        <v>10</v>
-      </c>
-      <c r="G127" s="5"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>107</v>
       </c>
       <c r="B128" s="5">
         <v>0</v>
@@ -5310,8 +5402,8 @@
       <c r="G128" s="5"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>147</v>
+      <c r="A129" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="B129" s="5">
         <v>0</v>
@@ -5322,35 +5414,35 @@
       <c r="G129" s="5"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="A130" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B130" s="5">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>10</v>
+      </c>
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B130" s="5">
-        <v>0</v>
-      </c>
-      <c r="C130">
+      <c r="B131" s="5">
+        <v>0</v>
+      </c>
+      <c r="C131">
         <v>11</v>
       </c>
-      <c r="G130" s="5"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B131" s="5">
-        <v>0</v>
-      </c>
-      <c r="C131">
-        <v>12</v>
-      </c>
-      <c r="G131" s="5"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>20</v>
-      </c>
       <c r="B132" s="5">
-        <v>7.6899999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>12</v>
@@ -5358,11 +5450,11 @@
       <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>80</v>
+      <c r="A133" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B133" s="5">
-        <v>0</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="C133">
         <v>12</v>
@@ -5370,11 +5462,11 @@
       <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>84</v>
+      <c r="A134" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B134" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C134">
         <v>12</v>
@@ -5382,11 +5474,11 @@
       <c r="G134" s="5"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>140</v>
+      <c r="A135" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B135" s="5">
-        <v>7.6899999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <v>12</v>
@@ -5394,32 +5486,32 @@
       <c r="G135" s="5"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>24</v>
+      <c r="A136" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="B136" s="5">
-        <v>0.43480000000000002</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G136" s="5"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="A137" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" s="5">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="C137">
+        <v>12</v>
+      </c>
+      <c r="G137" s="5"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B137" s="5">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>13</v>
-      </c>
-      <c r="G137" s="5"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>110</v>
       </c>
       <c r="B138" s="5">
         <v>0</v>
@@ -5430,8 +5522,8 @@
       <c r="G138" s="5"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>120</v>
+      <c r="A139" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="B139" s="5">
         <v>0</v>
@@ -5442,8 +5534,8 @@
       <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>123</v>
+      <c r="A140" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="B140" s="5">
         <v>0</v>
@@ -5454,23 +5546,23 @@
       <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="A141" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B141" s="5">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>13</v>
+      </c>
+      <c r="G141" s="5"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B141" s="5">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>14</v>
-      </c>
-      <c r="G141" s="5"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>114</v>
-      </c>
       <c r="B142" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="C142">
         <v>14</v>
@@ -5478,8 +5570,8 @@
       <c r="G142" s="5"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>139</v>
+      <c r="A143" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B143" s="5">
         <v>0</v>
@@ -5490,23 +5582,23 @@
       <c r="G143" s="5"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+      <c r="A144" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B144" s="5">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="C144">
+        <v>14</v>
+      </c>
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B144" s="5">
-        <v>0</v>
-      </c>
-      <c r="C144">
-        <v>15</v>
-      </c>
-      <c r="G144" s="5"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>170</v>
-      </c>
       <c r="B145" s="5">
-        <v>0.1176</v>
+        <v>0</v>
       </c>
       <c r="C145">
         <v>15</v>
@@ -5514,80 +5606,80 @@
       <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>67</v>
+      <c r="A146" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="B146" s="5">
         <v>0</v>
       </c>
       <c r="C146">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G146" s="5"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>170</v>
+      </c>
+      <c r="B147" s="5">
+        <v>0.1176</v>
+      </c>
+      <c r="C147">
+        <v>15</v>
+      </c>
+      <c r="G147" s="5"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B148" s="5">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>16</v>
+      </c>
+      <c r="G148" s="5"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B147" s="5">
-        <v>0</v>
-      </c>
-      <c r="C147">
+      <c r="B149" s="5">
+        <v>0</v>
+      </c>
+      <c r="C149">
         <v>16</v>
       </c>
-      <c r="G147" s="5"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="G149" s="5"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B148" s="5">
-        <v>0</v>
-      </c>
-      <c r="C148">
+      <c r="B150" s="5">
+        <v>0</v>
+      </c>
+      <c r="C150">
         <v>18</v>
       </c>
-      <c r="G148" s="5"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B149" s="5">
-        <v>0</v>
-      </c>
-      <c r="C149">
+      <c r="B151" s="5">
+        <v>0</v>
+      </c>
+      <c r="C151">
         <v>18</v>
       </c>
-      <c r="G149" s="5"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="G151" s="5"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B150" s="5">
-        <v>0</v>
-      </c>
-      <c r="C150">
-        <v>19</v>
-      </c>
-      <c r="G150" s="5"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>102</v>
-      </c>
-      <c r="B151" s="5">
-        <v>0</v>
-      </c>
-      <c r="C151">
-        <v>19</v>
-      </c>
-      <c r="G151" s="5"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>143</v>
       </c>
       <c r="B152" s="5">
         <v>0</v>
@@ -5598,56 +5690,92 @@
       <c r="G152" s="5"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="A153" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B153" s="5">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>19</v>
+      </c>
+      <c r="G153" s="5"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B154" s="5">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>19</v>
+      </c>
+      <c r="G154" s="5"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B153" s="5">
-        <v>0</v>
-      </c>
-      <c r="C153">
+      <c r="B155" s="5">
+        <v>0</v>
+      </c>
+      <c r="C155">
         <v>21</v>
       </c>
-      <c r="G153" s="5"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B154" s="5">
-        <v>0</v>
-      </c>
-      <c r="C154">
+      <c r="B156" s="5">
+        <v>0</v>
+      </c>
+      <c r="C156">
         <v>21</v>
       </c>
-      <c r="G154" s="5"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="G156" s="5"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B157" s="5">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>22</v>
+      </c>
+      <c r="G157" s="5"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B155" s="5">
-        <v>0</v>
-      </c>
-      <c r="C155">
+      <c r="B158" s="5">
+        <v>0</v>
+      </c>
+      <c r="C158">
         <v>23</v>
       </c>
-      <c r="G155" s="5"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="G158" s="5"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B159" s="5">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="C156">
+      <c r="C159">
         <v>29</v>
       </c>
-      <c r="G156" s="5"/>
+      <c r="G159" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C156">
-    <sortCondition ref="C55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C159">
+    <sortCondition ref="C77"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA08921C-BF37-4590-BFDB-84B6AACD7128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3962F7F-70F4-4063-8C09-ED1703BFCF85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="-108" windowWidth="22668" windowHeight="13176" activeTab="1" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>Date</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>Partner object count</t>
+  </si>
+  <si>
+    <t>ADD GLOBAL VARIABLES DESCRIPTION</t>
   </si>
 </sst>
 </file>
@@ -2606,32 +2609,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:L21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2678,7 +2681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44054</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44055</v>
       </c>
@@ -2790,7 +2793,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44056</v>
       </c>
@@ -2846,7 +2849,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44057</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44058</v>
       </c>
@@ -2956,7 +2959,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44064</v>
       </c>
@@ -3011,7 +3014,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44069</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44070</v>
       </c>
@@ -3121,7 +3124,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44081</v>
       </c>
@@ -3176,7 +3179,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44082</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44083</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44084</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44085</v>
       </c>
@@ -3396,7 +3399,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44089</v>
       </c>
@@ -3451,7 +3454,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44090</v>
       </c>
@@ -3506,7 +3509,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44091</v>
       </c>
@@ -3561,7 +3564,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44097</v>
       </c>
@@ -3616,7 +3619,7 @@
         <v>38.967136150234744</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44098</v>
       </c>
@@ -3671,7 +3674,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44099</v>
       </c>
@@ -3726,7 +3729,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44102</v>
       </c>
@@ -3781,64 +3784,66 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
     </row>
   </sheetData>
@@ -3853,19 +3858,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626E3B8F-11F4-4CEC-B58F-ACDF97F078AF}">
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="4.88671875" customWidth="1"/>
+    <col min="4" max="11" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -3877,7 +3882,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -3889,7 +3894,7 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -3901,7 +3906,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -3913,7 +3918,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -3925,7 +3930,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -3937,7 +3942,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -3949,7 +3954,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -3961,7 +3966,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -3973,7 +3978,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
@@ -3985,7 +3990,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -3997,7 +4002,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -4009,7 +4014,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
@@ -4021,7 +4026,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -4033,7 +4038,7 @@
       </c>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -4045,7 +4050,7 @@
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
@@ -4057,7 +4062,7 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
@@ -4069,7 +4074,7 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>59</v>
       </c>
@@ -4081,7 +4086,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>62</v>
       </c>
@@ -4093,7 +4098,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>63</v>
       </c>
@@ -4105,7 +4110,7 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>65</v>
       </c>
@@ -4117,7 +4122,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>69</v>
       </c>
@@ -4129,7 +4134,7 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>70</v>
       </c>
@@ -4141,7 +4146,7 @@
       </c>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>73</v>
       </c>
@@ -4153,7 +4158,7 @@
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>74</v>
       </c>
@@ -4165,7 +4170,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>78</v>
       </c>
@@ -4177,7 +4182,7 @@
       </c>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>171</v>
       </c>
@@ -4189,7 +4194,7 @@
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>172</v>
       </c>
@@ -4201,7 +4206,7 @@
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>173</v>
       </c>
@@ -4213,7 +4218,7 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>101</v>
       </c>
@@ -4225,7 +4230,7 @@
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>103</v>
       </c>
@@ -4237,7 +4242,7 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>113</v>
       </c>
@@ -4249,7 +4254,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>115</v>
       </c>
@@ -4261,7 +4266,7 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>116</v>
       </c>
@@ -4273,7 +4278,7 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>117</v>
       </c>
@@ -4285,7 +4290,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>119</v>
       </c>
@@ -4297,7 +4302,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>125</v>
       </c>
@@ -4309,7 +4314,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>126</v>
       </c>
@@ -4321,7 +4326,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>127</v>
       </c>
@@ -4333,7 +4338,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>128</v>
       </c>
@@ -4345,7 +4350,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>129</v>
       </c>
@@ -4357,7 +4362,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>130</v>
       </c>
@@ -4369,7 +4374,7 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>131</v>
       </c>
@@ -4381,7 +4386,7 @@
       </c>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>132</v>
       </c>
@@ -4393,7 +4398,7 @@
       </c>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>133</v>
       </c>
@@ -4405,7 +4410,7 @@
       </c>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>134</v>
       </c>
@@ -4417,7 +4422,7 @@
       </c>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>138</v>
       </c>
@@ -4429,7 +4434,7 @@
       </c>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>148</v>
       </c>
@@ -4441,7 +4446,7 @@
       </c>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>149</v>
       </c>
@@ -4453,7 +4458,7 @@
       </c>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>150</v>
       </c>
@@ -4465,7 +4470,7 @@
       </c>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>151</v>
       </c>
@@ -4477,7 +4482,7 @@
       </c>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>152</v>
       </c>
@@ -4489,7 +4494,7 @@
       </c>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>153</v>
       </c>
@@ -4501,7 +4506,7 @@
       </c>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>154</v>
       </c>
@@ -4513,7 +4518,7 @@
       </c>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>155</v>
       </c>
@@ -4525,7 +4530,7 @@
       </c>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>156</v>
       </c>
@@ -4537,7 +4542,7 @@
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>157</v>
       </c>
@@ -4549,7 +4554,7 @@
       </c>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>158</v>
       </c>
@@ -4561,7 +4566,7 @@
       </c>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>159</v>
       </c>
@@ -4573,7 +4578,7 @@
       </c>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>160</v>
       </c>
@@ -4585,7 +4590,7 @@
       </c>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>162</v>
       </c>
@@ -4597,7 +4602,7 @@
       </c>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>163</v>
       </c>
@@ -4609,7 +4614,7 @@
       </c>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>164</v>
       </c>
@@ -4621,7 +4626,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>165</v>
       </c>
@@ -4633,7 +4638,7 @@
       </c>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>166</v>
       </c>
@@ -4645,7 +4650,7 @@
       </c>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>167</v>
       </c>
@@ -4657,7 +4662,7 @@
       </c>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>168</v>
       </c>
@@ -4669,7 +4674,7 @@
       </c>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>169</v>
       </c>
@@ -4681,7 +4686,7 @@
       </c>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>137</v>
       </c>
@@ -4693,7 +4698,7 @@
       </c>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>79</v>
       </c>
@@ -4705,7 +4710,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>61</v>
       </c>
@@ -4717,7 +4722,7 @@
       </c>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>77</v>
       </c>
@@ -4729,7 +4734,7 @@
       </c>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>19</v>
       </c>
@@ -4741,7 +4746,7 @@
       </c>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>66</v>
       </c>
@@ -4753,7 +4758,7 @@
       </c>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>95</v>
       </c>
@@ -4765,7 +4770,7 @@
       </c>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>135</v>
       </c>
@@ -4777,7 +4782,7 @@
       </c>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>34</v>
       </c>
@@ -4789,7 +4794,7 @@
       </c>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>36</v>
       </c>
@@ -4801,7 +4806,7 @@
       </c>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>38</v>
       </c>
@@ -4813,7 +4818,7 @@
       </c>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>39</v>
       </c>
@@ -4825,7 +4830,7 @@
       </c>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>41</v>
       </c>
@@ -4837,7 +4842,7 @@
       </c>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>48</v>
       </c>
@@ -4849,7 +4854,7 @@
       </c>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>58</v>
       </c>
@@ -4861,7 +4866,7 @@
       </c>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>83</v>
       </c>
@@ -4873,7 +4878,7 @@
       </c>
       <c r="G84" s="5"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>104</v>
       </c>
@@ -4885,7 +4890,7 @@
       </c>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>109</v>
       </c>
@@ -4897,7 +4902,7 @@
       </c>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>26</v>
       </c>
@@ -4909,7 +4914,7 @@
       </c>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>29</v>
       </c>
@@ -4921,7 +4926,7 @@
       </c>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>60</v>
       </c>
@@ -4933,7 +4938,7 @@
       </c>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>122</v>
       </c>
@@ -4945,7 +4950,7 @@
       </c>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>136</v>
       </c>
@@ -4957,7 +4962,7 @@
       </c>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>146</v>
       </c>
@@ -4969,7 +4974,7 @@
       </c>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>33</v>
       </c>
@@ -4981,7 +4986,7 @@
       </c>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>88</v>
       </c>
@@ -4993,7 +4998,7 @@
       </c>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>145</v>
       </c>
@@ -5005,7 +5010,7 @@
       </c>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>32</v>
       </c>
@@ -5017,7 +5022,7 @@
       </c>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>35</v>
       </c>
@@ -5029,7 +5034,7 @@
       </c>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>50</v>
       </c>
@@ -5041,7 +5046,7 @@
       </c>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>82</v>
       </c>
@@ -5053,7 +5058,7 @@
       </c>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>93</v>
       </c>
@@ -5065,7 +5070,7 @@
       </c>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>105</v>
       </c>
@@ -5077,7 +5082,7 @@
       </c>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>112</v>
       </c>
@@ -5089,7 +5094,7 @@
       </c>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>124</v>
       </c>
@@ -5101,7 +5106,7 @@
       </c>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>31</v>
       </c>
@@ -5113,7 +5118,7 @@
       </c>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>46</v>
       </c>
@@ -5125,7 +5130,7 @@
       </c>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>57</v>
       </c>
@@ -5137,7 +5142,7 @@
       </c>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>89</v>
       </c>
@@ -5149,7 +5154,7 @@
       </c>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>96</v>
       </c>
@@ -5161,7 +5166,7 @@
       </c>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
@@ -5173,7 +5178,7 @@
       </c>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>161</v>
       </c>
@@ -5185,7 +5190,7 @@
       </c>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>21</v>
       </c>
@@ -5197,7 +5202,7 @@
       </c>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>42</v>
       </c>
@@ -5209,7 +5214,7 @@
       </c>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>90</v>
       </c>
@@ -5221,7 +5226,7 @@
       </c>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>91</v>
       </c>
@@ -5233,7 +5238,7 @@
       </c>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>121</v>
       </c>
@@ -5245,7 +5250,7 @@
       </c>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>25</v>
       </c>
@@ -5257,7 +5262,7 @@
       </c>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>37</v>
       </c>
@@ -5269,7 +5274,7 @@
       </c>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>64</v>
       </c>
@@ -5281,7 +5286,7 @@
       </c>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>72</v>
       </c>
@@ -5293,7 +5298,7 @@
       </c>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>85</v>
       </c>
@@ -5305,7 +5310,7 @@
       </c>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>86</v>
       </c>
@@ -5317,7 +5322,7 @@
       </c>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>99</v>
       </c>
@@ -5329,7 +5334,7 @@
       </c>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>106</v>
       </c>
@@ -5341,7 +5346,7 @@
       </c>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>111</v>
       </c>
@@ -5353,7 +5358,7 @@
       </c>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>141</v>
       </c>
@@ -5365,7 +5370,7 @@
       </c>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>142</v>
       </c>
@@ -5377,7 +5382,7 @@
       </c>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>144</v>
       </c>
@@ -5389,7 +5394,7 @@
       </c>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>49</v>
       </c>
@@ -5401,7 +5406,7 @@
       </c>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>107</v>
       </c>
@@ -5413,7 +5418,7 @@
       </c>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>147</v>
       </c>
@@ -5425,7 +5430,7 @@
       </c>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>40</v>
       </c>
@@ -5437,7 +5442,7 @@
       </c>
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>16</v>
       </c>
@@ -5449,7 +5454,7 @@
       </c>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>20</v>
       </c>
@@ -5461,7 +5466,7 @@
       </c>
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>24</v>
       </c>
@@ -5473,7 +5478,7 @@
       </c>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>81</v>
       </c>
@@ -5485,7 +5490,7 @@
       </c>
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>84</v>
       </c>
@@ -5497,7 +5502,7 @@
       </c>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>140</v>
       </c>
@@ -5509,7 +5514,7 @@
       </c>
       <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>87</v>
       </c>
@@ -5521,7 +5526,7 @@
       </c>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>110</v>
       </c>
@@ -5533,7 +5538,7 @@
       </c>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>120</v>
       </c>
@@ -5545,7 +5550,7 @@
       </c>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>123</v>
       </c>
@@ -5557,7 +5562,7 @@
       </c>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>30</v>
       </c>
@@ -5569,7 +5574,7 @@
       </c>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>80</v>
       </c>
@@ -5581,7 +5586,7 @@
       </c>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>114</v>
       </c>
@@ -5593,7 +5598,7 @@
       </c>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>118</v>
       </c>
@@ -5605,7 +5610,7 @@
       </c>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>139</v>
       </c>
@@ -5617,7 +5622,7 @@
       </c>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>170</v>
       </c>
@@ -5629,7 +5634,7 @@
       </c>
       <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>67</v>
       </c>
@@ -5641,7 +5646,7 @@
       </c>
       <c r="G148" s="5"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>98</v>
       </c>
@@ -5653,7 +5658,7 @@
       </c>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>75</v>
       </c>
@@ -5665,7 +5670,7 @@
       </c>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>108</v>
       </c>
@@ -5677,7 +5682,7 @@
       </c>
       <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>92</v>
       </c>
@@ -5689,7 +5694,7 @@
       </c>
       <c r="G152" s="5"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>102</v>
       </c>
@@ -5701,7 +5706,7 @@
       </c>
       <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>143</v>
       </c>
@@ -5713,7 +5718,7 @@
       </c>
       <c r="G154" s="5"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>71</v>
       </c>
@@ -5725,7 +5730,7 @@
       </c>
       <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>100</v>
       </c>
@@ -5737,7 +5742,7 @@
       </c>
       <c r="G156" s="5"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>94</v>
       </c>
@@ -5749,7 +5754,7 @@
       </c>
       <c r="G157" s="5"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>68</v>
       </c>
@@ -5761,7 +5766,7 @@
       </c>
       <c r="G158" s="5"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>76</v>
       </c>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3962F7F-70F4-4063-8C09-ED1703BFCF85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532D5D2F-D7EB-41A9-8987-B704EBB5E36B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="480" yWindow="-108" windowWidth="22668" windowHeight="13176" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="185">
   <si>
     <t>Date</t>
   </si>
@@ -81,484 +81,514 @@
     <t>% object meas</t>
   </si>
   <si>
-    <t>Add overlay</t>
-  </si>
-  <si>
-    <t>Binary operations (legacy)</t>
-  </si>
-  <si>
-    <t>Channel extractor</t>
-  </si>
-  <si>
-    <t>Filter objects</t>
-  </si>
-  <si>
-    <t>Merge channels</t>
-  </si>
-  <si>
-    <t>Relate objects</t>
-  </si>
-  <si>
-    <t>Resolve co-occurrence</t>
-  </si>
-  <si>
-    <t>Threshold image</t>
-  </si>
-  <si>
-    <t>Input control</t>
-  </si>
-  <si>
-    <t>Output control</t>
-  </si>
-  <si>
-    <t>Image measurement calculator</t>
-  </si>
-  <si>
-    <t>Measure image colocalisation</t>
-  </si>
-  <si>
-    <t>Measure image dimensions</t>
-  </si>
-  <si>
-    <t>Measure image intensity</t>
-  </si>
-  <si>
-    <t>Measure image texture</t>
-  </si>
-  <si>
-    <t>Measure intensity distribution</t>
-  </si>
-  <si>
-    <t>Apply CLAHE</t>
-  </si>
-  <si>
-    <t>Binary operations 2D</t>
-  </si>
-  <si>
-    <t>Dilate and erode</t>
-  </si>
-  <si>
-    <t>Calculate distance map</t>
-  </si>
-  <si>
-    <t>Extended minima</t>
-  </si>
-  <si>
-    <t>Fill holes</t>
-  </si>
-  <si>
-    <t>Fill holes by volume</t>
-  </si>
-  <si>
-    <t>Fix skeleton breaks</t>
-  </si>
-  <si>
-    <t>Skeletonise</t>
-  </si>
-  <si>
-    <t>Watershed transform</t>
-  </si>
-  <si>
-    <t>Bleaching correction</t>
-  </si>
-  <si>
-    <t>Colour deconvolution</t>
-  </si>
-  <si>
-    <t>Combing correction</t>
-  </si>
-  <si>
-    <t>Filter image</t>
-  </si>
-  <si>
-    <t>Image calculator</t>
-  </si>
-  <si>
-    <t>Image math</t>
-  </si>
-  <si>
-    <t>Invert image intensity</t>
-  </si>
-  <si>
-    <t>Manually edit image</t>
-  </si>
-  <si>
-    <t>Normalise intensity</t>
-  </si>
-  <si>
-    <t>Plot kymograph</t>
-  </si>
-  <si>
-    <t>Project image</t>
-  </si>
-  <si>
-    <t>Global auto-threshold</t>
-  </si>
-  <si>
-    <t>Local auto-threshold</t>
-  </si>
-  <si>
-    <t>Manual threshold</t>
-  </si>
-  <si>
-    <t>Weka probability maps</t>
-  </si>
-  <si>
-    <t>White balance correction</t>
-  </si>
-  <si>
-    <t>Apply offset correction</t>
-  </si>
-  <si>
-    <t>Best focus stack</t>
-  </si>
-  <si>
-    <t>Concatenate stacks</t>
-  </si>
-  <si>
-    <t>Convert 3D stack (switch Z and T)</t>
-  </si>
-  <si>
-    <t>Crop image</t>
-  </si>
-  <si>
-    <t>Extract substack</t>
-  </si>
-  <si>
-    <t>Flip stack</t>
-  </si>
-  <si>
-    <t>Focus stack</t>
-  </si>
-  <si>
-    <t>Image type converter</t>
-  </si>
-  <si>
-    <t>Interpolate Z axis</t>
-  </si>
-  <si>
-    <t>Unwarp images (manual)</t>
-  </si>
-  <si>
-    <t>Register images</t>
-  </si>
-  <si>
-    <t>Remove image</t>
-  </si>
-  <si>
-    <t>Replace image</t>
-  </si>
-  <si>
-    <t>Unwarp images</t>
-  </si>
-  <si>
-    <t>Export ACC dataset</t>
-  </si>
-  <si>
-    <t>Load image</t>
-  </si>
-  <si>
-    <t>Save image</t>
-  </si>
-  <si>
-    <t>Extract metadata</t>
-  </si>
-  <si>
-    <t>Load objects</t>
-  </si>
-  <si>
-    <t>Add custom metadata item</t>
-  </si>
-  <si>
-    <t>GUI separator</t>
-  </si>
-  <si>
-    <t>Global variables</t>
-  </si>
-  <si>
-    <t>Run macro on image</t>
-  </si>
-  <si>
-    <t>Run macro on objects</t>
-  </si>
-  <si>
-    <t>Run single macro command</t>
-  </si>
-  <si>
-    <t>Measure object colocalisation</t>
-  </si>
-  <si>
-    <t>Measure object intensity</t>
-  </si>
-  <si>
-    <t>Measure object texture</t>
-  </si>
-  <si>
-    <t>Measure radial intensity profile</t>
-  </si>
-  <si>
-    <t>Measure spot intensity</t>
-  </si>
-  <si>
-    <t>Bin objects by measurement</t>
-  </si>
-  <si>
-    <t>Calculate measurement periodogram</t>
-  </si>
-  <si>
-    <t>Calculate statistics for children</t>
-  </si>
-  <si>
-    <t>Calculate statistics for partners</t>
-  </si>
-  <si>
-    <t>Object measurement calculator</t>
-  </si>
-  <si>
-    <t>Replace measurement value</t>
-  </si>
-  <si>
-    <t>Calculate nearest neighbour</t>
-  </si>
-  <si>
-    <t>Convex hull 2D</t>
-  </si>
-  <si>
-    <t>Fit ellipse</t>
-  </si>
-  <si>
-    <t>Fit ellipsoid</t>
-  </si>
-  <si>
-    <t>Fit Gaussian 2D</t>
-  </si>
-  <si>
-    <t>Fit longest chord</t>
-  </si>
-  <si>
-    <t>Fit spline</t>
-  </si>
-  <si>
-    <t>Measure object centroid</t>
-  </si>
-  <si>
-    <t>Measure object curvature</t>
-  </si>
-  <si>
-    <t>Measure object limits</t>
-  </si>
-  <si>
-    <t>Measure object overlap</t>
-  </si>
-  <si>
-    <t>Measure object shape</t>
-  </si>
-  <si>
-    <t>Measure relative orientation</t>
-  </si>
-  <si>
-    <t>Measure skeleton</t>
-  </si>
-  <si>
-    <t>Measure specific width</t>
-  </si>
-  <si>
-    <t>Measure track motion</t>
-  </si>
-  <si>
-    <t>Active contour-based detection</t>
-  </si>
-  <si>
-    <t>Extract object edges</t>
-  </si>
-  <si>
-    <t>Get local object region</t>
-  </si>
-  <si>
-    <t>Get object surface</t>
-  </si>
-  <si>
-    <t>Hough-based detection</t>
-  </si>
-  <si>
-    <t>Identify objects</t>
-  </si>
-  <si>
-    <t>Manually identify objects</t>
-  </si>
-  <si>
-    <t>Project objects</t>
-  </si>
-  <si>
-    <t>Ridge detection</t>
-  </si>
-  <si>
-    <t>Run TrackMate</t>
-  </si>
-  <si>
-    <t>Convert objects to image</t>
-  </si>
-  <si>
-    <t>Create distance map</t>
-  </si>
-  <si>
-    <t>Combine object sets</t>
-  </si>
-  <si>
-    <t>Duplicate objects across time</t>
-  </si>
-  <si>
-    <t>Expand and shrink objects</t>
-  </si>
-  <si>
-    <t>Number of children</t>
-  </si>
-  <si>
-    <t>Based on measurement</t>
-  </si>
-  <si>
-    <t>Measurement extremes</t>
-  </si>
-  <si>
-    <t>Number of partners</t>
-  </si>
-  <si>
-    <t>Remove on image edge</t>
-  </si>
-  <si>
-    <t>Objects with specific IDs</t>
-  </si>
-  <si>
-    <t>With / without measurement</t>
-  </si>
-  <si>
-    <t>With / without parent</t>
-  </si>
-  <si>
-    <t>Mask objects</t>
-  </si>
-  <si>
-    <t>Merge related objects</t>
-  </si>
-  <si>
-    <t>Merge single class</t>
-  </si>
-  <si>
-    <t>Merge tracks</t>
-  </si>
-  <si>
-    <t>Reassign enclosed objects</t>
-  </si>
-  <si>
-    <t>Remove objects</t>
-  </si>
-  <si>
-    <t>Relate many-to-many</t>
-  </si>
-  <si>
-    <t>Relate many-to-one</t>
-  </si>
-  <si>
-    <t>Relate one-to-one</t>
-  </si>
-  <si>
-    <t>Single class cluster</t>
-  </si>
-  <si>
-    <t>Track objects</t>
-  </si>
-  <si>
-    <t>Create measurement map</t>
-  </si>
-  <si>
-    <t>Create object density map</t>
-  </si>
-  <si>
-    <t>Create orthogonal view</t>
-  </si>
-  <si>
-    <t>Set intensity display range</t>
-  </si>
-  <si>
-    <t>Set lookup table</t>
-  </si>
-  <si>
-    <t>Add all object points</t>
-  </si>
-  <si>
-    <t>Add arrows</t>
-  </si>
-  <si>
-    <t>Add contour lines</t>
-  </si>
-  <si>
-    <t>Add from position measurement</t>
-  </si>
-  <si>
-    <t>Add labels</t>
-  </si>
-  <si>
-    <t>Add line</t>
-  </si>
-  <si>
-    <t>Add object centroid</t>
-  </si>
-  <si>
-    <t>Add object fill</t>
-  </si>
-  <si>
-    <t>Add object outline</t>
-  </si>
-  <si>
-    <t>Add relationship connection</t>
-  </si>
-  <si>
-    <t>Add text</t>
-  </si>
-  <si>
-    <t>Add tracks</t>
-  </si>
-  <si>
-    <t>Plot measurements as scatter</t>
-  </si>
-  <si>
-    <t>Show image</t>
-  </si>
-  <si>
-    <t>Show image measurements</t>
-  </si>
-  <si>
-    <t>Show metadata</t>
-  </si>
-  <si>
-    <t>Show object measurements</t>
-  </si>
-  <si>
-    <t>Add pause</t>
-  </si>
-  <si>
-    <t>Fixed text condition</t>
-  </si>
-  <si>
-    <t>GUI condition</t>
-  </si>
-  <si>
-    <t>Module is enabled condition</t>
-  </si>
-  <si>
-    <t>Workflow handling</t>
-  </si>
-  <si>
-    <t>Child object count</t>
-  </si>
-  <si>
-    <t>Parent object ID</t>
-  </si>
-  <si>
-    <t>Partner object count</t>
-  </si>
-  <si>
-    <t>ADD GLOBAL VARIABLES DESCRIPTION</t>
+    <t>Add custom metadata item,</t>
+  </si>
+  <si>
+    <t>100.00%,</t>
+  </si>
+  <si>
+    <t>Add overlay,</t>
+  </si>
+  <si>
+    <t>Binary operations (legacy),</t>
+  </si>
+  <si>
+    <t>0.00%,</t>
+  </si>
+  <si>
+    <t>Channel extractor,</t>
+  </si>
+  <si>
+    <t>Filter objects,</t>
+  </si>
+  <si>
+    <t>Merge channels,</t>
+  </si>
+  <si>
+    <t>Relate objects,</t>
+  </si>
+  <si>
+    <t>7.69%,</t>
+  </si>
+  <si>
+    <t>Resolve co-occurrence,</t>
+  </si>
+  <si>
+    <t>Threshold image,</t>
+  </si>
+  <si>
+    <t>Input control,</t>
+  </si>
+  <si>
+    <t>Output control,</t>
+  </si>
+  <si>
+    <t>50.00%,</t>
+  </si>
+  <si>
+    <t>Image measurement calculator,</t>
+  </si>
+  <si>
+    <t>Measure image colocalisation,</t>
+  </si>
+  <si>
+    <t>Measure image dimensions,</t>
+  </si>
+  <si>
+    <t>Measure image intensity,</t>
+  </si>
+  <si>
+    <t>Measure image texture,</t>
+  </si>
+  <si>
+    <t>Measure intensity distribution,</t>
+  </si>
+  <si>
+    <t>Apply CLAHE,</t>
+  </si>
+  <si>
+    <t>36.36%,</t>
+  </si>
+  <si>
+    <t>Binary operations 2D,</t>
+  </si>
+  <si>
+    <t>Dilate and erode,</t>
+  </si>
+  <si>
+    <t>Calculate distance map,</t>
+  </si>
+  <si>
+    <t>Extended minima,</t>
+  </si>
+  <si>
+    <t>Fill holes,</t>
+  </si>
+  <si>
+    <t>Fill holes by volume,</t>
+  </si>
+  <si>
+    <t>18.18%,</t>
+  </si>
+  <si>
+    <t>Fix skeleton breaks,</t>
+  </si>
+  <si>
+    <t>72.73%,</t>
+  </si>
+  <si>
+    <t>Skeletonise,</t>
+  </si>
+  <si>
+    <t>Watershed transform,</t>
+  </si>
+  <si>
+    <t>Bleaching correction,</t>
+  </si>
+  <si>
+    <t>Colour deconvolution,</t>
+  </si>
+  <si>
+    <t>Combing correction,</t>
+  </si>
+  <si>
+    <t>Filter image,</t>
+  </si>
+  <si>
+    <t>Image calculator,</t>
+  </si>
+  <si>
+    <t>Image math,</t>
+  </si>
+  <si>
+    <t>Invert image intensity,</t>
+  </si>
+  <si>
+    <t>Manually edit image,</t>
+  </si>
+  <si>
+    <t>Normalise intensity,</t>
+  </si>
+  <si>
+    <t>Plot kymograph,</t>
+  </si>
+  <si>
+    <t>Project image,</t>
+  </si>
+  <si>
+    <t>Global auto-threshold,</t>
+  </si>
+  <si>
+    <t>Local auto-threshold,</t>
+  </si>
+  <si>
+    <t>Manual threshold,</t>
+  </si>
+  <si>
+    <t>Weka probability maps,</t>
+  </si>
+  <si>
+    <t>White balance correction,</t>
+  </si>
+  <si>
+    <t>Apply offset correction,</t>
+  </si>
+  <si>
+    <t>Best focus stack,</t>
+  </si>
+  <si>
+    <t>75.00%,</t>
+  </si>
+  <si>
+    <t>Concatenate stacks,</t>
+  </si>
+  <si>
+    <t>Convert 3D stack (switch Z and T),</t>
+  </si>
+  <si>
+    <t>Crop image,</t>
+  </si>
+  <si>
+    <t>Extract substack,</t>
+  </si>
+  <si>
+    <t>Flip stack,</t>
+  </si>
+  <si>
+    <t>Focus stack,</t>
+  </si>
+  <si>
+    <t>Image type converter,</t>
+  </si>
+  <si>
+    <t>Interpolate Z axis,</t>
+  </si>
+  <si>
+    <t>Unwarp images (manual),</t>
+  </si>
+  <si>
+    <t>Register images,</t>
+  </si>
+  <si>
+    <t>Remove image,</t>
+  </si>
+  <si>
+    <t>Replace image,</t>
+  </si>
+  <si>
+    <t>Unwarp images,</t>
+  </si>
+  <si>
+    <t>Export ACC dataset,</t>
+  </si>
+  <si>
+    <t>Load image,</t>
+  </si>
+  <si>
+    <t>Save image,</t>
+  </si>
+  <si>
+    <t>Extract metadata,</t>
+  </si>
+  <si>
+    <t>Load objects,</t>
+  </si>
+  <si>
+    <t>6.45%,</t>
+  </si>
+  <si>
+    <t>GUI separator,</t>
+  </si>
+  <si>
+    <t>Global variables,</t>
+  </si>
+  <si>
+    <t>Run macro on image,</t>
+  </si>
+  <si>
+    <t>Run macro on objects,</t>
+  </si>
+  <si>
+    <t>Run single macro command,</t>
+  </si>
+  <si>
+    <t>Measure object colocalisation,</t>
+  </si>
+  <si>
+    <t>Measure object intensity,</t>
+  </si>
+  <si>
+    <t>Measure object texture,</t>
+  </si>
+  <si>
+    <t>Measure radial intensity profile,</t>
+  </si>
+  <si>
+    <t>Measure spot intensity,</t>
+  </si>
+  <si>
+    <t>Bin objects by measurement,</t>
+  </si>
+  <si>
+    <t>Calculate measurement periodogram,</t>
+  </si>
+  <si>
+    <t>Calculate statistics for children,</t>
+  </si>
+  <si>
+    <t>Calculate statistics for partners,</t>
+  </si>
+  <si>
+    <t>Child object count,</t>
+  </si>
+  <si>
+    <t>Object measurement calculator,</t>
+  </si>
+  <si>
+    <t>Parent object ID,</t>
+  </si>
+  <si>
+    <t>Partner object count,</t>
+  </si>
+  <si>
+    <t>Replace measurement value,</t>
+  </si>
+  <si>
+    <t>Calculate nearest neighbour,</t>
+  </si>
+  <si>
+    <t>Convex hull 2D,</t>
+  </si>
+  <si>
+    <t>Fit ellipse,</t>
+  </si>
+  <si>
+    <t>Fit ellipsoid,</t>
+  </si>
+  <si>
+    <t>Fit Gaussian 2D,</t>
+  </si>
+  <si>
+    <t>Fit longest chord,</t>
+  </si>
+  <si>
+    <t>Fit spline,</t>
+  </si>
+  <si>
+    <t>Measure object centroid,</t>
+  </si>
+  <si>
+    <t>Measure object curvature,</t>
+  </si>
+  <si>
+    <t>Measure object limits,</t>
+  </si>
+  <si>
+    <t>Measure object overlap,</t>
+  </si>
+  <si>
+    <t>Measure object shape,</t>
+  </si>
+  <si>
+    <t>Measure relative orientation,</t>
+  </si>
+  <si>
+    <t>Measure skeleton,</t>
+  </si>
+  <si>
+    <t>Measure specific width,</t>
+  </si>
+  <si>
+    <t>Measure track motion,</t>
+  </si>
+  <si>
+    <t>Active contour-based detection,</t>
+  </si>
+  <si>
+    <t>Extract object edges,</t>
+  </si>
+  <si>
+    <t>Get local object region,</t>
+  </si>
+  <si>
+    <t>Get object surface,</t>
+  </si>
+  <si>
+    <t>Hough-based detection,</t>
+  </si>
+  <si>
+    <t>6.67%,</t>
+  </si>
+  <si>
+    <t>Identify objects,</t>
+  </si>
+  <si>
+    <t>Manually identify objects,</t>
+  </si>
+  <si>
+    <t>Project objects,</t>
+  </si>
+  <si>
+    <t>Ridge detection,</t>
+  </si>
+  <si>
+    <t>Run TrackMate,</t>
+  </si>
+  <si>
+    <t>Convert objects to image,</t>
+  </si>
+  <si>
+    <t>Create distance map,</t>
+  </si>
+  <si>
+    <t>Combine object sets,</t>
+  </si>
+  <si>
+    <t>Duplicate objects across time,</t>
+  </si>
+  <si>
+    <t>Expand and shrink objects,</t>
+  </si>
+  <si>
+    <t>Number of children,</t>
+  </si>
+  <si>
+    <t>Based on measurement,</t>
+  </si>
+  <si>
+    <t>Measurement extremes,</t>
+  </si>
+  <si>
+    <t>Number of partners,</t>
+  </si>
+  <si>
+    <t>Remove on image edge,</t>
+  </si>
+  <si>
+    <t>Objects with specific IDs,</t>
+  </si>
+  <si>
+    <t>With / without measurement,</t>
+  </si>
+  <si>
+    <t>With / without parent,</t>
+  </si>
+  <si>
+    <t>Mask objects,</t>
+  </si>
+  <si>
+    <t>Merge related objects,</t>
+  </si>
+  <si>
+    <t>Merge single class,</t>
+  </si>
+  <si>
+    <t>Merge tracks,</t>
+  </si>
+  <si>
+    <t>Reassign enclosed objects,</t>
+  </si>
+  <si>
+    <t>Remove objects,</t>
+  </si>
+  <si>
+    <t>Relate many-to-many,</t>
+  </si>
+  <si>
+    <t>Relate many-to-one,</t>
+  </si>
+  <si>
+    <t>Relate one-to-one,</t>
+  </si>
+  <si>
+    <t>Single class cluster,</t>
+  </si>
+  <si>
+    <t>Track objects,</t>
+  </si>
+  <si>
+    <t>Create measurement map,</t>
+  </si>
+  <si>
+    <t>Create object density map,</t>
+  </si>
+  <si>
+    <t>Create orthogonal view,</t>
+  </si>
+  <si>
+    <t>Set intensity display range,</t>
+  </si>
+  <si>
+    <t>Set lookup table,</t>
+  </si>
+  <si>
+    <t>Add all object points,</t>
+  </si>
+  <si>
+    <t>Add arrows,</t>
+  </si>
+  <si>
+    <t>Add contour lines,</t>
+  </si>
+  <si>
+    <t>Add from position measurement,</t>
+  </si>
+  <si>
+    <t>Add labels,</t>
+  </si>
+  <si>
+    <t>Add line,</t>
+  </si>
+  <si>
+    <t>Add object centroid,</t>
+  </si>
+  <si>
+    <t>Add object fill,</t>
+  </si>
+  <si>
+    <t>Add object outline,</t>
+  </si>
+  <si>
+    <t>Add relationship connection,</t>
+  </si>
+  <si>
+    <t>Add text,</t>
+  </si>
+  <si>
+    <t>Add tracks,</t>
+  </si>
+  <si>
+    <t>Plot measurements as scatter,</t>
+  </si>
+  <si>
+    <t>Show image,</t>
+  </si>
+  <si>
+    <t>Show image measurements,</t>
+  </si>
+  <si>
+    <t>Show metadata,</t>
+  </si>
+  <si>
+    <t>Show object measurements,</t>
+  </si>
+  <si>
+    <t>Add pause,</t>
+  </si>
+  <si>
+    <t>Fixed text condition,</t>
+  </si>
+  <si>
+    <t>GUI condition,</t>
+  </si>
+  <si>
+    <t>Module is enabled condition,</t>
+  </si>
+  <si>
+    <t>Workflow handling,</t>
+  </si>
+  <si>
+    <t>11.76%,</t>
   </si>
 </sst>
 </file>
@@ -680,10 +710,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -743,16 +773,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$21</c:f>
+              <c:f>Sheet1!$N$2:$N$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -812,6 +845,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>60.365853658536587</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.975609756097562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -851,10 +887,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -914,16 +950,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$21</c:f>
+              <c:f>Sheet1!$O$2:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -983,6 +1022,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>46.932114882506525</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.715404699738905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,10 +1064,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1085,16 +1127,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$21</c:f>
+              <c:f>Sheet1!$P$2:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1154,6 +1199,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44.512195121951223</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.121951219512198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1193,10 +1241,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1256,16 +1304,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$21</c:f>
+              <c:f>Sheet1!$Q$2:$Q$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1324,6 +1375,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1364,10 +1418,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1427,16 +1481,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$21</c:f>
+              <c:f>Sheet1!$R$2:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1495,6 +1552,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2274,15 +2334,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>441324</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>356657</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1127124</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>167217</xdr:rowOff>
+      <xdr:colOff>1042457</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2610,31 +2670,31 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D28" activeCellId="1" sqref="C22 D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2681,7 +2741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44054</v>
       </c>
@@ -2737,7 +2797,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44055</v>
       </c>
@@ -2793,7 +2853,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44056</v>
       </c>
@@ -2849,7 +2909,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44057</v>
       </c>
@@ -2904,7 +2964,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44058</v>
       </c>
@@ -2959,7 +3019,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44064</v>
       </c>
@@ -3014,7 +3074,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44069</v>
       </c>
@@ -3069,7 +3129,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44070</v>
       </c>
@@ -3124,7 +3184,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44081</v>
       </c>
@@ -3179,7 +3239,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44082</v>
       </c>
@@ -3234,7 +3294,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44083</v>
       </c>
@@ -3289,7 +3349,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44084</v>
       </c>
@@ -3344,7 +3404,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44085</v>
       </c>
@@ -3399,7 +3459,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44089</v>
       </c>
@@ -3454,7 +3514,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44090</v>
       </c>
@@ -3509,7 +3569,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44091</v>
       </c>
@@ -3564,7 +3624,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44097</v>
       </c>
@@ -3619,7 +3679,7 @@
         <v>38.967136150234744</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44098</v>
       </c>
@@ -3674,7 +3734,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44099</v>
       </c>
@@ -3729,7 +3789,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44102</v>
       </c>
@@ -3780,70 +3840,117 @@
         <v>70</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" ref="R21" si="74">100*L21/K21</f>
+        <f t="shared" ref="R21:R22" si="74">100*L21/K21</f>
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B22" s="4">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>164</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>1532</v>
+      </c>
+      <c r="G22">
+        <v>731</v>
+      </c>
+      <c r="H22">
+        <v>74</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>14</v>
+      </c>
+      <c r="K22">
+        <v>213</v>
+      </c>
+      <c r="L22">
+        <v>86</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" ref="N22" si="75">100*E22/D22</f>
+        <v>60.975609756097562</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" ref="O22" si="76">100*G22/F22</f>
+        <v>47.715404699738905</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" ref="P22" si="77">100*H22/D22</f>
+        <v>45.121951219512198</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" ref="Q22" si="78">100*J22/I22</f>
+        <v>70</v>
+      </c>
+      <c r="R22" s="3">
+        <f t="shared" si="74"/>
+        <v>40.375586854460096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
     </row>
   </sheetData>
@@ -3856,1931 +3963,1771 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626E3B8F-11F4-4CEC-B58F-ACDF97F078AF}">
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="4.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5">
-        <v>1</v>
+      <c r="B1" t="s">
+        <v>16</v>
       </c>
       <c r="C1">
         <v>0</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="5">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="5">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="5">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="5">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B43" s="5">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="5">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="5">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" s="5">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" s="5">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49" s="5">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51" s="5">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" s="5">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B54" s="5">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B55" s="5">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B56" s="5">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" s="5">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B58" s="5">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B59" s="5">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B60" s="5">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B61" s="5">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B62" s="5">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B63" s="5">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B64" s="5">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B65" s="5">
-        <v>1</v>
+      <c r="B65" t="s">
+        <v>16</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B66" s="5">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>168</v>
-      </c>
-      <c r="B67" s="5">
-        <v>1</v>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>169</v>
-      </c>
-      <c r="B68" s="5">
-        <v>1</v>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
-      <c r="G68" s="5"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" s="5">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" s="5">
-        <v>1</v>
+        <v>179</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" s="5">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="5">
-        <v>1</v>
+        <v>181</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" s="5">
-        <v>1</v>
+        <v>182</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" s="5">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B75" s="5">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
-      <c r="G75" s="5"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B76" s="5">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" s="5">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
       </c>
       <c r="C77">
         <v>3</v>
       </c>
-      <c r="G77" s="5"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78" s="5">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
       </c>
       <c r="C78">
         <v>3</v>
       </c>
-      <c r="G78" s="5"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B79" s="5">
-        <v>0.72729999999999995</v>
+        <v>45</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
       </c>
       <c r="C79">
         <v>3</v>
       </c>
-      <c r="G79" s="5"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B80" s="5">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
       </c>
       <c r="C80">
         <v>3</v>
       </c>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B81" s="5">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
       </c>
       <c r="C81">
         <v>3</v>
       </c>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" s="5">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B83" s="5">
-        <v>0.75</v>
+        <v>66</v>
+      </c>
+      <c r="B83" t="s">
+        <v>67</v>
       </c>
       <c r="C83">
         <v>3</v>
       </c>
-      <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="5">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B85" s="5">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
-      <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B86" s="5">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
-      <c r="G86" s="5"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" s="5">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
       </c>
       <c r="C87">
         <v>4</v>
       </c>
-      <c r="G87" s="5"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88" s="5">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
       </c>
       <c r="C88">
         <v>4</v>
       </c>
-      <c r="G88" s="5"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B89" s="5">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
       </c>
       <c r="C89">
         <v>4</v>
       </c>
-      <c r="G89" s="5"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B90" s="5">
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
       </c>
       <c r="C90">
         <v>4</v>
       </c>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B91" s="5">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
       </c>
       <c r="C91">
         <v>4</v>
       </c>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B92" s="5">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
       </c>
       <c r="C92">
         <v>4</v>
       </c>
-      <c r="G92" s="5"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B93" s="5">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
       </c>
       <c r="C93">
         <v>5</v>
       </c>
-      <c r="G93" s="5"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B94" s="5">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>19</v>
       </c>
       <c r="C94">
         <v>5</v>
       </c>
-      <c r="G94" s="5"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B95" s="5">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
       </c>
       <c r="C95">
         <v>5</v>
       </c>
-      <c r="G95" s="5"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B96" s="5">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
       </c>
       <c r="C96">
         <v>6</v>
       </c>
-      <c r="G96" s="5"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B97" s="5">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="B97" t="s">
+        <v>19</v>
       </c>
       <c r="C97">
         <v>6</v>
       </c>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B98" s="5">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
       </c>
       <c r="C98">
         <v>6</v>
       </c>
-      <c r="G98" s="5"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B99" s="5">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
       </c>
       <c r="C99">
         <v>6</v>
       </c>
-      <c r="G99" s="5"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B100" s="5">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="B100" t="s">
+        <v>19</v>
       </c>
       <c r="C100">
         <v>6</v>
       </c>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B101" s="5">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
       </c>
       <c r="C101">
         <v>6</v>
       </c>
-      <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B102" s="5">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
       </c>
       <c r="C102">
         <v>6</v>
       </c>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B103" s="5">
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
       </c>
       <c r="C103">
         <v>6</v>
       </c>
-      <c r="G103" s="5"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B104" s="5">
-        <v>0.36359999999999998</v>
+        <v>36</v>
+      </c>
+      <c r="B104" t="s">
+        <v>37</v>
       </c>
       <c r="C104">
         <v>7</v>
       </c>
-      <c r="G104" s="5"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B105" s="5">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
       </c>
       <c r="C105">
         <v>7</v>
       </c>
-      <c r="G105" s="5"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B106" s="5">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
       </c>
       <c r="C106">
         <v>7</v>
       </c>
-      <c r="G106" s="5"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B107" s="5">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
       </c>
       <c r="C107">
         <v>7</v>
       </c>
-      <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B108" s="5">
-        <v>0</v>
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
       </c>
       <c r="C108">
         <v>7</v>
       </c>
-      <c r="G108" s="5"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B109" s="5">
-        <v>0</v>
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>19</v>
       </c>
       <c r="C109">
         <v>7</v>
       </c>
-      <c r="G109" s="5"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B110" s="5">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
       </c>
       <c r="C110">
         <v>7</v>
       </c>
-      <c r="G110" s="5"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B111" s="5">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
       </c>
       <c r="C111">
         <v>8</v>
       </c>
-      <c r="G111" s="5"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B112" s="5">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
       </c>
       <c r="C112">
         <v>8</v>
       </c>
-      <c r="G112" s="5"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B113" s="5">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
       </c>
       <c r="C113">
         <v>8</v>
       </c>
-      <c r="G113" s="5"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B114" s="5">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
       </c>
       <c r="C114">
         <v>8</v>
       </c>
-      <c r="G114" s="5"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B115" s="5">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
       </c>
       <c r="C115">
         <v>8</v>
       </c>
-      <c r="G115" s="5"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B116" s="5">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
       </c>
       <c r="C116">
         <v>9</v>
       </c>
-      <c r="G116" s="5"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B117" s="5">
-        <v>0.18179999999999999</v>
+        <v>43</v>
+      </c>
+      <c r="B117" t="s">
+        <v>44</v>
       </c>
       <c r="C117">
         <v>9</v>
       </c>
-      <c r="G117" s="5"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B118" s="5">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
       </c>
       <c r="C118">
         <v>9</v>
       </c>
-      <c r="G118" s="5"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B119" s="5">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="B119" t="s">
+        <v>19</v>
       </c>
       <c r="C119">
         <v>9</v>
       </c>
-      <c r="G119" s="5"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B120" s="5">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="B120" t="s">
+        <v>19</v>
       </c>
       <c r="C120">
         <v>9</v>
       </c>
-      <c r="G120" s="5"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B121" s="5">
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="B121" t="s">
+        <v>19</v>
       </c>
       <c r="C121">
         <v>9</v>
       </c>
-      <c r="G121" s="5"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B122" s="5">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="B122" t="s">
+        <v>19</v>
       </c>
       <c r="C122">
         <v>9</v>
       </c>
-      <c r="G122" s="5"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B123" s="5">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="B123" t="s">
+        <v>19</v>
       </c>
       <c r="C123">
         <v>9</v>
       </c>
-      <c r="G123" s="5"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B124" s="5">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>19</v>
       </c>
       <c r="C124">
         <v>9</v>
       </c>
-      <c r="G124" s="5"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B125" s="5">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="B125" t="s">
+        <v>19</v>
       </c>
       <c r="C125">
         <v>9</v>
       </c>
-      <c r="G125" s="5"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B126" s="5">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B126" t="s">
+        <v>19</v>
       </c>
       <c r="C126">
         <v>9</v>
       </c>
-      <c r="G126" s="5"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B127" s="5">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="B127" t="s">
+        <v>19</v>
       </c>
       <c r="C127">
         <v>9</v>
       </c>
-      <c r="G127" s="5"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B128" s="5">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="B128" t="s">
+        <v>19</v>
       </c>
       <c r="C128">
         <v>10</v>
       </c>
-      <c r="G128" s="5"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B129" s="5">
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="B129" t="s">
+        <v>19</v>
       </c>
       <c r="C129">
         <v>10</v>
       </c>
-      <c r="G129" s="5"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B130" s="5">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="B130" t="s">
+        <v>19</v>
       </c>
       <c r="C130">
         <v>10</v>
       </c>
-      <c r="G130" s="5"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B131" s="5">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="B131" t="s">
+        <v>19</v>
       </c>
       <c r="C131">
         <v>11</v>
       </c>
-      <c r="G131" s="5"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B132" s="5">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="B132" t="s">
+        <v>19</v>
       </c>
       <c r="C132">
         <v>12</v>
       </c>
-      <c r="G132" s="5"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B133" s="5">
-        <v>7.6899999999999996E-2</v>
+        <v>23</v>
+      </c>
+      <c r="B133" t="s">
+        <v>24</v>
       </c>
       <c r="C133">
         <v>12</v>
       </c>
-      <c r="G133" s="5"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B134" s="5">
-        <v>0.5</v>
+        <v>28</v>
+      </c>
+      <c r="B134" t="s">
+        <v>29</v>
       </c>
       <c r="C134">
         <v>12</v>
       </c>
-      <c r="G134" s="5"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B135" s="5">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B135" t="s">
+        <v>19</v>
       </c>
       <c r="C135">
         <v>12</v>
       </c>
-      <c r="G135" s="5"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B136" s="5">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="B136" t="s">
+        <v>19</v>
       </c>
       <c r="C136">
         <v>12</v>
       </c>
-      <c r="G136" s="5"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B137" s="5">
-        <v>7.6899999999999996E-2</v>
+        <v>153</v>
+      </c>
+      <c r="B137" t="s">
+        <v>24</v>
       </c>
       <c r="C137">
         <v>12</v>
       </c>
-      <c r="G137" s="5"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B138" s="5">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="B138" t="s">
+        <v>19</v>
       </c>
       <c r="C138">
         <v>13</v>
       </c>
-      <c r="G138" s="5"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B139" s="5">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="B139" t="s">
+        <v>19</v>
       </c>
       <c r="C139">
         <v>13</v>
       </c>
-      <c r="G139" s="5"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B140" s="5">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="B140" t="s">
+        <v>19</v>
       </c>
       <c r="C140">
         <v>13</v>
       </c>
-      <c r="G140" s="5"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B141" s="5">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="B141" t="s">
+        <v>19</v>
       </c>
       <c r="C141">
         <v>13</v>
       </c>
-      <c r="G141" s="5"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B142" s="5">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="B142" t="s">
+        <v>19</v>
       </c>
       <c r="C142">
         <v>14</v>
       </c>
-      <c r="G142" s="5"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B143" s="5">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="B143" t="s">
+        <v>19</v>
       </c>
       <c r="C143">
         <v>14</v>
       </c>
-      <c r="G143" s="5"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B144" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>126</v>
+      </c>
+      <c r="B144" t="s">
+        <v>127</v>
       </c>
       <c r="C144">
         <v>14</v>
       </c>
-      <c r="G144" s="5"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B145" s="5">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="B145" t="s">
+        <v>19</v>
       </c>
       <c r="C145">
         <v>15</v>
       </c>
-      <c r="G145" s="5"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B146" s="5">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="B146" t="s">
+        <v>19</v>
       </c>
       <c r="C146">
         <v>15</v>
       </c>
-      <c r="G146" s="5"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>170</v>
-      </c>
-      <c r="B147" s="5">
-        <v>0.1176</v>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B147" t="s">
+        <v>184</v>
       </c>
       <c r="C147">
         <v>15</v>
       </c>
-      <c r="G147" s="5"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B148" s="5">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="B148" t="s">
+        <v>19</v>
       </c>
       <c r="C148">
         <v>16</v>
       </c>
-      <c r="G148" s="5"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B149" s="5">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="B149" t="s">
+        <v>19</v>
       </c>
       <c r="C149">
         <v>16</v>
       </c>
-      <c r="G149" s="5"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B150" s="5">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="B150" t="s">
+        <v>19</v>
       </c>
       <c r="C150">
         <v>18</v>
       </c>
-      <c r="G150" s="5"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B151" s="5">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="B151" t="s">
+        <v>19</v>
       </c>
       <c r="C151">
         <v>18</v>
       </c>
-      <c r="G151" s="5"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B152" s="5">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="B152" t="s">
+        <v>19</v>
       </c>
       <c r="C152">
         <v>19</v>
       </c>
-      <c r="G152" s="5"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B153" s="5">
-        <v>0</v>
+        <v>114</v>
+      </c>
+      <c r="B153" t="s">
+        <v>19</v>
       </c>
       <c r="C153">
         <v>19</v>
       </c>
-      <c r="G153" s="5"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B154" s="5">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="B154" t="s">
+        <v>19</v>
       </c>
       <c r="C154">
         <v>19</v>
       </c>
-      <c r="G154" s="5"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B155" s="5">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="B155" t="s">
+        <v>19</v>
       </c>
       <c r="C155">
         <v>21</v>
       </c>
-      <c r="G155" s="5"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B156" s="5">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="B156" t="s">
+        <v>19</v>
       </c>
       <c r="C156">
         <v>21</v>
       </c>
-      <c r="G156" s="5"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B157" s="5">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="B157" t="s">
+        <v>19</v>
       </c>
       <c r="C157">
         <v>22</v>
       </c>
-      <c r="G157" s="5"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B158" s="5">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="B158" t="s">
+        <v>19</v>
       </c>
       <c r="C158">
         <v>23</v>
       </c>
-      <c r="G158" s="5"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B159" s="5">
-        <v>6.4500000000000002E-2</v>
+        <v>85</v>
+      </c>
+      <c r="B159" t="s">
+        <v>86</v>
       </c>
       <c r="C159">
         <v>29</v>
       </c>
-      <c r="G159" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C159">
-    <sortCondition ref="C77"/>
+    <sortCondition ref="C101"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532D5D2F-D7EB-41A9-8987-B704EBB5E36B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC7B707-8DB9-4801-8C5E-E596F6A7E87B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="-108" windowWidth="22668" windowHeight="13176" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -710,10 +710,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -776,16 +776,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$22</c:f>
+              <c:f>Sheet1!$N$2:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -848,6 +851,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>60.975609756097562</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62.195121951219512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,10 +893,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -953,16 +959,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$22</c:f>
+              <c:f>Sheet1!$O$2:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1025,6 +1034,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>47.715404699738905</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.215686274509807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1064,10 +1076,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1130,16 +1142,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$22</c:f>
+              <c:f>Sheet1!$P$2:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1202,6 +1217,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>45.121951219512198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46.341463414634148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1241,10 +1259,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1307,16 +1325,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$22</c:f>
+              <c:f>Sheet1!$Q$2:$Q$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1378,6 +1399,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1418,10 +1442,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1484,16 +1508,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$22</c:f>
+              <c:f>Sheet1!$R$2:$R$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1555,6 +1582,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2333,16 +2363,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>356657</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>23284</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>589490</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>97367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1042457</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>566207</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2670,31 +2700,31 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D28" activeCellId="1" sqref="C22 D28"/>
+      <selection activeCell="C23" sqref="C23:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2741,7 +2771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44054</v>
       </c>
@@ -2797,7 +2827,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44055</v>
       </c>
@@ -2853,7 +2883,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44056</v>
       </c>
@@ -2909,7 +2939,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44057</v>
       </c>
@@ -2964,7 +2994,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44058</v>
       </c>
@@ -3019,7 +3049,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44064</v>
       </c>
@@ -3074,7 +3104,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44069</v>
       </c>
@@ -3129,7 +3159,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44070</v>
       </c>
@@ -3184,7 +3214,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44081</v>
       </c>
@@ -3239,7 +3269,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44082</v>
       </c>
@@ -3294,7 +3324,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44083</v>
       </c>
@@ -3349,7 +3379,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44084</v>
       </c>
@@ -3404,7 +3434,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44085</v>
       </c>
@@ -3459,7 +3489,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44089</v>
       </c>
@@ -3514,7 +3544,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44090</v>
       </c>
@@ -3569,7 +3599,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44091</v>
       </c>
@@ -3624,7 +3654,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44097</v>
       </c>
@@ -3679,7 +3709,7 @@
         <v>38.967136150234744</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44098</v>
       </c>
@@ -3734,7 +3764,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44099</v>
       </c>
@@ -3789,7 +3819,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44102</v>
       </c>
@@ -3844,7 +3874,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44103</v>
       </c>
@@ -3899,58 +3929,113 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B23" s="4">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>164</v>
+      </c>
+      <c r="E23">
+        <v>102</v>
+      </c>
+      <c r="F23">
+        <v>1530</v>
+      </c>
+      <c r="G23">
+        <v>753</v>
+      </c>
+      <c r="H23">
+        <v>76</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>14</v>
+      </c>
+      <c r="K23">
+        <v>213</v>
+      </c>
+      <c r="L23">
+        <v>86</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" ref="N23" si="79">100*E23/D23</f>
+        <v>62.195121951219512</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" ref="O23" si="80">100*G23/F23</f>
+        <v>49.215686274509807</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" ref="P23" si="81">100*H23/D23</f>
+        <v>46.341463414634148</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" ref="Q23" si="82">100*J23/I23</f>
+        <v>70</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" ref="R23" si="83">100*L23/K23</f>
+        <v>40.375586854460096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
     </row>
   </sheetData>
@@ -3969,14 +4054,14 @@
       <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -3987,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -3998,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -4009,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -4020,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -4031,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
@@ -4042,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -4053,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -4064,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
@@ -4075,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -4086,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
@@ -4097,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
@@ -4108,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -4119,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
@@ -4130,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -4141,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -4152,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
@@ -4163,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>63</v>
       </c>
@@ -4174,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
@@ -4185,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>68</v>
       </c>
@@ -4196,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>70</v>
       </c>
@@ -4207,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
@@ -4218,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
@@ -4229,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
@@ -4240,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>78</v>
       </c>
@@ -4251,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>79</v>
       </c>
@@ -4262,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>82</v>
       </c>
@@ -4273,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>83</v>
       </c>
@@ -4284,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>87</v>
       </c>
@@ -4295,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>88</v>
       </c>
@@ -4306,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>101</v>
       </c>
@@ -4317,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>103</v>
       </c>
@@ -4328,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>104</v>
       </c>
@@ -4339,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>113</v>
       </c>
@@ -4350,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>115</v>
       </c>
@@ -4361,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>125</v>
       </c>
@@ -4372,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>128</v>
       </c>
@@ -4383,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>129</v>
       </c>
@@ -4394,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>130</v>
       </c>
@@ -4405,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>132</v>
       </c>
@@ -4416,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>138</v>
       </c>
@@ -4427,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>139</v>
       </c>
@@ -4438,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>140</v>
       </c>
@@ -4449,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>141</v>
       </c>
@@ -4460,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>142</v>
       </c>
@@ -4471,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>143</v>
       </c>
@@ -4482,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>144</v>
       </c>
@@ -4493,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>145</v>
       </c>
@@ -4504,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>146</v>
       </c>
@@ -4515,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>147</v>
       </c>
@@ -4526,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>150</v>
       </c>
@@ -4537,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>151</v>
       </c>
@@ -4548,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>161</v>
       </c>
@@ -4559,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>162</v>
       </c>
@@ -4570,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>163</v>
       </c>
@@ -4581,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>164</v>
       </c>
@@ -4592,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>165</v>
       </c>
@@ -4603,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>166</v>
       </c>
@@ -4614,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>167</v>
       </c>
@@ -4625,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>168</v>
       </c>
@@ -4636,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>169</v>
       </c>
@@ -4647,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>170</v>
       </c>
@@ -4658,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>171</v>
       </c>
@@ -4669,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>172</v>
       </c>
@@ -4680,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>173</v>
       </c>
@@ -4691,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>175</v>
       </c>
@@ -4702,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>176</v>
       </c>
@@ -4713,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>177</v>
       </c>
@@ -4724,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>178</v>
       </c>
@@ -4735,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>179</v>
       </c>
@@ -4746,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>180</v>
       </c>
@@ -4757,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>181</v>
       </c>
@@ -4768,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>182</v>
       </c>
@@ -4779,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>75</v>
       </c>
@@ -4790,7 +4875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>107</v>
       </c>
@@ -4801,7 +4886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>148</v>
       </c>
@@ -4812,7 +4897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>40</v>
       </c>
@@ -4823,7 +4908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>42</v>
       </c>
@@ -4834,7 +4919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>45</v>
       </c>
@@ -4845,7 +4930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>47</v>
       </c>
@@ -4856,7 +4941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>49</v>
       </c>
@@ -4867,7 +4952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>56</v>
       </c>
@@ -4878,7 +4963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>66</v>
       </c>
@@ -4889,7 +4974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>92</v>
       </c>
@@ -4900,7 +4985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>116</v>
       </c>
@@ -4911,7 +4996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>121</v>
       </c>
@@ -4922,7 +5007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>31</v>
       </c>
@@ -4933,7 +5018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>34</v>
       </c>
@@ -4944,7 +5029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>69</v>
       </c>
@@ -4955,7 +5040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>135</v>
       </c>
@@ -4966,7 +5051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>149</v>
       </c>
@@ -4977,7 +5062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>159</v>
       </c>
@@ -4988,7 +5073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>39</v>
       </c>
@@ -4999,7 +5084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>97</v>
       </c>
@@ -5010,7 +5095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>158</v>
       </c>
@@ -5021,7 +5106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>38</v>
       </c>
@@ -5032,7 +5117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>41</v>
       </c>
@@ -5043,7 +5128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>58</v>
       </c>
@@ -5054,7 +5139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>91</v>
       </c>
@@ -5065,7 +5150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>105</v>
       </c>
@@ -5076,7 +5161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>117</v>
       </c>
@@ -5087,7 +5172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>124</v>
       </c>
@@ -5098,7 +5183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>137</v>
       </c>
@@ -5109,7 +5194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>36</v>
       </c>
@@ -5120,7 +5205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>54</v>
       </c>
@@ -5131,7 +5216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>65</v>
       </c>
@@ -5142,7 +5227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>98</v>
       </c>
@@ -5153,7 +5238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>108</v>
       </c>
@@ -5164,7 +5249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>109</v>
       </c>
@@ -5175,7 +5260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>174</v>
       </c>
@@ -5186,7 +5271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>25</v>
       </c>
@@ -5197,7 +5282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>50</v>
       </c>
@@ -5208,7 +5293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>99</v>
       </c>
@@ -5219,7 +5304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>100</v>
       </c>
@@ -5230,7 +5315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>134</v>
       </c>
@@ -5241,7 +5326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>30</v>
       </c>
@@ -5252,7 +5337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>43</v>
       </c>
@@ -5263,7 +5348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>73</v>
       </c>
@@ -5274,7 +5359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>81</v>
       </c>
@@ -5285,7 +5370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>94</v>
       </c>
@@ -5296,7 +5381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>95</v>
       </c>
@@ -5307,7 +5392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>111</v>
       </c>
@@ -5318,7 +5403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>118</v>
       </c>
@@ -5329,7 +5414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>123</v>
       </c>
@@ -5340,7 +5425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>154</v>
       </c>
@@ -5351,7 +5436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>155</v>
       </c>
@@ -5362,7 +5447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>157</v>
       </c>
@@ -5373,7 +5458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>57</v>
       </c>
@@ -5384,7 +5469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>119</v>
       </c>
@@ -5395,7 +5480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>160</v>
       </c>
@@ -5406,7 +5491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>48</v>
       </c>
@@ -5417,7 +5502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>18</v>
       </c>
@@ -5428,7 +5513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>23</v>
       </c>
@@ -5439,7 +5524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>28</v>
       </c>
@@ -5450,7 +5535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>90</v>
       </c>
@@ -5461,7 +5546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>93</v>
       </c>
@@ -5472,7 +5557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>153</v>
       </c>
@@ -5483,7 +5568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>96</v>
       </c>
@@ -5494,7 +5579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>122</v>
       </c>
@@ -5505,7 +5590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>133</v>
       </c>
@@ -5516,7 +5601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>136</v>
       </c>
@@ -5527,7 +5612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>35</v>
       </c>
@@ -5538,7 +5623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>89</v>
       </c>
@@ -5549,7 +5634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>126</v>
       </c>
@@ -5560,7 +5645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>131</v>
       </c>
@@ -5571,7 +5656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>152</v>
       </c>
@@ -5582,7 +5667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>183</v>
       </c>
@@ -5593,7 +5678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>76</v>
       </c>
@@ -5604,7 +5689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>110</v>
       </c>
@@ -5615,7 +5700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>84</v>
       </c>
@@ -5626,7 +5711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>120</v>
       </c>
@@ -5637,7 +5722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>102</v>
       </c>
@@ -5648,7 +5733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>114</v>
       </c>
@@ -5659,7 +5744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>156</v>
       </c>
@@ -5670,7 +5755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>80</v>
       </c>
@@ -5681,7 +5766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>112</v>
       </c>
@@ -5692,7 +5777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>106</v>
       </c>
@@ -5703,7 +5788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>77</v>
       </c>
@@ -5714,7 +5799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>85</v>
       </c>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC7B707-8DB9-4801-8C5E-E596F6A7E87B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B13E7BC-F262-4D99-A24A-6119CF2F3253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B13E7BC-F262-4D99-A24A-6119CF2F3253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E8F01D-9B3C-4B48-9DE4-24EEFC5AE45C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>Date</t>
   </si>
@@ -81,514 +81,481 @@
     <t>% object meas</t>
   </si>
   <si>
-    <t>Add custom metadata item,</t>
-  </si>
-  <si>
-    <t>100.00%,</t>
-  </si>
-  <si>
-    <t>Add overlay,</t>
-  </si>
-  <si>
-    <t>Binary operations (legacy),</t>
-  </si>
-  <si>
-    <t>0.00%,</t>
-  </si>
-  <si>
-    <t>Channel extractor,</t>
-  </si>
-  <si>
-    <t>Filter objects,</t>
-  </si>
-  <si>
-    <t>Merge channels,</t>
-  </si>
-  <si>
-    <t>Relate objects,</t>
-  </si>
-  <si>
-    <t>7.69%,</t>
-  </si>
-  <si>
-    <t>Resolve co-occurrence,</t>
-  </si>
-  <si>
-    <t>Threshold image,</t>
-  </si>
-  <si>
-    <t>Input control,</t>
-  </si>
-  <si>
-    <t>Output control,</t>
-  </si>
-  <si>
-    <t>50.00%,</t>
-  </si>
-  <si>
-    <t>Image measurement calculator,</t>
-  </si>
-  <si>
-    <t>Measure image colocalisation,</t>
-  </si>
-  <si>
-    <t>Measure image dimensions,</t>
-  </si>
-  <si>
-    <t>Measure image intensity,</t>
-  </si>
-  <si>
-    <t>Measure image texture,</t>
-  </si>
-  <si>
-    <t>Measure intensity distribution,</t>
-  </si>
-  <si>
-    <t>Apply CLAHE,</t>
-  </si>
-  <si>
-    <t>36.36%,</t>
-  </si>
-  <si>
-    <t>Binary operations 2D,</t>
-  </si>
-  <si>
-    <t>Dilate and erode,</t>
-  </si>
-  <si>
-    <t>Calculate distance map,</t>
-  </si>
-  <si>
-    <t>Extended minima,</t>
-  </si>
-  <si>
-    <t>Fill holes,</t>
-  </si>
-  <si>
-    <t>Fill holes by volume,</t>
-  </si>
-  <si>
-    <t>18.18%,</t>
-  </si>
-  <si>
-    <t>Fix skeleton breaks,</t>
-  </si>
-  <si>
-    <t>72.73%,</t>
-  </si>
-  <si>
-    <t>Skeletonise,</t>
-  </si>
-  <si>
-    <t>Watershed transform,</t>
-  </si>
-  <si>
-    <t>Bleaching correction,</t>
-  </si>
-  <si>
-    <t>Colour deconvolution,</t>
-  </si>
-  <si>
-    <t>Combing correction,</t>
-  </si>
-  <si>
-    <t>Filter image,</t>
-  </si>
-  <si>
-    <t>Image calculator,</t>
-  </si>
-  <si>
-    <t>Image math,</t>
-  </si>
-  <si>
-    <t>Invert image intensity,</t>
-  </si>
-  <si>
-    <t>Manually edit image,</t>
-  </si>
-  <si>
-    <t>Normalise intensity,</t>
-  </si>
-  <si>
-    <t>Plot kymograph,</t>
-  </si>
-  <si>
-    <t>Project image,</t>
-  </si>
-  <si>
-    <t>Global auto-threshold,</t>
-  </si>
-  <si>
-    <t>Local auto-threshold,</t>
-  </si>
-  <si>
-    <t>Manual threshold,</t>
-  </si>
-  <si>
-    <t>Weka probability maps,</t>
-  </si>
-  <si>
-    <t>White balance correction,</t>
-  </si>
-  <si>
-    <t>Apply offset correction,</t>
-  </si>
-  <si>
-    <t>Best focus stack,</t>
-  </si>
-  <si>
-    <t>75.00%,</t>
-  </si>
-  <si>
-    <t>Concatenate stacks,</t>
-  </si>
-  <si>
-    <t>Convert 3D stack (switch Z and T),</t>
-  </si>
-  <si>
-    <t>Crop image,</t>
-  </si>
-  <si>
-    <t>Extract substack,</t>
-  </si>
-  <si>
-    <t>Flip stack,</t>
-  </si>
-  <si>
-    <t>Focus stack,</t>
-  </si>
-  <si>
-    <t>Image type converter,</t>
-  </si>
-  <si>
-    <t>Interpolate Z axis,</t>
-  </si>
-  <si>
-    <t>Unwarp images (manual),</t>
-  </si>
-  <si>
-    <t>Register images,</t>
-  </si>
-  <si>
-    <t>Remove image,</t>
-  </si>
-  <si>
-    <t>Replace image,</t>
-  </si>
-  <si>
-    <t>Unwarp images,</t>
-  </si>
-  <si>
-    <t>Export ACC dataset,</t>
-  </si>
-  <si>
-    <t>Load image,</t>
-  </si>
-  <si>
-    <t>Save image,</t>
-  </si>
-  <si>
-    <t>Extract metadata,</t>
-  </si>
-  <si>
-    <t>Load objects,</t>
-  </si>
-  <si>
-    <t>6.45%,</t>
-  </si>
-  <si>
-    <t>GUI separator,</t>
-  </si>
-  <si>
-    <t>Global variables,</t>
-  </si>
-  <si>
-    <t>Run macro on image,</t>
-  </si>
-  <si>
-    <t>Run macro on objects,</t>
-  </si>
-  <si>
-    <t>Run single macro command,</t>
-  </si>
-  <si>
-    <t>Measure object colocalisation,</t>
-  </si>
-  <si>
-    <t>Measure object intensity,</t>
-  </si>
-  <si>
-    <t>Measure object texture,</t>
-  </si>
-  <si>
-    <t>Measure radial intensity profile,</t>
-  </si>
-  <si>
-    <t>Measure spot intensity,</t>
-  </si>
-  <si>
-    <t>Bin objects by measurement,</t>
-  </si>
-  <si>
-    <t>Calculate measurement periodogram,</t>
-  </si>
-  <si>
-    <t>Calculate statistics for children,</t>
-  </si>
-  <si>
-    <t>Calculate statistics for partners,</t>
-  </si>
-  <si>
-    <t>Child object count,</t>
-  </si>
-  <si>
-    <t>Object measurement calculator,</t>
-  </si>
-  <si>
-    <t>Parent object ID,</t>
-  </si>
-  <si>
-    <t>Partner object count,</t>
-  </si>
-  <si>
-    <t>Replace measurement value,</t>
-  </si>
-  <si>
-    <t>Calculate nearest neighbour,</t>
-  </si>
-  <si>
-    <t>Convex hull 2D,</t>
-  </si>
-  <si>
-    <t>Fit ellipse,</t>
-  </si>
-  <si>
-    <t>Fit ellipsoid,</t>
-  </si>
-  <si>
-    <t>Fit Gaussian 2D,</t>
-  </si>
-  <si>
-    <t>Fit longest chord,</t>
-  </si>
-  <si>
-    <t>Fit spline,</t>
-  </si>
-  <si>
-    <t>Measure object centroid,</t>
-  </si>
-  <si>
-    <t>Measure object curvature,</t>
-  </si>
-  <si>
-    <t>Measure object limits,</t>
-  </si>
-  <si>
-    <t>Measure object overlap,</t>
-  </si>
-  <si>
-    <t>Measure object shape,</t>
-  </si>
-  <si>
-    <t>Measure relative orientation,</t>
-  </si>
-  <si>
-    <t>Measure skeleton,</t>
-  </si>
-  <si>
-    <t>Measure specific width,</t>
-  </si>
-  <si>
-    <t>Measure track motion,</t>
-  </si>
-  <si>
-    <t>Active contour-based detection,</t>
-  </si>
-  <si>
-    <t>Extract object edges,</t>
-  </si>
-  <si>
-    <t>Get local object region,</t>
-  </si>
-  <si>
-    <t>Get object surface,</t>
-  </si>
-  <si>
-    <t>Hough-based detection,</t>
-  </si>
-  <si>
-    <t>6.67%,</t>
-  </si>
-  <si>
-    <t>Identify objects,</t>
-  </si>
-  <si>
-    <t>Manually identify objects,</t>
-  </si>
-  <si>
-    <t>Project objects,</t>
-  </si>
-  <si>
-    <t>Ridge detection,</t>
-  </si>
-  <si>
-    <t>Run TrackMate,</t>
-  </si>
-  <si>
-    <t>Convert objects to image,</t>
-  </si>
-  <si>
-    <t>Create distance map,</t>
-  </si>
-  <si>
-    <t>Combine object sets,</t>
-  </si>
-  <si>
-    <t>Duplicate objects across time,</t>
-  </si>
-  <si>
-    <t>Expand and shrink objects,</t>
-  </si>
-  <si>
-    <t>Number of children,</t>
-  </si>
-  <si>
-    <t>Based on measurement,</t>
-  </si>
-  <si>
-    <t>Measurement extremes,</t>
-  </si>
-  <si>
-    <t>Number of partners,</t>
-  </si>
-  <si>
-    <t>Remove on image edge,</t>
-  </si>
-  <si>
-    <t>Objects with specific IDs,</t>
-  </si>
-  <si>
-    <t>With / without measurement,</t>
-  </si>
-  <si>
-    <t>With / without parent,</t>
-  </si>
-  <si>
-    <t>Mask objects,</t>
-  </si>
-  <si>
-    <t>Merge related objects,</t>
-  </si>
-  <si>
-    <t>Merge single class,</t>
-  </si>
-  <si>
-    <t>Merge tracks,</t>
-  </si>
-  <si>
-    <t>Reassign enclosed objects,</t>
-  </si>
-  <si>
-    <t>Remove objects,</t>
-  </si>
-  <si>
-    <t>Relate many-to-many,</t>
-  </si>
-  <si>
-    <t>Relate many-to-one,</t>
-  </si>
-  <si>
-    <t>Relate one-to-one,</t>
-  </si>
-  <si>
-    <t>Single class cluster,</t>
-  </si>
-  <si>
-    <t>Track objects,</t>
-  </si>
-  <si>
-    <t>Create measurement map,</t>
-  </si>
-  <si>
-    <t>Create object density map,</t>
-  </si>
-  <si>
-    <t>Create orthogonal view,</t>
-  </si>
-  <si>
-    <t>Set intensity display range,</t>
-  </si>
-  <si>
-    <t>Set lookup table,</t>
-  </si>
-  <si>
-    <t>Add all object points,</t>
-  </si>
-  <si>
-    <t>Add arrows,</t>
-  </si>
-  <si>
-    <t>Add contour lines,</t>
-  </si>
-  <si>
-    <t>Add from position measurement,</t>
-  </si>
-  <si>
-    <t>Add labels,</t>
-  </si>
-  <si>
-    <t>Add line,</t>
-  </si>
-  <si>
-    <t>Add object centroid,</t>
-  </si>
-  <si>
-    <t>Add object fill,</t>
-  </si>
-  <si>
-    <t>Add object outline,</t>
-  </si>
-  <si>
-    <t>Add relationship connection,</t>
-  </si>
-  <si>
-    <t>Add text,</t>
-  </si>
-  <si>
-    <t>Add tracks,</t>
-  </si>
-  <si>
-    <t>Plot measurements as scatter,</t>
-  </si>
-  <si>
-    <t>Show image,</t>
-  </si>
-  <si>
-    <t>Show image measurements,</t>
-  </si>
-  <si>
-    <t>Show metadata,</t>
-  </si>
-  <si>
-    <t>Show object measurements,</t>
-  </si>
-  <si>
-    <t>Add pause,</t>
-  </si>
-  <si>
-    <t>Fixed text condition,</t>
-  </si>
-  <si>
-    <t>GUI condition,</t>
-  </si>
-  <si>
-    <t>Module is enabled condition,</t>
-  </si>
-  <si>
-    <t>Workflow handling,</t>
-  </si>
-  <si>
-    <t>11.76%,</t>
+    <t>Add custom metadata item</t>
+  </si>
+  <si>
+    <t>Add overlay</t>
+  </si>
+  <si>
+    <t>Binary operations (legacy)</t>
+  </si>
+  <si>
+    <t>Channel extractor</t>
+  </si>
+  <si>
+    <t>Filter objects</t>
+  </si>
+  <si>
+    <t>Merge channels</t>
+  </si>
+  <si>
+    <t>Relate objects</t>
+  </si>
+  <si>
+    <t>Resolve co-occurrence</t>
+  </si>
+  <si>
+    <t>Threshold image</t>
+  </si>
+  <si>
+    <t>Input control</t>
+  </si>
+  <si>
+    <t>Output control</t>
+  </si>
+  <si>
+    <t>Image measurement calculator</t>
+  </si>
+  <si>
+    <t>Measure image colocalisation</t>
+  </si>
+  <si>
+    <t>Measure image dimensions</t>
+  </si>
+  <si>
+    <t>Measure image intensity</t>
+  </si>
+  <si>
+    <t>Measure image texture</t>
+  </si>
+  <si>
+    <t>Measure intensity distribution</t>
+  </si>
+  <si>
+    <t>Apply CLAHE</t>
+  </si>
+  <si>
+    <t>Binary operations 2D</t>
+  </si>
+  <si>
+    <t>Dilate and erode</t>
+  </si>
+  <si>
+    <t>Calculate distance map</t>
+  </si>
+  <si>
+    <t>Extended minima</t>
+  </si>
+  <si>
+    <t>Fill holes</t>
+  </si>
+  <si>
+    <t>Fill holes by volume</t>
+  </si>
+  <si>
+    <t>Fix skeleton breaks</t>
+  </si>
+  <si>
+    <t>Skeletonise</t>
+  </si>
+  <si>
+    <t>Watershed transform</t>
+  </si>
+  <si>
+    <t>Bleaching correction</t>
+  </si>
+  <si>
+    <t>Colour deconvolution</t>
+  </si>
+  <si>
+    <t>Combing correction</t>
+  </si>
+  <si>
+    <t>Filter image</t>
+  </si>
+  <si>
+    <t>Image calculator</t>
+  </si>
+  <si>
+    <t>Image math</t>
+  </si>
+  <si>
+    <t>Invert image intensity</t>
+  </si>
+  <si>
+    <t>Manually edit image</t>
+  </si>
+  <si>
+    <t>Normalise intensity</t>
+  </si>
+  <si>
+    <t>Plot kymograph</t>
+  </si>
+  <si>
+    <t>Project image</t>
+  </si>
+  <si>
+    <t>Global auto-threshold</t>
+  </si>
+  <si>
+    <t>Local auto-threshold</t>
+  </si>
+  <si>
+    <t>Manual threshold</t>
+  </si>
+  <si>
+    <t>Weka probability maps</t>
+  </si>
+  <si>
+    <t>White balance correction</t>
+  </si>
+  <si>
+    <t>Apply offset correction</t>
+  </si>
+  <si>
+    <t>Best focus stack</t>
+  </si>
+  <si>
+    <t>Concatenate stacks</t>
+  </si>
+  <si>
+    <t>Convert 3D stack (switch Z and T)</t>
+  </si>
+  <si>
+    <t>Crop image</t>
+  </si>
+  <si>
+    <t>Extract substack</t>
+  </si>
+  <si>
+    <t>Flip stack</t>
+  </si>
+  <si>
+    <t>Focus stack</t>
+  </si>
+  <si>
+    <t>Image type converter</t>
+  </si>
+  <si>
+    <t>Interpolate Z axis</t>
+  </si>
+  <si>
+    <t>Unwarp images (manual)</t>
+  </si>
+  <si>
+    <t>Register images</t>
+  </si>
+  <si>
+    <t>Remove image</t>
+  </si>
+  <si>
+    <t>Replace image</t>
+  </si>
+  <si>
+    <t>Unwarp images</t>
+  </si>
+  <si>
+    <t>Export ACC dataset</t>
+  </si>
+  <si>
+    <t>Load image</t>
+  </si>
+  <si>
+    <t>Save image</t>
+  </si>
+  <si>
+    <t>Extract metadata</t>
+  </si>
+  <si>
+    <t>Load objects</t>
+  </si>
+  <si>
+    <t>GUI separator</t>
+  </si>
+  <si>
+    <t>Global variables</t>
+  </si>
+  <si>
+    <t>Run macro on image</t>
+  </si>
+  <si>
+    <t>Run macro on objects</t>
+  </si>
+  <si>
+    <t>Run single macro command</t>
+  </si>
+  <si>
+    <t>Measure object colocalisation</t>
+  </si>
+  <si>
+    <t>Measure object intensity</t>
+  </si>
+  <si>
+    <t>Measure object texture</t>
+  </si>
+  <si>
+    <t>Measure radial intensity profile</t>
+  </si>
+  <si>
+    <t>Measure spot intensity</t>
+  </si>
+  <si>
+    <t>Bin objects by measurement</t>
+  </si>
+  <si>
+    <t>Calculate measurement periodogram</t>
+  </si>
+  <si>
+    <t>Calculate statistics for children</t>
+  </si>
+  <si>
+    <t>Calculate statistics for partners</t>
+  </si>
+  <si>
+    <t>Child object count</t>
+  </si>
+  <si>
+    <t>Object measurement calculator</t>
+  </si>
+  <si>
+    <t>Parent object ID</t>
+  </si>
+  <si>
+    <t>Partner object count</t>
+  </si>
+  <si>
+    <t>Replace measurement value</t>
+  </si>
+  <si>
+    <t>Calculate nearest neighbour</t>
+  </si>
+  <si>
+    <t>Convex hull 2D</t>
+  </si>
+  <si>
+    <t>Fit ellipse</t>
+  </si>
+  <si>
+    <t>Fit ellipsoid</t>
+  </si>
+  <si>
+    <t>Fit Gaussian 2D</t>
+  </si>
+  <si>
+    <t>Fit longest chord</t>
+  </si>
+  <si>
+    <t>Fit spline</t>
+  </si>
+  <si>
+    <t>Measure object centroid</t>
+  </si>
+  <si>
+    <t>Measure object curvature</t>
+  </si>
+  <si>
+    <t>Measure object limits</t>
+  </si>
+  <si>
+    <t>Measure object overlap</t>
+  </si>
+  <si>
+    <t>Measure object shape</t>
+  </si>
+  <si>
+    <t>Measure relative orientation</t>
+  </si>
+  <si>
+    <t>Measure skeleton</t>
+  </si>
+  <si>
+    <t>Measure specific width</t>
+  </si>
+  <si>
+    <t>Measure track motion</t>
+  </si>
+  <si>
+    <t>Active contour-based detection</t>
+  </si>
+  <si>
+    <t>Extract object edges</t>
+  </si>
+  <si>
+    <t>Get local object region</t>
+  </si>
+  <si>
+    <t>Get object surface</t>
+  </si>
+  <si>
+    <t>Hough-based detection</t>
+  </si>
+  <si>
+    <t>Identify objects</t>
+  </si>
+  <si>
+    <t>Manually identify objects</t>
+  </si>
+  <si>
+    <t>Project objects</t>
+  </si>
+  <si>
+    <t>Ridge detection</t>
+  </si>
+  <si>
+    <t>Run TrackMate</t>
+  </si>
+  <si>
+    <t>Convert objects to image</t>
+  </si>
+  <si>
+    <t>Create distance map</t>
+  </si>
+  <si>
+    <t>Combine object sets</t>
+  </si>
+  <si>
+    <t>Duplicate objects across time</t>
+  </si>
+  <si>
+    <t>Expand and shrink objects</t>
+  </si>
+  <si>
+    <t>Number of children</t>
+  </si>
+  <si>
+    <t>Based on measurement</t>
+  </si>
+  <si>
+    <t>Measurement extremes</t>
+  </si>
+  <si>
+    <t>Number of partners</t>
+  </si>
+  <si>
+    <t>Remove on image edge</t>
+  </si>
+  <si>
+    <t>Objects with specific IDs</t>
+  </si>
+  <si>
+    <t>With / without measurement</t>
+  </si>
+  <si>
+    <t>With / without parent</t>
+  </si>
+  <si>
+    <t>Mask objects</t>
+  </si>
+  <si>
+    <t>Merge related objects</t>
+  </si>
+  <si>
+    <t>Merge single class</t>
+  </si>
+  <si>
+    <t>Merge tracks</t>
+  </si>
+  <si>
+    <t>Reassign enclosed objects</t>
+  </si>
+  <si>
+    <t>Remove objects</t>
+  </si>
+  <si>
+    <t>Relate many-to-many</t>
+  </si>
+  <si>
+    <t>Relate many-to-one</t>
+  </si>
+  <si>
+    <t>Relate one-to-one</t>
+  </si>
+  <si>
+    <t>Single class cluster</t>
+  </si>
+  <si>
+    <t>Track objects</t>
+  </si>
+  <si>
+    <t>Create measurement map</t>
+  </si>
+  <si>
+    <t>Create object density map</t>
+  </si>
+  <si>
+    <t>Create orthogonal view</t>
+  </si>
+  <si>
+    <t>Set intensity display range</t>
+  </si>
+  <si>
+    <t>Set lookup table</t>
+  </si>
+  <si>
+    <t>Add all object points</t>
+  </si>
+  <si>
+    <t>Add arrows</t>
+  </si>
+  <si>
+    <t>Add contour lines</t>
+  </si>
+  <si>
+    <t>Add from position measurement</t>
+  </si>
+  <si>
+    <t>Add labels</t>
+  </si>
+  <si>
+    <t>Add line</t>
+  </si>
+  <si>
+    <t>Add object centroid</t>
+  </si>
+  <si>
+    <t>Add object fill</t>
+  </si>
+  <si>
+    <t>Add object outline</t>
+  </si>
+  <si>
+    <t>Add relationship connection</t>
+  </si>
+  <si>
+    <t>Add text</t>
+  </si>
+  <si>
+    <t>Add tracks</t>
+  </si>
+  <si>
+    <t>Plot measurements as scatter</t>
+  </si>
+  <si>
+    <t>Show image</t>
+  </si>
+  <si>
+    <t>Show image measurements</t>
+  </si>
+  <si>
+    <t>Show metadata</t>
+  </si>
+  <si>
+    <t>Show object measurements</t>
+  </si>
+  <si>
+    <t>Add pause</t>
+  </si>
+  <si>
+    <t>Fixed text condition</t>
+  </si>
+  <si>
+    <t>GUI condition</t>
+  </si>
+  <si>
+    <t>Module is enabled condition</t>
+  </si>
+  <si>
+    <t>Workflow handling</t>
   </si>
 </sst>
 </file>
@@ -710,10 +677,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:f>Sheet1!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -779,16 +746,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$23</c:f>
+              <c:f>Sheet1!$N$2:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -854,6 +824,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>62.195121951219512</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62.804878048780488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,10 +866,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:f>Sheet1!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -962,16 +935,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$23</c:f>
+              <c:f>Sheet1!$O$2:$O$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1037,6 +1013,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>49.215686274509807</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49.673202614379086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,10 +1055,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:f>Sheet1!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1145,16 +1124,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$23</c:f>
+              <c:f>Sheet1!$P$2:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1220,6 +1202,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>46.341463414634148</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.170731707317074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,10 +1244,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:f>Sheet1!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1328,16 +1313,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$23</c:f>
+              <c:f>Sheet1!$Q$2:$Q$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1402,6 +1390,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1442,10 +1433,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:f>Sheet1!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1511,16 +1502,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$23</c:f>
+              <c:f>Sheet1!$R$2:$R$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1585,6 +1579,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2363,16 +2360,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>589490</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>97367</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>483657</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>182036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>566207</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:colOff>1169457</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101602</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2699,8 +2696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:L23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3985,7 +3982,59 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
+      <c r="A24" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B24" s="4">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>164</v>
+      </c>
+      <c r="E24">
+        <v>103</v>
+      </c>
+      <c r="F24">
+        <v>1530</v>
+      </c>
+      <c r="G24">
+        <v>760</v>
+      </c>
+      <c r="H24">
+        <v>79</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <v>213</v>
+      </c>
+      <c r="L24">
+        <v>86</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" ref="N24" si="84">100*E24/D24</f>
+        <v>62.804878048780488</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" ref="O24" si="85">100*G24/F24</f>
+        <v>49.673202614379086</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" ref="P24" si="86">100*H24/D24</f>
+        <v>48.170731707317074</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" ref="Q24" si="87">100*J24/I24</f>
+        <v>70</v>
+      </c>
+      <c r="R24" s="3">
+        <f t="shared" ref="R24" si="88">100*L24/K24</f>
+        <v>40.375586854460096</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
@@ -4048,1771 +4097,1930 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626E3B8F-11F4-4CEC-B58F-ACDF97F078AF}">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+      <c r="B2" s="5">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
+      <c r="B6" s="5">
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>55</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>59</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>60</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>62</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>63</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>71</v>
       </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>74</v>
       </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>78</v>
       </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>79</v>
       </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>104</v>
       </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>128</v>
       </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>129</v>
       </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>130</v>
       </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>132</v>
       </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="B49" s="5">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="5">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" s="5">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="5">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="5">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" s="5">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B72" s="5">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" s="5">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="5">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="5">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="5">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" s="5">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>138</v>
       </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B55" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B65" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B66" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B68" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B71" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B73" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74">
+      <c r="B79" s="5">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0</v>
+      </c>
+      <c r="C80">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B75" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B76" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B78" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B79" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B80" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B81" t="s">
-        <v>19</v>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0</v>
       </c>
       <c r="C81">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" t="s">
-        <v>19</v>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" t="s">
-        <v>67</v>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.72729999999999995</v>
       </c>
       <c r="C83">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B84" t="s">
-        <v>19</v>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B85" t="s">
-        <v>19</v>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B86" t="s">
-        <v>19</v>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B87" t="s">
-        <v>19</v>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B88" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B89" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B90" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0</v>
       </c>
       <c r="C90">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B91" t="s">
-        <v>19</v>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0</v>
       </c>
       <c r="C91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92" t="s">
-        <v>19</v>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0</v>
       </c>
       <c r="C92">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B93" t="s">
-        <v>19</v>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0</v>
       </c>
       <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>149</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0</v>
+      </c>
+      <c r="C96">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C94">
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0</v>
+      </c>
+      <c r="C97">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95">
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0</v>
+      </c>
+      <c r="C98">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B96" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B97" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B99" t="s">
-        <v>19</v>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0</v>
       </c>
       <c r="C99">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100" t="s">
-        <v>19</v>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0</v>
       </c>
       <c r="C100">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B101" t="s">
-        <v>19</v>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0</v>
       </c>
       <c r="C101">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B102" t="s">
-        <v>19</v>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>82</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0</v>
       </c>
       <c r="C102">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B103" t="s">
-        <v>19</v>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>96</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0</v>
       </c>
       <c r="C103">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B104" t="s">
-        <v>37</v>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="5">
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B105" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" s="5">
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B106" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" s="5">
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B107" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="5">
+        <v>0.36359999999999998</v>
       </c>
       <c r="C107">
         <v>7</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" t="s">
-        <v>19</v>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>47</v>
+      </c>
+      <c r="B108" s="5">
+        <v>0</v>
       </c>
       <c r="C108">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" t="s">
-        <v>19</v>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0</v>
       </c>
       <c r="C109">
         <v>7</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B110" t="s">
-        <v>19</v>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0</v>
       </c>
       <c r="C110">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B111" t="s">
-        <v>19</v>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>99</v>
+      </c>
+      <c r="B111" s="5">
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B112" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>100</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B113" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>164</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B114" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>22</v>
+      </c>
+      <c r="B114" s="5">
+        <v>0</v>
       </c>
       <c r="C114">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B115" t="s">
-        <v>19</v>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>43</v>
+      </c>
+      <c r="B115" s="5">
+        <v>0</v>
       </c>
       <c r="C115">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B116" t="s">
-        <v>19</v>
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>90</v>
+      </c>
+      <c r="B116" s="5">
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B117" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="G116" s="5"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117" s="5">
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B118" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" s="5">
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B119" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="G118" s="5"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>26</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0</v>
       </c>
       <c r="C119">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B120" t="s">
-        <v>19</v>
+      <c r="G119" s="5"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>38</v>
+      </c>
+      <c r="B120" s="5">
+        <v>0.18179999999999999</v>
       </c>
       <c r="C120">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B121" t="s">
-        <v>19</v>
+      <c r="G120" s="5"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>65</v>
+      </c>
+      <c r="B121" s="5">
+        <v>0</v>
       </c>
       <c r="C121">
         <v>9</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B122" t="s">
-        <v>19</v>
+      <c r="G121" s="5"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>73</v>
+      </c>
+      <c r="B122" s="5">
+        <v>0</v>
       </c>
       <c r="C122">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B123" t="s">
-        <v>19</v>
+      <c r="G122" s="5"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>85</v>
+      </c>
+      <c r="B123" s="5">
+        <v>0</v>
       </c>
       <c r="C123">
         <v>9</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>19</v>
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>86</v>
+      </c>
+      <c r="B124" s="5">
+        <v>0</v>
       </c>
       <c r="C124">
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B125" t="s">
-        <v>19</v>
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>102</v>
+      </c>
+      <c r="B125" s="5">
+        <v>0</v>
       </c>
       <c r="C125">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B126" t="s">
-        <v>19</v>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>109</v>
+      </c>
+      <c r="B126" s="5">
+        <v>0</v>
       </c>
       <c r="C126">
         <v>9</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B127" t="s">
-        <v>19</v>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>114</v>
+      </c>
+      <c r="B127" s="5">
+        <v>0</v>
       </c>
       <c r="C127">
         <v>9</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B128" t="s">
-        <v>19</v>
+      <c r="G127" s="5"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>144</v>
+      </c>
+      <c r="B128" s="5">
+        <v>0</v>
       </c>
       <c r="C128">
+        <v>9</v>
+      </c>
+      <c r="G128" s="5"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>145</v>
+      </c>
+      <c r="B129" s="5">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>9</v>
+      </c>
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>147</v>
+      </c>
+      <c r="B130" s="5">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>9</v>
+      </c>
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>50</v>
+      </c>
+      <c r="B131" s="5">
+        <v>0</v>
+      </c>
+      <c r="C131">
         <v>10</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B129" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129">
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>110</v>
+      </c>
+      <c r="B132" s="5">
+        <v>0</v>
+      </c>
+      <c r="C132">
         <v>10</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B130" t="s">
-        <v>19</v>
-      </c>
-      <c r="C130">
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>150</v>
+      </c>
+      <c r="B133" s="5">
+        <v>0</v>
+      </c>
+      <c r="C133">
         <v>10</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B131" t="s">
-        <v>19</v>
-      </c>
-      <c r="C131">
+      <c r="G133" s="5"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>41</v>
+      </c>
+      <c r="B134" s="5">
+        <v>0</v>
+      </c>
+      <c r="C134">
         <v>11</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B132" t="s">
-        <v>19</v>
-      </c>
-      <c r="C132">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B133" t="s">
-        <v>24</v>
-      </c>
-      <c r="C133">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B134" t="s">
-        <v>29</v>
-      </c>
-      <c r="C134">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B135" t="s">
-        <v>19</v>
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>17</v>
+      </c>
+      <c r="B135" s="5">
+        <v>0</v>
       </c>
       <c r="C135">
         <v>12</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B136" t="s">
-        <v>19</v>
+      <c r="G135" s="5"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>81</v>
+      </c>
+      <c r="B136" s="5">
+        <v>0</v>
       </c>
       <c r="C136">
         <v>12</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B137" t="s">
-        <v>24</v>
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>84</v>
+      </c>
+      <c r="B137" s="5">
+        <v>0</v>
       </c>
       <c r="C137">
         <v>12</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B138" t="s">
-        <v>19</v>
+      <c r="G137" s="5"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>87</v>
+      </c>
+      <c r="B138" s="5">
+        <v>0</v>
       </c>
       <c r="C138">
         <v>13</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B139" t="s">
-        <v>19</v>
+      <c r="G138" s="5"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>113</v>
+      </c>
+      <c r="B139" s="5">
+        <v>0</v>
       </c>
       <c r="C139">
         <v>13</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B140" t="s">
-        <v>19</v>
+      <c r="G139" s="5"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>123</v>
+      </c>
+      <c r="B140" s="5">
+        <v>0</v>
       </c>
       <c r="C140">
         <v>13</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B141" t="s">
-        <v>19</v>
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>126</v>
+      </c>
+      <c r="B141" s="5">
+        <v>0</v>
       </c>
       <c r="C141">
         <v>13</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B142" t="s">
-        <v>19</v>
+      <c r="G141" s="5"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>31</v>
+      </c>
+      <c r="B142" s="5">
+        <v>0</v>
       </c>
       <c r="C142">
         <v>14</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B143" t="s">
-        <v>19</v>
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>80</v>
+      </c>
+      <c r="B143" s="5">
+        <v>0</v>
       </c>
       <c r="C143">
         <v>14</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B144" t="s">
-        <v>127</v>
+      <c r="G143" s="5"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>117</v>
+      </c>
+      <c r="B144" s="5">
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="C144">
         <v>14</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B145" t="s">
-        <v>19</v>
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>121</v>
+      </c>
+      <c r="B145" s="5">
+        <v>0</v>
       </c>
       <c r="C145">
         <v>15</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B146" t="s">
-        <v>19</v>
+      <c r="G145" s="5"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" s="5">
+        <v>0</v>
       </c>
       <c r="C146">
         <v>15</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B147" t="s">
-        <v>184</v>
+      <c r="G146" s="5"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>173</v>
+      </c>
+      <c r="B147" s="5">
+        <v>0.1176</v>
       </c>
       <c r="C147">
         <v>15</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B148" t="s">
-        <v>19</v>
+      <c r="G147" s="5"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>68</v>
+      </c>
+      <c r="B148" s="5">
+        <v>0</v>
       </c>
       <c r="C148">
         <v>16</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B149" t="s">
-        <v>19</v>
+      <c r="G148" s="5"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>101</v>
+      </c>
+      <c r="B149" s="5">
+        <v>0</v>
       </c>
       <c r="C149">
         <v>16</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B150" t="s">
-        <v>19</v>
+      <c r="G149" s="5"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>76</v>
+      </c>
+      <c r="B150" s="5">
+        <v>0</v>
       </c>
       <c r="C150">
         <v>18</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B151" t="s">
-        <v>19</v>
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>111</v>
+      </c>
+      <c r="B151" s="5">
+        <v>0</v>
       </c>
       <c r="C151">
         <v>18</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B152" t="s">
-        <v>19</v>
+      <c r="G151" s="5"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>93</v>
+      </c>
+      <c r="B152" s="5">
+        <v>0</v>
       </c>
       <c r="C152">
         <v>19</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B153" t="s">
-        <v>19</v>
+      <c r="G152" s="5"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B153" s="5">
+        <v>0</v>
       </c>
       <c r="C153">
         <v>19</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B154" t="s">
-        <v>19</v>
+      <c r="G153" s="5"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>146</v>
+      </c>
+      <c r="B154" s="5">
+        <v>0</v>
       </c>
       <c r="C154">
         <v>19</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B155" t="s">
-        <v>19</v>
+      <c r="G154" s="5"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>72</v>
+      </c>
+      <c r="B155" s="5">
+        <v>0</v>
       </c>
       <c r="C155">
         <v>21</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B156" t="s">
-        <v>19</v>
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>103</v>
+      </c>
+      <c r="B156" s="5">
+        <v>0</v>
       </c>
       <c r="C156">
         <v>21</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B157" t="s">
-        <v>19</v>
+      <c r="G156" s="5"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>97</v>
+      </c>
+      <c r="B157" s="5">
+        <v>0</v>
       </c>
       <c r="C157">
         <v>22</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B158" t="s">
-        <v>19</v>
+      <c r="G157" s="5"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>69</v>
+      </c>
+      <c r="B158" s="5">
+        <v>0</v>
       </c>
       <c r="C158">
         <v>23</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B159" t="s">
-        <v>86</v>
+      <c r="G158" s="5"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>77</v>
+      </c>
+      <c r="B159" s="5">
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="C159">
         <v>29</v>
       </c>
+      <c r="G159" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C159">
-    <sortCondition ref="C101"/>
+    <sortCondition ref="C53:C159"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E8F01D-9B3C-4B48-9DE4-24EEFC5AE45C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A019A3D2-8122-45D0-9B19-0D3C9C209362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -677,10 +677,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$24</c:f>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -749,16 +749,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$24</c:f>
+              <c:f>Sheet1!$N$2:$N$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -827,6 +830,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>62.804878048780488</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63.414634146341463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,10 +872,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$24</c:f>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -938,16 +944,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$24</c:f>
+              <c:f>Sheet1!$O$2:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1016,6 +1025,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>49.673202614379086</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51.24183006535948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,10 +1067,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$24</c:f>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1127,16 +1139,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$24</c:f>
+              <c:f>Sheet1!$P$2:$P$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1205,6 +1220,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>48.170731707317074</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49.390243902439025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,10 +1262,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$24</c:f>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1316,16 +1334,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$24</c:f>
+              <c:f>Sheet1!$Q$2:$Q$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1393,6 +1414,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1433,10 +1457,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$24</c:f>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1505,16 +1529,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$24</c:f>
+              <c:f>Sheet1!$R$2:$R$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1582,6 +1609,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2696,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4037,7 +4067,59 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
+      <c r="A25" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B25" s="4">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>164</v>
+      </c>
+      <c r="E25">
+        <v>104</v>
+      </c>
+      <c r="F25">
+        <v>1530</v>
+      </c>
+      <c r="G25">
+        <v>784</v>
+      </c>
+      <c r="H25">
+        <v>81</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>14</v>
+      </c>
+      <c r="K25">
+        <v>213</v>
+      </c>
+      <c r="L25">
+        <v>86</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" ref="N25" si="89">100*E25/D25</f>
+        <v>63.414634146341463</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" ref="O25" si="90">100*G25/F25</f>
+        <v>51.24183006535948</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" ref="P25" si="91">100*H25/D25</f>
+        <v>49.390243902439025</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" ref="Q25" si="92">100*J25/I25</f>
+        <v>70</v>
+      </c>
+      <c r="R25" s="3">
+        <f t="shared" ref="R25" si="93">100*L25/K25</f>
+        <v>40.375586854460096</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
@@ -4099,8 +4181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626E3B8F-11F4-4CEC-B58F-ACDF97F078AF}">
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4111,7 +4193,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="5">
@@ -4123,7 +4205,7 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="5">
@@ -4135,7 +4217,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="5">
@@ -4147,7 +4229,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="5">
@@ -4159,7 +4241,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="5">
@@ -4171,7 +4253,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="5">
@@ -4183,7 +4265,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="5">
@@ -4195,7 +4277,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="5">
@@ -4207,7 +4289,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="5">
@@ -4219,7 +4301,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="5">
@@ -4231,7 +4313,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="5">
@@ -4243,7 +4325,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="5">
@@ -4255,7 +4337,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="5">
@@ -4267,7 +4349,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="5">
@@ -4279,7 +4361,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="5">
@@ -4291,7 +4373,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="5">
@@ -4303,7 +4385,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="5">
@@ -4315,7 +4397,7 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="5">
@@ -4327,7 +4409,7 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="5">
@@ -4339,7 +4421,7 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="5">
@@ -4351,7 +4433,7 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="5">
@@ -4363,7 +4445,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="5">
@@ -4375,7 +4457,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="5">
@@ -4387,7 +4469,7 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="5">
@@ -4399,7 +4481,7 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B25" s="5">
@@ -4411,7 +4493,7 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B26" s="5">
@@ -4423,7 +4505,7 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="5">
@@ -4435,7 +4517,7 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="5">
@@ -4447,7 +4529,7 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B29" s="5">
@@ -4459,7 +4541,7 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="5">
@@ -4471,7 +4553,7 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B31" s="5">
@@ -4483,7 +4565,7 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="5">
@@ -4495,7 +4577,7 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="5">
@@ -4507,7 +4589,7 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B34" s="5">
@@ -4519,7 +4601,7 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B35" s="5">
@@ -4531,7 +4613,7 @@
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B36" s="5">
@@ -4543,7 +4625,7 @@
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B37" s="5">
@@ -4555,536 +4637,536 @@
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="5">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="5">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="5">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="5">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B48" s="5">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49" s="5">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B49" s="5">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B51" s="5">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B53" s="5">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="5">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B55" s="5">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="5">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B56" s="5">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B57" s="5">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="5">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B59" s="5">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B61" s="5">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B60" s="5">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B61" s="5">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B63" s="5">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B62" s="5">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B64" s="5">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B63" s="5">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B64" s="5">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B66" s="5">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B65" s="5">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B67" s="5">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B66" s="5">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B68" s="5">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B67" s="5">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B69" s="5">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B68" s="5">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="G68" s="5"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B69" s="5">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B71" s="5">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B70" s="5">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B72" s="5">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B71" s="5">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B73" s="5">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B72" s="5">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B74" s="5">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B73" s="5">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B75" s="5">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B74" s="5">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B76" s="5">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B75" s="5">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="G75" s="5"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B77" s="5">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B76" s="5">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B78" s="5">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B77" s="5">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="G77" s="5"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B79" s="5">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B78" s="5">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="G78" s="5"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>138</v>
-      </c>
-      <c r="B79" s="5">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="G79" s="5"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B80" s="5">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B80" s="5">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B81" s="5">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B81" s="5">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>3</v>
-      </c>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>37</v>
       </c>
       <c r="B82" s="5">
         <v>0</v>
@@ -5095,11 +5177,11 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>39</v>
+      <c r="A83" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B83" s="5">
-        <v>0.72729999999999995</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -5107,11 +5189,11 @@
       <c r="G83" s="5"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>40</v>
+      <c r="A84" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B84" s="5">
-        <v>0</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -5119,8 +5201,8 @@
       <c r="G84" s="5"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>42</v>
+      <c r="A85" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B85" s="5">
         <v>0</v>
@@ -5131,8 +5213,8 @@
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>49</v>
+      <c r="A86" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B86" s="5">
         <v>0</v>
@@ -5143,8 +5225,8 @@
       <c r="G86" s="5"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>83</v>
+      <c r="A87" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B87" s="5">
         <v>0</v>
@@ -5155,8 +5237,8 @@
       <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>107</v>
+      <c r="A88" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B88" s="5">
         <v>0</v>
@@ -5167,8 +5249,8 @@
       <c r="G88" s="5"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>112</v>
+      <c r="A89" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="B89" s="5">
         <v>0</v>
@@ -5179,20 +5261,20 @@
       <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B90" s="5">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>4</v>
-      </c>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>30</v>
       </c>
       <c r="B91" s="5">
         <v>0</v>
@@ -5203,8 +5285,8 @@
       <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>61</v>
+      <c r="A92" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B92" s="5">
         <v>0</v>
@@ -5215,8 +5297,8 @@
       <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>125</v>
+      <c r="A93" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="B93" s="5">
         <v>0</v>
@@ -5227,8 +5309,8 @@
       <c r="G93" s="5"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>139</v>
+      <c r="A94" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B94" s="5">
         <v>0</v>
@@ -5239,8 +5321,8 @@
       <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>149</v>
+      <c r="A95" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="B95" s="5">
         <v>0</v>
@@ -5251,20 +5333,20 @@
       <c r="G95" s="5"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B96" s="5">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>5</v>
-      </c>
-      <c r="G96" s="5"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>88</v>
       </c>
       <c r="B97" s="5">
         <v>0</v>
@@ -5275,8 +5357,8 @@
       <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>148</v>
+      <c r="A98" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="B98" s="5">
         <v>0</v>
@@ -5287,20 +5369,20 @@
       <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B99" s="5">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>6</v>
-      </c>
-      <c r="G99" s="5"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>36</v>
       </c>
       <c r="B100" s="5">
         <v>0</v>
@@ -5311,8 +5393,8 @@
       <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>51</v>
+      <c r="A101" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B101" s="5">
         <v>0</v>
@@ -5323,8 +5405,8 @@
       <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>82</v>
+      <c r="A102" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B102" s="5">
         <v>0</v>
@@ -5335,8 +5417,8 @@
       <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>96</v>
+      <c r="A103" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="B103" s="5">
         <v>0</v>
@@ -5347,8 +5429,8 @@
       <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>108</v>
+      <c r="A104" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="B104" s="5">
         <v>0</v>
@@ -5359,8 +5441,8 @@
       <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>115</v>
+      <c r="A105" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="B105" s="5">
         <v>0</v>
@@ -5371,8 +5453,8 @@
       <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>127</v>
+      <c r="A106" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="B106" s="5">
         <v>0</v>
@@ -5383,23 +5465,23 @@
       <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107" s="5">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B108" s="5">
         <v>0.36359999999999998</v>
-      </c>
-      <c r="C107">
-        <v>7</v>
-      </c>
-      <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>47</v>
-      </c>
-      <c r="B108" s="5">
-        <v>0</v>
       </c>
       <c r="C108">
         <v>7</v>
@@ -5407,8 +5489,8 @@
       <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>58</v>
+      <c r="A109" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B109" s="5">
         <v>0</v>
@@ -5419,8 +5501,8 @@
       <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>89</v>
+      <c r="A110" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -5431,8 +5513,8 @@
       <c r="G110" s="5"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>99</v>
+      <c r="A111" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="B111" s="5">
         <v>0</v>
@@ -5443,8 +5525,8 @@
       <c r="G111" s="5"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>100</v>
+      <c r="A112" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="B112" s="5">
         <v>0</v>
@@ -5455,8 +5537,8 @@
       <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>164</v>
+      <c r="A113" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="B113" s="5">
         <v>0</v>
@@ -5467,20 +5549,20 @@
       <c r="G113" s="5"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B114" s="5">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>7</v>
+      </c>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B114" s="5">
-        <v>0</v>
-      </c>
-      <c r="C114">
-        <v>8</v>
-      </c>
-      <c r="G114" s="5"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>43</v>
       </c>
       <c r="B115" s="5">
         <v>0</v>
@@ -5491,8 +5573,8 @@
       <c r="G115" s="5"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>90</v>
+      <c r="A116" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B116" s="5">
         <v>0</v>
@@ -5503,8 +5585,8 @@
       <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>91</v>
+      <c r="A117" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="B117" s="5">
         <v>0</v>
@@ -5515,8 +5597,8 @@
       <c r="G117" s="5"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>124</v>
+      <c r="A118" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B118" s="5">
         <v>0</v>
@@ -5527,23 +5609,23 @@
       <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>8</v>
+      </c>
+      <c r="G119" s="5"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B119" s="5">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>9</v>
-      </c>
-      <c r="G119" s="5"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>38</v>
-      </c>
       <c r="B120" s="5">
-        <v>0.18179999999999999</v>
+        <v>0</v>
       </c>
       <c r="C120">
         <v>9</v>
@@ -5551,11 +5633,11 @@
       <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>65</v>
+      <c r="A121" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B121" s="5">
-        <v>0</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="C121">
         <v>9</v>
@@ -5563,8 +5645,8 @@
       <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>73</v>
+      <c r="A122" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B122" s="5">
         <v>0</v>
@@ -5575,8 +5657,8 @@
       <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>85</v>
+      <c r="A123" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="B123" s="5">
         <v>0</v>
@@ -5587,8 +5669,8 @@
       <c r="G123" s="5"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>86</v>
+      <c r="A124" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="B124" s="5">
         <v>0</v>
@@ -5599,8 +5681,8 @@
       <c r="G124" s="5"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>102</v>
+      <c r="A125" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="B125" s="5">
         <v>0</v>
@@ -5611,8 +5693,8 @@
       <c r="G125" s="5"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>109</v>
+      <c r="A126" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="B126" s="5">
         <v>0</v>
@@ -5623,8 +5705,8 @@
       <c r="G126" s="5"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>114</v>
+      <c r="A127" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="B127" s="5">
         <v>0</v>
@@ -5635,8 +5717,8 @@
       <c r="G127" s="5"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>144</v>
+      <c r="A128" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="B128" s="5">
         <v>0</v>
@@ -5647,8 +5729,8 @@
       <c r="G128" s="5"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>145</v>
+      <c r="A129" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="B129" s="5">
         <v>0</v>
@@ -5659,8 +5741,8 @@
       <c r="G129" s="5"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>147</v>
+      <c r="A130" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="B130" s="5">
         <v>0</v>
@@ -5671,20 +5753,20 @@
       <c r="G130" s="5"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B131" s="5">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>9</v>
+      </c>
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B131" s="5">
-        <v>0</v>
-      </c>
-      <c r="C131">
-        <v>10</v>
-      </c>
-      <c r="G131" s="5"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>110</v>
       </c>
       <c r="B132" s="5">
         <v>0</v>
@@ -5695,8 +5777,8 @@
       <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>150</v>
+      <c r="A133" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="B133" s="5">
         <v>0</v>
@@ -5707,32 +5789,32 @@
       <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B134" s="5">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>10</v>
+      </c>
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B134" s="5">
-        <v>0</v>
-      </c>
-      <c r="C134">
+      <c r="B135" s="5">
+        <v>0</v>
+      </c>
+      <c r="C135">
         <v>11</v>
       </c>
-      <c r="G134" s="5"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="G135" s="5"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B135" s="5">
-        <v>0</v>
-      </c>
-      <c r="C135">
-        <v>12</v>
-      </c>
-      <c r="G135" s="5"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>81</v>
       </c>
       <c r="B136" s="5">
         <v>0</v>
@@ -5743,8 +5825,8 @@
       <c r="G136" s="5"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>84</v>
+      <c r="A137" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B137" s="5">
         <v>0</v>
@@ -5755,20 +5837,20 @@
       <c r="G137" s="5"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B138" s="5">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>12</v>
+      </c>
+      <c r="G138" s="5"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B138" s="5">
-        <v>0</v>
-      </c>
-      <c r="C138">
-        <v>13</v>
-      </c>
-      <c r="G138" s="5"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>113</v>
       </c>
       <c r="B139" s="5">
         <v>0</v>
@@ -5779,8 +5861,8 @@
       <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>123</v>
+      <c r="A140" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="B140" s="5">
         <v>0</v>
@@ -5791,8 +5873,8 @@
       <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>126</v>
+      <c r="A141" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="B141" s="5">
         <v>0</v>
@@ -5803,20 +5885,20 @@
       <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B142" s="5">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>13</v>
+      </c>
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B142" s="5">
-        <v>0</v>
-      </c>
-      <c r="C142">
-        <v>14</v>
-      </c>
-      <c r="G142" s="5"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>80</v>
       </c>
       <c r="B143" s="5">
         <v>0</v>
@@ -5827,11 +5909,11 @@
       <c r="G143" s="5"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>117</v>
+      <c r="A144" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B144" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="C144">
         <v>14</v>
@@ -5839,20 +5921,20 @@
       <c r="G144" s="5"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B145" s="5">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="C145">
+        <v>14</v>
+      </c>
+      <c r="G145" s="5"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B145" s="5">
-        <v>0</v>
-      </c>
-      <c r="C145">
-        <v>15</v>
-      </c>
-      <c r="G145" s="5"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>142</v>
       </c>
       <c r="B146" s="5">
         <v>0</v>
@@ -5863,11 +5945,11 @@
       <c r="G146" s="5"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>173</v>
+      <c r="A147" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="B147" s="5">
-        <v>0.1176</v>
+        <v>0</v>
       </c>
       <c r="C147">
         <v>15</v>
@@ -5875,20 +5957,20 @@
       <c r="G147" s="5"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B148" s="5">
+        <v>0.1176</v>
+      </c>
+      <c r="C148">
+        <v>15</v>
+      </c>
+      <c r="G148" s="5"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="B148" s="5">
-        <v>0</v>
-      </c>
-      <c r="C148">
-        <v>16</v>
-      </c>
-      <c r="G148" s="5"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>101</v>
       </c>
       <c r="B149" s="5">
         <v>0</v>
@@ -5899,20 +5981,20 @@
       <c r="G149" s="5"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B150" s="5">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>16</v>
+      </c>
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="B150" s="5">
-        <v>0</v>
-      </c>
-      <c r="C150">
-        <v>18</v>
-      </c>
-      <c r="G150" s="5"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>111</v>
       </c>
       <c r="B151" s="5">
         <v>0</v>
@@ -5923,20 +6005,20 @@
       <c r="G151" s="5"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B152" s="5">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>18</v>
+      </c>
+      <c r="G152" s="5"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="B152" s="5">
-        <v>0</v>
-      </c>
-      <c r="C152">
-        <v>19</v>
-      </c>
-      <c r="G152" s="5"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>105</v>
       </c>
       <c r="B153" s="5">
         <v>0</v>
@@ -5947,8 +6029,8 @@
       <c r="G153" s="5"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>146</v>
+      <c r="A154" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B154" s="5">
         <v>0</v>
@@ -5959,20 +6041,20 @@
       <c r="G154" s="5"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B155" s="5">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>19</v>
+      </c>
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B155" s="5">
-        <v>0</v>
-      </c>
-      <c r="C155">
-        <v>21</v>
-      </c>
-      <c r="G155" s="5"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>103</v>
       </c>
       <c r="B156" s="5">
         <v>0</v>
@@ -5983,19 +6065,19 @@
       <c r="G156" s="5"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>97</v>
+      <c r="A157" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="B157" s="5">
         <v>0</v>
       </c>
       <c r="C157">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G157" s="5"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B158" s="5">
@@ -6007,7 +6089,7 @@
       <c r="G158" s="5"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B159" s="5">
@@ -6020,7 +6102,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C159">
-    <sortCondition ref="C53:C159"/>
+    <sortCondition ref="C2:C159"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A019A3D2-8122-45D0-9B19-0D3C9C209362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50345D0C-A60E-4C47-939D-A6415A10B2FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -677,10 +677,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:f>Sheet1!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -752,16 +752,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$25</c:f>
+              <c:f>Sheet1!$N$2:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -832,6 +835,9 @@
                   <c:v>62.804878048780488</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>63.414634146341463</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>63.414634146341463</c:v>
                 </c:pt>
               </c:numCache>
@@ -872,10 +878,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:f>Sheet1!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -947,16 +953,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$25</c:f>
+              <c:f>Sheet1!$O$2:$O$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1028,6 +1037,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>51.24183006535948</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.023498694516974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,10 +1079,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:f>Sheet1!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1142,16 +1154,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$25</c:f>
+              <c:f>Sheet1!$P$2:$P$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1223,6 +1238,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>49.390243902439025</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,10 +1280,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:f>Sheet1!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1337,16 +1355,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$25</c:f>
+              <c:f>Sheet1!$Q$2:$Q$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1417,6 +1438,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1457,10 +1481,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:f>Sheet1!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1532,16 +1556,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$25</c:f>
+              <c:f>Sheet1!$R$2:$R$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1612,6 +1639,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2391,15 +2421,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>483657</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>182036</xdr:rowOff>
+      <xdr:colOff>407457</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>172511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1169457</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>101602</xdr:rowOff>
+      <xdr:colOff>1093257</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>92077</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2727,7 +2757,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4122,7 +4152,59 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
+      <c r="A26" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B26" s="4">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>164</v>
+      </c>
+      <c r="E26">
+        <v>104</v>
+      </c>
+      <c r="F26">
+        <v>1532</v>
+      </c>
+      <c r="G26">
+        <v>797</v>
+      </c>
+      <c r="H26">
+        <v>82</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>14</v>
+      </c>
+      <c r="K26">
+        <v>213</v>
+      </c>
+      <c r="L26">
+        <v>86</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" ref="N26" si="94">100*E26/D26</f>
+        <v>63.414634146341463</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" ref="O26" si="95">100*G26/F26</f>
+        <v>52.023498694516974</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" ref="P26" si="96">100*H26/D26</f>
+        <v>50</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" ref="Q26" si="97">100*J26/I26</f>
+        <v>70</v>
+      </c>
+      <c r="R26" s="3">
+        <f t="shared" ref="R26" si="98">100*L26/K26</f>
+        <v>40.375586854460096</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
@@ -4178,22 +4260,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626E3B8F-11F4-4CEC-B58F-ACDF97F078AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60F2A9E-CB35-4818-B2AA-21716033EEE9}">
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection sqref="A1:C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="5">
@@ -4205,7 +4282,7 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="5">
@@ -4217,1184 +4294,1184 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="5">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B49" s="5">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>23</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>21</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>9</v>
+      </c>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="5">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="B61" s="5">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>18</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="5">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="C63">
+        <v>29</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="B64" s="5">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="5">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="B65" s="5">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>14</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>9</v>
+      </c>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>9</v>
+      </c>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>13</v>
+      </c>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>8</v>
+      </c>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="B78" s="5">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>19</v>
+      </c>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="B80" s="5">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="B81" s="5">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="B83" s="5">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="5">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>7</v>
+      </c>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>7</v>
+      </c>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>16</v>
+      </c>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>9</v>
+      </c>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>21</v>
+      </c>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="B90" s="5">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>19</v>
+      </c>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="5">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="5">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="5">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B47" s="5">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" s="5">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="5">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="5">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B53" s="5">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="5">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B55" s="5">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" s="5">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B57" s="5">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B58" s="5">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="5">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B60" s="5">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" s="5">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B62" s="5">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B63" s="5">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B64" s="5">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B65" s="5">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B66" s="5">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B67" s="5">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B68" s="5">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="G68" s="5"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B69" s="5">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B70" s="5">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B71" s="5">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B72" s="5">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B73" s="5">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B74" s="5">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B75" s="5">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="G75" s="5"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B76" s="5">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B77" s="5">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="G77" s="5"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B78" s="5">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="G78" s="5"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B79" s="5">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="G79" s="5"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B80" s="5">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B81" s="5">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B82" s="5">
-        <v>0</v>
-      </c>
-      <c r="C82">
+      <c r="B92" s="5">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0</v>
+      </c>
+      <c r="C93">
         <v>3</v>
       </c>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B83" s="5">
-        <v>0</v>
-      </c>
-      <c r="C83">
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>108</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>6</v>
+      </c>
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>9</v>
+      </c>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>18</v>
+      </c>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0</v>
+      </c>
+      <c r="C98">
         <v>3</v>
       </c>
-      <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B84" s="5">
-        <v>0.72729999999999995</v>
-      </c>
-      <c r="C84">
-        <v>3</v>
-      </c>
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B85" s="5">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
-      <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B86" s="5">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>3</v>
-      </c>
-      <c r="G86" s="5"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B87" s="5">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>3</v>
-      </c>
-      <c r="G87" s="5"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" s="5">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>3</v>
-      </c>
-      <c r="G88" s="5"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B89" s="5">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>3</v>
-      </c>
-      <c r="G89" s="5"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B90" s="5">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>3</v>
-      </c>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B91" s="5">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>4</v>
-      </c>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B92" s="5">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>4</v>
-      </c>
-      <c r="G92" s="5"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B93" s="5">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>4</v>
-      </c>
-      <c r="G93" s="5"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B94" s="5">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>4</v>
-      </c>
-      <c r="G94" s="5"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B95" s="5">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>4</v>
-      </c>
-      <c r="G95" s="5"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B96" s="5">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>4</v>
-      </c>
-      <c r="G96" s="5"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B97" s="5">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>5</v>
-      </c>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B98" s="5">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>5</v>
-      </c>
       <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>148</v>
+      <c r="A99" t="s">
+        <v>113</v>
       </c>
       <c r="B99" s="5">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>33</v>
+      <c r="A100" t="s">
+        <v>114</v>
       </c>
       <c r="B100" s="5">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>36</v>
+      <c r="A101" t="s">
+        <v>115</v>
       </c>
       <c r="B101" s="5">
         <v>0</v>
@@ -5405,344 +5482,344 @@
       <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>51</v>
+      <c r="A102" t="s">
+        <v>116</v>
       </c>
       <c r="B102" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="5">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="C103">
+        <v>14</v>
+      </c>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="5">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" s="5">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106" s="5">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107" s="5">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>15</v>
+      </c>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108" s="5">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>13</v>
+      </c>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>8</v>
+      </c>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" s="5">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>126</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>13</v>
+      </c>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0</v>
+      </c>
+      <c r="C113">
         <v>6</v>
       </c>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B103" s="5">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>6</v>
-      </c>
-      <c r="G103" s="5"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B104" s="5">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>6</v>
-      </c>
-      <c r="G104" s="5"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" s="5">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>6</v>
-      </c>
-      <c r="G105" s="5"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B106" s="5">
-        <v>0</v>
-      </c>
-      <c r="C106">
-        <v>6</v>
-      </c>
-      <c r="G106" s="5"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B107" s="5">
-        <v>0</v>
-      </c>
-      <c r="C107">
-        <v>6</v>
-      </c>
-      <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B108" s="5">
-        <v>0.36359999999999998</v>
-      </c>
-      <c r="C108">
-        <v>7</v>
-      </c>
-      <c r="G108" s="5"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B109" s="5">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>7</v>
-      </c>
-      <c r="G109" s="5"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B110" s="5">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>7</v>
-      </c>
-      <c r="G110" s="5"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B111" s="5">
-        <v>0</v>
-      </c>
-      <c r="C111">
-        <v>7</v>
-      </c>
-      <c r="G111" s="5"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B112" s="5">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>7</v>
-      </c>
-      <c r="G112" s="5"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B113" s="5">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>7</v>
-      </c>
       <c r="G113" s="5"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>164</v>
+      <c r="A114" t="s">
+        <v>128</v>
       </c>
       <c r="B114" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>22</v>
+      <c r="A115" t="s">
+        <v>129</v>
       </c>
       <c r="B115" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G115" s="5"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>43</v>
+      <c r="A116" t="s">
+        <v>130</v>
       </c>
       <c r="B116" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>90</v>
+      <c r="A117" t="s">
+        <v>131</v>
       </c>
       <c r="B117" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G117" s="5"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>91</v>
+      <c r="A118" t="s">
+        <v>132</v>
       </c>
       <c r="B118" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>124</v>
+      <c r="A119" t="s">
+        <v>133</v>
       </c>
       <c r="B119" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G119" s="5"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>26</v>
+      <c r="A120" t="s">
+        <v>134</v>
       </c>
       <c r="B120" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>38</v>
+      <c r="A121" t="s">
+        <v>135</v>
       </c>
       <c r="B121" s="5">
-        <v>0.18179999999999999</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>65</v>
+      <c r="A122" t="s">
+        <v>136</v>
       </c>
       <c r="B122" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>73</v>
+      <c r="A123" t="s">
+        <v>137</v>
       </c>
       <c r="B123" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G123" s="5"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>85</v>
+      <c r="A124" t="s">
+        <v>138</v>
       </c>
       <c r="B124" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G124" s="5"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>86</v>
+      <c r="A125" t="s">
+        <v>139</v>
       </c>
       <c r="B125" s="5">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G125" s="5"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>102</v>
+      <c r="A126" t="s">
+        <v>140</v>
       </c>
       <c r="B126" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G126" s="5"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>109</v>
+      <c r="A127" t="s">
+        <v>141</v>
       </c>
       <c r="B127" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G127" s="5"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>114</v>
+      <c r="A128" t="s">
+        <v>142</v>
       </c>
       <c r="B128" s="5">
         <v>0</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G128" s="5"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+      <c r="A129" t="s">
+        <v>143</v>
+      </c>
+      <c r="B129" s="5">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>144</v>
-      </c>
-      <c r="B129" s="5">
-        <v>0</v>
-      </c>
-      <c r="C129">
-        <v>9</v>
-      </c>
-      <c r="G129" s="5"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="B130" s="5">
         <v>0</v>
@@ -5753,8 +5830,8 @@
       <c r="G130" s="5"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>147</v>
+      <c r="A131" t="s">
+        <v>145</v>
       </c>
       <c r="B131" s="5">
         <v>0</v>
@@ -5765,345 +5842,342 @@
       <c r="G131" s="5"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>50</v>
+      <c r="A132" t="s">
+        <v>146</v>
       </c>
       <c r="B132" s="5">
         <v>0</v>
       </c>
       <c r="C132">
+        <v>19</v>
+      </c>
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>147</v>
+      </c>
+      <c r="B133" s="5">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>9</v>
+      </c>
+      <c r="G133" s="5"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>148</v>
+      </c>
+      <c r="B134" s="5">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>5</v>
+      </c>
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>149</v>
+      </c>
+      <c r="B135" s="5">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="G135" s="5"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>150</v>
+      </c>
+      <c r="B136" s="5">
+        <v>0</v>
+      </c>
+      <c r="C136">
         <v>10</v>
       </c>
-      <c r="G132" s="5"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B133" s="5">
-        <v>0</v>
-      </c>
-      <c r="C133">
-        <v>10</v>
-      </c>
-      <c r="G133" s="5"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B134" s="5">
-        <v>0</v>
-      </c>
-      <c r="C134">
-        <v>10</v>
-      </c>
-      <c r="G134" s="5"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B135" s="5">
-        <v>0</v>
-      </c>
-      <c r="C135">
-        <v>11</v>
-      </c>
-      <c r="G135" s="5"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B136" s="5">
-        <v>0</v>
-      </c>
-      <c r="C136">
-        <v>12</v>
-      </c>
       <c r="G136" s="5"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>81</v>
+      <c r="A137" t="s">
+        <v>151</v>
       </c>
       <c r="B137" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G137" s="5"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
-        <v>84</v>
+      <c r="A138" t="s">
+        <v>152</v>
       </c>
       <c r="B138" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G138" s="5"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>87</v>
+      <c r="A139" t="s">
+        <v>153</v>
       </c>
       <c r="B139" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>113</v>
+      <c r="A140" t="s">
+        <v>154</v>
       </c>
       <c r="B140" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>123</v>
+      <c r="A141" t="s">
+        <v>155</v>
       </c>
       <c r="B141" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>126</v>
+      <c r="A142" t="s">
+        <v>156</v>
       </c>
       <c r="B142" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G142" s="5"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>31</v>
+      <c r="A143" t="s">
+        <v>157</v>
       </c>
       <c r="B143" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G143" s="5"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>80</v>
+      <c r="A144" t="s">
+        <v>158</v>
       </c>
       <c r="B144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G144" s="5"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
-        <v>117</v>
+      <c r="A145" t="s">
+        <v>159</v>
       </c>
       <c r="B145" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
-        <v>121</v>
+      <c r="A146" t="s">
+        <v>160</v>
       </c>
       <c r="B146" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="G146" s="5"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>161</v>
+      </c>
+      <c r="B147" s="5">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="G147" s="5"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>162</v>
+      </c>
+      <c r="B148" s="5">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="G148" s="5"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>163</v>
+      </c>
+      <c r="B149" s="5">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="G149" s="5"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>164</v>
+      </c>
+      <c r="B150" s="5">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>7</v>
+      </c>
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>165</v>
+      </c>
+      <c r="B151" s="5">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="G151" s="5"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>166</v>
+      </c>
+      <c r="B152" s="5">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="G152" s="5"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>167</v>
+      </c>
+      <c r="B153" s="5">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="G153" s="5"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>168</v>
+      </c>
+      <c r="B154" s="5">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="G154" s="5"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>169</v>
+      </c>
+      <c r="B155" s="5">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>170</v>
+      </c>
+      <c r="B156" s="5">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="G156" s="5"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>171</v>
+      </c>
+      <c r="B157" s="5">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="G157" s="5"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>172</v>
+      </c>
+      <c r="B158" s="5">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="G158" s="5"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>173</v>
+      </c>
+      <c r="B159" s="5">
+        <v>0.1176</v>
+      </c>
+      <c r="C159">
         <v>15</v>
       </c>
-      <c r="G146" s="5"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B147" s="5">
-        <v>0</v>
-      </c>
-      <c r="C147">
-        <v>15</v>
-      </c>
-      <c r="G147" s="5"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B148" s="5">
-        <v>0.1176</v>
-      </c>
-      <c r="C148">
-        <v>15</v>
-      </c>
-      <c r="G148" s="5"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B149" s="5">
-        <v>0</v>
-      </c>
-      <c r="C149">
-        <v>16</v>
-      </c>
-      <c r="G149" s="5"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B150" s="5">
-        <v>0</v>
-      </c>
-      <c r="C150">
-        <v>16</v>
-      </c>
-      <c r="G150" s="5"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B151" s="5">
-        <v>0</v>
-      </c>
-      <c r="C151">
-        <v>18</v>
-      </c>
-      <c r="G151" s="5"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B152" s="5">
-        <v>0</v>
-      </c>
-      <c r="C152">
-        <v>18</v>
-      </c>
-      <c r="G152" s="5"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B153" s="5">
-        <v>0</v>
-      </c>
-      <c r="C153">
-        <v>19</v>
-      </c>
-      <c r="G153" s="5"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B154" s="5">
-        <v>0</v>
-      </c>
-      <c r="C154">
-        <v>19</v>
-      </c>
-      <c r="G154" s="5"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B155" s="5">
-        <v>0</v>
-      </c>
-      <c r="C155">
-        <v>19</v>
-      </c>
-      <c r="G155" s="5"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B156" s="5">
-        <v>0</v>
-      </c>
-      <c r="C156">
-        <v>21</v>
-      </c>
-      <c r="G156" s="5"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B157" s="5">
-        <v>0</v>
-      </c>
-      <c r="C157">
-        <v>21</v>
-      </c>
-      <c r="G157" s="5"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B158" s="5">
-        <v>0</v>
-      </c>
-      <c r="C158">
-        <v>23</v>
-      </c>
-      <c r="G158" s="5"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B159" s="5">
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="C159">
-        <v>29</v>
-      </c>
       <c r="G159" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C159">
-    <sortCondition ref="C2:C159"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50345D0C-A60E-4C47-939D-A6415A10B2FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB363C1F-F7B6-4A8B-9E11-ADD2327D18C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -677,10 +677,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:f>Sheet1!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -755,16 +755,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$26</c:f>
+              <c:f>Sheet1!$N$2:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -839,6 +842,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>63.414634146341463</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.024390243902445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -878,10 +884,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:f>Sheet1!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -956,16 +962,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$26</c:f>
+              <c:f>Sheet1!$O$2:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1040,6 +1049,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>52.023498694516974</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53.590078328981726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,10 +1091,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:f>Sheet1!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1157,16 +1169,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$26</c:f>
+              <c:f>Sheet1!$P$2:$P$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1241,6 +1256,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51.829268292682926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,10 +1298,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:f>Sheet1!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1358,16 +1376,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$26</c:f>
+              <c:f>Sheet1!$Q$2:$Q$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1441,6 +1462,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1481,10 +1505,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:f>Sheet1!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1559,16 +1583,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$26</c:f>
+              <c:f>Sheet1!$R$2:$R$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1642,6 +1669,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2756,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4207,7 +4237,59 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
+      <c r="A27" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B27" s="4">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>164</v>
+      </c>
+      <c r="E27">
+        <v>105</v>
+      </c>
+      <c r="F27">
+        <v>1532</v>
+      </c>
+      <c r="G27">
+        <v>821</v>
+      </c>
+      <c r="H27">
+        <v>85</v>
+      </c>
+      <c r="I27">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>14</v>
+      </c>
+      <c r="K27">
+        <v>213</v>
+      </c>
+      <c r="L27">
+        <v>86</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" ref="N27" si="99">100*E27/D27</f>
+        <v>64.024390243902445</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" ref="O27" si="100">100*G27/F27</f>
+        <v>53.590078328981726</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" ref="P27" si="101">100*H27/D27</f>
+        <v>51.829268292682926</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" ref="Q27" si="102">100*J27/I27</f>
+        <v>70</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" ref="R27" si="103">100*L27/K27</f>
+        <v>40.375586854460096</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
@@ -4263,14 +4345,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60F2A9E-CB35-4818-B2AA-21716033EEE9}">
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection sqref="A1:C159"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="5">
@@ -4282,7 +4369,7 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="5">
@@ -4294,19 +4381,19 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="5">
@@ -4318,7 +4405,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="5">
@@ -4330,7 +4417,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="5">
@@ -4342,7 +4429,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="5">
@@ -4354,20 +4441,20 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
+      <c r="A8" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
+      <c r="A9" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -4378,8 +4465,8 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
+      <c r="A10" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -4390,8 +4477,8 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
+      <c r="A11" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -4402,32 +4489,32 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
+      <c r="A12" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
+      <c r="A13" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
+      <c r="A14" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
@@ -4438,8 +4525,8 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
+      <c r="A15" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
@@ -4450,44 +4537,44 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
+      <c r="A16" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
+      <c r="A17" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
+      <c r="A18" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B18" s="5">
-        <v>0.36359999999999998</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>33</v>
+      <c r="A19" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B19" s="5">
         <v>1</v>
@@ -4498,883 +4585,883 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
+      <c r="A20" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="B20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="5">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="5">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="5">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="5">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="5">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="5">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" s="5">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="5">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" s="5">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="5">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="5">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="5">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="5">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="5">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="5">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="5">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="5">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="5">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-      <c r="C21">
+      <c r="B86" s="5">
+        <v>0</v>
+      </c>
+      <c r="C86">
         <v>3</v>
       </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="5">
-        <v>0</v>
-      </c>
-      <c r="C23">
+      <c r="B87" s="5">
+        <v>0</v>
+      </c>
+      <c r="C87">
         <v>3</v>
       </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.18179999999999999</v>
-      </c>
-      <c r="C24">
-        <v>9</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B88" s="5">
         <v>0.72729999999999995</v>
       </c>
-      <c r="C25">
+      <c r="C88">
         <v>3</v>
       </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="5">
-        <v>0</v>
-      </c>
-      <c r="C26">
+      <c r="B89" s="5">
+        <v>0</v>
+      </c>
+      <c r="C89">
         <v>3</v>
       </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>11</v>
-      </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="5">
-        <v>0</v>
-      </c>
-      <c r="C28">
+      <c r="B90" s="5">
+        <v>0</v>
+      </c>
+      <c r="C90">
         <v>3</v>
       </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>8</v>
-      </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="5">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>7</v>
-      </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="5">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="5">
-        <v>0</v>
-      </c>
-      <c r="C35">
+      <c r="B91" s="5">
+        <v>0</v>
+      </c>
+      <c r="C91">
         <v>3</v>
       </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>10</v>
-      </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>6</v>
-      </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="5">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>7</v>
-      </c>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="5">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="5">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>4</v>
-      </c>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="5">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="5">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="5">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>9</v>
-      </c>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="5">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="5">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>16</v>
-      </c>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="5">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>23</v>
-      </c>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="5">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="5">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="5">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>21</v>
-      </c>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="5">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>9</v>
-      </c>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="5">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="5">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="5">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>18</v>
-      </c>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="5">
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="C63">
-        <v>29</v>
-      </c>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="5">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="5">
-        <v>0.77780000000000005</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" s="5">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>14</v>
-      </c>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>81</v>
-      </c>
-      <c r="B67" s="5">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>12</v>
-      </c>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" s="5">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>6</v>
-      </c>
-      <c r="G68" s="5"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="5">
-        <v>0</v>
-      </c>
-      <c r="C69">
+      <c r="B92" s="5">
+        <v>0</v>
+      </c>
+      <c r="C92">
         <v>3</v>
       </c>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" s="5">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>12</v>
-      </c>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71" s="5">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>9</v>
-      </c>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72" s="5">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>9</v>
-      </c>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" s="5">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>13</v>
-      </c>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>88</v>
-      </c>
-      <c r="B74" s="5">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>5</v>
-      </c>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75" s="5">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>7</v>
-      </c>
-      <c r="G75" s="5"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>90</v>
-      </c>
-      <c r="B76" s="5">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>8</v>
-      </c>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>91</v>
-      </c>
-      <c r="B77" s="5">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>8</v>
-      </c>
-      <c r="G77" s="5"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" s="5">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="G78" s="5"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>93</v>
-      </c>
-      <c r="B79" s="5">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>19</v>
-      </c>
-      <c r="G79" s="5"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>94</v>
-      </c>
-      <c r="B80" s="5">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>95</v>
-      </c>
-      <c r="B81" s="5">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>96</v>
-      </c>
-      <c r="B82" s="5">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>6</v>
-      </c>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>97</v>
-      </c>
-      <c r="B83" s="5">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>98</v>
-      </c>
-      <c r="B84" s="5">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>99</v>
-      </c>
-      <c r="B85" s="5">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>7</v>
-      </c>
-      <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>100</v>
-      </c>
-      <c r="B86" s="5">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>7</v>
-      </c>
-      <c r="G86" s="5"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>101</v>
-      </c>
-      <c r="B87" s="5">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>16</v>
-      </c>
-      <c r="G87" s="5"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>102</v>
-      </c>
-      <c r="B88" s="5">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>9</v>
-      </c>
-      <c r="G88" s="5"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>103</v>
-      </c>
-      <c r="B89" s="5">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>21</v>
-      </c>
-      <c r="G89" s="5"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>104</v>
-      </c>
-      <c r="B90" s="5">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>105</v>
-      </c>
-      <c r="B91" s="5">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>19</v>
-      </c>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>106</v>
-      </c>
-      <c r="B92" s="5">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
       <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B93" s="5">
@@ -5386,440 +5473,440 @@
       <c r="G93" s="5"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" s="5">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B105" s="5">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>6</v>
+      </c>
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B106" s="5">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="5">
-        <v>0</v>
-      </c>
-      <c r="C94">
+      <c r="B107" s="5">
+        <v>0</v>
+      </c>
+      <c r="C107">
         <v>6</v>
       </c>
-      <c r="G94" s="5"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="5">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>6</v>
+      </c>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>6</v>
+      </c>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="C110">
+        <v>7</v>
+      </c>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B111" s="5">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>7</v>
+      </c>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>7</v>
+      </c>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
+      </c>
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B114" s="5">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>7</v>
+      </c>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B115" s="5">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>7</v>
+      </c>
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" s="5">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
+      </c>
+      <c r="G116" s="5"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B117" s="5">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>8</v>
+      </c>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" s="5">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>8</v>
+      </c>
+      <c r="G118" s="5"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>8</v>
+      </c>
+      <c r="G119" s="5"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B120" s="5">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>8</v>
+      </c>
+      <c r="G120" s="5"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="5">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>8</v>
+      </c>
+      <c r="G121" s="5"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B122" s="5">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>9</v>
+      </c>
+      <c r="G122" s="5"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B123" s="5">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="C123">
+        <v>9</v>
+      </c>
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B124" s="5">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>9</v>
+      </c>
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B125" s="5">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>9</v>
+      </c>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B126" s="5">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>9</v>
+      </c>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B127" s="5">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>9</v>
+      </c>
+      <c r="G127" s="5"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B128" s="5">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>9</v>
+      </c>
+      <c r="G128" s="5"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="5">
-        <v>0</v>
-      </c>
-      <c r="C95">
+      <c r="B129" s="5">
+        <v>0</v>
+      </c>
+      <c r="C129">
         <v>9</v>
       </c>
-      <c r="G95" s="5"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>110</v>
-      </c>
-      <c r="B96" s="5">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>10</v>
-      </c>
-      <c r="G96" s="5"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>111</v>
-      </c>
-      <c r="B97" s="5">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>18</v>
-      </c>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>112</v>
-      </c>
-      <c r="B98" s="5">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>3</v>
-      </c>
-      <c r="G98" s="5"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>113</v>
-      </c>
-      <c r="B99" s="5">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>13</v>
-      </c>
-      <c r="G99" s="5"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="B100" s="5">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>9</v>
-      </c>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>115</v>
-      </c>
-      <c r="B101" s="5">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>6</v>
-      </c>
-      <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>116</v>
-      </c>
-      <c r="B102" s="5">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>117</v>
-      </c>
-      <c r="B103" s="5">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="C103">
-        <v>14</v>
-      </c>
-      <c r="G103" s="5"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>118</v>
-      </c>
-      <c r="B104" s="5">
-        <v>1</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="G104" s="5"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>119</v>
-      </c>
-      <c r="B105" s="5">
-        <v>1</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="G105" s="5"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>120</v>
-      </c>
-      <c r="B106" s="5">
-        <v>1</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="G106" s="5"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>121</v>
-      </c>
-      <c r="B107" s="5">
-        <v>0</v>
-      </c>
-      <c r="C107">
-        <v>15</v>
-      </c>
-      <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>122</v>
-      </c>
-      <c r="B108" s="5">
-        <v>1</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="G108" s="5"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>123</v>
-      </c>
-      <c r="B109" s="5">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>13</v>
-      </c>
-      <c r="G109" s="5"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>124</v>
-      </c>
-      <c r="B110" s="5">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>8</v>
-      </c>
-      <c r="G110" s="5"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>125</v>
-      </c>
-      <c r="B111" s="5">
-        <v>0</v>
-      </c>
-      <c r="C111">
-        <v>4</v>
-      </c>
-      <c r="G111" s="5"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>126</v>
-      </c>
-      <c r="B112" s="5">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>13</v>
-      </c>
-      <c r="G112" s="5"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>127</v>
-      </c>
-      <c r="B113" s="5">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>6</v>
-      </c>
-      <c r="G113" s="5"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>128</v>
-      </c>
-      <c r="B114" s="5">
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="G114" s="5"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>129</v>
-      </c>
-      <c r="B115" s="5">
-        <v>1</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="G115" s="5"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>130</v>
-      </c>
-      <c r="B116" s="5">
-        <v>1</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="G116" s="5"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>131</v>
-      </c>
-      <c r="B117" s="5">
-        <v>1</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="G117" s="5"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>132</v>
-      </c>
-      <c r="B118" s="5">
-        <v>1</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="G118" s="5"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>133</v>
-      </c>
-      <c r="B119" s="5">
-        <v>1</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="G119" s="5"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>134</v>
-      </c>
-      <c r="B120" s="5">
-        <v>1</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="G120" s="5"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>135</v>
-      </c>
-      <c r="B121" s="5">
-        <v>1</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="G121" s="5"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>136</v>
-      </c>
-      <c r="B122" s="5">
-        <v>1</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="G122" s="5"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>137</v>
-      </c>
-      <c r="B123" s="5">
-        <v>1</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="G123" s="5"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>138</v>
-      </c>
-      <c r="B124" s="5">
-        <v>1</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="G124" s="5"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>139</v>
-      </c>
-      <c r="B125" s="5">
-        <v>0</v>
-      </c>
-      <c r="C125">
-        <v>4</v>
-      </c>
-      <c r="G125" s="5"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>140</v>
-      </c>
-      <c r="B126" s="5">
-        <v>1</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="G126" s="5"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>141</v>
-      </c>
-      <c r="B127" s="5">
-        <v>1</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="G127" s="5"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>142</v>
-      </c>
-      <c r="B128" s="5">
-        <v>0</v>
-      </c>
-      <c r="C128">
-        <v>15</v>
-      </c>
-      <c r="G128" s="5"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>143</v>
-      </c>
-      <c r="B129" s="5">
-        <v>1</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="G129" s="5"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>144</v>
       </c>
       <c r="B130" s="5">
         <v>0</v>
@@ -5830,8 +5917,8 @@
       <c r="G130" s="5"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>145</v>
+      <c r="A131" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="B131" s="5">
         <v>0</v>
@@ -5842,19 +5929,19 @@
       <c r="G131" s="5"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>146</v>
+      <c r="A132" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="B132" s="5">
         <v>0</v>
       </c>
       <c r="C132">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B133" s="5">
@@ -5866,31 +5953,31 @@
       <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>148</v>
+      <c r="A134" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B134" s="5">
         <v>0</v>
       </c>
       <c r="C134">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G134" s="5"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>149</v>
+      <c r="A135" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="B135" s="5">
         <v>0</v>
       </c>
       <c r="C135">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G135" s="5"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B136" s="5">
@@ -5902,282 +5989,285 @@
       <c r="G136" s="5"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>151</v>
+      <c r="A137" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B137" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G137" s="5"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>152</v>
+      <c r="A138" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="B138" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G138" s="5"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>153</v>
+      <c r="A139" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="B139" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>154</v>
+      <c r="A140" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="B140" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>155</v>
+      <c r="A141" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="B141" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>156</v>
+      <c r="A142" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="B142" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G142" s="5"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>157</v>
+      <c r="A143" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B143" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G143" s="5"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>158</v>
+      <c r="A144" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B144" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G144" s="5"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>159</v>
+      <c r="A145" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="B145" s="5">
-        <v>1</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>160</v>
+      <c r="A146" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="B146" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G146" s="5"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>161</v>
+      <c r="A147" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="B147" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G147" s="5"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>162</v>
+      <c r="A148" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="B148" s="5">
-        <v>1</v>
+        <v>0.1176</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G148" s="5"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>163</v>
+      <c r="A149" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="B149" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G149" s="5"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>164</v>
+      <c r="A150" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="B150" s="5">
         <v>0</v>
       </c>
       <c r="C150">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G150" s="5"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>165</v>
+      <c r="A151" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="B151" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G151" s="5"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>166</v>
+      <c r="A152" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="B152" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G152" s="5"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>167</v>
+      <c r="A153" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="B153" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G153" s="5"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>168</v>
+      <c r="A154" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B154" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G154" s="5"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>169</v>
+      <c r="A155" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="B155" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G155" s="5"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>170</v>
+      <c r="A156" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B156" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G156" s="5"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>171</v>
+      <c r="A157" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="B157" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G157" s="5"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>172</v>
+      <c r="A158" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="B158" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G158" s="5"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>173</v>
+      <c r="A159" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B159" s="5">
-        <v>0.1176</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="C159">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G159" s="5"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C159">
+    <sortCondition ref="C1:C159"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB363C1F-F7B6-4A8B-9E11-ADD2327D18C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D400EA-97B4-4B4B-B45C-53EC33F09FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="174">
   <si>
     <t>Date</t>
   </si>
@@ -549,13 +549,13 @@
     <t>Fixed text condition</t>
   </si>
   <si>
-    <t>GUI condition</t>
-  </si>
-  <si>
-    <t>Module is enabled condition</t>
-  </si>
-  <si>
     <t>Workflow handling</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Convert image to objects</t>
   </si>
 </sst>
 </file>
@@ -677,10 +677,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$27</c:f>
+              <c:f>Sheet1!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -758,16 +758,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$27</c:f>
+              <c:f>Sheet1!$N$2:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -845,6 +848,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>64.024390243902445</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>64.848484848484844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,10 +890,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$27</c:f>
+              <c:f>Sheet1!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -965,16 +971,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$27</c:f>
+              <c:f>Sheet1!$O$2:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1052,6 +1061,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>53.590078328981726</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54.480052321778942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,10 +1103,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$27</c:f>
+              <c:f>Sheet1!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1172,16 +1184,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$27</c:f>
+              <c:f>Sheet1!$P$2:$P$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1259,6 +1274,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>51.829268292682926</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52.727272727272727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,10 +1316,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$27</c:f>
+              <c:f>Sheet1!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1379,16 +1397,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$27</c:f>
+              <c:f>Sheet1!$Q$2:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1465,6 +1486,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1505,10 +1529,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$27</c:f>
+              <c:f>Sheet1!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1586,16 +1610,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$27</c:f>
+              <c:f>Sheet1!$R$2:$R$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1672,6 +1699,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2787,7 +2817,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4292,7 +4322,59 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
+      <c r="A28" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B28" s="4">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>165</v>
+      </c>
+      <c r="E28">
+        <v>107</v>
+      </c>
+      <c r="F28">
+        <v>1529</v>
+      </c>
+      <c r="G28">
+        <v>833</v>
+      </c>
+      <c r="H28">
+        <v>87</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>14</v>
+      </c>
+      <c r="K28">
+        <v>213</v>
+      </c>
+      <c r="L28">
+        <v>86</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" ref="N28" si="104">100*E28/D28</f>
+        <v>64.848484848484844</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" ref="O28" si="105">100*G28/F28</f>
+        <v>54.480052321778942</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" ref="P28" si="106">100*H28/D28</f>
+        <v>52.727272727272727</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" ref="Q28" si="107">100*J28/I28</f>
+        <v>70</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" ref="R28" si="108">100*L28/K28</f>
+        <v>40.375586854460096</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
@@ -4345,15 +4427,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60F2A9E-CB35-4818-B2AA-21716033EEE9}">
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4958,7 +5040,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="B51" s="5">
         <v>1</v>
@@ -4970,7 +5052,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
@@ -4982,7 +5064,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B53" s="5">
         <v>1</v>
@@ -4994,7 +5076,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B54" s="5">
         <v>1</v>
@@ -5006,7 +5088,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B55" s="5">
         <v>1</v>
@@ -5018,7 +5100,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B56" s="5">
         <v>1</v>
@@ -5030,7 +5112,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B57" s="5">
         <v>1</v>
@@ -5042,7 +5124,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B58" s="5">
         <v>1</v>
@@ -5054,7 +5136,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B59" s="5">
         <v>1</v>
@@ -5066,7 +5148,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B60" s="5">
         <v>1</v>
@@ -5078,7 +5160,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B61" s="5">
         <v>1</v>
@@ -5090,7 +5172,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B62" s="5">
         <v>1</v>
@@ -5102,7 +5184,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B63" s="5">
         <v>1</v>
@@ -5114,7 +5196,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B64" s="5">
         <v>1</v>
@@ -5126,7 +5208,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B65" s="5">
         <v>1</v>
@@ -5138,7 +5220,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B66" s="5">
         <v>1</v>
@@ -5150,7 +5232,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B67" s="5">
         <v>1</v>
@@ -5162,7 +5244,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B68" s="5">
         <v>1</v>
@@ -5174,7 +5256,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B69" s="5">
         <v>1</v>
@@ -5186,7 +5268,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B70" s="5">
         <v>1</v>
@@ -5198,7 +5280,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B71" s="5">
         <v>1</v>
@@ -5210,7 +5292,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B72" s="5">
         <v>1</v>
@@ -5222,7 +5304,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B73" s="5">
         <v>1</v>
@@ -5234,7 +5316,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B74" s="5">
         <v>1</v>
@@ -5246,7 +5328,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B75" s="5">
         <v>1</v>
@@ -5258,7 +5340,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B76" s="5">
         <v>1</v>
@@ -5270,7 +5352,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B77" s="5">
         <v>1</v>
@@ -5282,7 +5364,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B78" s="5">
         <v>1</v>
@@ -5294,7 +5376,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B79" s="5">
         <v>1</v>
@@ -5306,7 +5388,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B80" s="5">
         <v>1</v>
@@ -5318,7 +5400,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B81" s="5">
         <v>1</v>
@@ -5330,7 +5412,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B82" s="5">
         <v>1</v>
@@ -5342,7 +5424,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B83" s="5">
         <v>1</v>
@@ -5354,7 +5436,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B84" s="5">
         <v>1</v>
@@ -5366,7 +5448,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B85" s="5">
         <v>1</v>
@@ -6038,7 +6120,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B141" s="5">
         <v>0</v>
@@ -6050,19 +6132,19 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="B142" s="5">
         <v>0</v>
       </c>
       <c r="C142">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G142" s="5"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B143" s="5">
         <v>0</v>
@@ -6074,10 +6156,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="B144" s="5">
-        <v>0</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="C144">
         <v>14</v>
@@ -6086,19 +6168,19 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B145" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="C145">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B146" s="5">
         <v>0</v>
@@ -6110,10 +6192,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="B147" s="5">
-        <v>0</v>
+        <v>0.1176</v>
       </c>
       <c r="C147">
         <v>15</v>
@@ -6122,19 +6204,19 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="B148" s="5">
-        <v>0.1176</v>
+        <v>0</v>
       </c>
       <c r="C148">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G148" s="5"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B149" s="5">
         <v>0</v>
@@ -6146,19 +6228,19 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B150" s="5">
         <v>0</v>
       </c>
       <c r="C150">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G150" s="5"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B151" s="5">
         <v>0</v>
@@ -6170,19 +6252,19 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B152" s="5">
         <v>0</v>
       </c>
       <c r="C152">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G152" s="5"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B153" s="5">
         <v>0</v>
@@ -6194,7 +6276,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="B154" s="5">
         <v>0</v>
@@ -6206,19 +6288,19 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="B155" s="5">
         <v>0</v>
       </c>
       <c r="C155">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G155" s="5"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B156" s="5">
         <v>0</v>
@@ -6230,43 +6312,42 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B157" s="5">
         <v>0</v>
       </c>
       <c r="C157">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G157" s="5"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B158" s="5">
-        <v>0</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="C158">
-        <v>23</v>
-      </c>
-      <c r="G158" s="5"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B159" s="5">
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="C159">
-        <v>29</v>
+      <c r="A159" s="5">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>172</v>
+      </c>
+      <c r="C159" t="s">
+        <v>172</v>
       </c>
       <c r="G159" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C159">
-    <sortCondition ref="C1:C159"/>
+    <sortCondition ref="C2:C159"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D400EA-97B4-4B4B-B45C-53EC33F09FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB26B3F-EF23-493B-82CC-796B86A87301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>Date</t>
   </si>
@@ -552,10 +552,13 @@
     <t>Workflow handling</t>
   </si>
   <si>
-    <t>=</t>
-  </si>
-  <si>
     <t>Convert image to objects</t>
+  </si>
+  <si>
+    <t>GUI condition</t>
+  </si>
+  <si>
+    <t>Module is enabled condition</t>
   </si>
 </sst>
 </file>
@@ -677,10 +680,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$28</c:f>
+              <c:f>Sheet1!$B$2:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -761,16 +764,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$28</c:f>
+              <c:f>Sheet1!$N$2:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -851,6 +857,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>64.848484848484844</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>66.666666666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,10 +899,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$28</c:f>
+              <c:f>Sheet1!$B$2:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -974,16 +983,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$28</c:f>
+              <c:f>Sheet1!$O$2:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1064,6 +1076,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>54.480052321778942</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55.199476782210596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,10 +1118,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$28</c:f>
+              <c:f>Sheet1!$B$2:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1187,16 +1202,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$28</c:f>
+              <c:f>Sheet1!$P$2:$P$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1277,6 +1295,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>52.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>53.939393939393938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1316,10 +1337,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$28</c:f>
+              <c:f>Sheet1!$B$2:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1400,16 +1421,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$28</c:f>
+              <c:f>Sheet1!$Q$2:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1489,6 +1513,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1529,10 +1556,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$28</c:f>
+              <c:f>Sheet1!$B$2:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1613,16 +1640,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$28</c:f>
+              <c:f>Sheet1!$R$2:$R$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1702,6 +1732,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2817,7 +2850,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4377,7 +4410,59 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
+      <c r="A29" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B29" s="4">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>165</v>
+      </c>
+      <c r="E29">
+        <v>110</v>
+      </c>
+      <c r="F29">
+        <v>1529</v>
+      </c>
+      <c r="G29">
+        <v>844</v>
+      </c>
+      <c r="H29">
+        <v>89</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <v>14</v>
+      </c>
+      <c r="K29">
+        <v>213</v>
+      </c>
+      <c r="L29">
+        <v>86</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" ref="N29" si="109">100*E29/D29</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" ref="O29" si="110">100*G29/F29</f>
+        <v>55.199476782210596</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" ref="P29" si="111">100*H29/D29</f>
+        <v>53.939393939393938</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" ref="Q29" si="112">100*J29/I29</f>
+        <v>70</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" ref="R29" si="113">100*L29/K29</f>
+        <v>40.375586854460096</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
@@ -4425,21 +4510,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60F2A9E-CB35-4818-B2AA-21716033EEE9}">
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="5">
@@ -4448,9 +4533,8 @@
       <c r="C1">
         <v>0</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -4460,9 +4544,8 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -4472,9 +4555,8 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -4484,9 +4566,8 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -4496,9 +4577,8 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -4508,9 +4588,8 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -4520,9 +4599,8 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -4532,9 +4610,8 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -4544,9 +4621,8 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -4556,9 +4632,8 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -4568,9 +4643,8 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -4580,9 +4654,8 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
@@ -4592,935 +4665,857 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="5">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="5">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="5">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="5">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="5">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="5">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="5">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="B49" s="5">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B48" s="5">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="5">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="5">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="5">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="5">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="5">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" s="5">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="5">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" s="5">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="5">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="5">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" s="5">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="5">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="5">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" s="5">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="5">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="5">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="5">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" s="5">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="5">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="5">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="5">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B51" s="5">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" s="5">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="5">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="5">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="5">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" s="5">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="5">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="5">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="5">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B61" s="5">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" s="5">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B63" s="5">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B64" s="5">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B65" s="5">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B66" s="5">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B67" s="5">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" s="5">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="G68" s="5"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B69" s="5">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B70" s="5">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B71" s="5">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B72" s="5">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B73" s="5">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B74" s="5">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B75" s="5">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="G75" s="5"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B76" s="5">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B77" s="5">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="G77" s="5"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B78" s="5">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="G78" s="5"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B79" s="5">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="G79" s="5"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B80" s="5">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B81" s="5">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B82" s="5">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B83" s="5">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" s="5">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B85" s="5">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B86" s="5">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>3</v>
-      </c>
-      <c r="G86" s="5"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" s="5">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>3</v>
-      </c>
-      <c r="G87" s="5"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="B88" s="5">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="5">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B90" s="5">
         <v>0.72729999999999995</v>
-      </c>
-      <c r="C88">
-        <v>3</v>
-      </c>
-      <c r="G88" s="5"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B89" s="5">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>3</v>
-      </c>
-      <c r="G89" s="5"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B90" s="5">
-        <v>0</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B91" s="5">
         <v>0</v>
@@ -5528,11 +5523,10 @@
       <c r="C91">
         <v>3</v>
       </c>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B92" s="5">
         <v>0</v>
@@ -5540,11 +5534,10 @@
       <c r="C92">
         <v>3</v>
       </c>
-      <c r="G92" s="5"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="B93" s="5">
         <v>0</v>
@@ -5552,11 +5545,10 @@
       <c r="C93">
         <v>3</v>
       </c>
-      <c r="G93" s="5"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B94" s="5">
         <v>0</v>
@@ -5564,35 +5556,32 @@
       <c r="C94">
         <v>3</v>
       </c>
-      <c r="G94" s="5"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B95" s="5">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>4</v>
-      </c>
-      <c r="G95" s="5"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B96" s="5">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>4</v>
-      </c>
-      <c r="G96" s="5"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="B97" s="5">
         <v>0</v>
@@ -5600,11 +5589,10 @@
       <c r="C97">
         <v>4</v>
       </c>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="B98" s="5">
         <v>0</v>
@@ -5612,23 +5600,21 @@
       <c r="C98">
         <v>4</v>
       </c>
-      <c r="G98" s="5"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="B99" s="5">
-        <v>0</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="C99">
         <v>4</v>
       </c>
-      <c r="G99" s="5"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="B100" s="5">
         <v>0</v>
@@ -5636,83 +5622,76 @@
       <c r="C100">
         <v>4</v>
       </c>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B101" s="5">
-        <v>0</v>
-      </c>
-      <c r="C101">
+      <c r="B104" s="5">
+        <v>0</v>
+      </c>
+      <c r="C104">
         <v>5</v>
       </c>
-      <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B102" s="5">
-        <v>0</v>
-      </c>
-      <c r="C102">
+      <c r="B105" s="5">
+        <v>0</v>
+      </c>
+      <c r="C105">
         <v>5</v>
       </c>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B103" s="5">
-        <v>0</v>
-      </c>
-      <c r="C103">
+      <c r="B106" s="5">
+        <v>0</v>
+      </c>
+      <c r="C106">
         <v>5</v>
       </c>
-      <c r="G103" s="5"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B104" s="5">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>6</v>
-      </c>
-      <c r="G104" s="5"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B105" s="5">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>6</v>
-      </c>
-      <c r="G105" s="5"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B106" s="5">
-        <v>0</v>
-      </c>
-      <c r="C106">
-        <v>6</v>
-      </c>
-      <c r="G106" s="5"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="B107" s="5">
         <v>0</v>
@@ -5720,11 +5699,10 @@
       <c r="C107">
         <v>6</v>
       </c>
-      <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B108" s="5">
         <v>0</v>
@@ -5732,11 +5710,10 @@
       <c r="C108">
         <v>6</v>
       </c>
-      <c r="G108" s="5"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="B109" s="5">
         <v>0</v>
@@ -5744,59 +5721,54 @@
       <c r="C109">
         <v>6</v>
       </c>
-      <c r="G109" s="5"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="5">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B113" s="5">
         <v>0.36359999999999998</v>
-      </c>
-      <c r="C110">
-        <v>7</v>
-      </c>
-      <c r="G110" s="5"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B111" s="5">
-        <v>0</v>
-      </c>
-      <c r="C111">
-        <v>7</v>
-      </c>
-      <c r="G111" s="5"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B112" s="5">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>7</v>
-      </c>
-      <c r="G112" s="5"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B113" s="5">
-        <v>0</v>
       </c>
       <c r="C113">
         <v>7</v>
       </c>
-      <c r="G113" s="5"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="B114" s="5">
         <v>0</v>
@@ -5804,11 +5776,10 @@
       <c r="C114">
         <v>7</v>
       </c>
-      <c r="G114" s="5"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="B115" s="5">
         <v>0</v>
@@ -5816,11 +5787,10 @@
       <c r="C115">
         <v>7</v>
       </c>
-      <c r="G115" s="5"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="B116" s="5">
         <v>0</v>
@@ -5828,47 +5798,43 @@
       <c r="C116">
         <v>7</v>
       </c>
-      <c r="G116" s="5"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B117" s="5">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B118" s="5">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B117" s="5">
-        <v>0</v>
-      </c>
-      <c r="C117">
-        <v>8</v>
-      </c>
-      <c r="G117" s="5"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B118" s="5">
-        <v>0</v>
-      </c>
-      <c r="C118">
-        <v>8</v>
-      </c>
-      <c r="G118" s="5"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B119" s="5">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>8</v>
-      </c>
-      <c r="G119" s="5"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="B120" s="5">
         <v>0</v>
@@ -5876,11 +5842,10 @@
       <c r="C120">
         <v>8</v>
       </c>
-      <c r="G120" s="5"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="B121" s="5">
         <v>0</v>
@@ -5888,47 +5853,43 @@
       <c r="C121">
         <v>8</v>
       </c>
-      <c r="G121" s="5"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B122" s="5">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B123" s="5">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="5">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B122" s="5">
-        <v>0</v>
-      </c>
-      <c r="C122">
-        <v>9</v>
-      </c>
-      <c r="G122" s="5"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B123" s="5">
-        <v>0.18179999999999999</v>
-      </c>
-      <c r="C123">
-        <v>9</v>
-      </c>
-      <c r="G123" s="5"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B124" s="5">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>9</v>
-      </c>
-      <c r="G124" s="5"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="B125" s="5">
         <v>0</v>
@@ -5936,11 +5897,10 @@
       <c r="C125">
         <v>9</v>
       </c>
-      <c r="G125" s="5"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B126" s="5">
         <v>0</v>
@@ -5948,11 +5908,10 @@
       <c r="C126">
         <v>9</v>
       </c>
-      <c r="G126" s="5"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B127" s="5">
         <v>0</v>
@@ -5960,11 +5919,10 @@
       <c r="C127">
         <v>9</v>
       </c>
-      <c r="G127" s="5"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B128" s="5">
         <v>0</v>
@@ -5972,11 +5930,10 @@
       <c r="C128">
         <v>9</v>
       </c>
-      <c r="G128" s="5"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B129" s="5">
         <v>0</v>
@@ -5984,11 +5941,10 @@
       <c r="C129">
         <v>9</v>
       </c>
-      <c r="G129" s="5"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B130" s="5">
         <v>0</v>
@@ -5996,11 +5952,10 @@
       <c r="C130">
         <v>9</v>
       </c>
-      <c r="G130" s="5"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="B131" s="5">
         <v>0</v>
@@ -6008,11 +5963,10 @@
       <c r="C131">
         <v>9</v>
       </c>
-      <c r="G131" s="5"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="B132" s="5">
         <v>0</v>
@@ -6020,11 +5974,10 @@
       <c r="C132">
         <v>9</v>
       </c>
-      <c r="G132" s="5"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B133" s="5">
         <v>0</v>
@@ -6032,35 +5985,32 @@
       <c r="C133">
         <v>9</v>
       </c>
-      <c r="G133" s="5"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134" s="5">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B135" s="5">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B134" s="5">
-        <v>0</v>
-      </c>
-      <c r="C134">
-        <v>10</v>
-      </c>
-      <c r="G134" s="5"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B135" s="5">
-        <v>0</v>
-      </c>
-      <c r="C135">
-        <v>10</v>
-      </c>
-      <c r="G135" s="5"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="B136" s="5">
         <v>0</v>
@@ -6068,59 +6018,54 @@
       <c r="C136">
         <v>10</v>
       </c>
-      <c r="G136" s="5"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B137" s="5">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" s="5">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B137" s="5">
-        <v>0</v>
-      </c>
-      <c r="C137">
+      <c r="B139" s="5">
+        <v>0</v>
+      </c>
+      <c r="C139">
         <v>12</v>
       </c>
-      <c r="G137" s="5"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B138" s="5">
-        <v>0</v>
-      </c>
-      <c r="C138">
+      <c r="B140" s="5">
+        <v>0</v>
+      </c>
+      <c r="C140">
         <v>12</v>
       </c>
-      <c r="G138" s="5"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B139" s="5">
-        <v>0</v>
-      </c>
-      <c r="C139">
-        <v>13</v>
-      </c>
-      <c r="G139" s="5"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B140" s="5">
-        <v>0</v>
-      </c>
-      <c r="C140">
-        <v>13</v>
-      </c>
-      <c r="G140" s="5"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="B141" s="5">
         <v>0</v>
@@ -6128,155 +6073,142 @@
       <c r="C141">
         <v>13</v>
       </c>
-      <c r="G141" s="5"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B142" s="5">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B143" s="5">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B142" s="5">
-        <v>0</v>
-      </c>
-      <c r="C142">
-        <v>14</v>
-      </c>
-      <c r="G142" s="5"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B143" s="5">
-        <v>0</v>
-      </c>
-      <c r="C143">
-        <v>14</v>
-      </c>
-      <c r="G143" s="5"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="B144" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="C144">
         <v>14</v>
       </c>
-      <c r="G144" s="5"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B145" s="5">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B146" s="5">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="C146">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B145" s="5">
-        <v>0</v>
-      </c>
-      <c r="C145">
-        <v>15</v>
-      </c>
-      <c r="G145" s="5"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B146" s="5">
-        <v>0</v>
-      </c>
-      <c r="C146">
-        <v>15</v>
-      </c>
-      <c r="G146" s="5"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="B147" s="5">
-        <v>0.1176</v>
+        <v>0</v>
       </c>
       <c r="C147">
         <v>15</v>
       </c>
-      <c r="G147" s="5"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B148" s="5">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149" s="5">
+        <v>0.1176</v>
+      </c>
+      <c r="C149">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B148" s="5">
-        <v>0</v>
-      </c>
-      <c r="C148">
+      <c r="B150" s="5">
+        <v>0</v>
+      </c>
+      <c r="C150">
         <v>16</v>
       </c>
-      <c r="G148" s="5"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B149" s="5">
-        <v>0</v>
-      </c>
-      <c r="C149">
+      <c r="B151" s="5">
+        <v>0</v>
+      </c>
+      <c r="C151">
         <v>16</v>
       </c>
-      <c r="G149" s="5"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B150" s="5">
-        <v>0</v>
-      </c>
-      <c r="C150">
+      <c r="B152" s="5">
+        <v>0</v>
+      </c>
+      <c r="C152">
         <v>18</v>
       </c>
-      <c r="G150" s="5"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B151" s="5">
-        <v>0</v>
-      </c>
-      <c r="C151">
+      <c r="B153" s="5">
+        <v>0</v>
+      </c>
+      <c r="C153">
         <v>18</v>
       </c>
-      <c r="G151" s="5"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="B152" s="5">
-        <v>0</v>
-      </c>
-      <c r="C152">
-        <v>19</v>
-      </c>
-      <c r="G152" s="5"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B153" s="5">
-        <v>0</v>
-      </c>
-      <c r="C153">
-        <v>19</v>
-      </c>
-      <c r="G153" s="5"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="B154" s="5">
         <v>0</v>
@@ -6284,70 +6216,76 @@
       <c r="C154">
         <v>19</v>
       </c>
-      <c r="G154" s="5"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B155" s="5">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B156" s="5">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B155" s="5">
-        <v>0</v>
-      </c>
-      <c r="C155">
+      <c r="B157" s="5">
+        <v>0</v>
+      </c>
+      <c r="C157">
         <v>21</v>
       </c>
-      <c r="G155" s="5"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B156" s="5">
-        <v>0</v>
-      </c>
-      <c r="C156">
+      <c r="B158" s="5">
+        <v>0</v>
+      </c>
+      <c r="C158">
         <v>21</v>
       </c>
-      <c r="G156" s="5"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B157" s="5">
-        <v>0</v>
-      </c>
-      <c r="C157">
+      <c r="B159" s="5">
+        <v>0</v>
+      </c>
+      <c r="C159">
         <v>23</v>
       </c>
-      <c r="G157" s="5"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B158" s="5">
+      <c r="B160" s="5">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="C158">
+      <c r="C160">
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="5">
-        <v>0</v>
-      </c>
-      <c r="B159" t="s">
-        <v>172</v>
-      </c>
-      <c r="C159" t="s">
-        <v>172</v>
-      </c>
-      <c r="G159" s="5"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C159">
-    <sortCondition ref="C2:C159"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C160">
+    <sortCondition ref="C2:C160"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stephen\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB26B3F-EF23-493B-82CC-796B86A87301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986D8E41-94DC-4BF6-A020-53F36B1E8393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -680,10 +680,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$29</c:f>
+              <c:f>Sheet1!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -767,16 +767,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$29</c:f>
+              <c:f>Sheet1!$N$2:$N$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -860,6 +863,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>66.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67.878787878787875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -899,10 +905,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$29</c:f>
+              <c:f>Sheet1!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -986,16 +992,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$29</c:f>
+              <c:f>Sheet1!$O$2:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1078,7 +1087,10 @@
                   <c:v>54.480052321778942</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>55.199476782210596</c:v>
+                  <c:v>55.65729234793983</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.357750163505557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,10 +1130,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$29</c:f>
+              <c:f>Sheet1!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1205,16 +1217,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$29</c:f>
+              <c:f>Sheet1!$P$2:$P$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1297,7 +1312,10 @@
                   <c:v>52.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>53.939393939393938</c:v>
+                  <c:v>54.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>55.757575757575758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,10 +1355,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$29</c:f>
+              <c:f>Sheet1!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1424,16 +1442,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$29</c:f>
+              <c:f>Sheet1!$Q$2:$Q$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1516,6 +1537,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1556,10 +1580,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$29</c:f>
+              <c:f>Sheet1!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1643,16 +1667,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$29</c:f>
+              <c:f>Sheet1!$R$2:$R$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1735,6 +1762,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -1953,7 +1983,1355 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>39.751552795031053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.372670807453417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.720496894409941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.341614906832298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.58385093167702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.204968944099377</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.204968944099377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.148148148148145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.148148148148145</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.851851851851855</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.41614906832298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.037267080745345</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54.037267080745345</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.279503105590059</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.385093167701861</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.31707317073171</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.146341463414636</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.756097560975611</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60.365853658536587</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.975609756097562</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62.195121951219512</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62.804878048780488</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63.414634146341463</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63.414634146341463</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.024390243902445</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>64.848484848484844</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>66.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67.878787878787875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E563-4F35-9A59-FF356C7397E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>15.016611295681063</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.049833887043189</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.685123415610406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.485657104736489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.288192128085392</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.621747831887923</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.022681787858573</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.791252485089466</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.381709741550694</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.375745526838969</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.839628893306823</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.410596026490069</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.914626075446726</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.311714096624755</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.216412971542027</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44.32576769025367</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43.865435356200528</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45.609436435124508</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45.62091503267974</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46.932114882506525</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.715404699738905</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.215686274509807</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49.673202614379086</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51.24183006535948</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.023498694516974</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53.590078328981726</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54.480052321778942</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55.65729234793983</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.357750163505557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E563-4F35-9A59-FF356C7397E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>14.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.527950310559007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.496894409937887</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.118012422360248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.981366459627328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.602484472049689</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.602484472049689</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.691358024691358</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.691358024691358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.395061728395063</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.571428571428573</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.19254658385093</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.055900621118013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.161490683229815</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.919254658385093</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.267080745341616</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.585365853658537</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.853658536585364</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.463414634146339</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.512195121951223</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.121951219512198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46.341463414634148</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.170731707317074</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49.390243902439025</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51.829268292682926</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>55.757575757575758</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E563-4F35-9A59-FF356C7397E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E563-4F35-9A59-FF356C7397E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>39.71291866028708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.71291866028708</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.71291866028708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.71291866028708</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.71291866028708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.967136150234744</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E563-4F35-9A59-FF356C7397E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="412970511"/>
+        <c:axId val="30391407"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="412970511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30391407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="30391407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412970511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2509,20 +3887,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>407457</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>172511</xdr:rowOff>
+      <xdr:colOff>436032</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>67736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1093257</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>92077</xdr:rowOff>
+      <xdr:colOff>1121832</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177802</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2542,6 +4436,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1104901</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF47B2E-FFEF-4295-A8AF-08497E0F2D77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2849,8 +4779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4426,10 +6356,10 @@
         <v>1529</v>
       </c>
       <c r="G29">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="H29">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29">
         <v>20</v>
@@ -4449,11 +6379,11 @@
       </c>
       <c r="O29" s="3">
         <f t="shared" ref="O29" si="110">100*G29/F29</f>
-        <v>55.199476782210596</v>
+        <v>55.65729234793983</v>
       </c>
       <c r="P29" s="3">
         <f t="shared" ref="P29" si="111">100*H29/D29</f>
-        <v>53.939393939393938</v>
+        <v>54.545454545454547</v>
       </c>
       <c r="Q29" s="3">
         <f t="shared" ref="Q29" si="112">100*J29/I29</f>
@@ -4465,7 +6395,59 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
+      <c r="A30" s="2">
+        <v>44120</v>
+      </c>
+      <c r="B30" s="4">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>165</v>
+      </c>
+      <c r="E30">
+        <v>112</v>
+      </c>
+      <c r="F30">
+        <v>1529</v>
+      </c>
+      <c r="G30">
+        <v>877</v>
+      </c>
+      <c r="H30">
+        <v>92</v>
+      </c>
+      <c r="I30">
+        <v>20</v>
+      </c>
+      <c r="J30">
+        <v>14</v>
+      </c>
+      <c r="K30">
+        <v>213</v>
+      </c>
+      <c r="L30">
+        <v>86</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" ref="N30" si="114">100*E30/D30</f>
+        <v>67.878787878787875</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" ref="O30" si="115">100*G30/F30</f>
+        <v>57.357750163505557</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" ref="P30" si="116">100*H30/D30</f>
+        <v>55.757575757575758</v>
+      </c>
+      <c r="Q30" s="3">
+        <f t="shared" ref="Q30" si="117">100*J30/I30</f>
+        <v>70</v>
+      </c>
+      <c r="R30" s="3">
+        <f t="shared" ref="R30" si="118">100*L30/K30</f>
+        <v>40.375586854460096</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
@@ -4512,19 +6494,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60F2A9E-CB35-4818-B2AA-21716033EEE9}">
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C135" sqref="A135:C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="5">
@@ -4965,7 +6947,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
@@ -4976,7 +6958,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
@@ -4987,7 +6969,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
@@ -4998,7 +6980,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
@@ -5009,7 +6991,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
@@ -5020,7 +7002,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B46" s="5">
         <v>1</v>
@@ -5031,7 +7013,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B47" s="5">
         <v>1</v>
@@ -5042,7 +7024,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B48" s="5">
         <v>1</v>
@@ -5053,7 +7035,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B49" s="5">
         <v>1</v>
@@ -5064,7 +7046,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B50" s="5">
         <v>1</v>
@@ -5075,7 +7057,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B51" s="5">
         <v>1</v>
@@ -5086,7 +7068,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
@@ -5097,7 +7079,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="B53" s="5">
         <v>1</v>
@@ -5108,7 +7090,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="5">
         <v>1</v>
@@ -5119,7 +7101,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="B55" s="5">
         <v>1</v>
@@ -5130,7 +7112,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B56" s="5">
         <v>1</v>
@@ -5141,7 +7123,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B57" s="5">
         <v>1</v>
@@ -5152,7 +7134,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B58" s="5">
         <v>1</v>
@@ -5163,7 +7145,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B59" s="5">
         <v>1</v>
@@ -5174,7 +7156,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B60" s="5">
         <v>1</v>
@@ -5185,7 +7167,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B61" s="5">
         <v>1</v>
@@ -5196,7 +7178,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B62" s="5">
         <v>1</v>
@@ -5207,7 +7189,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B63" s="5">
         <v>1</v>
@@ -5218,7 +7200,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B64" s="5">
         <v>1</v>
@@ -5229,7 +7211,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B65" s="5">
         <v>1</v>
@@ -5240,7 +7222,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B66" s="5">
         <v>1</v>
@@ -5251,7 +7233,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B67" s="5">
         <v>1</v>
@@ -5262,7 +7244,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B68" s="5">
         <v>1</v>
@@ -5273,7 +7255,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B69" s="5">
         <v>1</v>
@@ -5284,7 +7266,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B70" s="5">
         <v>1</v>
@@ -5295,7 +7277,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B71" s="5">
         <v>1</v>
@@ -5306,7 +7288,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B72" s="5">
         <v>1</v>
@@ -5317,7 +7299,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B73" s="5">
         <v>1</v>
@@ -5328,7 +7310,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B74" s="5">
         <v>1</v>
@@ -5339,7 +7321,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B75" s="5">
         <v>1</v>
@@ -5350,7 +7332,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B76" s="5">
         <v>1</v>
@@ -5361,7 +7343,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B77" s="5">
         <v>1</v>
@@ -5372,7 +7354,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B78" s="5">
         <v>1</v>
@@ -5383,7 +7365,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B79" s="5">
         <v>1</v>
@@ -5394,7 +7376,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B80" s="5">
         <v>1</v>
@@ -5405,7 +7387,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B81" s="5">
         <v>1</v>
@@ -5416,7 +7398,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B82" s="5">
         <v>1</v>
@@ -5427,7 +7409,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B83" s="5">
         <v>1</v>
@@ -5438,7 +7420,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B84" s="5">
         <v>1</v>
@@ -5449,7 +7431,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B85" s="5">
         <v>1</v>
@@ -5460,7 +7442,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B86" s="5">
         <v>1</v>
@@ -5471,7 +7453,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B87" s="5">
         <v>1</v>
@@ -5482,7 +7464,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B88" s="5">
         <v>1</v>
@@ -5493,7 +7475,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B89" s="5">
         <v>1</v>
@@ -5504,43 +7486,43 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="B90" s="5">
-        <v>0.72729999999999995</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="B91" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B92" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B93" s="5">
-        <v>0</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -5548,7 +7530,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B94" s="5">
         <v>0</v>
@@ -5559,7 +7541,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="B95" s="5">
         <v>0</v>
@@ -5570,7 +7552,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="B96" s="5">
         <v>0</v>
@@ -5581,40 +7563,40 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B97" s="5">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="B98" s="5">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="B99" s="5">
-        <v>0.63639999999999997</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B100" s="5">
         <v>0</v>
@@ -5625,7 +7607,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="B101" s="5">
         <v>0</v>
@@ -5636,10 +7618,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="B102" s="5">
-        <v>0</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -5647,7 +7629,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="B103" s="5">
         <v>0</v>
@@ -5658,73 +7640,73 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="B104" s="5">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="B105" s="5">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B106" s="5">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B107" s="5">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B108" s="5">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B109" s="5">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -5735,7 +7717,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B111" s="5">
         <v>0</v>
@@ -5746,7 +7728,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="B112" s="5">
         <v>0</v>
@@ -5757,43 +7739,43 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B113" s="5">
-        <v>0.36359999999999998</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="B114" s="5">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="B115" s="5">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B116" s="5">
-        <v>0</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="C116">
         <v>7</v>
@@ -5801,7 +7783,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B117" s="5">
         <v>0</v>
@@ -5812,7 +7794,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B118" s="5">
         <v>0</v>
@@ -5823,7 +7805,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="B119" s="5">
         <v>0</v>
@@ -5834,29 +7816,29 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B120" s="5">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="B121" s="5">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="B122" s="5">
         <v>0</v>
@@ -5867,7 +7849,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="B123" s="5">
         <v>0</v>
@@ -5878,7 +7860,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="B124" s="5">
         <v>0</v>
@@ -5889,29 +7871,29 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="B125" s="5">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="B126" s="5">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="B127" s="5">
         <v>0</v>
@@ -5922,7 +7904,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B128" s="5">
         <v>0</v>
@@ -5933,7 +7915,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B129" s="5">
         <v>0</v>
@@ -5944,7 +7926,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B130" s="5">
         <v>0</v>
@@ -5955,7 +7937,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B131" s="5">
         <v>0</v>
@@ -5966,7 +7948,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B132" s="5">
         <v>0</v>
@@ -5977,7 +7959,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="B133" s="5">
         <v>0</v>
@@ -5988,7 +7970,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="B134" s="5">
         <v>0</v>
@@ -5999,7 +7981,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B135" s="5">
         <v>0</v>
@@ -6010,29 +7992,29 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B136" s="5">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="B137" s="5">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="B138" s="5">
         <v>0</v>
@@ -6043,40 +8025,40 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B139" s="5">
         <v>0</v>
       </c>
       <c r="C139">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="B140" s="5">
         <v>0</v>
       </c>
       <c r="C140">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B141" s="5">
         <v>0</v>
       </c>
       <c r="C141">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="B142" s="5">
         <v>0</v>
@@ -6087,7 +8069,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B143" s="5">
         <v>0</v>
@@ -6098,18 +8080,18 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="B144" s="5">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="B145" s="5">
         <v>0</v>
@@ -6152,7 +8134,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B149" s="5">
@@ -6284,8 +8266,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C160">
-    <sortCondition ref="C2:C160"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C160">
+    <sortCondition ref="C111:C160"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stephen\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986D8E41-94DC-4BF6-A020-53F36B1E8393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3679F641-44B7-4273-9D0D-FBF5EA5F6AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -680,10 +680,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$30</c:f>
+              <c:f>Sheet1!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -770,16 +770,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$30</c:f>
+              <c:f>Sheet1!$N$2:$N$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -866,6 +869,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>67.878787878787875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68.07228915662651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,10 +911,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$30</c:f>
+              <c:f>Sheet1!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -995,16 +1001,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$30</c:f>
+              <c:f>Sheet1!$O$2:$O$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1091,6 +1100,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>57.357750163505557</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58.251793868232227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,10 +1142,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$30</c:f>
+              <c:f>Sheet1!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1220,16 +1232,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$30</c:f>
+              <c:f>Sheet1!$P$2:$P$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1316,6 +1331,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>55.757575757575758</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56.024096385542165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1355,10 +1373,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$30</c:f>
+              <c:f>Sheet1!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1445,16 +1463,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$30</c:f>
+              <c:f>Sheet1!$Q$2:$Q$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1540,6 +1561,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1580,10 +1604,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$30</c:f>
+              <c:f>Sheet1!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1670,16 +1694,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$30</c:f>
+              <c:f>Sheet1!$R$2:$R$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1765,6 +1792,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2020,10 +2050,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2110,16 +2140,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$30</c:f>
+              <c:f>Sheet1!$N$2:$N$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -2206,6 +2239,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>67.878787878787875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68.07228915662651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2234,10 +2270,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2324,16 +2360,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$30</c:f>
+              <c:f>Sheet1!$O$2:$O$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -2420,6 +2459,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>57.357750163505557</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58.251793868232227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2448,10 +2490,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2538,16 +2580,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$30</c:f>
+              <c:f>Sheet1!$P$2:$P$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -2634,6 +2679,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>55.757575757575758</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56.024096385542165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2662,10 +2710,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2752,16 +2800,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$30</c:f>
+              <c:f>Sheet1!$Q$2:$Q$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2847,6 +2898,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -2876,10 +2930,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2966,16 +3020,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$30</c:f>
+              <c:f>Sheet1!$R$2:$R$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -3061,6 +3118,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -4779,8 +4839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6450,7 +6510,59 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
+      <c r="A31" s="2">
+        <v>44123</v>
+      </c>
+      <c r="B31" s="4">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>166</v>
+      </c>
+      <c r="E31">
+        <v>113</v>
+      </c>
+      <c r="F31">
+        <v>1533</v>
+      </c>
+      <c r="G31">
+        <v>893</v>
+      </c>
+      <c r="H31">
+        <v>93</v>
+      </c>
+      <c r="I31">
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>14</v>
+      </c>
+      <c r="K31">
+        <v>213</v>
+      </c>
+      <c r="L31">
+        <v>86</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" ref="N31" si="119">100*E31/D31</f>
+        <v>68.07228915662651</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" ref="O31" si="120">100*G31/F31</f>
+        <v>58.251793868232227</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" ref="P31" si="121">100*H31/D31</f>
+        <v>56.024096385542165</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" ref="Q31" si="122">100*J31/I31</f>
+        <v>70</v>
+      </c>
+      <c r="R31" s="3">
+        <f t="shared" ref="R31" si="123">100*L31/K31</f>
+        <v>40.375586854460096</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3679F641-44B7-4273-9D0D-FBF5EA5F6AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F852A3AC-42BC-4415-8508-0F7C47C28DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -680,10 +680,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:f>Sheet1!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -773,16 +773,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$31</c:f>
+              <c:f>Sheet1!$N$2:$N$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -872,6 +875,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>68.07228915662651</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68.674698795180717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -911,10 +917,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:f>Sheet1!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1004,16 +1010,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$31</c:f>
+              <c:f>Sheet1!$O$2:$O$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1103,6 +1112,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>58.251793868232227</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59.360730593607308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,10 +1154,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:f>Sheet1!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1235,16 +1247,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$31</c:f>
+              <c:f>Sheet1!$P$2:$P$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1334,6 +1349,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>56.024096385542165</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56.626506024096386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1373,10 +1391,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:f>Sheet1!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1466,16 +1484,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$31</c:f>
+              <c:f>Sheet1!$Q$2:$Q$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1564,6 +1585,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1604,10 +1628,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:f>Sheet1!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1697,16 +1721,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$31</c:f>
+              <c:f>Sheet1!$R$2:$R$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1795,6 +1822,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2050,10 +2080,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2143,16 +2173,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$31</c:f>
+              <c:f>Sheet1!$N$2:$N$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -2242,6 +2275,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>68.07228915662651</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68.674698795180717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2270,10 +2306,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2363,16 +2399,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$31</c:f>
+              <c:f>Sheet1!$O$2:$O$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -2462,6 +2501,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>58.251793868232227</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59.360730593607308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2490,10 +2532,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2583,16 +2625,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$31</c:f>
+              <c:f>Sheet1!$P$2:$P$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -2682,6 +2727,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>56.024096385542165</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56.626506024096386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2710,10 +2758,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2803,16 +2851,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$31</c:f>
+              <c:f>Sheet1!$Q$2:$Q$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2901,6 +2952,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -2930,10 +2984,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -3023,16 +3077,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$31</c:f>
+              <c:f>Sheet1!$R$2:$R$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -3121,6 +3178,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -3210,6 +3270,7 @@
         <c:axId val="30391407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4839,8 +4900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6565,7 +6626,59 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
+      <c r="A32" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B32" s="4">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>166</v>
+      </c>
+      <c r="E32">
+        <v>114</v>
+      </c>
+      <c r="F32">
+        <v>1533</v>
+      </c>
+      <c r="G32">
+        <v>910</v>
+      </c>
+      <c r="H32">
+        <v>94</v>
+      </c>
+      <c r="I32">
+        <v>20</v>
+      </c>
+      <c r="J32">
+        <v>14</v>
+      </c>
+      <c r="K32">
+        <v>213</v>
+      </c>
+      <c r="L32">
+        <v>86</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" ref="N32" si="124">100*E32/D32</f>
+        <v>68.674698795180717</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" ref="O32" si="125">100*G32/F32</f>
+        <v>59.360730593607308</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" ref="P32" si="126">100*H32/D32</f>
+        <v>56.626506024096386</v>
+      </c>
+      <c r="Q32" s="3">
+        <f t="shared" ref="Q32" si="127">100*J32/I32</f>
+        <v>70</v>
+      </c>
+      <c r="R32" s="3">
+        <f t="shared" ref="R32" si="128">100*L32/K32</f>
+        <v>40.375586854460096</v>
+      </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F852A3AC-42BC-4415-8508-0F7C47C28DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64487B19-726A-42D1-A079-AD3871B5DD56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>Date</t>
   </si>
@@ -559,6 +559,12 @@
   </si>
   <si>
     <t>Module is enabled condition</t>
+  </si>
+  <si>
+    <t>Sort stack</t>
+  </si>
+  <si>
+    <t>Fill holes in objects</t>
   </si>
 </sst>
 </file>
@@ -680,10 +686,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$32</c:f>
+              <c:f>Sheet1!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -776,16 +782,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$32</c:f>
+              <c:f>Sheet1!$N$2:$N$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -878,6 +887,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>68.674698795180717</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70.059880239520965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,10 +929,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$32</c:f>
+              <c:f>Sheet1!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1013,16 +1025,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$32</c:f>
+              <c:f>Sheet1!$O$2:$O$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1115,6 +1130,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>59.360730593607308</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61.9140625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,10 +1172,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$32</c:f>
+              <c:f>Sheet1!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1250,16 +1268,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$32</c:f>
+              <c:f>Sheet1!$P$2:$P$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1352,6 +1373,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>56.626506024096386</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58.08383233532934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,10 +1415,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$32</c:f>
+              <c:f>Sheet1!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1487,16 +1511,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$32</c:f>
+              <c:f>Sheet1!$Q$2:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1588,6 +1615,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1628,10 +1658,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$32</c:f>
+              <c:f>Sheet1!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1724,16 +1754,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$32</c:f>
+              <c:f>Sheet1!$R$2:$R$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1825,6 +1858,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2080,10 +2116,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2176,16 +2212,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$32</c:f>
+              <c:f>Sheet1!$N$2:$N$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -2278,6 +2317,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>68.674698795180717</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70.059880239520965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2306,10 +2348,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2402,16 +2444,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$32</c:f>
+              <c:f>Sheet1!$O$2:$O$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -2504,6 +2549,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>59.360730593607308</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61.9140625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2532,10 +2580,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2628,16 +2676,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$32</c:f>
+              <c:f>Sheet1!$P$2:$P$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -2730,6 +2781,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>56.626506024096386</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58.08383233532934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2758,10 +2812,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2854,16 +2908,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$32</c:f>
+              <c:f>Sheet1!$Q$2:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2955,6 +3012,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -2984,10 +3044,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -3080,16 +3140,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$32</c:f>
+              <c:f>Sheet1!$R$2:$R$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -3181,6 +3244,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -4900,8 +4966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6680,31 +6746,83 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B33" s="4">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>167</v>
+      </c>
+      <c r="E33">
+        <v>117</v>
+      </c>
+      <c r="F33">
+        <v>1536</v>
+      </c>
+      <c r="G33">
+        <v>951</v>
+      </c>
+      <c r="H33">
+        <v>97</v>
+      </c>
+      <c r="I33">
+        <v>20</v>
+      </c>
+      <c r="J33">
+        <v>14</v>
+      </c>
+      <c r="K33">
+        <v>213</v>
+      </c>
+      <c r="L33">
+        <v>86</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" ref="N33" si="129">100*E33/D33</f>
+        <v>70.059880239520965</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" ref="O33" si="130">100*G33/F33</f>
+        <v>61.9140625</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" ref="P33" si="131">100*H33/D33</f>
+        <v>58.08383233532934</v>
+      </c>
+      <c r="Q33" s="3">
+        <f t="shared" ref="Q33" si="132">100*J33/I33</f>
+        <v>70</v>
+      </c>
+      <c r="R33" s="3">
+        <f t="shared" ref="R33" si="133">100*L33/K33</f>
+        <v>40.375586854460096</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
     </row>
   </sheetData>
@@ -6717,17 +6835,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60F2A9E-CB35-4818-B2AA-21716033EEE9}">
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C135" sqref="A135:C135"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6842,7 +6960,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -6853,7 +6971,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -6864,7 +6982,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -6875,7 +6993,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
@@ -6886,7 +7004,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
@@ -6897,7 +7015,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -6908,7 +7026,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
@@ -6919,7 +7037,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B18" s="5">
         <v>1</v>
@@ -6930,7 +7048,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5">
         <v>1</v>
@@ -6941,7 +7059,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
@@ -6952,7 +7070,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
@@ -6963,7 +7081,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
@@ -6974,7 +7092,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
@@ -6985,7 +7103,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" s="5">
         <v>1</v>
@@ -6996,7 +7114,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
@@ -7007,7 +7125,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -7018,7 +7136,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" s="5">
         <v>1</v>
@@ -7029,7 +7147,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
@@ -7040,7 +7158,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" s="5">
         <v>1</v>
@@ -7051,7 +7169,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B30" s="5">
         <v>1</v>
@@ -7062,7 +7180,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
@@ -7073,7 +7191,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
@@ -7084,7 +7202,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
@@ -7095,7 +7213,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B34" s="5">
         <v>1</v>
@@ -7106,7 +7224,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
@@ -7117,7 +7235,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
@@ -7128,7 +7246,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B37" s="5">
         <v>1</v>
@@ -7139,7 +7257,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
@@ -7150,7 +7268,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B39" s="5">
         <v>1</v>
@@ -7161,7 +7279,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
@@ -7172,7 +7290,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
@@ -7183,7 +7301,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
@@ -7194,7 +7312,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
@@ -7205,7 +7323,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
@@ -7216,7 +7334,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
@@ -7227,7 +7345,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B46" s="5">
         <v>1</v>
@@ -7238,7 +7356,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B47" s="5">
         <v>1</v>
@@ -7249,7 +7367,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B48" s="5">
         <v>1</v>
@@ -7260,7 +7378,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B49" s="5">
         <v>1</v>
@@ -7271,7 +7389,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B50" s="5">
         <v>1</v>
@@ -7282,7 +7400,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B51" s="5">
         <v>1</v>
@@ -7293,7 +7411,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
@@ -7304,7 +7422,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B53" s="5">
         <v>1</v>
@@ -7315,7 +7433,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B54" s="5">
         <v>1</v>
@@ -7326,7 +7444,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="B55" s="5">
         <v>1</v>
@@ -7337,7 +7455,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B56" s="5">
         <v>1</v>
@@ -7348,7 +7466,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B57" s="5">
         <v>1</v>
@@ -7359,7 +7477,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B58" s="5">
         <v>1</v>
@@ -7370,7 +7488,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B59" s="5">
         <v>1</v>
@@ -7381,7 +7499,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B60" s="5">
         <v>1</v>
@@ -7392,7 +7510,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="B61" s="5">
         <v>1</v>
@@ -7403,7 +7521,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B62" s="5">
         <v>1</v>
@@ -7414,7 +7532,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B63" s="5">
         <v>1</v>
@@ -7425,7 +7543,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B64" s="5">
         <v>1</v>
@@ -7436,7 +7554,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B65" s="5">
         <v>1</v>
@@ -7447,7 +7565,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B66" s="5">
         <v>1</v>
@@ -7458,7 +7576,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B67" s="5">
         <v>1</v>
@@ -7469,7 +7587,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B68" s="5">
         <v>1</v>
@@ -7480,7 +7598,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B69" s="5">
         <v>1</v>
@@ -7491,7 +7609,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B70" s="5">
         <v>1</v>
@@ -7502,7 +7620,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B71" s="5">
         <v>1</v>
@@ -7513,7 +7631,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B72" s="5">
         <v>1</v>
@@ -7524,7 +7642,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B73" s="5">
         <v>1</v>
@@ -7535,7 +7653,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B74" s="5">
         <v>1</v>
@@ -7546,7 +7664,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B75" s="5">
         <v>1</v>
@@ -7557,7 +7675,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B76" s="5">
         <v>1</v>
@@ -7568,7 +7686,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B77" s="5">
         <v>1</v>
@@ -7579,7 +7697,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B78" s="5">
         <v>1</v>
@@ -7590,7 +7708,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B79" s="5">
         <v>1</v>
@@ -7601,7 +7719,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B80" s="5">
         <v>1</v>
@@ -7612,7 +7730,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B81" s="5">
         <v>1</v>
@@ -7623,7 +7741,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B82" s="5">
         <v>1</v>
@@ -7634,7 +7752,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B83" s="5">
         <v>1</v>
@@ -7645,7 +7763,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B84" s="5">
         <v>1</v>
@@ -7656,7 +7774,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B85" s="5">
         <v>1</v>
@@ -7667,7 +7785,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B86" s="5">
         <v>1</v>
@@ -7678,7 +7796,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B87" s="5">
         <v>1</v>
@@ -7689,7 +7807,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B88" s="5">
         <v>1</v>
@@ -7700,7 +7818,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B89" s="5">
         <v>1</v>
@@ -7711,7 +7829,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B90" s="5">
         <v>1</v>
@@ -7722,7 +7840,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B91" s="5">
         <v>1</v>
@@ -7733,7 +7851,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="B92" s="5">
         <v>1</v>
@@ -7744,65 +7862,65 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="B93" s="5">
-        <v>0.72729999999999995</v>
+        <v>1</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="B94" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="B95" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="B96" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>83</v>
+      <c r="A97" t="s">
+        <v>174</v>
       </c>
       <c r="B97" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B98" s="5">
-        <v>0</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -7810,7 +7928,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="B99" s="5">
         <v>0</v>
@@ -7821,73 +7939,73 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B100" s="5">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B101" s="5">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="B102" s="5">
-        <v>0.63639999999999997</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B103" s="5">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B104" s="5">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B105" s="5">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="B106" s="5">
         <v>0</v>
@@ -7898,293 +8016,293 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B107" s="5">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B108" s="5">
-        <v>0</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="B109" s="5">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="B111" s="5">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="B112" s="5">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="B113" s="5">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="B114" s="5">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="B115" s="5">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="B116" s="5">
-        <v>0.36359999999999998</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B117" s="5">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B118" s="5">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B119" s="5">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B120" s="5">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B121" s="5">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B122" s="5">
-        <v>0</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="C122">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B123" s="5">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B124" s="5">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B125" s="5">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B126" s="5">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="B127" s="5">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B128" s="5">
         <v>0</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B129" s="5">
         <v>0</v>
       </c>
       <c r="C129">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B130" s="5">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B131" s="5">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B132" s="5">
         <v>0</v>
       </c>
       <c r="C132">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B133" s="5">
         <v>0</v>
@@ -8195,7 +8313,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="B134" s="5">
         <v>0</v>
@@ -8206,7 +8324,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="B135" s="5">
         <v>0</v>
@@ -8217,7 +8335,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="B136" s="5">
         <v>0</v>
@@ -8228,7 +8346,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="B137" s="5">
         <v>0</v>
@@ -8239,260 +8357,282 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="B138" s="5">
         <v>0</v>
       </c>
       <c r="C138">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B139" s="5">
         <v>0</v>
       </c>
       <c r="C139">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B140" s="5">
         <v>0</v>
       </c>
       <c r="C140">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="B141" s="5">
         <v>0</v>
       </c>
       <c r="C141">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="B142" s="5">
         <v>0</v>
       </c>
       <c r="C142">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="B143" s="5">
         <v>0</v>
       </c>
       <c r="C143">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B144" s="5">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="B145" s="5">
         <v>0</v>
       </c>
       <c r="C145">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B146" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="C146">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B147" s="5">
         <v>0</v>
       </c>
       <c r="C147">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B148" s="5">
         <v>0</v>
       </c>
       <c r="C148">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="B149" s="5">
-        <v>0.1176</v>
+        <v>0</v>
       </c>
       <c r="C149">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="B150" s="5">
-        <v>0</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="C150">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B151" s="5">
         <v>0</v>
       </c>
       <c r="C151">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="B152" s="5">
         <v>0</v>
       </c>
       <c r="C152">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
-        <v>111</v>
+      <c r="A153" t="s">
+        <v>171</v>
       </c>
       <c r="B153" s="5">
-        <v>0</v>
+        <v>0.1176</v>
       </c>
       <c r="C153">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B154" s="5">
         <v>0</v>
       </c>
       <c r="C154">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B155" s="5">
         <v>0</v>
       </c>
       <c r="C155">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="B156" s="5">
         <v>0</v>
       </c>
       <c r="C156">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B157" s="5">
         <v>0</v>
       </c>
       <c r="C157">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B158" s="5">
         <v>0</v>
       </c>
       <c r="C158">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="B159" s="5">
         <v>0</v>
       </c>
       <c r="C159">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B160" s="5">
-        <v>6.9000000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>27</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B161" s="5">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B162" s="5">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C160">
-    <sortCondition ref="C111:C160"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C162">
+    <sortCondition ref="C2:C162"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64487B19-726A-42D1-A079-AD3871B5DD56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0752E9-9563-4ECC-9A6F-A1CB6645C2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -686,10 +686,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$33</c:f>
+              <c:f>Sheet1!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -785,16 +785,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$33</c:f>
+              <c:f>Sheet1!$N$2:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -890,6 +893,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>70.059880239520965</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71.084337349397586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,10 +935,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$33</c:f>
+              <c:f>Sheet1!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1028,16 +1034,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$33</c:f>
+              <c:f>Sheet1!$O$2:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1133,6 +1142,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>61.9140625</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62.491846053489887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,10 +1184,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$33</c:f>
+              <c:f>Sheet1!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1271,16 +1283,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$33</c:f>
+              <c:f>Sheet1!$P$2:$P$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1376,6 +1391,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>58.08383233532934</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>59.036144578313255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,10 +1433,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$33</c:f>
+              <c:f>Sheet1!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1514,16 +1532,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$33</c:f>
+              <c:f>Sheet1!$Q$2:$Q$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1618,6 +1639,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1658,10 +1682,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$33</c:f>
+              <c:f>Sheet1!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1757,16 +1781,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$33</c:f>
+              <c:f>Sheet1!$R$2:$R$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1861,6 +1888,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2116,10 +2146,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2215,16 +2245,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$33</c:f>
+              <c:f>Sheet1!$N$2:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -2320,6 +2353,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>70.059880239520965</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71.084337349397586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,10 +2384,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2447,16 +2483,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$33</c:f>
+              <c:f>Sheet1!$O$2:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -2552,6 +2591,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>61.9140625</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62.491846053489887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2580,10 +2622,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2679,16 +2721,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$33</c:f>
+              <c:f>Sheet1!$P$2:$P$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -2784,6 +2829,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>58.08383233532934</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>59.036144578313255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2812,10 +2860,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2911,16 +2959,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$33</c:f>
+              <c:f>Sheet1!$Q$2:$Q$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3015,6 +3066,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -3044,10 +3098,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -3143,16 +3197,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$33</c:f>
+              <c:f>Sheet1!$R$2:$R$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -3247,6 +3304,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -4967,7 +5027,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6802,7 +6862,59 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
+      <c r="A34" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B34" s="4">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>166</v>
+      </c>
+      <c r="E34">
+        <v>118</v>
+      </c>
+      <c r="F34">
+        <v>1533</v>
+      </c>
+      <c r="G34">
+        <v>958</v>
+      </c>
+      <c r="H34">
+        <v>98</v>
+      </c>
+      <c r="I34">
+        <v>20</v>
+      </c>
+      <c r="J34">
+        <v>14</v>
+      </c>
+      <c r="K34">
+        <v>213</v>
+      </c>
+      <c r="L34">
+        <v>86</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" ref="N34" si="134">100*E34/D34</f>
+        <v>71.084337349397586</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" ref="O34" si="135">100*G34/F34</f>
+        <v>62.491846053489887</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" ref="P34" si="136">100*H34/D34</f>
+        <v>59.036144578313255</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" ref="Q34" si="137">100*J34/I34</f>
+        <v>70</v>
+      </c>
+      <c r="R34" s="3">
+        <f t="shared" ref="R34" si="138">100*L34/K34</f>
+        <v>40.375586854460096</v>
+      </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0752E9-9563-4ECC-9A6F-A1CB6645C2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FF0976-A5A8-4BEA-932F-A7EE2B0831A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Date</t>
   </si>
@@ -559,9 +559,6 @@
   </si>
   <si>
     <t>Module is enabled condition</t>
-  </si>
-  <si>
-    <t>Sort stack</t>
   </si>
   <si>
     <t>Fill holes in objects</t>
@@ -686,10 +683,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$34</c:f>
+              <c:f>Sheet1!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -788,16 +785,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$34</c:f>
+              <c:f>Sheet1!$N$2:$N$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -896,6 +896,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>71.084337349397586</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73.493975903614455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,10 +938,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$34</c:f>
+              <c:f>Sheet1!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1037,16 +1040,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$34</c:f>
+              <c:f>Sheet1!$O$2:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1145,6 +1151,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>62.491846053489887</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>64.005235602094245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,10 +1193,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$34</c:f>
+              <c:f>Sheet1!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1286,16 +1295,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$34</c:f>
+              <c:f>Sheet1!$P$2:$P$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1394,6 +1406,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>59.036144578313255</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61.445783132530117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1433,10 +1448,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$34</c:f>
+              <c:f>Sheet1!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1535,16 +1550,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$34</c:f>
+              <c:f>Sheet1!$Q$2:$Q$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1642,6 +1660,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1682,10 +1703,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$34</c:f>
+              <c:f>Sheet1!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1784,16 +1805,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$34</c:f>
+              <c:f>Sheet1!$R$2:$R$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1891,6 +1915,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2146,10 +2173,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2248,16 +2275,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$34</c:f>
+              <c:f>Sheet1!$N$2:$N$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -2356,6 +2386,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>71.084337349397586</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73.493975903614455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,10 +2417,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2486,16 +2519,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$34</c:f>
+              <c:f>Sheet1!$O$2:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -2594,6 +2630,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>62.491846053489887</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>64.005235602094245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2622,10 +2661,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2724,16 +2763,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$34</c:f>
+              <c:f>Sheet1!$P$2:$P$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -2832,6 +2874,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>59.036144578313255</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61.445783132530117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2860,10 +2905,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2962,16 +3007,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$34</c:f>
+              <c:f>Sheet1!$Q$2:$Q$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3069,6 +3117,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -3098,10 +3149,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -3200,16 +3251,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$34</c:f>
+              <c:f>Sheet1!$R$2:$R$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -3307,6 +3361,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -5027,7 +5084,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6917,7 +6974,59 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
+      <c r="A35" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B35" s="4">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>166</v>
+      </c>
+      <c r="E35">
+        <v>122</v>
+      </c>
+      <c r="F35">
+        <v>1528</v>
+      </c>
+      <c r="G35">
+        <v>978</v>
+      </c>
+      <c r="H35">
+        <v>102</v>
+      </c>
+      <c r="I35">
+        <v>20</v>
+      </c>
+      <c r="J35">
+        <v>14</v>
+      </c>
+      <c r="K35">
+        <v>213</v>
+      </c>
+      <c r="L35">
+        <v>86</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" ref="N35" si="139">100*E35/D35</f>
+        <v>73.493975903614455</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" ref="O35" si="140">100*G35/F35</f>
+        <v>64.005235602094245</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" ref="P35" si="141">100*H35/D35</f>
+        <v>61.445783132530117</v>
+      </c>
+      <c r="Q35" s="3">
+        <f t="shared" ref="Q35" si="142">100*J35/I35</f>
+        <v>70</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" ref="R35" si="143">100*L35/K35</f>
+        <v>40.375586854460096</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
@@ -6949,15 +7058,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60F2A9E-CB35-4818-B2AA-21716033EEE9}">
   <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -7523,7 +7632,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
@@ -7534,7 +7643,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" s="5">
         <v>1</v>
@@ -7545,7 +7654,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B54" s="5">
         <v>1</v>
@@ -7556,7 +7665,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B55" s="5">
         <v>1</v>
@@ -7567,7 +7676,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B56" s="5">
         <v>1</v>
@@ -7578,7 +7687,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B57" s="5">
         <v>1</v>
@@ -7589,7 +7698,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B58" s="5">
         <v>1</v>
@@ -7600,7 +7709,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B59" s="5">
         <v>1</v>
@@ -7611,7 +7720,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B60" s="5">
         <v>1</v>
@@ -7622,7 +7731,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="B61" s="5">
         <v>1</v>
@@ -7633,7 +7742,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B62" s="5">
         <v>1</v>
@@ -7644,7 +7753,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B63" s="5">
         <v>1</v>
@@ -7655,7 +7764,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B64" s="5">
         <v>1</v>
@@ -7666,7 +7775,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B65" s="5">
         <v>1</v>
@@ -7677,7 +7786,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="B66" s="5">
         <v>1</v>
@@ -7688,7 +7797,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B67" s="5">
         <v>1</v>
@@ -7699,7 +7808,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B68" s="5">
         <v>1</v>
@@ -7710,7 +7819,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B69" s="5">
         <v>1</v>
@@ -7721,7 +7830,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B70" s="5">
         <v>1</v>
@@ -7732,7 +7841,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B71" s="5">
         <v>1</v>
@@ -7743,7 +7852,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B72" s="5">
         <v>1</v>
@@ -7754,7 +7863,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B73" s="5">
         <v>1</v>
@@ -7765,7 +7874,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B74" s="5">
         <v>1</v>
@@ -7776,7 +7885,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B75" s="5">
         <v>1</v>
@@ -7787,7 +7896,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B76" s="5">
         <v>1</v>
@@ -7798,7 +7907,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B77" s="5">
         <v>1</v>
@@ -7809,7 +7918,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B78" s="5">
         <v>1</v>
@@ -7820,7 +7929,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B79" s="5">
         <v>1</v>
@@ -7831,7 +7940,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B80" s="5">
         <v>1</v>
@@ -7842,7 +7951,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B81" s="5">
         <v>1</v>
@@ -7853,7 +7962,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B82" s="5">
         <v>1</v>
@@ -7864,7 +7973,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B83" s="5">
         <v>1</v>
@@ -7875,7 +7984,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B84" s="5">
         <v>1</v>
@@ -7886,7 +7995,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B85" s="5">
         <v>1</v>
@@ -7897,7 +8006,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B86" s="5">
         <v>1</v>
@@ -7908,7 +8017,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B87" s="5">
         <v>1</v>
@@ -7919,7 +8028,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B88" s="5">
         <v>1</v>
@@ -7930,7 +8039,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B89" s="5">
         <v>1</v>
@@ -7941,7 +8050,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B90" s="5">
         <v>1</v>
@@ -7952,7 +8061,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B91" s="5">
         <v>1</v>
@@ -7963,7 +8072,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B92" s="5">
         <v>1</v>
@@ -7974,7 +8083,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B93" s="5">
         <v>1</v>
@@ -7985,7 +8094,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B94" s="5">
         <v>1</v>
@@ -7996,7 +8105,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B95" s="5">
         <v>1</v>
@@ -8007,7 +8116,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B96" s="5">
         <v>1</v>
@@ -8017,8 +8126,8 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>174</v>
+      <c r="A97" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="B97" s="5">
         <v>1</v>
@@ -8029,65 +8138,65 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="B98" s="5">
-        <v>0.72729999999999995</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="B99" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="B100" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="B101" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B102" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B103" s="5">
-        <v>0</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -8095,7 +8204,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="B104" s="5">
         <v>0</v>
@@ -8106,7 +8215,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="B105" s="5">
         <v>0</v>
@@ -8117,40 +8226,40 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B106" s="5">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="B107" s="5">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="B108" s="5">
-        <v>0.63639999999999997</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B109" s="5">
         <v>0</v>
@@ -8161,7 +8270,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -8172,10 +8281,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="B111" s="5">
-        <v>0</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -8183,7 +8292,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="B112" s="5">
         <v>0</v>
@@ -8194,7 +8303,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B113" s="5">
         <v>0</v>
@@ -8205,73 +8314,73 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="B114" s="5">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="B115" s="5">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B116" s="5">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B117" s="5">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B118" s="5">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="B119" s="5">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="B120" s="5">
         <v>0</v>
@@ -8282,7 +8391,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B121" s="5">
         <v>0</v>
@@ -8293,32 +8402,32 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="B122" s="5">
-        <v>0.36359999999999998</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="B123" s="5">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B124" s="5">
-        <v>0</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="C124">
         <v>7</v>
@@ -8326,7 +8435,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B125" s="5">
         <v>0</v>
@@ -8337,7 +8446,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B126" s="5">
         <v>0</v>
@@ -8458,7 +8567,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B137" s="5">
         <v>0</v>
@@ -8469,7 +8578,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B138" s="5">
         <v>0</v>
@@ -8480,7 +8589,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B139" s="5">
         <v>0</v>
@@ -8491,7 +8600,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B140" s="5">
         <v>0</v>
@@ -8502,7 +8611,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B141" s="5">
         <v>0</v>
@@ -8513,18 +8622,18 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="B142" s="5">
         <v>0</v>
       </c>
       <c r="C142">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="B143" s="5">
         <v>0</v>
@@ -8535,7 +8644,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="B144" s="5">
         <v>0</v>
@@ -8546,29 +8655,29 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="B145" s="5">
         <v>0</v>
       </c>
       <c r="C145">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B146" s="5">
         <v>0</v>
       </c>
       <c r="C146">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B147" s="5">
         <v>0</v>
@@ -8579,21 +8688,21 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="B148" s="5">
         <v>0</v>
       </c>
       <c r="C148">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="B149" s="5">
-        <v>0</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="C149">
         <v>14</v>
@@ -8601,18 +8710,18 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B150" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="C150">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B151" s="5">
         <v>0</v>
@@ -8623,29 +8732,29 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="B152" s="5">
-        <v>0</v>
+        <v>0.1176</v>
       </c>
       <c r="C152">
         <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>171</v>
+      <c r="A153" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="B153" s="5">
-        <v>0.1176</v>
+        <v>0</v>
       </c>
       <c r="C153">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B154" s="5">
         <v>0</v>
@@ -8656,18 +8765,18 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B155" s="5">
         <v>0</v>
       </c>
       <c r="C155">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B156" s="5">
         <v>0</v>
@@ -8678,18 +8787,18 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B157" s="5">
         <v>0</v>
       </c>
       <c r="C157">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="B158" s="5">
         <v>0</v>
@@ -8700,18 +8809,18 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="B159" s="5">
         <v>0</v>
       </c>
       <c r="C159">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B160" s="5">
         <v>0</v>
@@ -8722,29 +8831,21 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B161" s="5">
         <v>0</v>
       </c>
       <c r="C161">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B162" s="5">
-        <v>0</v>
-      </c>
-      <c r="C162">
-        <v>23</v>
-      </c>
+      <c r="A162" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C162">
-    <sortCondition ref="C2:C162"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C161">
+    <sortCondition ref="C8:C161"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FF0976-A5A8-4BEA-932F-A7EE2B0831A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC460DB6-C692-4BCD-AF41-80A8B87E672E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="480" yWindow="-108" windowWidth="22668" windowHeight="13176" activeTab="1" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5083,32 +5083,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44054</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44055</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44056</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44057</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44058</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44064</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44069</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44070</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44081</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44082</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44083</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44084</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44085</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44089</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44090</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44091</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44097</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>38.967136150234744</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44098</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44099</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44102</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44103</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44104</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44110</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44113</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44116</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44117</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44118</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44119</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44120</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44123</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44124</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44125</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44126</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44127</v>
       </c>
@@ -7028,22 +7028,22 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
     </row>
   </sheetData>
@@ -7058,18 +7058,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60F2A9E-CB35-4818-B2AA-21716033EEE9}">
   <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>55</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>59</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>62</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>63</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>66</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>67</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>70</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>71</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>74</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>75</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>77</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>78</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>79</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>80</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>81</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>82</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>87</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>92</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>93</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>94</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>95</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>96</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>97</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>98</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>99</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>100</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>102</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>104</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>106</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>112</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>116</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>118</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>119</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>120</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>122</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>172</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>123</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>128</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>129</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>130</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>131</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>132</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>133</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>134</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>135</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>136</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>137</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>138</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>140</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>141</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>143</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>151</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>152</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>153</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>154</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>155</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>156</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>157</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>158</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>159</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>160</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>161</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>162</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>163</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>165</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>166</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>167</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>168</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>169</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>170</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>173</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>174</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>39</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>40</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>42</v>
       </c>
@@ -8224,18 +8224,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B106" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>83</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>107</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>27</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>30</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>38</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>61</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>125</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>175</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>139</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>149</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>34</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>88</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>148</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>51</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>108</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>115</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>127</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>32</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>58</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>89</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>164</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>22</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>43</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>90</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>91</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>124</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>65</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>73</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>85</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>86</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>109</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>114</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>144</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>145</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>147</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>50</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>110</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>150</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>84</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>113</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>126</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>31</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>117</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>121</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>142</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>171</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>68</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>101</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>76</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>111</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>105</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>146</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>72</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>103</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>69</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
     </row>
   </sheetData>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC460DB6-C692-4BCD-AF41-80A8B87E672E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD11941-BDC4-40E5-A008-3BA2855B9151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="-108" windowWidth="22668" windowHeight="13176" activeTab="1" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -683,10 +683,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$35</c:f>
+              <c:f>Sheet1!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -788,16 +788,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$35</c:f>
+              <c:f>Sheet1!$N$2:$N$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -899,6 +902,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>73.493975903614455</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74.096385542168676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -938,10 +944,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$35</c:f>
+              <c:f>Sheet1!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1043,16 +1049,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$35</c:f>
+              <c:f>Sheet1!$O$2:$O$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1154,6 +1163,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>64.005235602094245</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>64.201570680628279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1193,10 +1205,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$35</c:f>
+              <c:f>Sheet1!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1298,16 +1310,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$35</c:f>
+              <c:f>Sheet1!$P$2:$P$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1409,6 +1424,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>61.445783132530117</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62.048192771084338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,10 +1466,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$35</c:f>
+              <c:f>Sheet1!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1553,16 +1571,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$35</c:f>
+              <c:f>Sheet1!$Q$2:$Q$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1663,6 +1684,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1703,10 +1727,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$35</c:f>
+              <c:f>Sheet1!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1808,16 +1832,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$35</c:f>
+              <c:f>Sheet1!$R$2:$R$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1918,6 +1945,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2173,10 +2203,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2278,16 +2308,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$35</c:f>
+              <c:f>Sheet1!$N$2:$N$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -2389,6 +2422,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>73.493975903614455</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74.096385542168676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2417,10 +2453,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2522,16 +2558,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$35</c:f>
+              <c:f>Sheet1!$O$2:$O$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -2633,6 +2672,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>64.005235602094245</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>64.201570680628279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2661,10 +2703,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2766,16 +2808,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$35</c:f>
+              <c:f>Sheet1!$P$2:$P$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -2877,6 +2922,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>61.445783132530117</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62.048192771084338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2905,10 +2953,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -3010,16 +3058,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$35</c:f>
+              <c:f>Sheet1!$Q$2:$Q$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3120,6 +3171,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -3149,10 +3203,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -3254,16 +3308,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$35</c:f>
+              <c:f>Sheet1!$R$2:$R$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -3364,6 +3421,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -5083,32 +5143,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5155,7 +5215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44054</v>
       </c>
@@ -5211,7 +5271,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44055</v>
       </c>
@@ -5267,7 +5327,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44056</v>
       </c>
@@ -5323,7 +5383,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44057</v>
       </c>
@@ -5378,7 +5438,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44058</v>
       </c>
@@ -5433,7 +5493,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44064</v>
       </c>
@@ -5488,7 +5548,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44069</v>
       </c>
@@ -5543,7 +5603,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44070</v>
       </c>
@@ -5598,7 +5658,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44081</v>
       </c>
@@ -5653,7 +5713,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44082</v>
       </c>
@@ -5708,7 +5768,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44083</v>
       </c>
@@ -5763,7 +5823,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44084</v>
       </c>
@@ -5818,7 +5878,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44085</v>
       </c>
@@ -5873,7 +5933,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44089</v>
       </c>
@@ -5928,7 +5988,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44090</v>
       </c>
@@ -5983,7 +6043,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44091</v>
       </c>
@@ -6038,7 +6098,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44097</v>
       </c>
@@ -6093,7 +6153,7 @@
         <v>38.967136150234744</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44098</v>
       </c>
@@ -6148,7 +6208,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44099</v>
       </c>
@@ -6203,7 +6263,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44102</v>
       </c>
@@ -6258,7 +6318,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44103</v>
       </c>
@@ -6313,7 +6373,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44104</v>
       </c>
@@ -6368,7 +6428,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44110</v>
       </c>
@@ -6423,7 +6483,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44113</v>
       </c>
@@ -6478,7 +6538,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44116</v>
       </c>
@@ -6533,7 +6593,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44117</v>
       </c>
@@ -6588,7 +6648,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44118</v>
       </c>
@@ -6643,7 +6703,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44119</v>
       </c>
@@ -6698,7 +6758,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44120</v>
       </c>
@@ -6753,7 +6813,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44123</v>
       </c>
@@ -6808,7 +6868,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44124</v>
       </c>
@@ -6863,7 +6923,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44125</v>
       </c>
@@ -6918,7 +6978,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44126</v>
       </c>
@@ -6973,7 +7033,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44127</v>
       </c>
@@ -7028,22 +7088,74 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>44130</v>
+      </c>
+      <c r="B36" s="4">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>166</v>
+      </c>
+      <c r="E36">
+        <v>123</v>
+      </c>
+      <c r="F36">
+        <v>1528</v>
+      </c>
+      <c r="G36">
+        <v>981</v>
+      </c>
+      <c r="H36">
+        <v>103</v>
+      </c>
+      <c r="I36">
+        <v>20</v>
+      </c>
+      <c r="J36">
+        <v>14</v>
+      </c>
+      <c r="K36">
+        <v>213</v>
+      </c>
+      <c r="L36">
+        <v>86</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" ref="N36" si="144">100*E36/D36</f>
+        <v>74.096385542168676</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" ref="O36" si="145">100*G36/F36</f>
+        <v>64.201570680628279</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" ref="P36" si="146">100*H36/D36</f>
+        <v>62.048192771084338</v>
+      </c>
+      <c r="Q36" s="3">
+        <f t="shared" ref="Q36" si="147">100*J36/I36</f>
+        <v>70</v>
+      </c>
+      <c r="R36" s="3">
+        <f t="shared" ref="R36" si="148">100*L36/K36</f>
+        <v>40.375586854460096</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
     </row>
   </sheetData>
@@ -7058,18 +7170,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60F2A9E-CB35-4818-B2AA-21716033EEE9}">
   <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -7080,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -7091,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -7102,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -7113,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -7124,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -7135,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -7146,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -7157,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -7168,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -7179,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -7190,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -7201,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -7212,7 +7324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -7223,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -7234,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -7245,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -7256,7 +7368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -7267,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
@@ -7278,7 +7390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
@@ -7289,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
@@ -7300,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
@@ -7311,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -7322,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
@@ -7333,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -7344,7 +7456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -7355,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>55</v>
       </c>
@@ -7366,7 +7478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
@@ -7377,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
@@ -7388,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>59</v>
       </c>
@@ -7399,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
@@ -7410,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>62</v>
       </c>
@@ -7421,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>63</v>
       </c>
@@ -7432,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
@@ -7443,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>66</v>
       </c>
@@ -7454,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>67</v>
       </c>
@@ -7465,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>70</v>
       </c>
@@ -7476,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>71</v>
       </c>
@@ -7487,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>74</v>
       </c>
@@ -7498,7 +7610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>75</v>
       </c>
@@ -7509,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>77</v>
       </c>
@@ -7520,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>78</v>
       </c>
@@ -7531,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>79</v>
       </c>
@@ -7542,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>80</v>
       </c>
@@ -7553,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>81</v>
       </c>
@@ -7564,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>82</v>
       </c>
@@ -7575,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>87</v>
       </c>
@@ -7586,7 +7698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>92</v>
       </c>
@@ -7597,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>93</v>
       </c>
@@ -7608,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>94</v>
       </c>
@@ -7619,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>95</v>
       </c>
@@ -7630,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>96</v>
       </c>
@@ -7641,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>97</v>
       </c>
@@ -7652,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>98</v>
       </c>
@@ -7663,7 +7775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>99</v>
       </c>
@@ -7674,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>100</v>
       </c>
@@ -7685,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>102</v>
       </c>
@@ -7696,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>104</v>
       </c>
@@ -7707,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>106</v>
       </c>
@@ -7718,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>112</v>
       </c>
@@ -7729,7 +7841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>116</v>
       </c>
@@ -7740,7 +7852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>118</v>
       </c>
@@ -7751,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>119</v>
       </c>
@@ -7762,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>120</v>
       </c>
@@ -7773,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>122</v>
       </c>
@@ -7784,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>172</v>
       </c>
@@ -7795,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>123</v>
       </c>
@@ -7806,7 +7918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>128</v>
       </c>
@@ -7817,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>129</v>
       </c>
@@ -7828,7 +7940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>130</v>
       </c>
@@ -7839,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>131</v>
       </c>
@@ -7850,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>132</v>
       </c>
@@ -7861,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>133</v>
       </c>
@@ -7872,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>134</v>
       </c>
@@ -7883,7 +7995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>135</v>
       </c>
@@ -7894,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>136</v>
       </c>
@@ -7905,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>137</v>
       </c>
@@ -7916,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>138</v>
       </c>
@@ -7927,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>140</v>
       </c>
@@ -7938,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>141</v>
       </c>
@@ -7949,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>143</v>
       </c>
@@ -7960,7 +8072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>151</v>
       </c>
@@ -7971,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>152</v>
       </c>
@@ -7982,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>153</v>
       </c>
@@ -7993,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>154</v>
       </c>
@@ -8004,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>155</v>
       </c>
@@ -8015,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>156</v>
       </c>
@@ -8026,7 +8138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>157</v>
       </c>
@@ -8037,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>158</v>
       </c>
@@ -8048,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>159</v>
       </c>
@@ -8059,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>160</v>
       </c>
@@ -8070,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>161</v>
       </c>
@@ -8081,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>162</v>
       </c>
@@ -8092,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>163</v>
       </c>
@@ -8103,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>165</v>
       </c>
@@ -8114,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>166</v>
       </c>
@@ -8125,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>167</v>
       </c>
@@ -8136,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>168</v>
       </c>
@@ -8147,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>169</v>
       </c>
@@ -8158,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>170</v>
       </c>
@@ -8169,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>173</v>
       </c>
@@ -8180,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>174</v>
       </c>
@@ -8191,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>39</v>
       </c>
@@ -8202,7 +8314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>40</v>
       </c>
@@ -8213,7 +8325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>42</v>
       </c>
@@ -8224,7 +8336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>49</v>
       </c>
@@ -8235,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>83</v>
       </c>
@@ -8246,7 +8358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>107</v>
       </c>
@@ -8257,7 +8369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>27</v>
       </c>
@@ -8268,7 +8380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>30</v>
       </c>
@@ -8279,7 +8391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>38</v>
       </c>
@@ -8290,7 +8402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>61</v>
       </c>
@@ -8301,7 +8413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>125</v>
       </c>
@@ -8312,7 +8424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>175</v>
       </c>
@@ -8323,7 +8435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>139</v>
       </c>
@@ -8334,7 +8446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>149</v>
       </c>
@@ -8345,7 +8457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>34</v>
       </c>
@@ -8356,7 +8468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>88</v>
       </c>
@@ -8367,7 +8479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>148</v>
       </c>
@@ -8378,7 +8490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>51</v>
       </c>
@@ -8389,7 +8501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>108</v>
       </c>
@@ -8400,7 +8512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>115</v>
       </c>
@@ -8411,7 +8523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>127</v>
       </c>
@@ -8422,7 +8534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>32</v>
       </c>
@@ -8433,7 +8545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>58</v>
       </c>
@@ -8444,7 +8556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>89</v>
       </c>
@@ -8455,7 +8567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>164</v>
       </c>
@@ -8466,7 +8578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>22</v>
       </c>
@@ -8477,7 +8589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>43</v>
       </c>
@@ -8488,7 +8600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>90</v>
       </c>
@@ -8499,7 +8611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>91</v>
       </c>
@@ -8510,7 +8622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>124</v>
       </c>
@@ -8521,7 +8633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>65</v>
       </c>
@@ -8532,7 +8644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>73</v>
       </c>
@@ -8543,7 +8655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>85</v>
       </c>
@@ -8554,7 +8666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>86</v>
       </c>
@@ -8565,7 +8677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>109</v>
       </c>
@@ -8576,7 +8688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>114</v>
       </c>
@@ -8587,7 +8699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>144</v>
       </c>
@@ -8598,7 +8710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>145</v>
       </c>
@@ -8609,7 +8721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>147</v>
       </c>
@@ -8620,7 +8732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>50</v>
       </c>
@@ -8631,7 +8743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>110</v>
       </c>
@@ -8642,7 +8754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>150</v>
       </c>
@@ -8653,7 +8765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>84</v>
       </c>
@@ -8664,7 +8776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>113</v>
       </c>
@@ -8675,7 +8787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>126</v>
       </c>
@@ -8686,7 +8798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>31</v>
       </c>
@@ -8697,7 +8809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>117</v>
       </c>
@@ -8708,7 +8820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>121</v>
       </c>
@@ -8719,7 +8831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>142</v>
       </c>
@@ -8730,7 +8842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>171</v>
       </c>
@@ -8741,7 +8853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>68</v>
       </c>
@@ -8752,7 +8864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>101</v>
       </c>
@@ -8763,7 +8875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>76</v>
       </c>
@@ -8774,7 +8886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>111</v>
       </c>
@@ -8785,7 +8897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>105</v>
       </c>
@@ -8796,7 +8908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>146</v>
       </c>
@@ -8807,7 +8919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>72</v>
       </c>
@@ -8818,7 +8930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>103</v>
       </c>
@@ -8829,7 +8941,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>69</v>
       </c>
@@ -8840,7 +8952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
     </row>
   </sheetData>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD11941-BDC4-40E5-A008-3BA2855B9151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDDB2ED-25CA-4CBE-B598-97FAE55E47B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="480" yWindow="-108" windowWidth="22668" windowHeight="13176" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -683,10 +683,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$36</c:f>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -791,16 +791,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$36</c:f>
+              <c:f>Sheet1!$N$2:$N$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -905,6 +908,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>74.096385542168676</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75.301204819277103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,10 +950,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$36</c:f>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1052,16 +1058,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$36</c:f>
+              <c:f>Sheet1!$O$2:$O$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1166,6 +1175,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>64.201570680628279</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>64.986910994764401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,10 +1217,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$36</c:f>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1313,16 +1325,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$36</c:f>
+              <c:f>Sheet1!$P$2:$P$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1427,6 +1442,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>62.048192771084338</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63.855421686746986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,10 +1484,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$36</c:f>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1574,16 +1592,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$36</c:f>
+              <c:f>Sheet1!$Q$2:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1687,6 +1708,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1727,10 +1751,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$36</c:f>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1835,16 +1859,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$36</c:f>
+              <c:f>Sheet1!$R$2:$R$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1948,6 +1975,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2203,10 +2233,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$36</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2311,16 +2341,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$36</c:f>
+              <c:f>Sheet1!$N$2:$N$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -2425,6 +2458,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>74.096385542168676</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75.301204819277103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2453,10 +2489,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$36</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2561,16 +2597,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$36</c:f>
+              <c:f>Sheet1!$O$2:$O$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -2675,6 +2714,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>64.201570680628279</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>64.986910994764401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2703,10 +2745,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$36</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2811,16 +2853,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$36</c:f>
+              <c:f>Sheet1!$P$2:$P$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -2925,6 +2970,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>62.048192771084338</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63.855421686746986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2953,10 +3001,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$36</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -3061,16 +3109,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$36</c:f>
+              <c:f>Sheet1!$Q$2:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3174,6 +3225,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -3203,10 +3257,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$36</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -3311,16 +3365,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$36</c:f>
+              <c:f>Sheet1!$R$2:$R$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -3424,6 +3481,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -5143,32 +5203,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="F8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5215,7 +5275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44054</v>
       </c>
@@ -5271,7 +5331,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44055</v>
       </c>
@@ -5327,7 +5387,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44056</v>
       </c>
@@ -5383,7 +5443,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44057</v>
       </c>
@@ -5438,7 +5498,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44058</v>
       </c>
@@ -5493,7 +5553,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44064</v>
       </c>
@@ -5548,7 +5608,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44069</v>
       </c>
@@ -5603,7 +5663,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44070</v>
       </c>
@@ -5658,7 +5718,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44081</v>
       </c>
@@ -5713,7 +5773,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44082</v>
       </c>
@@ -5768,7 +5828,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44083</v>
       </c>
@@ -5823,7 +5883,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44084</v>
       </c>
@@ -5878,7 +5938,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44085</v>
       </c>
@@ -5933,7 +5993,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44089</v>
       </c>
@@ -5988,7 +6048,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44090</v>
       </c>
@@ -6043,7 +6103,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44091</v>
       </c>
@@ -6098,7 +6158,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44097</v>
       </c>
@@ -6153,7 +6213,7 @@
         <v>38.967136150234744</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44098</v>
       </c>
@@ -6208,7 +6268,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44099</v>
       </c>
@@ -6263,7 +6323,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44102</v>
       </c>
@@ -6318,7 +6378,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44103</v>
       </c>
@@ -6373,7 +6433,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44104</v>
       </c>
@@ -6428,7 +6488,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44110</v>
       </c>
@@ -6483,7 +6543,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44113</v>
       </c>
@@ -6538,7 +6598,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44116</v>
       </c>
@@ -6593,7 +6653,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44117</v>
       </c>
@@ -6648,7 +6708,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44118</v>
       </c>
@@ -6703,7 +6763,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44119</v>
       </c>
@@ -6758,7 +6818,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44120</v>
       </c>
@@ -6813,7 +6873,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44123</v>
       </c>
@@ -6868,7 +6928,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44124</v>
       </c>
@@ -6923,7 +6983,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44125</v>
       </c>
@@ -6978,7 +7038,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44126</v>
       </c>
@@ -7033,7 +7093,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44127</v>
       </c>
@@ -7088,7 +7148,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44130</v>
       </c>
@@ -7143,19 +7203,72 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B37" s="4">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>166</v>
+      </c>
+      <c r="E37">
+        <v>125</v>
+      </c>
+      <c r="F37">
+        <v>1528</v>
+      </c>
+      <c r="G37">
+        <v>993</v>
+      </c>
+      <c r="H37">
+        <v>106</v>
+      </c>
+      <c r="I37">
+        <v>20</v>
+      </c>
+      <c r="J37">
+        <v>14</v>
+      </c>
+      <c r="K37">
+        <v>213</v>
+      </c>
+      <c r="L37">
+        <v>86</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" ref="N37" si="149">100*E37/D37</f>
+        <v>75.301204819277103</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" ref="O37" si="150">100*G37/F37</f>
+        <v>64.986910994764401</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" ref="P37" si="151">100*H37/D37</f>
+        <v>63.855421686746986</v>
+      </c>
+      <c r="Q37" s="3">
+        <f t="shared" ref="Q37" si="152">100*J37/I37</f>
+        <v>70</v>
+      </c>
+      <c r="R37" s="3">
+        <f t="shared" ref="R37" si="153">100*L37/K37</f>
+        <v>40.375586854460096</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
     </row>
   </sheetData>
@@ -7171,17 +7284,17 @@
   <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L90" sqref="L90"/>
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -7192,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -7203,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -7214,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -7225,7 +7338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -7236,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -7247,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -7258,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -7269,7 +7382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -7280,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -7291,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -7302,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -7313,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -7324,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -7335,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -7346,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -7357,7 +7470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -7368,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -7379,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
@@ -7390,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
@@ -7401,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
@@ -7412,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
@@ -7423,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -7434,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
@@ -7445,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -7456,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -7467,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>55</v>
       </c>
@@ -7478,7 +7591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
@@ -7489,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
@@ -7500,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>59</v>
       </c>
@@ -7511,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
@@ -7522,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>62</v>
       </c>
@@ -7533,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>63</v>
       </c>
@@ -7544,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
@@ -7555,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>66</v>
       </c>
@@ -7566,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>67</v>
       </c>
@@ -7577,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>70</v>
       </c>
@@ -7588,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>71</v>
       </c>
@@ -7599,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>74</v>
       </c>
@@ -7610,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>75</v>
       </c>
@@ -7621,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>77</v>
       </c>
@@ -7632,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>78</v>
       </c>
@@ -7643,7 +7756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>79</v>
       </c>
@@ -7654,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>80</v>
       </c>
@@ -7665,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>81</v>
       </c>
@@ -7676,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>82</v>
       </c>
@@ -7687,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>87</v>
       </c>
@@ -7698,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>92</v>
       </c>
@@ -7709,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>93</v>
       </c>
@@ -7720,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>94</v>
       </c>
@@ -7731,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>95</v>
       </c>
@@ -7742,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>96</v>
       </c>
@@ -7753,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>97</v>
       </c>
@@ -7764,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>98</v>
       </c>
@@ -7775,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>99</v>
       </c>
@@ -7786,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>100</v>
       </c>
@@ -7797,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>102</v>
       </c>
@@ -7808,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>104</v>
       </c>
@@ -7819,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>106</v>
       </c>
@@ -7830,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>112</v>
       </c>
@@ -7841,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>116</v>
       </c>
@@ -7852,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>118</v>
       </c>
@@ -7863,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>119</v>
       </c>
@@ -7874,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>120</v>
       </c>
@@ -7885,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>122</v>
       </c>
@@ -7896,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>172</v>
       </c>
@@ -7907,7 +8020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>123</v>
       </c>
@@ -7918,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>128</v>
       </c>
@@ -7929,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>129</v>
       </c>
@@ -7940,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>130</v>
       </c>
@@ -7951,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>131</v>
       </c>
@@ -7962,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>132</v>
       </c>
@@ -7973,7 +8086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>133</v>
       </c>
@@ -7984,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>134</v>
       </c>
@@ -7995,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>135</v>
       </c>
@@ -8006,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>136</v>
       </c>
@@ -8017,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>137</v>
       </c>
@@ -8028,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>138</v>
       </c>
@@ -8039,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>140</v>
       </c>
@@ -8050,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>141</v>
       </c>
@@ -8061,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>143</v>
       </c>
@@ -8072,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>151</v>
       </c>
@@ -8083,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>152</v>
       </c>
@@ -8094,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>153</v>
       </c>
@@ -8105,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>154</v>
       </c>
@@ -8116,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>155</v>
       </c>
@@ -8127,7 +8240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>156</v>
       </c>
@@ -8138,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>157</v>
       </c>
@@ -8149,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>158</v>
       </c>
@@ -8160,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>159</v>
       </c>
@@ -8171,7 +8284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>160</v>
       </c>
@@ -8182,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>161</v>
       </c>
@@ -8193,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>162</v>
       </c>
@@ -8204,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>163</v>
       </c>
@@ -8215,7 +8328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>165</v>
       </c>
@@ -8226,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>166</v>
       </c>
@@ -8237,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>167</v>
       </c>
@@ -8248,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>168</v>
       </c>
@@ -8259,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>169</v>
       </c>
@@ -8270,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>170</v>
       </c>
@@ -8281,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>173</v>
       </c>
@@ -8292,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>174</v>
       </c>
@@ -8303,64 +8416,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" s="5">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" s="5">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B105" s="5">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B106" s="5">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B107" s="5">
         <v>0.72729999999999995</v>
-      </c>
-      <c r="C103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B104" s="5">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B105" s="5">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B106" s="5">
-        <v>1</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B107" s="5">
-        <v>0</v>
       </c>
       <c r="C107">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="B108" s="5">
         <v>0</v>
@@ -8369,42 +8482,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111" s="5">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B109" s="5">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B110" s="5">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B111" s="5">
-        <v>0.63639999999999997</v>
-      </c>
-      <c r="C111">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="B112" s="5">
         <v>0</v>
@@ -8413,9 +8526,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="B113" s="5">
         <v>0</v>
@@ -8424,18 +8537,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="B114" s="5">
-        <v>0</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="C114">
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>139</v>
       </c>
@@ -8446,7 +8559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>149</v>
       </c>
@@ -8457,7 +8570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>34</v>
       </c>
@@ -8468,7 +8581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>88</v>
       </c>
@@ -8479,7 +8592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>148</v>
       </c>
@@ -8490,7 +8603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>51</v>
       </c>
@@ -8501,7 +8614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>108</v>
       </c>
@@ -8512,7 +8625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>115</v>
       </c>
@@ -8523,7 +8636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>127</v>
       </c>
@@ -8534,7 +8647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>32</v>
       </c>
@@ -8545,7 +8658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>58</v>
       </c>
@@ -8556,7 +8669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>89</v>
       </c>
@@ -8567,7 +8680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>164</v>
       </c>
@@ -8578,7 +8691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>22</v>
       </c>
@@ -8589,7 +8702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>43</v>
       </c>
@@ -8600,7 +8713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>90</v>
       </c>
@@ -8611,7 +8724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>91</v>
       </c>
@@ -8622,7 +8735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>124</v>
       </c>
@@ -8633,7 +8746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>65</v>
       </c>
@@ -8644,7 +8757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>73</v>
       </c>
@@ -8655,7 +8768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>85</v>
       </c>
@@ -8666,7 +8779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>86</v>
       </c>
@@ -8677,7 +8790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>109</v>
       </c>
@@ -8688,7 +8801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>114</v>
       </c>
@@ -8699,7 +8812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>144</v>
       </c>
@@ -8710,7 +8823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>145</v>
       </c>
@@ -8721,7 +8834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>147</v>
       </c>
@@ -8732,7 +8845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>50</v>
       </c>
@@ -8743,7 +8856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>110</v>
       </c>
@@ -8754,7 +8867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>150</v>
       </c>
@@ -8765,7 +8878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>84</v>
       </c>
@@ -8776,7 +8889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>113</v>
       </c>
@@ -8787,7 +8900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>126</v>
       </c>
@@ -8798,7 +8911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>31</v>
       </c>
@@ -8809,7 +8922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>117</v>
       </c>
@@ -8820,7 +8933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>121</v>
       </c>
@@ -8831,7 +8944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>142</v>
       </c>
@@ -8842,7 +8955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>171</v>
       </c>
@@ -8853,7 +8966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>68</v>
       </c>
@@ -8864,7 +8977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>101</v>
       </c>
@@ -8875,7 +8988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>76</v>
       </c>
@@ -8886,7 +8999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>111</v>
       </c>
@@ -8897,7 +9010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>105</v>
       </c>
@@ -8908,7 +9021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>146</v>
       </c>
@@ -8919,7 +9032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>72</v>
       </c>
@@ -8930,7 +9043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>103</v>
       </c>
@@ -8941,7 +9054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>69</v>
       </c>
@@ -8952,12 +9065,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C161">
-    <sortCondition ref="C8:C161"/>
+    <sortCondition ref="C110:C161"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDDB2ED-25CA-4CBE-B598-97FAE55E47B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E522C5-7FA5-42A5-9BEC-F0439CD20D7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="-108" windowWidth="22668" windowHeight="13176" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -683,10 +683,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:f>Sheet1!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -794,16 +794,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$37</c:f>
+              <c:f>Sheet1!$N$2:$N$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -911,6 +914,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>75.301204819277103</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77.108433734939766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,10 +956,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:f>Sheet1!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1061,16 +1067,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$37</c:f>
+              <c:f>Sheet1!$O$2:$O$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1178,6 +1187,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>64.986910994764401</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65.903141361256544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,10 +1229,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:f>Sheet1!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1328,16 +1340,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$37</c:f>
+              <c:f>Sheet1!$P$2:$P$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1445,6 +1460,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>63.855421686746986</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65.662650602409641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,10 +1502,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:f>Sheet1!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1595,16 +1613,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$37</c:f>
+              <c:f>Sheet1!$Q$2:$Q$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1711,6 +1732,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1751,10 +1775,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:f>Sheet1!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1862,16 +1886,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$37</c:f>
+              <c:f>Sheet1!$R$2:$R$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -1978,6 +2005,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2233,10 +2263,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2344,16 +2374,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$37</c:f>
+              <c:f>Sheet1!$N$2:$N$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -2461,6 +2494,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>75.301204819277103</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77.108433734939766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2489,10 +2525,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2600,16 +2636,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$37</c:f>
+              <c:f>Sheet1!$O$2:$O$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -2717,6 +2756,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>64.986910994764401</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65.903141361256544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2745,10 +2787,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2856,16 +2898,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$37</c:f>
+              <c:f>Sheet1!$P$2:$P$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -2973,6 +3018,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>63.855421686746986</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65.662650602409641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3001,10 +3049,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -3112,16 +3160,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$37</c:f>
+              <c:f>Sheet1!$Q$2:$Q$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3228,6 +3279,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -3257,10 +3311,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -3368,16 +3422,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$37</c:f>
+              <c:f>Sheet1!$R$2:$R$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -3484,6 +3541,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -5203,32 +5263,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5275,7 +5335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44054</v>
       </c>
@@ -5331,7 +5391,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44055</v>
       </c>
@@ -5387,7 +5447,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44056</v>
       </c>
@@ -5443,7 +5503,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44057</v>
       </c>
@@ -5498,7 +5558,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44058</v>
       </c>
@@ -5553,7 +5613,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44064</v>
       </c>
@@ -5608,7 +5668,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44069</v>
       </c>
@@ -5663,7 +5723,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44070</v>
       </c>
@@ -5718,7 +5778,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44081</v>
       </c>
@@ -5773,7 +5833,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44082</v>
       </c>
@@ -5828,7 +5888,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44083</v>
       </c>
@@ -5883,7 +5943,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44084</v>
       </c>
@@ -5938,7 +5998,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44085</v>
       </c>
@@ -5993,7 +6053,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44089</v>
       </c>
@@ -6048,7 +6108,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44090</v>
       </c>
@@ -6103,7 +6163,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44091</v>
       </c>
@@ -6158,7 +6218,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44097</v>
       </c>
@@ -6213,7 +6273,7 @@
         <v>38.967136150234744</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44098</v>
       </c>
@@ -6268,7 +6328,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44099</v>
       </c>
@@ -6323,7 +6383,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44102</v>
       </c>
@@ -6378,7 +6438,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44103</v>
       </c>
@@ -6433,7 +6493,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44104</v>
       </c>
@@ -6488,7 +6548,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44110</v>
       </c>
@@ -6543,7 +6603,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44113</v>
       </c>
@@ -6598,7 +6658,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44116</v>
       </c>
@@ -6653,7 +6713,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44117</v>
       </c>
@@ -6708,7 +6768,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44118</v>
       </c>
@@ -6763,7 +6823,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44119</v>
       </c>
@@ -6818,7 +6878,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44120</v>
       </c>
@@ -6873,7 +6933,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44123</v>
       </c>
@@ -6928,7 +6988,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44124</v>
       </c>
@@ -6983,7 +7043,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44125</v>
       </c>
@@ -7038,7 +7098,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44126</v>
       </c>
@@ -7093,7 +7153,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44127</v>
       </c>
@@ -7148,7 +7208,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44130</v>
       </c>
@@ -7203,7 +7263,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44131</v>
       </c>
@@ -7258,17 +7318,69 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>44132</v>
+      </c>
+      <c r="B38" s="4">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>166</v>
+      </c>
+      <c r="E38">
+        <v>128</v>
+      </c>
+      <c r="F38">
+        <v>1528</v>
+      </c>
+      <c r="G38">
+        <v>1007</v>
+      </c>
+      <c r="H38">
+        <v>109</v>
+      </c>
+      <c r="I38">
+        <v>20</v>
+      </c>
+      <c r="J38">
+        <v>14</v>
+      </c>
+      <c r="K38">
+        <v>213</v>
+      </c>
+      <c r="L38">
+        <v>86</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" ref="N38" si="154">100*E38/D38</f>
+        <v>77.108433734939766</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" ref="O38" si="155">100*G38/F38</f>
+        <v>65.903141361256544</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" ref="P38" si="156">100*H38/D38</f>
+        <v>65.662650602409641</v>
+      </c>
+      <c r="Q38" s="3">
+        <f t="shared" ref="Q38" si="157">100*J38/I38</f>
+        <v>70</v>
+      </c>
+      <c r="R38" s="3">
+        <f t="shared" ref="R38" si="158">100*L38/K38</f>
+        <v>40.375586854460096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="P39" s="3"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
     </row>
   </sheetData>
@@ -7281,20 +7393,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60F2A9E-CB35-4818-B2AA-21716033EEE9}">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:XFD109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -7305,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -7316,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -7327,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -7338,7 +7450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -7349,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -7360,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -7371,7 +7483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -7382,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -7393,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -7404,7 +7516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -7415,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -7426,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -7437,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -7448,1065 +7560,1065 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="5">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="5">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="5">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="5">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="5">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="B49" s="5">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="5">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="5">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="5">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="5">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="5">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B55" s="5">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="5">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="5">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="5">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="5">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="5">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+      <c r="B61" s="5">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="5">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="5">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+      <c r="B63" s="5">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B60" s="5">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="B64" s="5">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="5">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B62" s="5">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="B66" s="5">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B63" s="5">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="B67" s="5">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="5">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+      <c r="B68" s="5">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B65" s="5">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="B69" s="5">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B66" s="5">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B67" s="5">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+      <c r="B71" s="5">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="5">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="5">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="5">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+      <c r="B75" s="5">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B69" s="5">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+      <c r="B76" s="5">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B70" s="5">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="B77" s="5">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B71" s="5">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+      <c r="B78" s="5">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="5">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+      <c r="B79" s="5">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="5">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+      <c r="B80" s="5">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B74" s="5">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+      <c r="B81" s="5">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B75" s="5">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
+      <c r="B82" s="5">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="5">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+      <c r="B83" s="5">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B77" s="5">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+      <c r="B84" s="5">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B78" s="5">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
+      <c r="B85" s="5">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="5">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
+      <c r="B86" s="5">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B80" s="5">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
+      <c r="B87" s="5">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B81" s="5">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
+      <c r="B88" s="5">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B82" s="5">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
+      <c r="B89" s="5">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="5">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
+      <c r="B90" s="5">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B84" s="5">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+      <c r="B91" s="5">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B85" s="5">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
+      <c r="B92" s="5">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B86" s="5">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
+      <c r="B93" s="5">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B87" s="5">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
+      <c r="B94" s="5">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B88" s="5">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
+      <c r="B95" s="5">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B89" s="5">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
+      <c r="B96" s="5">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B90" s="5">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
+      <c r="B97" s="5">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B91" s="5">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
+      <c r="B98" s="5">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B92" s="5">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
+      <c r="B99" s="5">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B93" s="5">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
+      <c r="B100" s="5">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B94" s="5">
-        <v>1</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
+      <c r="B101" s="5">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B95" s="5">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
+      <c r="B102" s="5">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B96" s="5">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
+      <c r="B103" s="5">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B97" s="5">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
+      <c r="B104" s="5">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B98" s="5">
-        <v>1</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
+      <c r="B105" s="5">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B99" s="5">
-        <v>1</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
+      <c r="B106" s="5">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B100" s="5">
-        <v>1</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
+      <c r="B107" s="5">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B101" s="5">
-        <v>1</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
+      <c r="B108" s="5">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B102" s="5">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B103" s="5">
-        <v>1</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B104" s="5">
-        <v>1</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B105" s="5">
-        <v>1</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B106" s="5">
-        <v>1</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
+      <c r="B109" s="5">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B110" s="5">
         <v>0.72729999999999995</v>
-      </c>
-      <c r="C107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B108" s="5">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B109" s="5">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B110" s="5">
-        <v>0</v>
       </c>
       <c r="C110">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="B111" s="5">
         <v>0</v>
@@ -8515,42 +8627,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B112" s="5">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B113" s="5">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="B114" s="5">
-        <v>0.63639999999999997</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="B115" s="5">
         <v>0</v>
@@ -8559,42 +8671,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="B116" s="5">
-        <v>0</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="C116">
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="B117" s="5">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B118" s="5">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B118" s="5">
-        <v>0</v>
-      </c>
-      <c r="C118">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="B119" s="5">
         <v>0</v>
@@ -8603,20 +8715,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" s="5">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B120" s="5">
-        <v>0</v>
-      </c>
-      <c r="C120">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="B121" s="5">
         <v>0</v>
@@ -8625,9 +8737,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B122" s="5">
         <v>0</v>
@@ -8636,9 +8748,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B123" s="5">
         <v>0</v>
@@ -8647,7 +8759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>32</v>
       </c>
@@ -8658,7 +8770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>58</v>
       </c>
@@ -8669,7 +8781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>89</v>
       </c>
@@ -8680,7 +8792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>164</v>
       </c>
@@ -8691,7 +8803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>22</v>
       </c>
@@ -8702,7 +8814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>43</v>
       </c>
@@ -8713,7 +8825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>90</v>
       </c>
@@ -8724,7 +8836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>91</v>
       </c>
@@ -8735,7 +8847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>124</v>
       </c>
@@ -8746,7 +8858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>65</v>
       </c>
@@ -8757,7 +8869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>73</v>
       </c>
@@ -8768,7 +8880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>85</v>
       </c>
@@ -8779,7 +8891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>86</v>
       </c>
@@ -8790,7 +8902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>109</v>
       </c>
@@ -8801,7 +8913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>114</v>
       </c>
@@ -8812,7 +8924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>144</v>
       </c>
@@ -8823,7 +8935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>145</v>
       </c>
@@ -8834,7 +8946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>147</v>
       </c>
@@ -8845,7 +8957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>50</v>
       </c>
@@ -8856,7 +8968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>110</v>
       </c>
@@ -8867,7 +8979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>150</v>
       </c>
@@ -8878,7 +8990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>84</v>
       </c>
@@ -8889,7 +9001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>113</v>
       </c>
@@ -8900,7 +9012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>126</v>
       </c>
@@ -8911,7 +9023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>31</v>
       </c>
@@ -8922,7 +9034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>117</v>
       </c>
@@ -8933,7 +9045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>121</v>
       </c>
@@ -8944,7 +9056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>142</v>
       </c>
@@ -8955,7 +9067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>171</v>
       </c>
@@ -8966,7 +9078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>68</v>
       </c>
@@ -8977,7 +9089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>101</v>
       </c>
@@ -8988,7 +9100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>76</v>
       </c>
@@ -8999,7 +9111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>111</v>
       </c>
@@ -9010,7 +9122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>105</v>
       </c>
@@ -9021,7 +9133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>146</v>
       </c>
@@ -9032,7 +9144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>72</v>
       </c>
@@ -9043,7 +9155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>103</v>
       </c>
@@ -9054,7 +9166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>69</v>
       </c>
@@ -9065,12 +9177,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="5"/>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C161">
-    <sortCondition ref="C110:C161"/>
+    <sortCondition ref="C2:C161"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E522C5-7FA5-42A5-9BEC-F0439CD20D7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF36BE-2FF6-4983-B380-27275F5AB102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="480" yWindow="-108" windowWidth="22668" windowHeight="13176" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -683,10 +683,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$38</c:f>
+              <c:f>Sheet1!$B$2:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -797,16 +797,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$38</c:f>
+              <c:f>Sheet1!$N$2:$N$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -917,6 +920,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>77.108433734939766</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>76.92307692307692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -956,10 +962,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$38</c:f>
+              <c:f>Sheet1!$B$2:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1070,16 +1076,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$38</c:f>
+              <c:f>Sheet1!$O$2:$O$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1190,6 +1199,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>65.903141361256544</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65.579014715291109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1229,10 +1241,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$38</c:f>
+              <c:f>Sheet1!$B$2:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1343,16 +1355,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$38</c:f>
+              <c:f>Sheet1!$P$2:$P$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1463,6 +1478,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>65.662650602409641</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>64.49704142011835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,10 +1520,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$38</c:f>
+              <c:f>Sheet1!$B$2:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1616,16 +1634,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$38</c:f>
+              <c:f>Sheet1!$Q$2:$Q$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1736,6 +1757,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>53.846153846153847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1775,10 +1799,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$38</c:f>
+              <c:f>Sheet1!$B$2:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1889,16 +1913,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$38</c:f>
+              <c:f>Sheet1!$R$2:$R$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -2008,6 +2035,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2263,10 +2293,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2377,16 +2407,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$38</c:f>
+              <c:f>Sheet1!$N$2:$N$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -2497,6 +2530,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>77.108433734939766</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>76.92307692307692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2525,10 +2561,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2639,16 +2675,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$38</c:f>
+              <c:f>Sheet1!$O$2:$O$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -2759,6 +2798,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>65.903141361256544</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65.579014715291109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2787,10 +2829,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2901,16 +2943,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$38</c:f>
+              <c:f>Sheet1!$P$2:$P$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -3021,6 +3066,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>65.662650602409641</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>64.49704142011835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3049,10 +3097,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -3163,16 +3211,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$38</c:f>
+              <c:f>Sheet1!$Q$2:$Q$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3283,6 +3334,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>53.846153846153847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3311,10 +3365,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -3425,16 +3479,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$38</c:f>
+              <c:f>Sheet1!$R$2:$R$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -3544,6 +3601,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -5264,31 +5324,31 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5335,7 +5395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44054</v>
       </c>
@@ -5391,7 +5451,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44055</v>
       </c>
@@ -5447,7 +5507,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44056</v>
       </c>
@@ -5503,7 +5563,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44057</v>
       </c>
@@ -5558,7 +5618,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44058</v>
       </c>
@@ -5613,7 +5673,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44064</v>
       </c>
@@ -5668,7 +5728,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44069</v>
       </c>
@@ -5723,7 +5783,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44070</v>
       </c>
@@ -5778,7 +5838,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44081</v>
       </c>
@@ -5833,7 +5893,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44082</v>
       </c>
@@ -5888,7 +5948,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44083</v>
       </c>
@@ -5943,7 +6003,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44084</v>
       </c>
@@ -5998,7 +6058,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44085</v>
       </c>
@@ -6053,7 +6113,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44089</v>
       </c>
@@ -6108,7 +6168,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44090</v>
       </c>
@@ -6163,7 +6223,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44091</v>
       </c>
@@ -6218,7 +6278,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44097</v>
       </c>
@@ -6273,7 +6333,7 @@
         <v>38.967136150234744</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44098</v>
       </c>
@@ -6328,7 +6388,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44099</v>
       </c>
@@ -6383,7 +6443,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44102</v>
       </c>
@@ -6438,7 +6498,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44103</v>
       </c>
@@ -6493,7 +6553,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44104</v>
       </c>
@@ -6548,7 +6608,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44110</v>
       </c>
@@ -6603,7 +6663,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44113</v>
       </c>
@@ -6658,7 +6718,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44116</v>
       </c>
@@ -6713,7 +6773,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44117</v>
       </c>
@@ -6768,7 +6828,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44118</v>
       </c>
@@ -6823,7 +6883,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44119</v>
       </c>
@@ -6878,7 +6938,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44120</v>
       </c>
@@ -6933,7 +6993,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44123</v>
       </c>
@@ -6988,7 +7048,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44124</v>
       </c>
@@ -7043,7 +7103,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44125</v>
       </c>
@@ -7098,7 +7158,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44126</v>
       </c>
@@ -7153,7 +7213,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44127</v>
       </c>
@@ -7208,7 +7268,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44130</v>
       </c>
@@ -7263,7 +7323,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44131</v>
       </c>
@@ -7318,7 +7378,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44132</v>
       </c>
@@ -7373,14 +7433,65 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B39" s="4">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>169</v>
+      </c>
+      <c r="E39">
+        <v>130</v>
+      </c>
+      <c r="F39">
+        <v>1563</v>
+      </c>
+      <c r="G39">
+        <v>1025</v>
+      </c>
+      <c r="H39">
+        <v>109</v>
+      </c>
+      <c r="I39">
+        <v>26</v>
+      </c>
+      <c r="J39">
+        <v>14</v>
+      </c>
+      <c r="K39">
+        <v>213</v>
+      </c>
+      <c r="L39">
+        <v>86</v>
+      </c>
+      <c r="N39" s="3">
+        <f t="shared" ref="N39" si="159">100*E39/D39</f>
+        <v>76.92307692307692</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" ref="O39" si="160">100*G39/F39</f>
+        <v>65.579014715291109</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" ref="P39" si="161">100*H39/D39</f>
+        <v>64.49704142011835</v>
+      </c>
+      <c r="Q39" s="3">
+        <f t="shared" ref="Q39" si="162">100*J39/I39</f>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="R39" s="3">
+        <f t="shared" ref="R39" si="163">100*L39/K39</f>
+        <v>40.375586854460096</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
     </row>
   </sheetData>
@@ -7399,14 +7510,14 @@
       <selection activeCell="A109" sqref="A109:XFD109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -7417,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -7428,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -7439,7 +7550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -7450,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -7461,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -7472,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -7483,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -7494,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -7505,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -7516,7 +7627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -7527,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -7538,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -7549,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -7560,7 +7671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
@@ -7571,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -7582,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
@@ -7593,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -7604,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
@@ -7615,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -7626,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -7637,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -7648,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -7659,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -7670,7 +7781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -7681,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -7692,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
@@ -7703,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
@@ -7714,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -7725,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>55</v>
       </c>
@@ -7736,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>56</v>
       </c>
@@ -7747,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
@@ -7758,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
@@ -7769,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>60</v>
       </c>
@@ -7780,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>61</v>
       </c>
@@ -7791,7 +7902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>62</v>
       </c>
@@ -7802,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>63</v>
       </c>
@@ -7813,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>64</v>
       </c>
@@ -7824,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>66</v>
       </c>
@@ -7835,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>67</v>
       </c>
@@ -7846,7 +7957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>70</v>
       </c>
@@ -7857,7 +7968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>71</v>
       </c>
@@ -7868,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>74</v>
       </c>
@@ -7879,7 +7990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>75</v>
       </c>
@@ -7890,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>77</v>
       </c>
@@ -7901,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>78</v>
       </c>
@@ -7912,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>79</v>
       </c>
@@ -7923,7 +8034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>80</v>
       </c>
@@ -7934,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>81</v>
       </c>
@@ -7945,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>82</v>
       </c>
@@ -7956,7 +8067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>87</v>
       </c>
@@ -7967,7 +8078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>92</v>
       </c>
@@ -7978,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>93</v>
       </c>
@@ -7989,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>94</v>
       </c>
@@ -8000,7 +8111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>95</v>
       </c>
@@ -8011,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>96</v>
       </c>
@@ -8022,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>97</v>
       </c>
@@ -8033,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>98</v>
       </c>
@@ -8044,7 +8155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>99</v>
       </c>
@@ -8055,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>100</v>
       </c>
@@ -8066,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>102</v>
       </c>
@@ -8077,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>104</v>
       </c>
@@ -8088,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>106</v>
       </c>
@@ -8099,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>112</v>
       </c>
@@ -8110,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>116</v>
       </c>
@@ -8121,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>118</v>
       </c>
@@ -8132,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>119</v>
       </c>
@@ -8143,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>120</v>
       </c>
@@ -8154,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>122</v>
       </c>
@@ -8165,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>172</v>
       </c>
@@ -8176,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>123</v>
       </c>
@@ -8187,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>125</v>
       </c>
@@ -8198,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>127</v>
       </c>
@@ -8209,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>175</v>
       </c>
@@ -8220,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>128</v>
       </c>
@@ -8231,7 +8342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>129</v>
       </c>
@@ -8242,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>130</v>
       </c>
@@ -8253,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>131</v>
       </c>
@@ -8264,7 +8375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>132</v>
       </c>
@@ -8275,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>133</v>
       </c>
@@ -8286,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>134</v>
       </c>
@@ -8297,7 +8408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>135</v>
       </c>
@@ -8308,7 +8419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>136</v>
       </c>
@@ -8319,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>137</v>
       </c>
@@ -8330,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>138</v>
       </c>
@@ -8341,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>140</v>
       </c>
@@ -8352,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>141</v>
       </c>
@@ -8363,7 +8474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>143</v>
       </c>
@@ -8374,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>151</v>
       </c>
@@ -8385,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>152</v>
       </c>
@@ -8396,7 +8507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>153</v>
       </c>
@@ -8407,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>154</v>
       </c>
@@ -8418,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>155</v>
       </c>
@@ -8429,7 +8540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>156</v>
       </c>
@@ -8440,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>157</v>
       </c>
@@ -8451,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>158</v>
       </c>
@@ -8462,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>159</v>
       </c>
@@ -8473,7 +8584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>160</v>
       </c>
@@ -8484,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>161</v>
       </c>
@@ -8495,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>162</v>
       </c>
@@ -8506,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>163</v>
       </c>
@@ -8517,7 +8628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>165</v>
       </c>
@@ -8528,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>166</v>
       </c>
@@ -8539,7 +8650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>167</v>
       </c>
@@ -8550,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>168</v>
       </c>
@@ -8561,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>169</v>
       </c>
@@ -8572,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>170</v>
       </c>
@@ -8583,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>173</v>
       </c>
@@ -8594,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>174</v>
       </c>
@@ -8605,7 +8716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>39</v>
       </c>
@@ -8616,7 +8727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>42</v>
       </c>
@@ -8627,7 +8738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>83</v>
       </c>
@@ -8638,7 +8749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>107</v>
       </c>
@@ -8649,7 +8760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>27</v>
       </c>
@@ -8660,7 +8771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>30</v>
       </c>
@@ -8671,7 +8782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>38</v>
       </c>
@@ -8682,7 +8793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>139</v>
       </c>
@@ -8693,7 +8804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>149</v>
       </c>
@@ -8704,7 +8815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>88</v>
       </c>
@@ -8715,7 +8826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>148</v>
       </c>
@@ -8726,7 +8837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>51</v>
       </c>
@@ -8737,7 +8848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>108</v>
       </c>
@@ -8748,7 +8859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>115</v>
       </c>
@@ -8759,7 +8870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>32</v>
       </c>
@@ -8770,7 +8881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>58</v>
       </c>
@@ -8781,7 +8892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>89</v>
       </c>
@@ -8792,7 +8903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>164</v>
       </c>
@@ -8803,7 +8914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>22</v>
       </c>
@@ -8814,7 +8925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>43</v>
       </c>
@@ -8825,7 +8936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>90</v>
       </c>
@@ -8836,7 +8947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>91</v>
       </c>
@@ -8847,7 +8958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>124</v>
       </c>
@@ -8858,7 +8969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>65</v>
       </c>
@@ -8869,7 +8980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>73</v>
       </c>
@@ -8880,7 +8991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>85</v>
       </c>
@@ -8891,7 +9002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>86</v>
       </c>
@@ -8902,7 +9013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>109</v>
       </c>
@@ -8913,7 +9024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>114</v>
       </c>
@@ -8924,7 +9035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>144</v>
       </c>
@@ -8935,7 +9046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>145</v>
       </c>
@@ -8946,7 +9057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>147</v>
       </c>
@@ -8957,7 +9068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>50</v>
       </c>
@@ -8968,7 +9079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>110</v>
       </c>
@@ -8979,7 +9090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>150</v>
       </c>
@@ -8990,7 +9101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>84</v>
       </c>
@@ -9001,7 +9112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>113</v>
       </c>
@@ -9012,7 +9123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>126</v>
       </c>
@@ -9023,7 +9134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>31</v>
       </c>
@@ -9034,7 +9145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>117</v>
       </c>
@@ -9045,7 +9156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>121</v>
       </c>
@@ -9056,7 +9167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>142</v>
       </c>
@@ -9067,7 +9178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>171</v>
       </c>
@@ -9078,7 +9189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>68</v>
       </c>
@@ -9089,7 +9200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>101</v>
       </c>
@@ -9100,7 +9211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>76</v>
       </c>
@@ -9111,7 +9222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>111</v>
       </c>
@@ -9122,7 +9233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>105</v>
       </c>
@@ -9133,7 +9244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>146</v>
       </c>
@@ -9144,7 +9255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>72</v>
       </c>
@@ -9155,7 +9266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>103</v>
       </c>
@@ -9166,7 +9277,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>69</v>
       </c>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF36BE-2FF6-4983-B380-27275F5AB102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87345E7-68C7-45F7-AD08-5205A6D69EAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="-108" windowWidth="22668" windowHeight="13176" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
@@ -683,10 +683,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$39</c:f>
+              <c:f>Sheet1!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -800,16 +800,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$39</c:f>
+              <c:f>Sheet1!$N$2:$N$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -922,6 +925,9 @@
                   <c:v>77.108433734939766</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>76.92307692307692</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>76.92307692307692</c:v>
                 </c:pt>
               </c:numCache>
@@ -962,10 +968,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$39</c:f>
+              <c:f>Sheet1!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1079,16 +1085,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$39</c:f>
+              <c:f>Sheet1!$O$2:$O$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1202,6 +1211,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>65.579014715291109</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>66.688020499679695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1241,10 +1253,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$39</c:f>
+              <c:f>Sheet1!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1358,16 +1370,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$39</c:f>
+              <c:f>Sheet1!$P$2:$P$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1480,6 +1495,9 @@
                   <c:v>65.662650602409641</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>64.49704142011835</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>64.49704142011835</c:v>
                 </c:pt>
               </c:numCache>
@@ -1520,10 +1538,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$39</c:f>
+              <c:f>Sheet1!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1637,16 +1655,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$39</c:f>
+              <c:f>Sheet1!$Q$2:$Q$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1759,6 +1780,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>53.846153846153847</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>53.846153846153847</c:v>
                 </c:pt>
               </c:numCache>
@@ -1799,10 +1823,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$39</c:f>
+              <c:f>Sheet1!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1916,16 +1940,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$39</c:f>
+              <c:f>Sheet1!$R$2:$R$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -2038,6 +2065,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2293,10 +2323,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$39</c:f>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2410,16 +2440,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$39</c:f>
+              <c:f>Sheet1!$N$2:$N$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -2532,6 +2565,9 @@
                   <c:v>77.108433734939766</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>76.92307692307692</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>76.92307692307692</c:v>
                 </c:pt>
               </c:numCache>
@@ -2561,10 +2597,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$39</c:f>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2678,16 +2714,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$39</c:f>
+              <c:f>Sheet1!$O$2:$O$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -2801,6 +2840,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>65.579014715291109</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>66.688020499679695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2829,10 +2871,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$39</c:f>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2946,16 +2988,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$39</c:f>
+              <c:f>Sheet1!$P$2:$P$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -3068,6 +3113,9 @@
                   <c:v>65.662650602409641</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>64.49704142011835</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>64.49704142011835</c:v>
                 </c:pt>
               </c:numCache>
@@ -3097,10 +3145,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$39</c:f>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -3214,16 +3262,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$39</c:f>
+              <c:f>Sheet1!$Q$2:$Q$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3336,6 +3387,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>53.846153846153847</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>53.846153846153847</c:v>
                 </c:pt>
               </c:numCache>
@@ -3365,10 +3419,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$39</c:f>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -3482,16 +3536,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$39</c:f>
+              <c:f>Sheet1!$R$2:$R$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -3604,6 +3661,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -5323,8 +5383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7489,7 +7549,59 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="4"/>
+      <c r="A40" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B40" s="4">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>169</v>
+      </c>
+      <c r="E40">
+        <v>130</v>
+      </c>
+      <c r="F40">
+        <v>1561</v>
+      </c>
+      <c r="G40">
+        <v>1041</v>
+      </c>
+      <c r="H40">
+        <v>109</v>
+      </c>
+      <c r="I40">
+        <v>26</v>
+      </c>
+      <c r="J40">
+        <v>14</v>
+      </c>
+      <c r="K40">
+        <v>213</v>
+      </c>
+      <c r="L40">
+        <v>86</v>
+      </c>
+      <c r="N40" s="3">
+        <f t="shared" ref="N40" si="164">100*E40/D40</f>
+        <v>76.92307692307692</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" ref="O40" si="165">100*G40/F40</f>
+        <v>66.688020499679695</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" ref="P40" si="166">100*H40/D40</f>
+        <v>64.49704142011835</v>
+      </c>
+      <c r="Q40" s="3">
+        <f t="shared" ref="Q40" si="167">100*J40/I40</f>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="R40" s="3">
+        <f t="shared" ref="R40" si="168">100*L40/K40</f>
+        <v>40.375586854460096</v>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>

--- a/CoverageHistory.xlsx
+++ b/CoverageHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Java Projects\MIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Java Projects\MIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87345E7-68C7-45F7-AD08-5205A6D69EAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29054BB5-F118-459D-AF87-9092FD40CE88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="-108" windowWidth="22668" windowHeight="13176" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1E1EBE36-CBC3-40F1-926B-7C5FE1426F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Date</t>
   </si>
@@ -562,6 +562,12 @@
   </si>
   <si>
     <t>Fill holes in objects</t>
+  </si>
+  <si>
+    <t>Automatic registration</t>
+  </si>
+  <si>
+    <t>Manual registration</t>
   </si>
 </sst>
 </file>
@@ -683,10 +689,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$40</c:f>
+              <c:f>Sheet1!$B$2:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -803,16 +809,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$40</c:f>
+              <c:f>Sheet1!$N$2:$N$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -928,6 +937,9 @@
                   <c:v>76.92307692307692</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>76.92307692307692</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>76.92307692307692</c:v>
                 </c:pt>
               </c:numCache>
@@ -968,10 +980,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$40</c:f>
+              <c:f>Sheet1!$B$2:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1088,16 +1100,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$40</c:f>
+              <c:f>Sheet1!$O$2:$O$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -1214,6 +1229,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>66.688020499679695</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>67.560664112388253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,10 +1271,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$40</c:f>
+              <c:f>Sheet1!$B$2:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1373,16 +1391,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$40</c:f>
+              <c:f>Sheet1!$P$2:$P$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -1498,6 +1519,9 @@
                   <c:v>64.49704142011835</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>64.49704142011835</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>64.49704142011835</c:v>
                 </c:pt>
               </c:numCache>
@@ -1538,10 +1562,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$40</c:f>
+              <c:f>Sheet1!$B$2:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1658,16 +1682,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$40</c:f>
+              <c:f>Sheet1!$Q$2:$Q$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1783,6 +1810,9 @@
                   <c:v>53.846153846153847</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>53.846153846153847</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>53.846153846153847</c:v>
                 </c:pt>
               </c:numCache>
@@ -1823,10 +1853,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$40</c:f>
+              <c:f>Sheet1!$B$2:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1943,16 +1973,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$40</c:f>
+              <c:f>Sheet1!$R$2:$R$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -2068,6 +2101,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -2323,10 +2359,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2443,16 +2479,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$40</c:f>
+              <c:f>Sheet1!$N$2:$N$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>39.751552795031053</c:v>
                 </c:pt>
@@ -2568,6 +2607,9 @@
                   <c:v>76.92307692307692</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>76.92307692307692</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>76.92307692307692</c:v>
                 </c:pt>
               </c:numCache>
@@ -2597,10 +2639,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2717,16 +2759,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$40</c:f>
+              <c:f>Sheet1!$O$2:$O$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>15.016611295681063</c:v>
                 </c:pt>
@@ -2843,6 +2888,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>66.688020499679695</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>67.560664112388253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2871,10 +2919,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -2991,16 +3039,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$40</c:f>
+              <c:f>Sheet1!$P$2:$P$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>14.285714285714286</c:v>
                 </c:pt>
@@ -3116,6 +3167,9 @@
                   <c:v>64.49704142011835</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>64.49704142011835</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>64.49704142011835</c:v>
                 </c:pt>
               </c:numCache>
@@ -3145,10 +3199,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -3265,16 +3319,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$40</c:f>
+              <c:f>Sheet1!$Q$2:$Q$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3390,6 +3447,9 @@
                   <c:v>53.846153846153847</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>53.846153846153847</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>53.846153846153847</c:v>
                 </c:pt>
               </c:numCache>
@@ -3419,10 +3479,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44054</c:v>
                 </c:pt>
@@ -3539,16 +3599,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$40</c:f>
+              <c:f>Sheet1!$R$2:$R$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>39.71291866028708</c:v>
                 </c:pt>
@@ -3664,6 +3727,9 @@
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>40.375586854460096</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>40.375586854460096</c:v>
                 </c:pt>
               </c:numCache>
@@ -5012,15 +5078,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>436032</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>67736</xdr:rowOff>
+      <xdr:colOff>350307</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>29636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1121832</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>177802</xdr:rowOff>
+      <xdr:colOff>1036107</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139702</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5048,15 +5114,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1104901</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5383,32 +5449,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A4CB9-B2C9-4F6A-BDD3-E5AE50E57391}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5455,7 +5521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44054</v>
       </c>
@@ -5511,7 +5577,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44055</v>
       </c>
@@ -5567,7 +5633,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44056</v>
       </c>
@@ -5623,7 +5689,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44057</v>
       </c>
@@ -5678,7 +5744,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44058</v>
       </c>
@@ -5733,7 +5799,7 @@
         <v>39.71291866028708</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44064</v>
       </c>
@@ -5788,7 +5854,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44069</v>
       </c>
@@ -5843,7 +5909,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44070</v>
       </c>
@@ -5898,7 +5964,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44081</v>
       </c>
@@ -5953,7 +6019,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44082</v>
       </c>
@@ -6008,7 +6074,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44083</v>
       </c>
@@ -6063,7 +6129,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44084</v>
       </c>
@@ -6118,7 +6184,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44085</v>
       </c>
@@ -6173,7 +6239,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44089</v>
       </c>
@@ -6228,7 +6294,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44090</v>
       </c>
@@ -6283,7 +6349,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44091</v>
       </c>
@@ -6338,7 +6404,7 @@
         <v>39.523809523809526</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44097</v>
       </c>
@@ -6393,7 +6459,7 @@
         <v>38.967136150234744</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44098</v>
       </c>
@@ -6448,7 +6514,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44099</v>
       </c>
@@ -6503,7 +6569,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44102</v>
       </c>
@@ -6558,7 +6624,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44103</v>
       </c>
@@ -6613,7 +6679,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44104</v>
       </c>
@@ -6668,7 +6734,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44110</v>
       </c>
@@ -6723,7 +6789,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44113</v>
       </c>
@@ -6778,7 +6844,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44116</v>
       </c>
@@ -6833,7 +6899,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44117</v>
       </c>
@@ -6888,7 +6954,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44118</v>
       </c>
@@ -6943,7 +7009,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44119</v>
       </c>
@@ -6998,7 +7064,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44120</v>
       </c>
@@ -7053,7 +7119,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44123</v>
       </c>
@@ -7108,7 +7174,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44124</v>
       </c>
@@ -7163,7 +7229,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44125</v>
       </c>
@@ -7218,7 +7284,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44126</v>
       </c>
@@ -7273,7 +7339,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44127</v>
       </c>
@@ -7328,7 +7394,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44130</v>
       </c>
@@ -7383,7 +7449,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44131</v>
       </c>
@@ -7438,7 +7504,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44132</v>
       </c>
@@ -7493,7 +7559,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44134</v>
       </c>
@@ -7548,7 +7614,7 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44137</v>
       </c>
@@ -7603,8 +7669,60 @@
         <v>40.375586854460096</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="4"/>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B41" s="4">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>169</v>
+      </c>
+      <c r="E41">
+        <v>130</v>
+      </c>
+      <c r="F41">
+        <v>1566</v>
+      </c>
+      <c r="G41">
+        <v>1058</v>
+      </c>
+      <c r="H41">
+        <v>109</v>
+      </c>
+      <c r="I41">
+        <v>26</v>
+      </c>
+      <c r="J41">
+        <v>14</v>
+      </c>
+      <c r="K41">
+        <v>213</v>
+      </c>
+      <c r="L41">
+        <v>86</v>
+      </c>
+      <c r="N41" s="3">
+        <f t="shared" ref="N41" si="169">100*E41/D41</f>
+        <v>76.92307692307692</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" ref="O41" si="170">100*G41/F41</f>
+        <v>67.560664112388253</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" ref="P41" si="171">100*H41/D41</f>
+        <v>64.49704142011835</v>
+      </c>
+      <c r="Q41" s="3">
+        <f t="shared" ref="Q41" si="172">100*J41/I41</f>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="R41" s="3">
+        <f t="shared" ref="R41" si="173">100*L41/K41</f>
+        <v>40.375586854460096</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7616,20 +7734,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60F2A9E-CB35-4818-B2AA-21716033EEE9}">
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:XFD109"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="6" max="8" width="8" customWidth="1"/>
+    <col min="10" max="17" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -7640,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -7651,7 +7772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -7662,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -7673,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -7684,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -7695,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -7706,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -7717,7 +7838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -7728,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -7739,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -7750,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -7761,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -7772,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -7783,7 +7904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
@@ -7794,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -7805,7 +7926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
@@ -7816,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -7827,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
@@ -7838,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -7849,7 +7970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -7860,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -7871,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -7882,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -7893,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -7904,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -7915,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
@@ -7926,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
@@ -7937,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -7948,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>55</v>
       </c>
@@ -7959,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>56</v>
       </c>
@@ -7970,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
@@ -7981,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
@@ -7992,7 +8113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>60</v>
       </c>
@@ -8003,7 +8124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>61</v>
       </c>
@@ -8014,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>62</v>
       </c>
@@ -8025,7 +8146,